--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\东方\音乐\原曲\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F98BE-853B-4810-95F6-CC2EEA09C61D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D5DBC-F8C9-483B-BF7C-C837C8FE020A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="641">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1987,6 +1981,66 @@
   </si>
   <si>
     <t>娜兹玲</t>
+  </si>
+  <si>
+    <t>东方铃奈庵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判読眼のビブロフィリア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本居小铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识文解意的爱书人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方三月精 ～ Eastern and Little Nature Deity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サニールチルフレクション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sunny Rutile Flection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑尼米尔克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因夜失眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜だから眠れない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露娜切露德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精燦々として</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精灿烂的样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯塔萨菲雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2320,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7495,6 +7549,86 @@
         <v>29710956</v>
       </c>
     </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>627</v>
+      </c>
+      <c r="B259" t="s">
+        <v>626</v>
+      </c>
+      <c r="C259" t="s">
+        <v>630</v>
+      </c>
+      <c r="D259" t="s">
+        <v>628</v>
+      </c>
+      <c r="E259" t="s">
+        <v>629</v>
+      </c>
+      <c r="F259">
+        <v>468513480</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>627</v>
+      </c>
+      <c r="B260" t="s">
+        <v>631</v>
+      </c>
+      <c r="C260" t="s">
+        <v>633</v>
+      </c>
+      <c r="D260" t="s">
+        <v>632</v>
+      </c>
+      <c r="E260" t="s">
+        <v>634</v>
+      </c>
+      <c r="F260">
+        <v>29710940</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>627</v>
+      </c>
+      <c r="B261" t="s">
+        <v>631</v>
+      </c>
+      <c r="C261" t="s">
+        <v>635</v>
+      </c>
+      <c r="D261" t="s">
+        <v>636</v>
+      </c>
+      <c r="E261" t="s">
+        <v>637</v>
+      </c>
+      <c r="F261">
+        <v>29710941</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>627</v>
+      </c>
+      <c r="B262" t="s">
+        <v>631</v>
+      </c>
+      <c r="C262" t="s">
+        <v>639</v>
+      </c>
+      <c r="D262" t="s">
+        <v>638</v>
+      </c>
+      <c r="E262" t="s">
+        <v>640</v>
+      </c>
+      <c r="F262">
+        <v>29710942</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D5DBC-F8C9-483B-BF7C-C837C8FE020A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF234FC-DDAE-49FB-88E9-3C560EFB2C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="642">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,10 +636,6 @@
     <t>ヴワル魔法図書館</t>
   </si>
   <si>
-    <t>帕秋莉·诺蕾姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活泼的纯情小姑娘</t>
   </si>
   <si>
@@ -1210,9 +1206,6 @@
   </si>
   <si>
     <t>冈崎梦美</t>
-  </si>
-  <si>
-    <t>卡娜·安娜贝拉尔</t>
   </si>
   <si>
     <t>Reincarnation</t>
@@ -2015,10 +2008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桑尼米尔克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>因夜失眠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2027,10 +2016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>露娜切露德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>妖精燦々として</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2039,7 +2024,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斯塔萨菲雅</t>
+    <t>小恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡娜·安娜贝拉尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑尼·米尔克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露娜·切露德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯塔·萨菲雅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2376,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2406,24 +2411,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" t="s">
         <v>400</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>401</v>
       </c>
-      <c r="C2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D2" t="s">
-        <v>403</v>
-      </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F2">
         <v>22636836</v>
@@ -2431,19 +2436,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F3">
         <v>22636829</v>
@@ -2451,19 +2456,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F4">
         <v>22636835</v>
@@ -2471,19 +2476,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" t="s">
         <v>408</v>
       </c>
-      <c r="D5" t="s">
-        <v>410</v>
-      </c>
       <c r="E5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F5">
         <v>22636837</v>
@@ -2491,19 +2496,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F6">
         <v>500684336</v>
@@ -2511,19 +2516,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" t="s">
         <v>390</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
         <v>391</v>
-      </c>
-      <c r="C7" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E7" t="s">
-        <v>393</v>
       </c>
       <c r="F7">
         <v>34999157</v>
@@ -2531,19 +2536,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" t="s">
         <v>397</v>
-      </c>
-      <c r="D8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E8" t="s">
-        <v>399</v>
       </c>
       <c r="F8">
         <v>34999158</v>
@@ -2551,16 +2556,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
         <v>198</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
       </c>
       <c r="E9" t="s">
         <v>106</v>
@@ -2571,19 +2576,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F10">
         <v>34999161</v>
@@ -2591,19 +2596,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" t="s">
         <v>391</v>
-      </c>
-      <c r="C11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E11" t="s">
-        <v>393</v>
       </c>
       <c r="F11">
         <v>34999163</v>
@@ -2611,19 +2616,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" t="s">
         <v>375</v>
       </c>
-      <c r="B12" t="s">
-        <v>376</v>
-      </c>
       <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
         <v>244</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>245</v>
-      </c>
-      <c r="E12" t="s">
-        <v>246</v>
       </c>
       <c r="F12">
         <v>22636805</v>
@@ -2631,19 +2636,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" t="s">
         <v>375</v>
       </c>
-      <c r="B13" t="s">
-        <v>376</v>
-      </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F13">
         <v>22636807</v>
@@ -2651,16 +2656,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" t="s">
         <v>375</v>
       </c>
-      <c r="B14" t="s">
-        <v>376</v>
-      </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2671,19 +2676,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" t="s">
         <v>375</v>
       </c>
-      <c r="B15" t="s">
-        <v>376</v>
-      </c>
       <c r="C15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F15">
         <v>22636816</v>
@@ -2691,19 +2696,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" t="s">
         <v>375</v>
       </c>
-      <c r="B16" t="s">
-        <v>376</v>
-      </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F16">
         <v>22636808</v>
@@ -2711,19 +2716,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" t="s">
         <v>375</v>
       </c>
-      <c r="B17" t="s">
-        <v>376</v>
-      </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
+        <v>638</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -2731,19 +2736,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" t="s">
         <v>375</v>
       </c>
-      <c r="B18" t="s">
-        <v>376</v>
-      </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F18">
         <v>22636806</v>
@@ -2751,19 +2756,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" t="s">
         <v>375</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>451</v>
+      </c>
+      <c r="D19" t="s">
+        <v>531</v>
+      </c>
+      <c r="E19" t="s">
         <v>376</v>
-      </c>
-      <c r="C19" t="s">
-        <v>453</v>
-      </c>
-      <c r="D19" t="s">
-        <v>533</v>
-      </c>
-      <c r="E19" t="s">
-        <v>377</v>
       </c>
       <c r="F19">
         <v>22636820</v>
@@ -2771,19 +2776,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" t="s">
         <v>375</v>
       </c>
-      <c r="B20" t="s">
-        <v>376</v>
-      </c>
       <c r="C20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" t="s">
         <v>379</v>
-      </c>
-      <c r="D20" t="s">
-        <v>379</v>
-      </c>
-      <c r="E20" t="s">
-        <v>380</v>
       </c>
       <c r="F20">
         <v>22636811</v>
@@ -2791,19 +2796,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" t="s">
         <v>375</v>
       </c>
-      <c r="B21" t="s">
-        <v>376</v>
-      </c>
       <c r="C21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" t="s">
         <v>382</v>
-      </c>
-      <c r="D21" t="s">
-        <v>454</v>
-      </c>
-      <c r="E21" t="s">
-        <v>383</v>
       </c>
       <c r="F21">
         <v>22636814</v>
@@ -2811,19 +2816,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" t="s">
         <v>367</v>
       </c>
-      <c r="B22" t="s">
-        <v>368</v>
-      </c>
       <c r="C22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F22">
         <v>22636738</v>
@@ -2831,19 +2836,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" t="s">
         <v>367</v>
       </c>
-      <c r="B23" t="s">
-        <v>368</v>
-      </c>
       <c r="C23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F23">
         <v>22636747</v>
@@ -2851,19 +2856,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" t="s">
         <v>367</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>534</v>
+      </c>
+      <c r="D24" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" t="s">
         <v>368</v>
-      </c>
-      <c r="C24" t="s">
-        <v>536</v>
-      </c>
-      <c r="D24" t="s">
-        <v>537</v>
-      </c>
-      <c r="E24" t="s">
-        <v>369</v>
       </c>
       <c r="F24">
         <v>22636741</v>
@@ -2871,16 +2876,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" t="s">
         <v>367</v>
       </c>
-      <c r="B25" t="s">
-        <v>368</v>
-      </c>
       <c r="C25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D25" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2891,19 +2896,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" t="s">
         <v>367</v>
       </c>
-      <c r="B26" t="s">
-        <v>368</v>
-      </c>
       <c r="C26" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D26" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F26">
         <v>22636742</v>
@@ -2911,16 +2916,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="s">
         <v>367</v>
       </c>
-      <c r="B27" t="s">
-        <v>368</v>
-      </c>
       <c r="C27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D27" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -2931,16 +2936,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" t="s">
         <v>367</v>
       </c>
-      <c r="B28" t="s">
-        <v>368</v>
-      </c>
       <c r="C28" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D28" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -2951,19 +2956,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" t="s">
         <v>367</v>
       </c>
-      <c r="B29" t="s">
-        <v>368</v>
-      </c>
       <c r="C29" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D29" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F29">
         <v>22636744</v>
@@ -2971,19 +2976,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" t="s">
         <v>367</v>
       </c>
-      <c r="B30" t="s">
-        <v>368</v>
-      </c>
       <c r="C30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F30">
         <v>22636758</v>
@@ -2991,19 +2996,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" t="s">
         <v>354</v>
       </c>
-      <c r="B31" t="s">
-        <v>355</v>
-      </c>
       <c r="C31" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D31" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F31">
         <v>22636764</v>
@@ -3011,19 +3016,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>353</v>
+      </c>
+      <c r="B32" t="s">
         <v>354</v>
       </c>
-      <c r="B32" t="s">
-        <v>355</v>
-      </c>
       <c r="C32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F32">
         <v>22636763</v>
@@ -3031,19 +3036,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>353</v>
+      </c>
+      <c r="B33" t="s">
         <v>354</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>355</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>356</v>
       </c>
-      <c r="D33" t="s">
-        <v>357</v>
-      </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F33">
         <v>22636767</v>
@@ -3051,19 +3056,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" t="s">
         <v>354</v>
       </c>
-      <c r="B34" t="s">
-        <v>355</v>
-      </c>
       <c r="C34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D34" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F34">
         <v>22636765</v>
@@ -3071,19 +3076,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35" t="s">
         <v>354</v>
       </c>
-      <c r="B35" t="s">
-        <v>355</v>
-      </c>
       <c r="C35" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D35" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F35">
         <v>22636779</v>
@@ -3091,19 +3096,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B36" t="s">
         <v>354</v>
       </c>
-      <c r="B36" t="s">
-        <v>355</v>
-      </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D36" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F36">
         <v>22636770</v>
@@ -3111,19 +3116,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37" t="s">
         <v>354</v>
       </c>
-      <c r="B37" t="s">
-        <v>355</v>
-      </c>
       <c r="C37" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D37" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F37">
         <v>22636768</v>
@@ -3131,19 +3136,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B38" t="s">
         <v>354</v>
       </c>
-      <c r="B38" t="s">
-        <v>355</v>
-      </c>
       <c r="C38" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D38" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F38">
         <v>22636774</v>
@@ -3151,19 +3156,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>353</v>
+      </c>
+      <c r="B39" t="s">
         <v>354</v>
       </c>
-      <c r="B39" t="s">
-        <v>355</v>
-      </c>
       <c r="C39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39" t="s">
         <v>358</v>
       </c>
-      <c r="D39" t="s">
-        <v>359</v>
-      </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F39">
         <v>22636777</v>
@@ -3171,10 +3176,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" t="s">
         <v>354</v>
-      </c>
-      <c r="B40" t="s">
-        <v>355</v>
       </c>
       <c r="C40" t="s">
         <v>185</v>
@@ -3183,7 +3188,7 @@
         <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F40">
         <v>22636772</v>
@@ -3191,19 +3196,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" t="s">
         <v>340</v>
       </c>
-      <c r="B41" t="s">
-        <v>341</v>
-      </c>
       <c r="C41" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" t="s">
+        <v>350</v>
+      </c>
+      <c r="E41" t="s">
         <v>351</v>
-      </c>
-      <c r="D41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E41" t="s">
-        <v>352</v>
       </c>
       <c r="F41">
         <v>22636719</v>
@@ -3211,19 +3216,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" t="s">
         <v>340</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>341</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>342</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>343</v>
-      </c>
-      <c r="E42" t="s">
-        <v>344</v>
       </c>
       <c r="F42">
         <v>22636721</v>
@@ -3231,19 +3236,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" t="s">
         <v>340</v>
       </c>
-      <c r="B43" t="s">
-        <v>341</v>
-      </c>
       <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" t="s">
         <v>195</v>
       </c>
-      <c r="D43" t="s">
-        <v>196</v>
-      </c>
       <c r="E43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F43">
         <v>22636718</v>
@@ -3251,19 +3256,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" t="s">
         <v>340</v>
       </c>
-      <c r="B44" t="s">
-        <v>341</v>
-      </c>
       <c r="C44" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" t="s">
         <v>348</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>349</v>
-      </c>
-      <c r="E44" t="s">
-        <v>350</v>
       </c>
       <c r="F44">
         <v>22636722</v>
@@ -3271,10 +3276,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" t="s">
         <v>340</v>
-      </c>
-      <c r="B45" t="s">
-        <v>341</v>
       </c>
       <c r="C45" t="s">
         <v>192</v>
@@ -3283,7 +3288,7 @@
         <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F45">
         <v>22636724</v>
@@ -3291,19 +3296,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" t="s">
         <v>340</v>
       </c>
-      <c r="B46" t="s">
-        <v>341</v>
-      </c>
       <c r="C46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F46">
         <v>22636720</v>
@@ -3311,19 +3316,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47" t="s">
         <v>340</v>
       </c>
-      <c r="B47" t="s">
-        <v>341</v>
-      </c>
       <c r="C47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D47" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F47">
         <v>22636725</v>
@@ -3331,19 +3336,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>339</v>
+      </c>
+      <c r="B48" t="s">
         <v>340</v>
       </c>
-      <c r="B48" t="s">
-        <v>341</v>
-      </c>
       <c r="C48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" t="s">
         <v>248</v>
       </c>
-      <c r="D48" t="s">
-        <v>249</v>
-      </c>
       <c r="E48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F48">
         <v>22636723</v>
@@ -3351,19 +3356,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49" t="s">
         <v>340</v>
       </c>
-      <c r="B49" t="s">
-        <v>341</v>
-      </c>
       <c r="C49" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" t="s">
         <v>345</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>346</v>
-      </c>
-      <c r="E49" t="s">
-        <v>347</v>
       </c>
       <c r="F49">
         <v>22636729</v>
@@ -3371,19 +3376,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" t="s">
         <v>324</v>
       </c>
-      <c r="B50" t="s">
-        <v>325</v>
-      </c>
       <c r="C50" t="s">
+        <v>331</v>
+      </c>
+      <c r="D50" t="s">
         <v>332</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>333</v>
-      </c>
-      <c r="E50" t="s">
-        <v>334</v>
       </c>
       <c r="F50">
         <v>22636707</v>
@@ -3391,19 +3396,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" t="s">
         <v>324</v>
       </c>
-      <c r="B51" t="s">
-        <v>325</v>
-      </c>
       <c r="C51" t="s">
+        <v>328</v>
+      </c>
+      <c r="D51" t="s">
         <v>329</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>330</v>
-      </c>
-      <c r="E51" t="s">
-        <v>331</v>
       </c>
       <c r="F51">
         <v>22636702</v>
@@ -3411,19 +3416,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" t="s">
         <v>324</v>
       </c>
-      <c r="B52" t="s">
-        <v>325</v>
-      </c>
       <c r="C52" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F52">
         <v>22636711</v>
@@ -3431,19 +3436,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" t="s">
         <v>324</v>
       </c>
-      <c r="B53" t="s">
-        <v>325</v>
-      </c>
       <c r="C53" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" t="s">
         <v>335</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>336</v>
-      </c>
-      <c r="E53" t="s">
-        <v>337</v>
       </c>
       <c r="F53">
         <v>22636703</v>
@@ -3451,19 +3456,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" t="s">
         <v>324</v>
       </c>
-      <c r="B54" t="s">
-        <v>325</v>
-      </c>
       <c r="C54" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D54" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F54">
         <v>22636705</v>
@@ -3471,19 +3476,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55" t="s">
         <v>324</v>
       </c>
-      <c r="B55" t="s">
-        <v>325</v>
-      </c>
       <c r="C55" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D55" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F55">
         <v>22636714</v>
@@ -3491,16 +3496,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" t="s">
         <v>324</v>
       </c>
-      <c r="B56" t="s">
-        <v>325</v>
-      </c>
       <c r="C56" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D56" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E56" t="s">
         <v>176</v>
@@ -3511,16 +3516,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" t="s">
         <v>324</v>
       </c>
-      <c r="B57" t="s">
-        <v>325</v>
-      </c>
       <c r="C57" t="s">
+        <v>337</v>
+      </c>
+      <c r="D57" t="s">
         <v>338</v>
-      </c>
-      <c r="D57" t="s">
-        <v>339</v>
       </c>
       <c r="E57" t="s">
         <v>176</v>
@@ -3531,19 +3536,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>323</v>
+      </c>
+      <c r="B58" t="s">
         <v>324</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>466</v>
+      </c>
+      <c r="D58" t="s">
+        <v>466</v>
+      </c>
+      <c r="E58" t="s">
         <v>325</v>
-      </c>
-      <c r="C58" t="s">
-        <v>468</v>
-      </c>
-      <c r="D58" t="s">
-        <v>468</v>
-      </c>
-      <c r="E58" t="s">
-        <v>326</v>
       </c>
       <c r="F58">
         <v>22636710</v>
@@ -3551,16 +3556,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>323</v>
+      </c>
+      <c r="B59" t="s">
         <v>324</v>
       </c>
-      <c r="B59" t="s">
-        <v>325</v>
-      </c>
       <c r="C59" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" t="s">
         <v>327</v>
-      </c>
-      <c r="D59" t="s">
-        <v>328</v>
       </c>
       <c r="E59" t="s">
         <v>77</v>
@@ -3571,19 +3576,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60" t="s">
         <v>314</v>
       </c>
-      <c r="B60" t="s">
-        <v>315</v>
-      </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F60">
         <v>22765972</v>
@@ -3591,19 +3596,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" t="s">
         <v>314</v>
       </c>
-      <c r="B61" t="s">
-        <v>315</v>
-      </c>
       <c r="C61" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D61" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F61">
         <v>22765996</v>
@@ -3611,16 +3616,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" t="s">
         <v>314</v>
       </c>
-      <c r="B62" t="s">
-        <v>315</v>
-      </c>
       <c r="C62" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" t="s">
         <v>198</v>
-      </c>
-      <c r="D62" t="s">
-        <v>199</v>
       </c>
       <c r="E62" t="s">
         <v>20</v>
@@ -3631,16 +3636,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" t="s">
         <v>314</v>
       </c>
-      <c r="B63" t="s">
-        <v>315</v>
-      </c>
       <c r="C63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" t="s">
         <v>321</v>
-      </c>
-      <c r="D63" t="s">
-        <v>322</v>
       </c>
       <c r="E63" t="s">
         <v>20</v>
@@ -3651,19 +3656,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" t="s">
         <v>314</v>
       </c>
-      <c r="B64" t="s">
-        <v>315</v>
-      </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F64">
         <v>22765976</v>
@@ -3671,19 +3676,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" t="s">
         <v>314</v>
       </c>
-      <c r="B65" t="s">
-        <v>315</v>
-      </c>
       <c r="C65" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D65" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F65">
         <v>22766000</v>
@@ -3691,19 +3696,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" t="s">
         <v>314</v>
       </c>
-      <c r="B66" t="s">
-        <v>315</v>
-      </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F66">
         <v>22765967</v>
@@ -3711,19 +3716,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>313</v>
+      </c>
+      <c r="B67" t="s">
         <v>314</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>315</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>316</v>
       </c>
-      <c r="D67" t="s">
-        <v>317</v>
-      </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F67">
         <v>22765990</v>
@@ -3731,19 +3736,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>313</v>
+      </c>
+      <c r="B68" t="s">
         <v>314</v>
       </c>
-      <c r="B68" t="s">
-        <v>315</v>
-      </c>
       <c r="C68" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D68" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F68">
         <v>22765980</v>
@@ -3751,19 +3756,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" t="s">
         <v>314</v>
-      </c>
-      <c r="B69" t="s">
-        <v>315</v>
       </c>
       <c r="C69" t="s">
         <v>192</v>
       </c>
       <c r="D69" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>636</v>
       </c>
       <c r="F69">
         <v>22766003</v>
@@ -3771,19 +3776,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>313</v>
+      </c>
+      <c r="B70" t="s">
         <v>314</v>
       </c>
-      <c r="B70" t="s">
-        <v>315</v>
-      </c>
       <c r="C70" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D70" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F70">
         <v>22765970</v>
@@ -3791,19 +3796,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71" t="s">
         <v>314</v>
       </c>
-      <c r="B71" t="s">
-        <v>315</v>
-      </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D71" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F71">
         <v>22765994</v>
@@ -3811,19 +3816,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>313</v>
+      </c>
+      <c r="B72" t="s">
         <v>314</v>
       </c>
-      <c r="B72" t="s">
-        <v>315</v>
-      </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D72" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F72">
         <v>22765966</v>
@@ -3831,16 +3836,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73" t="s">
         <v>314</v>
       </c>
-      <c r="B73" t="s">
-        <v>315</v>
-      </c>
       <c r="C73" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D73" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E73" t="s">
         <v>176</v>
@@ -3851,16 +3856,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" t="s">
         <v>314</v>
       </c>
-      <c r="B74" t="s">
-        <v>315</v>
-      </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E74" t="s">
         <v>77</v>
@@ -3871,19 +3876,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>313</v>
+      </c>
+      <c r="B75" t="s">
         <v>314</v>
       </c>
-      <c r="B75" t="s">
-        <v>315</v>
-      </c>
       <c r="C75" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D75" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F75">
         <v>22766006</v>
@@ -3891,19 +3896,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" t="s">
         <v>299</v>
       </c>
-      <c r="B76" t="s">
-        <v>300</v>
-      </c>
       <c r="C76" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D76" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F76">
         <v>22636686</v>
@@ -3911,19 +3916,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" t="s">
         <v>299</v>
       </c>
-      <c r="B77" t="s">
-        <v>300</v>
-      </c>
       <c r="C77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" t="s">
         <v>303</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>304</v>
-      </c>
-      <c r="E77" t="s">
-        <v>305</v>
       </c>
       <c r="F77">
         <v>22636681</v>
@@ -3931,19 +3936,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>298</v>
+      </c>
+      <c r="B78" t="s">
         <v>299</v>
       </c>
-      <c r="B78" t="s">
-        <v>300</v>
-      </c>
       <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
         <v>310</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>311</v>
-      </c>
-      <c r="E78" t="s">
-        <v>312</v>
       </c>
       <c r="F78">
         <v>22636690</v>
@@ -3951,19 +3956,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" t="s">
         <v>299</v>
       </c>
-      <c r="B79" t="s">
-        <v>300</v>
-      </c>
       <c r="C79" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D79" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F79">
         <v>22636684</v>
@@ -3971,10 +3976,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" t="s">
         <v>299</v>
-      </c>
-      <c r="B80" t="s">
-        <v>300</v>
       </c>
       <c r="C80" t="s">
         <v>104</v>
@@ -3991,19 +3996,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" t="s">
         <v>299</v>
       </c>
-      <c r="B81" t="s">
-        <v>300</v>
-      </c>
       <c r="C81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D81" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F81">
         <v>22636693</v>
@@ -4011,19 +4016,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>298</v>
+      </c>
+      <c r="B82" t="s">
         <v>299</v>
       </c>
-      <c r="B82" t="s">
-        <v>300</v>
-      </c>
       <c r="C82" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D82" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F82">
         <v>22636685</v>
@@ -4031,19 +4036,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" t="s">
         <v>299</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>474</v>
+      </c>
+      <c r="D83" t="s">
+        <v>475</v>
+      </c>
+      <c r="E83" t="s">
         <v>300</v>
-      </c>
-      <c r="C83" t="s">
-        <v>476</v>
-      </c>
-      <c r="D83" t="s">
-        <v>477</v>
-      </c>
-      <c r="E83" t="s">
-        <v>301</v>
       </c>
       <c r="F83">
         <v>22636683</v>
@@ -4051,19 +4056,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" t="s">
         <v>299</v>
       </c>
-      <c r="B84" t="s">
-        <v>300</v>
-      </c>
       <c r="C84" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D84" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F84">
         <v>22636695</v>
@@ -4071,19 +4076,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>298</v>
+      </c>
+      <c r="B85" t="s">
         <v>299</v>
       </c>
-      <c r="B85" t="s">
-        <v>300</v>
-      </c>
       <c r="C85" t="s">
+        <v>306</v>
+      </c>
+      <c r="D85" t="s">
         <v>307</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>308</v>
-      </c>
-      <c r="E85" t="s">
-        <v>309</v>
       </c>
       <c r="F85">
         <v>22636689</v>
@@ -4091,19 +4096,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" t="s">
         <v>299</v>
       </c>
-      <c r="B86" t="s">
-        <v>300</v>
-      </c>
       <c r="C86" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D86" t="s">
         <v>99</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F86">
         <v>22636687</v>
@@ -4111,19 +4116,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>282</v>
+      </c>
+      <c r="B87" t="s">
         <v>283</v>
       </c>
-      <c r="B87" t="s">
-        <v>284</v>
-      </c>
       <c r="C87" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D87" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F87">
         <v>510172</v>
@@ -4131,16 +4136,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>282</v>
+      </c>
+      <c r="B88" t="s">
         <v>283</v>
       </c>
-      <c r="B88" t="s">
-        <v>284</v>
-      </c>
       <c r="C88" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" t="s">
         <v>293</v>
-      </c>
-      <c r="D88" t="s">
-        <v>294</v>
       </c>
       <c r="E88" t="s">
         <v>20</v>
@@ -4151,19 +4156,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" t="s">
         <v>283</v>
       </c>
-      <c r="B89" t="s">
-        <v>284</v>
-      </c>
       <c r="C89" t="s">
+        <v>255</v>
+      </c>
+      <c r="D89" t="s">
         <v>256</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>257</v>
-      </c>
-      <c r="E89" t="s">
-        <v>258</v>
       </c>
       <c r="F89">
         <v>510177</v>
@@ -4171,19 +4176,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" t="s">
         <v>283</v>
       </c>
-      <c r="B90" t="s">
-        <v>284</v>
-      </c>
       <c r="C90" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D90" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F90">
         <v>510179</v>
@@ -4191,19 +4196,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>282</v>
+      </c>
+      <c r="B91" t="s">
         <v>283</v>
       </c>
-      <c r="B91" t="s">
-        <v>284</v>
-      </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D91" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F91">
         <v>510182</v>
@@ -4211,19 +4216,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>282</v>
+      </c>
+      <c r="B92" t="s">
         <v>283</v>
       </c>
-      <c r="B92" t="s">
-        <v>284</v>
-      </c>
       <c r="C92" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" t="s">
         <v>289</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>290</v>
-      </c>
-      <c r="E92" t="s">
-        <v>291</v>
       </c>
       <c r="F92">
         <v>510185</v>
@@ -4231,19 +4236,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93" t="s">
         <v>283</v>
       </c>
-      <c r="B93" t="s">
-        <v>284</v>
-      </c>
       <c r="C93" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D93" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F93">
         <v>510188</v>
@@ -4251,19 +4256,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" t="s">
         <v>283</v>
       </c>
-      <c r="B94" t="s">
-        <v>284</v>
-      </c>
       <c r="C94" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D94" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F94">
         <v>510192</v>
@@ -4271,19 +4276,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
         <v>283</v>
       </c>
-      <c r="B95" t="s">
-        <v>284</v>
-      </c>
       <c r="C95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" t="s">
         <v>296</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>297</v>
-      </c>
-      <c r="E95" t="s">
-        <v>298</v>
       </c>
       <c r="F95">
         <v>510196</v>
@@ -4291,19 +4296,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" t="s">
         <v>283</v>
       </c>
-      <c r="B96" t="s">
-        <v>284</v>
-      </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D96" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F96">
         <v>510200</v>
@@ -4311,19 +4316,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" t="s">
         <v>283</v>
       </c>
-      <c r="B97" t="s">
-        <v>284</v>
-      </c>
       <c r="C97" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D97" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F97">
         <v>510204</v>
@@ -4331,19 +4336,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" t="s">
         <v>283</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>483</v>
+      </c>
+      <c r="D98" t="s">
+        <v>484</v>
+      </c>
+      <c r="E98" t="s">
         <v>284</v>
-      </c>
-      <c r="C98" t="s">
-        <v>485</v>
-      </c>
-      <c r="D98" t="s">
-        <v>486</v>
-      </c>
-      <c r="E98" t="s">
-        <v>285</v>
       </c>
       <c r="F98">
         <v>510208</v>
@@ -4351,19 +4356,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>282</v>
+      </c>
+      <c r="B99" t="s">
         <v>283</v>
       </c>
-      <c r="B99" t="s">
-        <v>284</v>
-      </c>
       <c r="C99" t="s">
+        <v>597</v>
+      </c>
+      <c r="D99" t="s">
         <v>599</v>
       </c>
-      <c r="D99" t="s">
-        <v>601</v>
-      </c>
       <c r="E99" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F99">
         <v>510216</v>
@@ -4371,19 +4376,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" t="s">
         <v>283</v>
       </c>
-      <c r="B100" t="s">
-        <v>284</v>
-      </c>
       <c r="C100" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D100" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F100">
         <v>510212</v>
@@ -4391,19 +4396,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" t="s">
         <v>277</v>
       </c>
-      <c r="B101" t="s">
-        <v>278</v>
-      </c>
       <c r="C101" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D101" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F101">
         <v>29710947</v>
@@ -4411,19 +4416,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" t="s">
         <v>277</v>
       </c>
-      <c r="B102" t="s">
-        <v>278</v>
-      </c>
       <c r="C102" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D102" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F102">
         <v>29710948</v>
@@ -4431,19 +4436,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" t="s">
         <v>277</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>278</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>279</v>
       </c>
-      <c r="D103" t="s">
-        <v>280</v>
-      </c>
       <c r="E103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F103">
         <v>29710949</v>
@@ -4451,19 +4456,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" t="s">
         <v>277</v>
       </c>
-      <c r="B104" t="s">
-        <v>278</v>
-      </c>
       <c r="C104" t="s">
+        <v>280</v>
+      </c>
+      <c r="D104" t="s">
         <v>281</v>
       </c>
-      <c r="D104" t="s">
-        <v>282</v>
-      </c>
       <c r="E104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F104">
         <v>29710950</v>
@@ -4471,19 +4476,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" t="s">
         <v>277</v>
       </c>
-      <c r="B105" t="s">
-        <v>278</v>
-      </c>
       <c r="C105" t="s">
+        <v>252</v>
+      </c>
+      <c r="D105" t="s">
         <v>253</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>254</v>
-      </c>
-      <c r="E105" t="s">
-        <v>255</v>
       </c>
       <c r="F105">
         <v>29710952</v>
@@ -4491,19 +4496,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" t="s">
         <v>261</v>
       </c>
-      <c r="B106" t="s">
-        <v>262</v>
-      </c>
       <c r="C106" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D106" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F106">
         <v>22636639</v>
@@ -4511,19 +4516,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>260</v>
+      </c>
+      <c r="B107" t="s">
         <v>261</v>
       </c>
-      <c r="B107" t="s">
-        <v>262</v>
-      </c>
       <c r="C107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" t="s">
         <v>270</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>271</v>
-      </c>
-      <c r="E107" t="s">
-        <v>272</v>
       </c>
       <c r="F107">
         <v>22636649</v>
@@ -4531,19 +4536,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>260</v>
+      </c>
+      <c r="B108" t="s">
         <v>261</v>
       </c>
-      <c r="B108" t="s">
-        <v>262</v>
-      </c>
       <c r="C108" t="s">
+        <v>265</v>
+      </c>
+      <c r="D108" t="s">
         <v>266</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>267</v>
-      </c>
-      <c r="E108" t="s">
-        <v>268</v>
       </c>
       <c r="F108">
         <v>22636644</v>
@@ -4551,19 +4556,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" t="s">
         <v>261</v>
       </c>
-      <c r="B109" t="s">
-        <v>262</v>
-      </c>
       <c r="C109" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D109" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F109">
         <v>22636653</v>
@@ -4571,19 +4576,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>260</v>
+      </c>
+      <c r="B110" t="s">
         <v>261</v>
       </c>
-      <c r="B110" t="s">
-        <v>262</v>
-      </c>
       <c r="C110" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D110" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F110">
         <v>22636645</v>
@@ -4591,19 +4596,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>260</v>
+      </c>
+      <c r="B111" t="s">
         <v>261</v>
       </c>
-      <c r="B111" t="s">
-        <v>262</v>
-      </c>
       <c r="C111" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D111" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F111">
         <v>22636647</v>
@@ -4611,10 +4616,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" t="s">
         <v>261</v>
-      </c>
-      <c r="B112" t="s">
-        <v>262</v>
       </c>
       <c r="C112" t="s">
         <v>187</v>
@@ -4623,7 +4628,7 @@
         <v>188</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F112">
         <v>22636655</v>
@@ -4631,19 +4636,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" t="s">
         <v>261</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>494</v>
+      </c>
+      <c r="D113" t="s">
+        <v>495</v>
+      </c>
+      <c r="E113" t="s">
         <v>262</v>
-      </c>
-      <c r="C113" t="s">
-        <v>496</v>
-      </c>
-      <c r="D113" t="s">
-        <v>497</v>
-      </c>
-      <c r="E113" t="s">
-        <v>263</v>
       </c>
       <c r="F113">
         <v>22636651</v>
@@ -4651,19 +4656,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>260</v>
+      </c>
+      <c r="B114" t="s">
         <v>261</v>
       </c>
-      <c r="B114" t="s">
-        <v>262</v>
-      </c>
       <c r="C114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D114" t="s">
         <v>274</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>275</v>
-      </c>
-      <c r="E114" t="s">
-        <v>276</v>
       </c>
       <c r="F114">
         <v>22636656</v>
@@ -4671,19 +4676,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" t="s">
         <v>239</v>
       </c>
-      <c r="B115" t="s">
-        <v>240</v>
-      </c>
       <c r="C115" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D115" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F115">
         <v>22765926</v>
@@ -4691,16 +4696,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
         <v>239</v>
       </c>
-      <c r="B116" t="s">
-        <v>240</v>
-      </c>
       <c r="C116" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D116" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E116" t="s">
         <v>78</v>
@@ -4711,19 +4716,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
         <v>239</v>
       </c>
-      <c r="B117" t="s">
-        <v>240</v>
-      </c>
       <c r="C117" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" t="s">
         <v>244</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>245</v>
-      </c>
-      <c r="E117" t="s">
-        <v>246</v>
       </c>
       <c r="F117">
         <v>22765905</v>
@@ -4731,16 +4736,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" t="s">
         <v>239</v>
       </c>
-      <c r="B118" t="s">
-        <v>240</v>
-      </c>
       <c r="C118" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D118" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E118" t="s">
         <v>20</v>
@@ -4751,19 +4756,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" t="s">
         <v>239</v>
       </c>
-      <c r="B119" t="s">
-        <v>240</v>
-      </c>
       <c r="C119" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" t="s">
         <v>256</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>257</v>
-      </c>
-      <c r="E119" t="s">
-        <v>258</v>
       </c>
       <c r="F119">
         <v>22765910</v>
@@ -4771,19 +4776,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
         <v>239</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>240</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>241</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>242</v>
-      </c>
-      <c r="E120" t="s">
-        <v>243</v>
       </c>
       <c r="F120">
         <v>22765909</v>
@@ -4791,19 +4796,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
         <v>239</v>
       </c>
-      <c r="B121" t="s">
-        <v>240</v>
-      </c>
       <c r="C121" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D121" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F121">
         <v>22765906</v>
@@ -4811,19 +4816,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" t="s">
         <v>239</v>
       </c>
-      <c r="B122" t="s">
-        <v>240</v>
-      </c>
       <c r="C122" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D122" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F122">
         <v>22765921</v>
@@ -4831,16 +4836,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" t="s">
         <v>239</v>
       </c>
-      <c r="B123" t="s">
-        <v>240</v>
-      </c>
       <c r="C123" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D123" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E123" t="s">
         <v>176</v>
@@ -4851,19 +4856,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" t="s">
         <v>239</v>
       </c>
-      <c r="B124" t="s">
-        <v>240</v>
-      </c>
       <c r="C124" t="s">
+        <v>247</v>
+      </c>
+      <c r="D124" t="s">
         <v>248</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>249</v>
-      </c>
-      <c r="E124" t="s">
-        <v>250</v>
       </c>
       <c r="F124">
         <v>22765912</v>
@@ -4871,19 +4876,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" t="s">
         <v>239</v>
       </c>
-      <c r="B125" t="s">
-        <v>240</v>
-      </c>
       <c r="C125" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D125" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F125">
         <v>22765916</v>
@@ -4891,19 +4896,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" t="s">
         <v>239</v>
       </c>
-      <c r="B126" t="s">
-        <v>240</v>
-      </c>
       <c r="C126" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" t="s">
         <v>253</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>254</v>
-      </c>
-      <c r="E126" t="s">
-        <v>255</v>
       </c>
       <c r="F126">
         <v>22765915</v>
@@ -4911,19 +4916,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" t="s">
         <v>239</v>
       </c>
-      <c r="B127" t="s">
-        <v>240</v>
-      </c>
       <c r="C127" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D127" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F127">
         <v>22765911</v>
@@ -4931,19 +4936,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
         <v>220</v>
       </c>
-      <c r="B128" t="s">
-        <v>221</v>
-      </c>
       <c r="C128" t="s">
+        <v>229</v>
+      </c>
+      <c r="D128" t="s">
         <v>230</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>231</v>
-      </c>
-      <c r="E128" t="s">
-        <v>232</v>
       </c>
       <c r="F128">
         <v>22636622</v>
@@ -4951,19 +4956,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129" t="s">
         <v>220</v>
       </c>
-      <c r="B129" t="s">
-        <v>221</v>
-      </c>
       <c r="C129" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" t="s">
         <v>226</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>227</v>
-      </c>
-      <c r="E129" t="s">
-        <v>228</v>
       </c>
       <c r="F129">
         <v>22636624</v>
@@ -4971,19 +4976,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" t="s">
         <v>220</v>
       </c>
-      <c r="B130" t="s">
-        <v>221</v>
-      </c>
       <c r="C130" t="s">
+        <v>232</v>
+      </c>
+      <c r="D130" t="s">
         <v>233</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>234</v>
-      </c>
-      <c r="E130" t="s">
-        <v>235</v>
       </c>
       <c r="F130">
         <v>22636633</v>
@@ -4991,19 +4996,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" t="s">
         <v>220</v>
       </c>
-      <c r="B131" t="s">
-        <v>221</v>
-      </c>
       <c r="C131" t="s">
+        <v>235</v>
+      </c>
+      <c r="D131" t="s">
         <v>236</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>237</v>
-      </c>
-      <c r="E131" t="s">
-        <v>238</v>
       </c>
       <c r="F131">
         <v>22636627</v>
@@ -5011,19 +5016,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" t="s">
         <v>220</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>221</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>222</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>223</v>
-      </c>
-      <c r="E132" t="s">
-        <v>224</v>
       </c>
       <c r="F132">
         <v>22636636</v>
@@ -5031,19 +5036,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" t="s">
         <v>220</v>
       </c>
-      <c r="B133" t="s">
-        <v>221</v>
-      </c>
       <c r="C133" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D133" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E133" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F133">
         <v>22636631</v>
@@ -5051,19 +5056,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" t="s">
         <v>220</v>
       </c>
-      <c r="B134" t="s">
-        <v>221</v>
-      </c>
       <c r="C134" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D134" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E134" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F134">
         <v>22636637</v>
@@ -5071,10 +5076,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" t="s">
         <v>220</v>
-      </c>
-      <c r="B135" t="s">
-        <v>221</v>
       </c>
       <c r="C135" t="s">
         <v>89</v>
@@ -5083,7 +5088,7 @@
         <v>90</v>
       </c>
       <c r="E135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F135">
         <v>22636634</v>
@@ -5091,19 +5096,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>201</v>
+      </c>
+      <c r="B136" t="s">
         <v>202</v>
       </c>
-      <c r="B136" t="s">
-        <v>203</v>
-      </c>
       <c r="C136" t="s">
+        <v>212</v>
+      </c>
+      <c r="D136" t="s">
         <v>213</v>
       </c>
-      <c r="D136" t="s">
-        <v>214</v>
-      </c>
       <c r="E136" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F136">
         <v>22636613</v>
@@ -5111,19 +5116,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>201</v>
+      </c>
+      <c r="B137" t="s">
         <v>202</v>
       </c>
-      <c r="B137" t="s">
-        <v>203</v>
-      </c>
       <c r="C137" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" t="s">
         <v>207</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>208</v>
-      </c>
-      <c r="E137" t="s">
-        <v>209</v>
       </c>
       <c r="F137">
         <v>22636608</v>
@@ -5131,10 +5136,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" t="s">
         <v>202</v>
-      </c>
-      <c r="B138" t="s">
-        <v>203</v>
       </c>
       <c r="C138" t="s">
         <v>109</v>
@@ -5143,7 +5148,7 @@
         <v>110</v>
       </c>
       <c r="E138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F138">
         <v>22636617</v>
@@ -5151,19 +5156,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>201</v>
+      </c>
+      <c r="B139" t="s">
         <v>202</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>203</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>204</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>205</v>
-      </c>
-      <c r="E139" t="s">
-        <v>206</v>
       </c>
       <c r="F139">
         <v>22636611</v>
@@ -5171,19 +5176,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140" t="s">
         <v>202</v>
       </c>
-      <c r="B140" t="s">
-        <v>203</v>
-      </c>
       <c r="C140" t="s">
+        <v>215</v>
+      </c>
+      <c r="D140" t="s">
         <v>216</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>217</v>
-      </c>
-      <c r="E140" t="s">
-        <v>218</v>
       </c>
       <c r="F140">
         <v>22636619</v>
@@ -5191,19 +5196,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>201</v>
+      </c>
+      <c r="B141" t="s">
         <v>202</v>
       </c>
-      <c r="B141" t="s">
-        <v>203</v>
-      </c>
       <c r="C141" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D141" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F141">
         <v>22636615</v>
@@ -5211,19 +5216,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142" t="s">
         <v>202</v>
       </c>
-      <c r="B142" t="s">
-        <v>203</v>
-      </c>
       <c r="C142" t="s">
+        <v>209</v>
+      </c>
+      <c r="D142" t="s">
         <v>210</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>211</v>
-      </c>
-      <c r="E142" t="s">
-        <v>212</v>
       </c>
       <c r="F142">
         <v>22636620</v>
@@ -5240,7 +5245,7 @@
         <v>187</v>
       </c>
       <c r="D143" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E143" t="s">
         <v>189</v>
@@ -5257,13 +5262,13 @@
         <v>184</v>
       </c>
       <c r="C144" t="s">
+        <v>194</v>
+      </c>
+      <c r="D144" t="s">
         <v>195</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>196</v>
-      </c>
-      <c r="E144" t="s">
-        <v>197</v>
       </c>
       <c r="F144">
         <v>851012</v>
@@ -5277,10 +5282,10 @@
         <v>184</v>
       </c>
       <c r="C145" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D145" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E145" t="s">
         <v>190</v>
@@ -5297,10 +5302,10 @@
         <v>184</v>
       </c>
       <c r="C146" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D146" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E146" t="s">
         <v>191</v>
@@ -5317,13 +5322,13 @@
         <v>184</v>
       </c>
       <c r="C147" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D147" t="s">
+        <v>199</v>
+      </c>
+      <c r="E147" t="s">
         <v>200</v>
-      </c>
-      <c r="E147" t="s">
-        <v>201</v>
       </c>
       <c r="F147">
         <v>851022</v>
@@ -5337,10 +5342,10 @@
         <v>184</v>
       </c>
       <c r="C148" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D148" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
@@ -5357,10 +5362,10 @@
         <v>184</v>
       </c>
       <c r="C149" t="s">
+        <v>197</v>
+      </c>
+      <c r="D149" t="s">
         <v>198</v>
-      </c>
-      <c r="D149" t="s">
-        <v>199</v>
       </c>
       <c r="E149" t="s">
         <v>106</v>
@@ -5400,10 +5405,10 @@
         <v>192</v>
       </c>
       <c r="D151" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E151" t="s">
-        <v>194</v>
+        <v>637</v>
       </c>
       <c r="F151">
         <v>851044</v>
@@ -5417,10 +5422,10 @@
         <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D152" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E152" t="s">
         <v>182</v>
@@ -5617,10 +5622,10 @@
         <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D162" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
@@ -5677,10 +5682,10 @@
         <v>153</v>
       </c>
       <c r="C165" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D165" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E165" t="s">
         <v>98</v>
@@ -5720,7 +5725,7 @@
         <v>161</v>
       </c>
       <c r="D167" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E167" t="s">
         <v>88</v>
@@ -5737,10 +5742,10 @@
         <v>153</v>
       </c>
       <c r="C168" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D168" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E168" t="s">
         <v>92</v>
@@ -5780,7 +5785,7 @@
         <v>154</v>
       </c>
       <c r="D170" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E170" t="s">
         <v>87</v>
@@ -5937,10 +5942,10 @@
         <v>134</v>
       </c>
       <c r="C178" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D178" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E178" t="s">
         <v>151</v>
@@ -5957,10 +5962,10 @@
         <v>134</v>
       </c>
       <c r="C179" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D179" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E179" t="s">
         <v>147</v>
@@ -5977,10 +5982,10 @@
         <v>132</v>
       </c>
       <c r="C180" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D180" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
@@ -6037,10 +6042,10 @@
         <v>132</v>
       </c>
       <c r="C183" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D183" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E183" t="s">
         <v>98</v>
@@ -6080,7 +6085,7 @@
         <v>161</v>
       </c>
       <c r="D185" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E185" t="s">
         <v>88</v>
@@ -6097,10 +6102,10 @@
         <v>132</v>
       </c>
       <c r="C186" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D186" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E186" t="s">
         <v>92</v>
@@ -6177,7 +6182,7 @@
         <v>132</v>
       </c>
       <c r="C190" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D190" t="s">
         <v>99</v>
@@ -6197,10 +6202,10 @@
         <v>132</v>
       </c>
       <c r="C191" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D191" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E191" t="s">
         <v>97</v>
@@ -6237,10 +6242,10 @@
         <v>132</v>
       </c>
       <c r="C193" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D193" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E193" t="s">
         <v>50</v>
@@ -6357,10 +6362,10 @@
         <v>113</v>
       </c>
       <c r="C199" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D199" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E199" t="s">
         <v>114</v>
@@ -6397,10 +6402,10 @@
         <v>76</v>
       </c>
       <c r="C201" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D201" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
@@ -6457,10 +6462,10 @@
         <v>76</v>
       </c>
       <c r="C204" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D204" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E204" t="s">
         <v>98</v>
@@ -6500,7 +6505,7 @@
         <v>161</v>
       </c>
       <c r="D206" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E206" t="s">
         <v>88</v>
@@ -6517,10 +6522,10 @@
         <v>76</v>
       </c>
       <c r="C207" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D207" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E207" t="s">
         <v>92</v>
@@ -6577,7 +6582,7 @@
         <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D210" t="s">
         <v>99</v>
@@ -6597,10 +6602,10 @@
         <v>76</v>
       </c>
       <c r="C211" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D211" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E211" t="s">
         <v>97</v>
@@ -6640,7 +6645,7 @@
         <v>108</v>
       </c>
       <c r="D213" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E213" t="s">
         <v>50</v>
@@ -6657,10 +6662,10 @@
         <v>76</v>
       </c>
       <c r="C214" t="s">
+        <v>442</v>
+      </c>
+      <c r="D214" t="s">
         <v>444</v>
-      </c>
-      <c r="D214" t="s">
-        <v>446</v>
       </c>
       <c r="E214" t="s">
         <v>93</v>
@@ -6697,10 +6702,10 @@
         <v>76</v>
       </c>
       <c r="C216" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D216" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E216" t="s">
         <v>78</v>
@@ -6717,10 +6722,10 @@
         <v>76</v>
       </c>
       <c r="C217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D217" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E217" t="s">
         <v>77</v>
@@ -6737,10 +6742,10 @@
         <v>76</v>
       </c>
       <c r="C218" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D218" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E218" t="s">
         <v>77</v>
@@ -6757,10 +6762,10 @@
         <v>76</v>
       </c>
       <c r="C219" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D219" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E219" t="s">
         <v>107</v>
@@ -6897,10 +6902,10 @@
         <v>56</v>
       </c>
       <c r="C226" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D226" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E226" t="s">
         <v>71</v>
@@ -7037,10 +7042,10 @@
         <v>30</v>
       </c>
       <c r="C233" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D233" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E233" t="s">
         <v>31</v>
@@ -7077,10 +7082,10 @@
         <v>30</v>
       </c>
       <c r="C235" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D235" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E235" t="s">
         <v>45</v>
@@ -7097,10 +7102,10 @@
         <v>30</v>
       </c>
       <c r="C236" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D236" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E236" t="s">
         <v>32</v>
@@ -7111,7 +7116,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -7131,7 +7136,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -7151,7 +7156,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -7171,16 +7176,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D240" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E240" t="s">
         <v>13</v>
@@ -7191,7 +7196,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -7211,16 +7216,16 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D242" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E242" t="s">
         <v>20</v>
@@ -7231,16 +7236,16 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D243" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E243" t="s">
         <v>9</v>
@@ -7251,16 +7256,16 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B244" t="s">
         <v>21</v>
       </c>
       <c r="C244" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D244" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E244" t="s">
         <v>22</v>
@@ -7271,7 +7276,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B245" t="s">
         <v>21</v>
@@ -7291,16 +7296,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B246" t="s">
         <v>21</v>
       </c>
       <c r="C246" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D246" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E246" t="s">
         <v>19</v>
@@ -7311,16 +7316,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B247" t="s">
         <v>21</v>
       </c>
       <c r="C247" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D247" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E247" t="s">
         <v>16</v>
@@ -7331,7 +7336,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B248" t="s">
         <v>21</v>
@@ -7351,16 +7356,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B249" t="s">
         <v>21</v>
       </c>
       <c r="C249" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D249" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E249" t="s">
         <v>8</v>
@@ -7371,16 +7376,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B250" t="s">
         <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D250" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E250" t="s">
         <v>23</v>
@@ -7391,16 +7396,16 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B251" t="s">
         <v>21</v>
       </c>
       <c r="C251" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D251" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E251" t="s">
         <v>28</v>
@@ -7411,16 +7416,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B252" t="s">
         <v>21</v>
       </c>
       <c r="C252" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D252" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E252" t="s">
         <v>27</v>
@@ -7431,19 +7436,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B253" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C253" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D253" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E253" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F253" s="1">
         <v>29715585</v>
@@ -7451,19 +7456,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B254" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C254" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D254" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E254" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F254" s="1">
         <v>29715586</v>
@@ -7471,19 +7476,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B255" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C255" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D255" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E255" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F255">
         <v>29715587</v>
@@ -7494,16 +7499,16 @@
         <v>180</v>
       </c>
       <c r="B256" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C256" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D256" t="s">
+        <v>608</v>
+      </c>
+      <c r="E256" t="s">
         <v>610</v>
-      </c>
-      <c r="E256" t="s">
-        <v>612</v>
       </c>
       <c r="F256">
         <v>29715588</v>
@@ -7511,19 +7516,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B257" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C257" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D257" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E257" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F257">
         <v>29715589</v>
@@ -7531,19 +7536,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>618</v>
+      </c>
+      <c r="B258" t="s">
+        <v>619</v>
+      </c>
+      <c r="C258" t="s">
+        <v>621</v>
+      </c>
+      <c r="D258" t="s">
         <v>620</v>
       </c>
-      <c r="B258" t="s">
-        <v>621</v>
-      </c>
-      <c r="C258" t="s">
-        <v>623</v>
-      </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>622</v>
-      </c>
-      <c r="E258" t="s">
-        <v>624</v>
       </c>
       <c r="F258">
         <v>29710956</v>
@@ -7551,19 +7556,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>625</v>
+      </c>
+      <c r="B259" t="s">
+        <v>624</v>
+      </c>
+      <c r="C259" t="s">
+        <v>628</v>
+      </c>
+      <c r="D259" t="s">
+        <v>626</v>
+      </c>
+      <c r="E259" t="s">
         <v>627</v>
-      </c>
-      <c r="B259" t="s">
-        <v>626</v>
-      </c>
-      <c r="C259" t="s">
-        <v>630</v>
-      </c>
-      <c r="D259" t="s">
-        <v>628</v>
-      </c>
-      <c r="E259" t="s">
-        <v>629</v>
       </c>
       <c r="F259">
         <v>468513480</v>
@@ -7571,19 +7576,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B260" t="s">
+        <v>629</v>
+      </c>
+      <c r="C260" t="s">
         <v>631</v>
       </c>
-      <c r="C260" t="s">
-        <v>633</v>
-      </c>
       <c r="D260" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E260" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="F260">
         <v>29710940</v>
@@ -7591,19 +7596,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B261" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C261" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D261" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E261" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F261">
         <v>29710941</v>
@@ -7611,19 +7616,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B262" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C262" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D262" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E262" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F262">
         <v>29710942</v>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF234FC-DDAE-49FB-88E9-3C560EFB2C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A50439C-1FDD-463A-AB2E-7CCC54A6D26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1996,10 +1996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东方三月精 ～ Eastern and Little Nature Deity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>サニールチルフレクション</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2045,6 +2041,10 @@
   </si>
   <si>
     <t>斯塔·萨菲雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方三月精</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2381,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="E258" sqref="E258"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2728,7 +2728,7 @@
         <v>448</v>
       </c>
       <c r="E17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -3768,7 +3768,7 @@
         <v>560</v>
       </c>
       <c r="E69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F69">
         <v>22766003</v>
@@ -5408,7 +5408,7 @@
         <v>560</v>
       </c>
       <c r="E151" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F151">
         <v>851044</v>
@@ -7579,16 +7579,16 @@
         <v>625</v>
       </c>
       <c r="B260" t="s">
+        <v>641</v>
+      </c>
+      <c r="C260" t="s">
+        <v>630</v>
+      </c>
+      <c r="D260" t="s">
         <v>629</v>
       </c>
-      <c r="C260" t="s">
-        <v>631</v>
-      </c>
-      <c r="D260" t="s">
-        <v>630</v>
-      </c>
       <c r="E260" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F260">
         <v>29710940</v>
@@ -7599,16 +7599,16 @@
         <v>625</v>
       </c>
       <c r="B261" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="C261" t="s">
+        <v>631</v>
+      </c>
+      <c r="D261" t="s">
         <v>632</v>
       </c>
-      <c r="D261" t="s">
-        <v>633</v>
-      </c>
       <c r="E261" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F261">
         <v>29710941</v>
@@ -7619,16 +7619,16 @@
         <v>625</v>
       </c>
       <c r="B262" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="C262" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D262" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E262" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F262">
         <v>29710942</v>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A50439C-1FDD-463A-AB2E-7CCC54A6D26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39524C-FFA7-482B-8AC8-74552BC86FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="656">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1945,106 +1945,163 @@
     <t>无间之钟　～ Infinite Nightmare</t>
   </si>
   <si>
+    <t>射命丸文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰猫燐</t>
+  </si>
+  <si>
+    <t>设定集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方求闻史记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿礼の子供</t>
+  </si>
+  <si>
+    <t>阿礼的孩子</t>
+  </si>
+  <si>
+    <t>稗田阿求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜兹玲</t>
+  </si>
+  <si>
+    <t>东方铃奈庵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判読眼のビブロフィリア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本居小铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识文解意的爱书人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サニールチルフレクション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sunny Rutile Flection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因夜失眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜だから眠れない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精燦々として</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精灿烂的样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡娜·安娜贝拉尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑尼·米尔克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露娜·切露德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯塔·萨菲雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方三月精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方儚月抄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綿月のスペルカード ～Lunatic Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>妖怪之山　～ Mysterious Mountain</t>
-  </si>
-  <si>
-    <t>射命丸文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰猫燐</t>
-  </si>
-  <si>
-    <t>设定集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方求闻史记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿礼の子供</t>
-  </si>
-  <si>
-    <t>阿礼的孩子</t>
-  </si>
-  <si>
-    <t>稗田阿求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娜兹玲</t>
-  </si>
-  <si>
-    <t>东方铃奈庵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判読眼のビブロフィリア</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本居小铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识文解意的爱书人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>サニールチルフレクション</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sunny Rutile Flection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因夜失眠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜だから眠れない</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖精燦々として</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖精灿烂的样子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小恶魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小恶魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡娜·安娜贝拉尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桑尼·米尔克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>露娜·切露德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯塔·萨菲雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方三月精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绵月的符卡　～ Lunatic Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绵月丰姬&amp;绵月依姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空的格林尼治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空のグリニッジ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大空魔术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇佐见莲子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓮台野夜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔術師メリー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术师梅莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛艾露贝莉·赫恩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2379,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2728,7 +2785,7 @@
         <v>448</v>
       </c>
       <c r="E17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -3768,7 +3825,7 @@
         <v>560</v>
       </c>
       <c r="E69" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F69">
         <v>22766003</v>
@@ -5048,7 +5105,7 @@
         <v>581</v>
       </c>
       <c r="E133" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F133">
         <v>22636631</v>
@@ -5108,7 +5165,7 @@
         <v>213</v>
       </c>
       <c r="E136" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F136">
         <v>22636613</v>
@@ -5408,7 +5465,7 @@
         <v>560</v>
       </c>
       <c r="E151" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F151">
         <v>851044</v>
@@ -7522,13 +7579,13 @@
         <v>601</v>
       </c>
       <c r="C257" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="D257" t="s">
         <v>609</v>
       </c>
       <c r="E257" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F257">
         <v>29715589</v>
@@ -7536,19 +7593,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>617</v>
+      </c>
+      <c r="B258" t="s">
         <v>618</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
+        <v>620</v>
+      </c>
+      <c r="D258" t="s">
         <v>619</v>
       </c>
-      <c r="C258" t="s">
+      <c r="E258" t="s">
         <v>621</v>
-      </c>
-      <c r="D258" t="s">
-        <v>620</v>
-      </c>
-      <c r="E258" t="s">
-        <v>622</v>
       </c>
       <c r="F258">
         <v>29710956</v>
@@ -7556,19 +7613,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>624</v>
+      </c>
+      <c r="B259" t="s">
+        <v>623</v>
+      </c>
+      <c r="C259" t="s">
+        <v>627</v>
+      </c>
+      <c r="D259" t="s">
         <v>625</v>
       </c>
-      <c r="B259" t="s">
-        <v>624</v>
-      </c>
-      <c r="C259" t="s">
-        <v>628</v>
-      </c>
-      <c r="D259" t="s">
+      <c r="E259" t="s">
         <v>626</v>
-      </c>
-      <c r="E259" t="s">
-        <v>627</v>
       </c>
       <c r="F259">
         <v>468513480</v>
@@ -7576,19 +7633,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B260" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C260" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D260" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E260" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F260">
         <v>29710940</v>
@@ -7596,19 +7653,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B261" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C261" t="s">
+        <v>630</v>
+      </c>
+      <c r="D261" t="s">
         <v>631</v>
       </c>
-      <c r="D261" t="s">
-        <v>632</v>
-      </c>
       <c r="E261" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F261">
         <v>29710941</v>
@@ -7616,22 +7673,82 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B262" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C262" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D262" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E262" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F262">
         <v>29710942</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>641</v>
+      </c>
+      <c r="B263" t="s">
+        <v>642</v>
+      </c>
+      <c r="C263" t="s">
+        <v>645</v>
+      </c>
+      <c r="D263" t="s">
+        <v>643</v>
+      </c>
+      <c r="E263" t="s">
+        <v>646</v>
+      </c>
+      <c r="F263">
+        <v>29710959</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>647</v>
+      </c>
+      <c r="B264" t="s">
+        <v>650</v>
+      </c>
+      <c r="C264" t="s">
+        <v>648</v>
+      </c>
+      <c r="D264" t="s">
+        <v>649</v>
+      </c>
+      <c r="E264" t="s">
+        <v>651</v>
+      </c>
+      <c r="F264">
+        <v>22765949</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>647</v>
+      </c>
+      <c r="B265" t="s">
+        <v>652</v>
+      </c>
+      <c r="C265" t="s">
+        <v>653</v>
+      </c>
+      <c r="D265" t="s">
+        <v>654</v>
+      </c>
+      <c r="E265" t="s">
+        <v>655</v>
+      </c>
+      <c r="F265">
+        <v>22766029</v>
       </c>
     </row>
   </sheetData>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39524C-FFA7-482B-8AC8-74552BC86FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AECA3D7-CB40-44FE-B7CC-65F85DE5AB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$253</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="671">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1905,15 +1905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TH12.6</t>
-  </si>
-  <si>
-    <t>TH12.7</t>
-  </si>
-  <si>
-    <t>TH12.9</t>
-  </si>
-  <si>
     <t>あなたの町の怪事件</t>
   </si>
   <si>
@@ -2103,6 +2094,75 @@
   <si>
     <t>玛艾露贝莉·赫恩</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH12.5</t>
+  </si>
+  <si>
+    <t>ニュースハウンド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newshound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH14.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕天邪鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反則の狼煙を上げろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃起犯规的狼烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可能弾幕には反則を</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以犯规对不可能的弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミッドナイトスペルカード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midnight Spell Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロマンチック逃飛行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫逃飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永遠の三日天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永远的三日天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼人正邪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪夢日記</t>
+  </si>
+  <si>
+    <t>噩梦日记</t>
   </si>
 </sst>
 </file>
@@ -2436,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2785,7 +2845,7 @@
         <v>448</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -3825,7 +3885,7 @@
         <v>560</v>
       </c>
       <c r="E69" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F69">
         <v>22766003</v>
@@ -5105,7 +5165,7 @@
         <v>581</v>
       </c>
       <c r="E133" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F133">
         <v>22636631</v>
@@ -5165,7 +5225,7 @@
         <v>213</v>
       </c>
       <c r="E136" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F136">
         <v>22636613</v>
@@ -5465,7 +5525,7 @@
         <v>560</v>
       </c>
       <c r="E151" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F151">
         <v>851044</v>
@@ -6979,16 +7039,16 @@
         <v>47</v>
       </c>
       <c r="C227" t="s">
-        <v>48</v>
-      </c>
-      <c r="D227" t="s">
-        <v>49</v>
+        <v>669</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="E227" t="s">
         <v>50</v>
       </c>
       <c r="F227">
-        <v>1300423634</v>
+        <v>1300452648</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,16 +7059,16 @@
         <v>47</v>
       </c>
       <c r="C228" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D228" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E228" t="s">
         <v>50</v>
       </c>
       <c r="F228">
-        <v>1300452649</v>
+        <v>1300423634</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -7019,36 +7079,36 @@
         <v>47</v>
       </c>
       <c r="C229" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E229" t="s">
         <v>50</v>
       </c>
       <c r="F229">
-        <v>1300595620</v>
+        <v>1300452649</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B230" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D230" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E230" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F230">
-        <v>1381562764</v>
+        <v>1300595620</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,16 +7119,16 @@
         <v>30</v>
       </c>
       <c r="C231" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D231" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E231" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F231">
-        <v>1381564337</v>
+        <v>1381562764</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7079,16 +7139,16 @@
         <v>30</v>
       </c>
       <c r="C232" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D232" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F232">
-        <v>1381562765</v>
+        <v>1381564337</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7099,16 +7159,16 @@
         <v>30</v>
       </c>
       <c r="C233" t="s">
-        <v>508</v>
+        <v>39</v>
       </c>
       <c r="D233" t="s">
-        <v>509</v>
+        <v>40</v>
       </c>
       <c r="E233" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F233">
-        <v>1384324154</v>
+        <v>1381562765</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,16 +7179,16 @@
         <v>30</v>
       </c>
       <c r="C234" t="s">
-        <v>42</v>
+        <v>508</v>
       </c>
       <c r="D234" t="s">
-        <v>43</v>
+        <v>509</v>
       </c>
       <c r="E234" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F234">
-        <v>1384324156</v>
+        <v>1384324154</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -7139,16 +7199,16 @@
         <v>30</v>
       </c>
       <c r="C235" t="s">
-        <v>510</v>
+        <v>42</v>
       </c>
       <c r="D235" t="s">
-        <v>511</v>
+        <v>43</v>
       </c>
       <c r="E235" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F235">
-        <v>1384318412</v>
+        <v>1384324156</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -7159,36 +7219,36 @@
         <v>30</v>
       </c>
       <c r="C236" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D236" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E236" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F236">
-        <v>1384324244</v>
+        <v>1384318412</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>530</v>
+        <v>29</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C237" t="s">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="E237" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F237">
-        <v>30854133</v>
+        <v>1384324244</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -7199,16 +7259,16 @@
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D238" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E238" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F238">
-        <v>30854134</v>
+        <v>30854133</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -7219,16 +7279,16 @@
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E239" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F239">
-        <v>30854137</v>
+        <v>30854134</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -7239,16 +7299,16 @@
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>514</v>
+        <v>10</v>
       </c>
       <c r="D240" t="s">
-        <v>515</v>
+        <v>11</v>
       </c>
       <c r="E240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F240">
-        <v>30854138</v>
+        <v>30854137</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -7259,16 +7319,16 @@
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>514</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>515</v>
       </c>
       <c r="E241" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F241">
-        <v>30854142</v>
+        <v>30854138</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -7279,16 +7339,16 @@
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D242" t="s">
-        <v>517</v>
+        <v>7</v>
       </c>
       <c r="E242" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F242">
-        <v>30854146</v>
+        <v>30854142</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -7299,16 +7359,16 @@
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>427</v>
+        <v>516</v>
       </c>
       <c r="D243" t="s">
-        <v>428</v>
+        <v>517</v>
       </c>
       <c r="E243" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F243">
-        <v>30854151</v>
+        <v>30854146</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7316,19 +7376,19 @@
         <v>530</v>
       </c>
       <c r="B244" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>518</v>
+        <v>427</v>
       </c>
       <c r="D244" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
       <c r="E244" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F244">
-        <v>30854182</v>
+        <v>30854151</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,16 +7399,16 @@
         <v>21</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>518</v>
       </c>
       <c r="D245" t="s">
-        <v>24</v>
+        <v>519</v>
       </c>
       <c r="E245" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F245">
-        <v>30854183</v>
+        <v>30854182</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -7359,16 +7419,16 @@
         <v>21</v>
       </c>
       <c r="C246" t="s">
-        <v>520</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
-        <v>521</v>
+        <v>24</v>
       </c>
       <c r="E246" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F246">
-        <v>30854184</v>
+        <v>30854183</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -7379,16 +7439,16 @@
         <v>21</v>
       </c>
       <c r="C247" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D247" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E247" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F247">
-        <v>30854185</v>
+        <v>30854184</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -7399,16 +7459,16 @@
         <v>21</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>522</v>
       </c>
       <c r="D248" t="s">
-        <v>26</v>
+        <v>522</v>
       </c>
       <c r="E248" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F248">
-        <v>30854188</v>
+        <v>30854185</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,16 +7479,16 @@
         <v>21</v>
       </c>
       <c r="C249" t="s">
-        <v>593</v>
+        <v>25</v>
       </c>
       <c r="D249" t="s">
-        <v>593</v>
+        <v>26</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F249">
-        <v>30854186</v>
+        <v>30854188</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7439,16 +7499,16 @@
         <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="D250" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E250" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F250">
-        <v>30854187</v>
+        <v>30854186</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -7459,16 +7519,16 @@
         <v>21</v>
       </c>
       <c r="C251" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D251" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E251" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F251">
-        <v>30854189</v>
+        <v>30854187</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7479,276 +7539,416 @@
         <v>21</v>
       </c>
       <c r="C252" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D252" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E252" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F252">
-        <v>30854190</v>
+        <v>30854189</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="B253" t="s">
-        <v>601</v>
+        <v>21</v>
       </c>
       <c r="C253" t="s">
-        <v>611</v>
+        <v>527</v>
       </c>
       <c r="D253" t="s">
-        <v>605</v>
+        <v>528</v>
       </c>
       <c r="E253" t="s">
-        <v>610</v>
-      </c>
-      <c r="F253" s="1">
-        <v>29715585</v>
+        <v>27</v>
+      </c>
+      <c r="F253">
+        <v>30854190</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B254" t="s">
         <v>601</v>
       </c>
       <c r="C254" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="D254" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="E254" t="s">
-        <v>610</v>
-      </c>
-      <c r="F254" s="1">
-        <v>29715586</v>
+        <v>607</v>
+      </c>
+      <c r="F254">
+        <v>29715584</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B255" t="s">
         <v>601</v>
       </c>
       <c r="C255" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D255" t="s">
+        <v>602</v>
+      </c>
+      <c r="E255" t="s">
         <v>607</v>
       </c>
-      <c r="E255" t="s">
-        <v>610</v>
-      </c>
-      <c r="F255">
-        <v>29715587</v>
+      <c r="F255" s="1">
+        <v>29715585</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="B256" t="s">
         <v>601</v>
       </c>
       <c r="C256" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D256" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E256" t="s">
-        <v>610</v>
-      </c>
-      <c r="F256">
-        <v>29715588</v>
+        <v>607</v>
+      </c>
+      <c r="F256" s="1">
+        <v>29715586</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="B257" t="s">
         <v>601</v>
       </c>
       <c r="C257" t="s">
-        <v>644</v>
+        <v>610</v>
       </c>
       <c r="D257" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E257" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F257">
-        <v>29715589</v>
+        <v>29715587</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="B258" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="C258" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D258" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="E258" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F258">
-        <v>29710956</v>
+        <v>29715588</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="B259" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="C259" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="D259" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="E259" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="F259">
-        <v>468513480</v>
+        <v>29715589</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B260" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="C260" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="D260" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="E260" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="F260">
-        <v>29710940</v>
+        <v>29710956</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>621</v>
+      </c>
+      <c r="B261" t="s">
+        <v>620</v>
+      </c>
+      <c r="C261" t="s">
         <v>624</v>
       </c>
-      <c r="B261" t="s">
-        <v>640</v>
-      </c>
-      <c r="C261" t="s">
-        <v>630</v>
-      </c>
       <c r="D261" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="E261" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="F261">
-        <v>29710941</v>
+        <v>468513480</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B262" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C262" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D262" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E262" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F262">
-        <v>29710942</v>
+        <v>29710940</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B263" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C263" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="D263" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="E263" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="F263">
-        <v>29710959</v>
+        <v>29710941</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B264" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="C264" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="D264" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="E264" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="F264">
-        <v>22765949</v>
+        <v>29710942</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>638</v>
+      </c>
+      <c r="B265" t="s">
+        <v>639</v>
+      </c>
+      <c r="C265" t="s">
+        <v>642</v>
+      </c>
+      <c r="D265" t="s">
+        <v>640</v>
+      </c>
+      <c r="E265" t="s">
+        <v>643</v>
+      </c>
+      <c r="F265">
+        <v>29710959</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>644</v>
+      </c>
+      <c r="B266" t="s">
         <v>647</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C266" t="s">
+        <v>645</v>
+      </c>
+      <c r="D266" t="s">
+        <v>646</v>
+      </c>
+      <c r="E266" t="s">
+        <v>648</v>
+      </c>
+      <c r="F266">
+        <v>22765949</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>644</v>
+      </c>
+      <c r="B267" t="s">
+        <v>649</v>
+      </c>
+      <c r="C267" t="s">
+        <v>650</v>
+      </c>
+      <c r="D267" t="s">
+        <v>651</v>
+      </c>
+      <c r="E267" t="s">
         <v>652</v>
       </c>
-      <c r="C265" t="s">
-        <v>653</v>
-      </c>
-      <c r="D265" t="s">
-        <v>654</v>
-      </c>
-      <c r="E265" t="s">
-        <v>655</v>
-      </c>
-      <c r="F265">
+      <c r="F267">
         <v>22766029</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>656</v>
+      </c>
+      <c r="B268" t="s">
+        <v>657</v>
+      </c>
+      <c r="C268" t="s">
+        <v>658</v>
+      </c>
+      <c r="D268" t="s">
+        <v>659</v>
+      </c>
+      <c r="E268" t="s">
+        <v>668</v>
+      </c>
+      <c r="F268" s="1">
+        <v>28941725</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>656</v>
+      </c>
+      <c r="B269" t="s">
+        <v>657</v>
+      </c>
+      <c r="C269" t="s">
+        <v>660</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E269" t="s">
+        <v>668</v>
+      </c>
+      <c r="F269" s="1">
+        <v>28941726</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>656</v>
+      </c>
+      <c r="B270" t="s">
+        <v>657</v>
+      </c>
+      <c r="C270" t="s">
+        <v>662</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E270" t="s">
+        <v>668</v>
+      </c>
+      <c r="F270" s="1">
+        <v>28941727</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>656</v>
+      </c>
+      <c r="B271" t="s">
+        <v>657</v>
+      </c>
+      <c r="C271" t="s">
+        <v>664</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E271" t="s">
+        <v>668</v>
+      </c>
+      <c r="F271" s="1">
+        <v>28941728</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>656</v>
+      </c>
+      <c r="B272" t="s">
+        <v>657</v>
+      </c>
+      <c r="C272" t="s">
+        <v>666</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E272" t="s">
+        <v>668</v>
+      </c>
+      <c r="F272" s="1">
+        <v>28941729</v>
       </c>
     </row>
   </sheetData>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AECA3D7-CB40-44FE-B7CC-65F85DE5AB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3146F8-A763-4C6A-835B-29472C5F53BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="670">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -913,9 +913,6 @@
   </si>
   <si>
     <t>梅蒂欣·梅兰可莉</t>
-  </si>
-  <si>
-    <t>米斯缇娅·罗雷莱</t>
   </si>
   <si>
     <t>普莉兹姆利巴三姐妹</t>
@@ -2498,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2528,21 +2525,21 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" t="s">
         <v>398</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>399</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>400</v>
-      </c>
-      <c r="D2" t="s">
-        <v>401</v>
       </c>
       <c r="E2" t="s">
         <v>245</v>
@@ -2553,19 +2550,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" t="s">
         <v>398</v>
       </c>
-      <c r="B3" t="s">
-        <v>399</v>
-      </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F3">
         <v>22636829</v>
@@ -2573,19 +2570,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s">
         <v>398</v>
       </c>
-      <c r="B4" t="s">
-        <v>399</v>
-      </c>
       <c r="C4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" t="s">
         <v>404</v>
-      </c>
-      <c r="E4" t="s">
-        <v>405</v>
       </c>
       <c r="F4">
         <v>22636835</v>
@@ -2593,19 +2590,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" t="s">
         <v>398</v>
       </c>
-      <c r="B5" t="s">
-        <v>399</v>
-      </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F5">
         <v>22636837</v>
@@ -2613,19 +2610,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" t="s">
         <v>398</v>
       </c>
-      <c r="B6" t="s">
-        <v>399</v>
-      </c>
       <c r="C6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E6" t="s">
         <v>402</v>
-      </c>
-      <c r="D6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E6" t="s">
-        <v>403</v>
       </c>
       <c r="F6">
         <v>500684336</v>
@@ -2633,19 +2630,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" t="s">
         <v>388</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>389</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" t="s">
         <v>390</v>
-      </c>
-      <c r="D7" t="s">
-        <v>390</v>
-      </c>
-      <c r="E7" t="s">
-        <v>391</v>
       </c>
       <c r="F7">
         <v>34999157</v>
@@ -2653,19 +2650,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" t="s">
         <v>388</v>
       </c>
-      <c r="B8" t="s">
-        <v>389</v>
-      </c>
       <c r="C8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" t="s">
         <v>395</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>396</v>
-      </c>
-      <c r="E8" t="s">
-        <v>397</v>
       </c>
       <c r="F8">
         <v>34999158</v>
@@ -2673,10 +2670,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" t="s">
         <v>388</v>
-      </c>
-      <c r="B9" t="s">
-        <v>389</v>
       </c>
       <c r="C9" t="s">
         <v>197</v>
@@ -2693,19 +2690,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" t="s">
         <v>388</v>
       </c>
-      <c r="B10" t="s">
-        <v>389</v>
-      </c>
       <c r="C10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F10">
         <v>34999161</v>
@@ -2713,19 +2710,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" t="s">
         <v>388</v>
       </c>
-      <c r="B11" t="s">
-        <v>389</v>
-      </c>
       <c r="C11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" t="s">
         <v>392</v>
       </c>
-      <c r="D11" t="s">
-        <v>393</v>
-      </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F11">
         <v>34999163</v>
@@ -2733,10 +2730,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B12" t="s">
         <v>374</v>
-      </c>
-      <c r="B12" t="s">
-        <v>375</v>
       </c>
       <c r="C12" t="s">
         <v>243</v>
@@ -2753,19 +2750,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" t="s">
         <v>374</v>
       </c>
-      <c r="B13" t="s">
-        <v>375</v>
-      </c>
       <c r="C13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" t="s">
         <v>383</v>
-      </c>
-      <c r="D13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" t="s">
-        <v>384</v>
       </c>
       <c r="F13">
         <v>22636807</v>
@@ -2773,16 +2770,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" t="s">
         <v>374</v>
       </c>
-      <c r="B14" t="s">
-        <v>375</v>
-      </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2793,19 +2790,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" t="s">
         <v>374</v>
       </c>
-      <c r="B15" t="s">
-        <v>375</v>
-      </c>
       <c r="C15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F15">
         <v>22636816</v>
@@ -2813,19 +2810,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" t="s">
         <v>374</v>
       </c>
-      <c r="B16" t="s">
-        <v>375</v>
-      </c>
       <c r="C16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
-      </c>
-      <c r="D16" t="s">
-        <v>386</v>
-      </c>
-      <c r="E16" t="s">
-        <v>387</v>
       </c>
       <c r="F16">
         <v>22636808</v>
@@ -2833,19 +2830,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" t="s">
         <v>374</v>
       </c>
-      <c r="B17" t="s">
-        <v>375</v>
-      </c>
       <c r="C17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" t="s">
         <v>447</v>
       </c>
-      <c r="D17" t="s">
-        <v>448</v>
-      </c>
       <c r="E17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -2853,19 +2850,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" t="s">
         <v>374</v>
       </c>
-      <c r="B18" t="s">
-        <v>375</v>
-      </c>
       <c r="C18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D18" t="s">
         <v>449</v>
       </c>
-      <c r="D18" t="s">
-        <v>450</v>
-      </c>
       <c r="E18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F18">
         <v>22636806</v>
@@ -2873,19 +2870,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" t="s">
         <v>374</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" t="s">
         <v>375</v>
-      </c>
-      <c r="C19" t="s">
-        <v>451</v>
-      </c>
-      <c r="D19" t="s">
-        <v>531</v>
-      </c>
-      <c r="E19" t="s">
-        <v>376</v>
       </c>
       <c r="F19">
         <v>22636820</v>
@@ -2893,19 +2890,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" t="s">
         <v>374</v>
       </c>
-      <c r="B20" t="s">
-        <v>375</v>
-      </c>
       <c r="C20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" t="s">
+        <v>377</v>
+      </c>
+      <c r="E20" t="s">
         <v>378</v>
-      </c>
-      <c r="D20" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" t="s">
-        <v>379</v>
       </c>
       <c r="F20">
         <v>22636811</v>
@@ -2913,19 +2910,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" t="s">
         <v>374</v>
       </c>
-      <c r="B21" t="s">
-        <v>375</v>
-      </c>
       <c r="C21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" t="s">
+        <v>451</v>
+      </c>
+      <c r="E21" t="s">
         <v>381</v>
-      </c>
-      <c r="D21" t="s">
-        <v>452</v>
-      </c>
-      <c r="E21" t="s">
-        <v>382</v>
       </c>
       <c r="F21">
         <v>22636814</v>
@@ -2933,19 +2930,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" t="s">
         <v>366</v>
       </c>
-      <c r="B22" t="s">
-        <v>367</v>
-      </c>
       <c r="C22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F22">
         <v>22636738</v>
@@ -2953,19 +2950,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" t="s">
         <v>366</v>
       </c>
-      <c r="B23" t="s">
-        <v>367</v>
-      </c>
       <c r="C23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F23">
         <v>22636747</v>
@@ -2973,19 +2970,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" t="s">
         <v>366</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E24" t="s">
         <v>367</v>
-      </c>
-      <c r="C24" t="s">
-        <v>534</v>
-      </c>
-      <c r="D24" t="s">
-        <v>535</v>
-      </c>
-      <c r="E24" t="s">
-        <v>368</v>
       </c>
       <c r="F24">
         <v>22636741</v>
@@ -2993,16 +2990,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" t="s">
         <v>366</v>
       </c>
-      <c r="B25" t="s">
-        <v>367</v>
-      </c>
       <c r="C25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D25" t="s">
         <v>536</v>
-      </c>
-      <c r="D25" t="s">
-        <v>537</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -3013,19 +3010,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" t="s">
         <v>366</v>
       </c>
-      <c r="B26" t="s">
-        <v>367</v>
-      </c>
       <c r="C26" t="s">
+        <v>537</v>
+      </c>
+      <c r="D26" t="s">
         <v>538</v>
       </c>
-      <c r="D26" t="s">
-        <v>539</v>
-      </c>
       <c r="E26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F26">
         <v>22636742</v>
@@ -3033,16 +3030,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>365</v>
+      </c>
+      <c r="B27" t="s">
         <v>366</v>
       </c>
-      <c r="B27" t="s">
-        <v>367</v>
-      </c>
       <c r="C27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -3053,16 +3050,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" t="s">
         <v>366</v>
       </c>
-      <c r="B28" t="s">
-        <v>367</v>
-      </c>
       <c r="C28" t="s">
+        <v>539</v>
+      </c>
+      <c r="D28" t="s">
         <v>540</v>
-      </c>
-      <c r="D28" t="s">
-        <v>541</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -3073,19 +3070,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" t="s">
         <v>366</v>
       </c>
-      <c r="B29" t="s">
-        <v>367</v>
-      </c>
       <c r="C29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D29" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F29">
         <v>22636744</v>
@@ -3093,19 +3090,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" t="s">
         <v>366</v>
       </c>
-      <c r="B30" t="s">
-        <v>367</v>
-      </c>
       <c r="C30" t="s">
+        <v>542</v>
+      </c>
+      <c r="D30" t="s">
         <v>543</v>
       </c>
-      <c r="D30" t="s">
-        <v>544</v>
-      </c>
       <c r="E30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F30">
         <v>22636758</v>
@@ -3113,19 +3110,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B31" t="s">
         <v>353</v>
       </c>
-      <c r="B31" t="s">
-        <v>354</v>
-      </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F31">
         <v>22636764</v>
@@ -3133,19 +3130,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B32" t="s">
         <v>353</v>
       </c>
-      <c r="B32" t="s">
-        <v>354</v>
-      </c>
       <c r="C32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F32">
         <v>22636763</v>
@@ -3153,16 +3150,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" t="s">
         <v>353</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>354</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>355</v>
-      </c>
-      <c r="D33" t="s">
-        <v>356</v>
       </c>
       <c r="E33" t="s">
         <v>242</v>
@@ -3173,19 +3170,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34" t="s">
         <v>353</v>
       </c>
-      <c r="B34" t="s">
-        <v>354</v>
-      </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F34">
         <v>22636765</v>
@@ -3193,19 +3190,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" t="s">
         <v>353</v>
       </c>
-      <c r="B35" t="s">
-        <v>354</v>
-      </c>
       <c r="C35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F35">
         <v>22636779</v>
@@ -3213,19 +3210,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" t="s">
         <v>353</v>
       </c>
-      <c r="B36" t="s">
-        <v>354</v>
-      </c>
       <c r="C36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F36">
         <v>22636770</v>
@@ -3233,19 +3230,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>352</v>
+      </c>
+      <c r="B37" t="s">
         <v>353</v>
       </c>
-      <c r="B37" t="s">
-        <v>354</v>
-      </c>
       <c r="C37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F37">
         <v>22636768</v>
@@ -3253,19 +3250,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>352</v>
+      </c>
+      <c r="B38" t="s">
         <v>353</v>
       </c>
-      <c r="B38" t="s">
-        <v>354</v>
-      </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F38">
         <v>22636774</v>
@@ -3273,16 +3270,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>352</v>
+      </c>
+      <c r="B39" t="s">
         <v>353</v>
       </c>
-      <c r="B39" t="s">
-        <v>354</v>
-      </c>
       <c r="C39" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" t="s">
         <v>357</v>
-      </c>
-      <c r="D39" t="s">
-        <v>358</v>
       </c>
       <c r="E39" t="s">
         <v>242</v>
@@ -3293,10 +3290,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>352</v>
+      </c>
+      <c r="B40" t="s">
         <v>353</v>
-      </c>
-      <c r="B40" t="s">
-        <v>354</v>
       </c>
       <c r="C40" t="s">
         <v>185</v>
@@ -3313,19 +3310,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" t="s">
         <v>339</v>
       </c>
-      <c r="B41" t="s">
-        <v>340</v>
-      </c>
       <c r="C41" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" t="s">
+        <v>349</v>
+      </c>
+      <c r="E41" t="s">
         <v>350</v>
-      </c>
-      <c r="D41" t="s">
-        <v>350</v>
-      </c>
-      <c r="E41" t="s">
-        <v>351</v>
       </c>
       <c r="F41">
         <v>22636719</v>
@@ -3333,19 +3330,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>338</v>
+      </c>
+      <c r="B42" t="s">
         <v>339</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>340</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>341</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>342</v>
-      </c>
-      <c r="E42" t="s">
-        <v>343</v>
       </c>
       <c r="F42">
         <v>22636721</v>
@@ -3353,10 +3350,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B43" t="s">
         <v>339</v>
-      </c>
-      <c r="B43" t="s">
-        <v>340</v>
       </c>
       <c r="C43" t="s">
         <v>194</v>
@@ -3365,7 +3362,7 @@
         <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F43">
         <v>22636718</v>
@@ -3373,19 +3370,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" t="s">
         <v>339</v>
       </c>
-      <c r="B44" t="s">
-        <v>340</v>
-      </c>
       <c r="C44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" t="s">
         <v>347</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>348</v>
-      </c>
-      <c r="E44" t="s">
-        <v>349</v>
       </c>
       <c r="F44">
         <v>22636722</v>
@@ -3393,10 +3390,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" t="s">
         <v>339</v>
-      </c>
-      <c r="B45" t="s">
-        <v>340</v>
       </c>
       <c r="C45" t="s">
         <v>192</v>
@@ -3405,7 +3402,7 @@
         <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F45">
         <v>22636724</v>
@@ -3413,19 +3410,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" t="s">
         <v>339</v>
       </c>
-      <c r="B46" t="s">
-        <v>340</v>
-      </c>
       <c r="C46" t="s">
+        <v>415</v>
+      </c>
+      <c r="D46" t="s">
         <v>416</v>
       </c>
-      <c r="D46" t="s">
-        <v>417</v>
-      </c>
       <c r="E46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F46">
         <v>22636720</v>
@@ -3433,16 +3430,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" t="s">
         <v>339</v>
       </c>
-      <c r="B47" t="s">
-        <v>340</v>
-      </c>
       <c r="C47" t="s">
+        <v>417</v>
+      </c>
+      <c r="D47" t="s">
         <v>418</v>
-      </c>
-      <c r="D47" t="s">
-        <v>419</v>
       </c>
       <c r="E47" t="s">
         <v>257</v>
@@ -3453,10 +3450,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" t="s">
         <v>339</v>
-      </c>
-      <c r="B48" t="s">
-        <v>340</v>
       </c>
       <c r="C48" t="s">
         <v>247</v>
@@ -3465,7 +3462,7 @@
         <v>248</v>
       </c>
       <c r="E48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F48">
         <v>22636723</v>
@@ -3473,19 +3470,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" t="s">
         <v>339</v>
       </c>
-      <c r="B49" t="s">
-        <v>340</v>
-      </c>
       <c r="C49" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" t="s">
         <v>344</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>345</v>
-      </c>
-      <c r="E49" t="s">
-        <v>346</v>
       </c>
       <c r="F49">
         <v>22636729</v>
@@ -3493,19 +3490,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>322</v>
+      </c>
+      <c r="B50" t="s">
         <v>323</v>
       </c>
-      <c r="B50" t="s">
-        <v>324</v>
-      </c>
       <c r="C50" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" t="s">
         <v>331</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>332</v>
-      </c>
-      <c r="E50" t="s">
-        <v>333</v>
       </c>
       <c r="F50">
         <v>22636707</v>
@@ -3513,19 +3510,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>322</v>
+      </c>
+      <c r="B51" t="s">
         <v>323</v>
       </c>
-      <c r="B51" t="s">
-        <v>324</v>
-      </c>
       <c r="C51" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51" t="s">
         <v>328</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>329</v>
-      </c>
-      <c r="E51" t="s">
-        <v>330</v>
       </c>
       <c r="F51">
         <v>22636702</v>
@@ -3533,16 +3530,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" t="s">
         <v>323</v>
       </c>
-      <c r="B52" t="s">
-        <v>324</v>
-      </c>
       <c r="C52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D52" t="s">
         <v>462</v>
-      </c>
-      <c r="D52" t="s">
-        <v>463</v>
       </c>
       <c r="E52" t="s">
         <v>242</v>
@@ -3553,19 +3550,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>322</v>
+      </c>
+      <c r="B53" t="s">
         <v>323</v>
       </c>
-      <c r="B53" t="s">
-        <v>324</v>
-      </c>
       <c r="C53" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" t="s">
         <v>334</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>335</v>
-      </c>
-      <c r="E53" t="s">
-        <v>336</v>
       </c>
       <c r="F53">
         <v>22636703</v>
@@ -3573,19 +3570,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B54" t="s">
         <v>323</v>
       </c>
-      <c r="B54" t="s">
-        <v>324</v>
-      </c>
       <c r="C54" t="s">
+        <v>463</v>
+      </c>
+      <c r="D54" t="s">
         <v>464</v>
       </c>
-      <c r="D54" t="s">
-        <v>465</v>
-      </c>
       <c r="E54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F54">
         <v>22636705</v>
@@ -3593,16 +3590,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" t="s">
         <v>323</v>
       </c>
-      <c r="B55" t="s">
-        <v>324</v>
-      </c>
       <c r="C55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D55" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E55" t="s">
         <v>246</v>
@@ -3613,16 +3610,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>322</v>
+      </c>
+      <c r="B56" t="s">
         <v>323</v>
       </c>
-      <c r="B56" t="s">
-        <v>324</v>
-      </c>
       <c r="C56" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E56" t="s">
         <v>176</v>
@@ -3633,16 +3630,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>322</v>
+      </c>
+      <c r="B57" t="s">
         <v>323</v>
       </c>
-      <c r="B57" t="s">
-        <v>324</v>
-      </c>
       <c r="C57" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" t="s">
         <v>337</v>
-      </c>
-      <c r="D57" t="s">
-        <v>338</v>
       </c>
       <c r="E57" t="s">
         <v>176</v>
@@ -3653,19 +3650,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" t="s">
         <v>323</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>465</v>
+      </c>
+      <c r="D58" t="s">
+        <v>465</v>
+      </c>
+      <c r="E58" t="s">
         <v>324</v>
-      </c>
-      <c r="C58" t="s">
-        <v>466</v>
-      </c>
-      <c r="D58" t="s">
-        <v>466</v>
-      </c>
-      <c r="E58" t="s">
-        <v>325</v>
       </c>
       <c r="F58">
         <v>22636710</v>
@@ -3673,16 +3670,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" t="s">
         <v>323</v>
       </c>
-      <c r="B59" t="s">
-        <v>324</v>
-      </c>
       <c r="C59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" t="s">
         <v>326</v>
-      </c>
-      <c r="D59" t="s">
-        <v>327</v>
       </c>
       <c r="E59" t="s">
         <v>77</v>
@@ -3693,10 +3690,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" t="s">
         <v>313</v>
-      </c>
-      <c r="B60" t="s">
-        <v>314</v>
       </c>
       <c r="C60" t="s">
         <v>243</v>
@@ -3713,16 +3710,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" t="s">
         <v>313</v>
       </c>
-      <c r="B61" t="s">
-        <v>314</v>
-      </c>
       <c r="C61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E61" t="s">
         <v>245</v>
@@ -3733,10 +3730,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" t="s">
         <v>313</v>
-      </c>
-      <c r="B62" t="s">
-        <v>314</v>
       </c>
       <c r="C62" t="s">
         <v>197</v>
@@ -3753,16 +3750,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" t="s">
         <v>313</v>
       </c>
-      <c r="B63" t="s">
-        <v>314</v>
-      </c>
       <c r="C63" t="s">
+        <v>319</v>
+      </c>
+      <c r="D63" t="s">
         <v>320</v>
-      </c>
-      <c r="D63" t="s">
-        <v>321</v>
       </c>
       <c r="E63" t="s">
         <v>20</v>
@@ -3773,16 +3770,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" t="s">
         <v>313</v>
       </c>
-      <c r="B64" t="s">
-        <v>314</v>
-      </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E64" t="s">
         <v>257</v>
@@ -3793,16 +3790,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" t="s">
         <v>313</v>
       </c>
-      <c r="B65" t="s">
-        <v>314</v>
-      </c>
       <c r="C65" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D65" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E65" t="s">
         <v>257</v>
@@ -3813,16 +3810,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" t="s">
         <v>313</v>
-      </c>
-      <c r="B66" t="s">
-        <v>314</v>
       </c>
       <c r="C66" t="s">
         <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E66" t="s">
         <v>242</v>
@@ -3833,16 +3830,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" t="s">
         <v>313</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>314</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>315</v>
-      </c>
-      <c r="D67" t="s">
-        <v>316</v>
       </c>
       <c r="E67" t="s">
         <v>242</v>
@@ -3853,19 +3850,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" t="s">
         <v>313</v>
       </c>
-      <c r="B68" t="s">
-        <v>314</v>
-      </c>
       <c r="C68" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D68" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F68">
         <v>22765980</v>
@@ -3873,19 +3870,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" t="s">
         <v>313</v>
-      </c>
-      <c r="B69" t="s">
-        <v>314</v>
       </c>
       <c r="C69" t="s">
         <v>192</v>
       </c>
       <c r="D69" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E69" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F69">
         <v>22766003</v>
@@ -3893,16 +3890,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" t="s">
         <v>313</v>
       </c>
-      <c r="B70" t="s">
-        <v>314</v>
-      </c>
       <c r="C70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D70" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E70" t="s">
         <v>246</v>
@@ -3913,16 +3910,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>312</v>
+      </c>
+      <c r="B71" t="s">
         <v>313</v>
       </c>
-      <c r="B71" t="s">
-        <v>314</v>
-      </c>
       <c r="C71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D71" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E71" t="s">
         <v>246</v>
@@ -3933,19 +3930,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" t="s">
         <v>313</v>
-      </c>
-      <c r="B72" t="s">
-        <v>314</v>
       </c>
       <c r="C72" t="s">
         <v>247</v>
       </c>
       <c r="D72" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F72">
         <v>22765966</v>
@@ -3953,16 +3950,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>312</v>
+      </c>
+      <c r="B73" t="s">
         <v>313</v>
       </c>
-      <c r="B73" t="s">
-        <v>314</v>
-      </c>
       <c r="C73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D73" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E73" t="s">
         <v>176</v>
@@ -3973,16 +3970,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>312</v>
+      </c>
+      <c r="B74" t="s">
         <v>313</v>
       </c>
-      <c r="B74" t="s">
-        <v>314</v>
-      </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D74" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E74" t="s">
         <v>77</v>
@@ -3993,19 +3990,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" t="s">
         <v>313</v>
       </c>
-      <c r="B75" t="s">
-        <v>314</v>
-      </c>
       <c r="C75" t="s">
+        <v>420</v>
+      </c>
+      <c r="D75" t="s">
         <v>421</v>
       </c>
-      <c r="D75" t="s">
-        <v>422</v>
-      </c>
       <c r="E75" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F75">
         <v>22766006</v>
@@ -4013,19 +4010,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" t="s">
         <v>298</v>
       </c>
-      <c r="B76" t="s">
-        <v>299</v>
-      </c>
       <c r="C76" t="s">
+        <v>466</v>
+      </c>
+      <c r="D76" t="s">
         <v>467</v>
       </c>
-      <c r="D76" t="s">
-        <v>468</v>
-      </c>
       <c r="E76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F76">
         <v>22636686</v>
@@ -4033,19 +4030,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" t="s">
         <v>298</v>
       </c>
-      <c r="B77" t="s">
-        <v>299</v>
-      </c>
       <c r="C77" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" t="s">
         <v>302</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>303</v>
-      </c>
-      <c r="E77" t="s">
-        <v>304</v>
       </c>
       <c r="F77">
         <v>22636681</v>
@@ -4053,19 +4050,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" t="s">
         <v>298</v>
       </c>
-      <c r="B78" t="s">
-        <v>299</v>
-      </c>
       <c r="C78" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" t="s">
         <v>309</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>310</v>
-      </c>
-      <c r="E78" t="s">
-        <v>311</v>
       </c>
       <c r="F78">
         <v>22636690</v>
@@ -4073,16 +4070,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>297</v>
+      </c>
+      <c r="B79" t="s">
         <v>298</v>
       </c>
-      <c r="B79" t="s">
-        <v>299</v>
-      </c>
       <c r="C79" t="s">
+        <v>468</v>
+      </c>
+      <c r="D79" t="s">
         <v>469</v>
-      </c>
-      <c r="D79" t="s">
-        <v>470</v>
       </c>
       <c r="E79" t="s">
         <v>245</v>
@@ -4093,10 +4090,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" t="s">
         <v>298</v>
-      </c>
-      <c r="B80" t="s">
-        <v>299</v>
       </c>
       <c r="C80" t="s">
         <v>104</v>
@@ -4113,19 +4110,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>297</v>
+      </c>
+      <c r="B81" t="s">
         <v>298</v>
       </c>
-      <c r="B81" t="s">
-        <v>299</v>
-      </c>
       <c r="C81" t="s">
+        <v>470</v>
+      </c>
+      <c r="D81" t="s">
         <v>471</v>
       </c>
-      <c r="D81" t="s">
-        <v>472</v>
-      </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F81">
         <v>22636693</v>
@@ -4133,16 +4130,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" t="s">
         <v>298</v>
       </c>
-      <c r="B82" t="s">
-        <v>299</v>
-      </c>
       <c r="C82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D82" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E82" t="s">
         <v>250</v>
@@ -4153,19 +4150,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" t="s">
         <v>298</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>473</v>
+      </c>
+      <c r="D83" t="s">
+        <v>474</v>
+      </c>
+      <c r="E83" t="s">
         <v>299</v>
-      </c>
-      <c r="C83" t="s">
-        <v>474</v>
-      </c>
-      <c r="D83" t="s">
-        <v>475</v>
-      </c>
-      <c r="E83" t="s">
-        <v>300</v>
       </c>
       <c r="F83">
         <v>22636683</v>
@@ -4173,19 +4170,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>297</v>
+      </c>
+      <c r="B84" t="s">
         <v>298</v>
       </c>
-      <c r="B84" t="s">
-        <v>299</v>
-      </c>
       <c r="C84" t="s">
+        <v>475</v>
+      </c>
+      <c r="D84" t="s">
         <v>476</v>
       </c>
-      <c r="D84" t="s">
-        <v>477</v>
-      </c>
       <c r="E84" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F84">
         <v>22636695</v>
@@ -4193,19 +4190,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>297</v>
+      </c>
+      <c r="B85" t="s">
         <v>298</v>
       </c>
-      <c r="B85" t="s">
-        <v>299</v>
-      </c>
       <c r="C85" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" t="s">
         <v>306</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>307</v>
-      </c>
-      <c r="E85" t="s">
-        <v>308</v>
       </c>
       <c r="F85">
         <v>22636689</v>
@@ -4213,19 +4210,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>297</v>
+      </c>
+      <c r="B86" t="s">
         <v>298</v>
       </c>
-      <c r="B86" t="s">
-        <v>299</v>
-      </c>
       <c r="C86" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D86" t="s">
         <v>99</v>
       </c>
       <c r="E86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F86">
         <v>22636687</v>
@@ -4239,10 +4236,10 @@
         <v>283</v>
       </c>
       <c r="C87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E87" t="s">
         <v>245</v>
@@ -4259,10 +4256,10 @@
         <v>283</v>
       </c>
       <c r="C88" t="s">
+        <v>291</v>
+      </c>
+      <c r="D88" t="s">
         <v>292</v>
-      </c>
-      <c r="D88" t="s">
-        <v>293</v>
       </c>
       <c r="E88" t="s">
         <v>20</v>
@@ -4299,10 +4296,10 @@
         <v>283</v>
       </c>
       <c r="C90" t="s">
+        <v>413</v>
+      </c>
+      <c r="D90" t="s">
         <v>414</v>
-      </c>
-      <c r="D90" t="s">
-        <v>415</v>
       </c>
       <c r="E90" t="s">
         <v>246</v>
@@ -4319,10 +4316,10 @@
         <v>283</v>
       </c>
       <c r="C91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D91" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E91" t="s">
         <v>250</v>
@@ -4339,13 +4336,13 @@
         <v>283</v>
       </c>
       <c r="C92" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" t="s">
         <v>288</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>289</v>
-      </c>
-      <c r="E92" t="s">
-        <v>290</v>
       </c>
       <c r="F92">
         <v>510185</v>
@@ -4359,13 +4356,13 @@
         <v>283</v>
       </c>
       <c r="C93" t="s">
+        <v>463</v>
+      </c>
+      <c r="D93" t="s">
         <v>464</v>
       </c>
-      <c r="D93" t="s">
-        <v>465</v>
-      </c>
       <c r="E93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F93">
         <v>510188</v>
@@ -4379,13 +4376,13 @@
         <v>283</v>
       </c>
       <c r="C94" t="s">
+        <v>478</v>
+      </c>
+      <c r="D94" t="s">
         <v>479</v>
       </c>
-      <c r="D94" t="s">
-        <v>480</v>
-      </c>
       <c r="E94" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="F94">
         <v>510192</v>
@@ -4399,13 +4396,13 @@
         <v>283</v>
       </c>
       <c r="C95" t="s">
+        <v>294</v>
+      </c>
+      <c r="D95" t="s">
         <v>295</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>296</v>
-      </c>
-      <c r="E95" t="s">
-        <v>297</v>
       </c>
       <c r="F95">
         <v>510196</v>
@@ -4419,10 +4416,10 @@
         <v>283</v>
       </c>
       <c r="C96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D96" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E96" t="s">
         <v>254</v>
@@ -4439,10 +4436,10 @@
         <v>283</v>
       </c>
       <c r="C97" t="s">
+        <v>480</v>
+      </c>
+      <c r="D97" t="s">
         <v>481</v>
-      </c>
-      <c r="D97" t="s">
-        <v>482</v>
       </c>
       <c r="E97" t="s">
         <v>285</v>
@@ -4459,10 +4456,10 @@
         <v>283</v>
       </c>
       <c r="C98" t="s">
+        <v>482</v>
+      </c>
+      <c r="D98" t="s">
         <v>483</v>
-      </c>
-      <c r="D98" t="s">
-        <v>484</v>
       </c>
       <c r="E98" t="s">
         <v>284</v>
@@ -4479,13 +4476,13 @@
         <v>283</v>
       </c>
       <c r="C99" t="s">
+        <v>596</v>
+      </c>
+      <c r="D99" t="s">
+        <v>598</v>
+      </c>
+      <c r="E99" t="s">
         <v>597</v>
-      </c>
-      <c r="D99" t="s">
-        <v>599</v>
-      </c>
-      <c r="E99" t="s">
-        <v>598</v>
       </c>
       <c r="F99">
         <v>510216</v>
@@ -4499,13 +4496,13 @@
         <v>283</v>
       </c>
       <c r="C100" t="s">
+        <v>484</v>
+      </c>
+      <c r="D100" t="s">
         <v>485</v>
       </c>
-      <c r="D100" t="s">
-        <v>486</v>
-      </c>
       <c r="E100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F100">
         <v>510212</v>
@@ -4519,10 +4516,10 @@
         <v>277</v>
       </c>
       <c r="C101" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E101" t="s">
         <v>254</v>
@@ -4539,10 +4536,10 @@
         <v>277</v>
       </c>
       <c r="C102" t="s">
+        <v>424</v>
+      </c>
+      <c r="D102" t="s">
         <v>425</v>
-      </c>
-      <c r="D102" t="s">
-        <v>426</v>
       </c>
       <c r="E102" t="s">
         <v>254</v>
@@ -4619,10 +4616,10 @@
         <v>261</v>
       </c>
       <c r="C106" t="s">
+        <v>487</v>
+      </c>
+      <c r="D106" t="s">
         <v>488</v>
-      </c>
-      <c r="D106" t="s">
-        <v>489</v>
       </c>
       <c r="E106" t="s">
         <v>268</v>
@@ -4679,10 +4676,10 @@
         <v>261</v>
       </c>
       <c r="C109" t="s">
+        <v>432</v>
+      </c>
+      <c r="D109" t="s">
         <v>433</v>
-      </c>
-      <c r="D109" t="s">
-        <v>434</v>
       </c>
       <c r="E109" t="s">
         <v>264</v>
@@ -4699,10 +4696,10 @@
         <v>261</v>
       </c>
       <c r="C110" t="s">
+        <v>489</v>
+      </c>
+      <c r="D110" t="s">
         <v>490</v>
-      </c>
-      <c r="D110" t="s">
-        <v>491</v>
       </c>
       <c r="E110" t="s">
         <v>272</v>
@@ -4719,10 +4716,10 @@
         <v>261</v>
       </c>
       <c r="C111" t="s">
+        <v>491</v>
+      </c>
+      <c r="D111" t="s">
         <v>492</v>
-      </c>
-      <c r="D111" t="s">
-        <v>493</v>
       </c>
       <c r="E111" t="s">
         <v>254</v>
@@ -4759,10 +4756,10 @@
         <v>261</v>
       </c>
       <c r="C113" t="s">
+        <v>493</v>
+      </c>
+      <c r="D113" t="s">
         <v>494</v>
-      </c>
-      <c r="D113" t="s">
-        <v>495</v>
       </c>
       <c r="E113" t="s">
         <v>262</v>
@@ -4799,10 +4796,10 @@
         <v>239</v>
       </c>
       <c r="C115" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D115" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E115" t="s">
         <v>259</v>
@@ -4819,10 +4816,10 @@
         <v>239</v>
       </c>
       <c r="C116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E116" t="s">
         <v>78</v>
@@ -4859,10 +4856,10 @@
         <v>239</v>
       </c>
       <c r="C118" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D118" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E118" t="s">
         <v>20</v>
@@ -4919,10 +4916,10 @@
         <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D121" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E121" t="s">
         <v>246</v>
@@ -4939,10 +4936,10 @@
         <v>239</v>
       </c>
       <c r="C122" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E122" t="s">
         <v>251</v>
@@ -4959,10 +4956,10 @@
         <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D123" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E123" t="s">
         <v>176</v>
@@ -4999,10 +4996,10 @@
         <v>239</v>
       </c>
       <c r="C125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D125" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E125" t="s">
         <v>250</v>
@@ -5039,10 +5036,10 @@
         <v>239</v>
       </c>
       <c r="C127" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D127" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E127" t="s">
         <v>258</v>
@@ -5159,13 +5156,13 @@
         <v>220</v>
       </c>
       <c r="C133" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D133" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E133" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F133">
         <v>22636631</v>
@@ -5179,10 +5176,10 @@
         <v>220</v>
       </c>
       <c r="C134" t="s">
+        <v>429</v>
+      </c>
+      <c r="D134" t="s">
         <v>430</v>
-      </c>
-      <c r="D134" t="s">
-        <v>431</v>
       </c>
       <c r="E134" t="s">
         <v>228</v>
@@ -5225,7 +5222,7 @@
         <v>213</v>
       </c>
       <c r="E136" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F136">
         <v>22636613</v>
@@ -5319,10 +5316,10 @@
         <v>202</v>
       </c>
       <c r="C141" t="s">
+        <v>436</v>
+      </c>
+      <c r="D141" t="s">
         <v>437</v>
-      </c>
-      <c r="D141" t="s">
-        <v>438</v>
       </c>
       <c r="E141" t="s">
         <v>214</v>
@@ -5362,7 +5359,7 @@
         <v>187</v>
       </c>
       <c r="D143" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E143" t="s">
         <v>189</v>
@@ -5399,10 +5396,10 @@
         <v>184</v>
       </c>
       <c r="C145" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D145" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E145" t="s">
         <v>190</v>
@@ -5419,10 +5416,10 @@
         <v>184</v>
       </c>
       <c r="C146" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D146" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E146" t="s">
         <v>191</v>
@@ -5439,7 +5436,7 @@
         <v>184</v>
       </c>
       <c r="C147" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D147" t="s">
         <v>199</v>
@@ -5459,10 +5456,10 @@
         <v>184</v>
       </c>
       <c r="C148" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D148" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
@@ -5522,10 +5519,10 @@
         <v>192</v>
       </c>
       <c r="D151" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E151" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F151">
         <v>851044</v>
@@ -5539,10 +5536,10 @@
         <v>181</v>
       </c>
       <c r="C152" t="s">
+        <v>497</v>
+      </c>
+      <c r="D152" t="s">
         <v>498</v>
-      </c>
-      <c r="D152" t="s">
-        <v>499</v>
       </c>
       <c r="E152" t="s">
         <v>182</v>
@@ -5739,10 +5736,10 @@
         <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D162" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
@@ -5799,10 +5796,10 @@
         <v>153</v>
       </c>
       <c r="C165" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D165" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E165" t="s">
         <v>98</v>
@@ -5842,7 +5839,7 @@
         <v>161</v>
       </c>
       <c r="D167" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E167" t="s">
         <v>88</v>
@@ -5859,10 +5856,10 @@
         <v>153</v>
       </c>
       <c r="C168" t="s">
+        <v>432</v>
+      </c>
+      <c r="D168" t="s">
         <v>433</v>
-      </c>
-      <c r="D168" t="s">
-        <v>434</v>
       </c>
       <c r="E168" t="s">
         <v>92</v>
@@ -5902,7 +5899,7 @@
         <v>154</v>
       </c>
       <c r="D170" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E170" t="s">
         <v>87</v>
@@ -6059,10 +6056,10 @@
         <v>134</v>
       </c>
       <c r="C178" t="s">
+        <v>434</v>
+      </c>
+      <c r="D178" t="s">
         <v>435</v>
-      </c>
-      <c r="D178" t="s">
-        <v>436</v>
       </c>
       <c r="E178" t="s">
         <v>151</v>
@@ -6079,10 +6076,10 @@
         <v>134</v>
       </c>
       <c r="C179" t="s">
+        <v>499</v>
+      </c>
+      <c r="D179" t="s">
         <v>500</v>
-      </c>
-      <c r="D179" t="s">
-        <v>501</v>
       </c>
       <c r="E179" t="s">
         <v>147</v>
@@ -6099,10 +6096,10 @@
         <v>132</v>
       </c>
       <c r="C180" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D180" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
@@ -6159,10 +6156,10 @@
         <v>132</v>
       </c>
       <c r="C183" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D183" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E183" t="s">
         <v>98</v>
@@ -6202,7 +6199,7 @@
         <v>161</v>
       </c>
       <c r="D185" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E185" t="s">
         <v>88</v>
@@ -6219,10 +6216,10 @@
         <v>132</v>
       </c>
       <c r="C186" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D186" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E186" t="s">
         <v>92</v>
@@ -6299,7 +6296,7 @@
         <v>132</v>
       </c>
       <c r="C190" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D190" t="s">
         <v>99</v>
@@ -6319,10 +6316,10 @@
         <v>132</v>
       </c>
       <c r="C191" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D191" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E191" t="s">
         <v>97</v>
@@ -6359,10 +6356,10 @@
         <v>132</v>
       </c>
       <c r="C193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D193" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E193" t="s">
         <v>50</v>
@@ -6479,10 +6476,10 @@
         <v>113</v>
       </c>
       <c r="C199" t="s">
+        <v>501</v>
+      </c>
+      <c r="D199" t="s">
         <v>502</v>
-      </c>
-      <c r="D199" t="s">
-        <v>503</v>
       </c>
       <c r="E199" t="s">
         <v>114</v>
@@ -6519,10 +6516,10 @@
         <v>76</v>
       </c>
       <c r="C201" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D201" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
@@ -6579,10 +6576,10 @@
         <v>76</v>
       </c>
       <c r="C204" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D204" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E204" t="s">
         <v>98</v>
@@ -6622,7 +6619,7 @@
         <v>161</v>
       </c>
       <c r="D206" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E206" t="s">
         <v>88</v>
@@ -6639,10 +6636,10 @@
         <v>76</v>
       </c>
       <c r="C207" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D207" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E207" t="s">
         <v>92</v>
@@ -6699,7 +6696,7 @@
         <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D210" t="s">
         <v>99</v>
@@ -6719,10 +6716,10 @@
         <v>76</v>
       </c>
       <c r="C211" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D211" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E211" t="s">
         <v>97</v>
@@ -6762,7 +6759,7 @@
         <v>108</v>
       </c>
       <c r="D213" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E213" t="s">
         <v>50</v>
@@ -6779,10 +6776,10 @@
         <v>76</v>
       </c>
       <c r="C214" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D214" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E214" t="s">
         <v>93</v>
@@ -6819,10 +6816,10 @@
         <v>76</v>
       </c>
       <c r="C216" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D216" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E216" t="s">
         <v>78</v>
@@ -6839,10 +6836,10 @@
         <v>76</v>
       </c>
       <c r="C217" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D217" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E217" t="s">
         <v>77</v>
@@ -6859,10 +6856,10 @@
         <v>76</v>
       </c>
       <c r="C218" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D218" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E218" t="s">
         <v>77</v>
@@ -6879,10 +6876,10 @@
         <v>76</v>
       </c>
       <c r="C219" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D219" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E219" t="s">
         <v>107</v>
@@ -7019,10 +7016,10 @@
         <v>56</v>
       </c>
       <c r="C226" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D226" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E226" t="s">
         <v>71</v>
@@ -7039,10 +7036,10 @@
         <v>47</v>
       </c>
       <c r="C227" t="s">
+        <v>668</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="E227" t="s">
         <v>50</v>
@@ -7179,10 +7176,10 @@
         <v>30</v>
       </c>
       <c r="C234" t="s">
+        <v>507</v>
+      </c>
+      <c r="D234" t="s">
         <v>508</v>
-      </c>
-      <c r="D234" t="s">
-        <v>509</v>
       </c>
       <c r="E234" t="s">
         <v>31</v>
@@ -7219,10 +7216,10 @@
         <v>30</v>
       </c>
       <c r="C236" t="s">
+        <v>509</v>
+      </c>
+      <c r="D236" t="s">
         <v>510</v>
-      </c>
-      <c r="D236" t="s">
-        <v>511</v>
       </c>
       <c r="E236" t="s">
         <v>45</v>
@@ -7239,10 +7236,10 @@
         <v>30</v>
       </c>
       <c r="C237" t="s">
+        <v>511</v>
+      </c>
+      <c r="D237" t="s">
         <v>512</v>
-      </c>
-      <c r="D237" t="s">
-        <v>513</v>
       </c>
       <c r="E237" t="s">
         <v>32</v>
@@ -7253,7 +7250,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -7273,7 +7270,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -7293,7 +7290,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -7313,16 +7310,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
       <c r="C241" t="s">
+        <v>513</v>
+      </c>
+      <c r="D241" t="s">
         <v>514</v>
-      </c>
-      <c r="D241" t="s">
-        <v>515</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -7333,7 +7330,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -7353,16 +7350,16 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
+        <v>515</v>
+      </c>
+      <c r="D243" t="s">
         <v>516</v>
-      </c>
-      <c r="D243" t="s">
-        <v>517</v>
       </c>
       <c r="E243" t="s">
         <v>20</v>
@@ -7373,16 +7370,16 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
       <c r="C244" t="s">
+        <v>426</v>
+      </c>
+      <c r="D244" t="s">
         <v>427</v>
-      </c>
-      <c r="D244" t="s">
-        <v>428</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
@@ -7393,16 +7390,16 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B245" t="s">
         <v>21</v>
       </c>
       <c r="C245" t="s">
+        <v>517</v>
+      </c>
+      <c r="D245" t="s">
         <v>518</v>
-      </c>
-      <c r="D245" t="s">
-        <v>519</v>
       </c>
       <c r="E245" t="s">
         <v>22</v>
@@ -7413,7 +7410,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B246" t="s">
         <v>21</v>
@@ -7433,16 +7430,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B247" t="s">
         <v>21</v>
       </c>
       <c r="C247" t="s">
+        <v>519</v>
+      </c>
+      <c r="D247" t="s">
         <v>520</v>
-      </c>
-      <c r="D247" t="s">
-        <v>521</v>
       </c>
       <c r="E247" t="s">
         <v>19</v>
@@ -7453,16 +7450,16 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B248" t="s">
         <v>21</v>
       </c>
       <c r="C248" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D248" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E248" t="s">
         <v>16</v>
@@ -7473,7 +7470,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B249" t="s">
         <v>21</v>
@@ -7493,16 +7490,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B250" t="s">
         <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D250" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E250" t="s">
         <v>8</v>
@@ -7513,16 +7510,16 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B251" t="s">
         <v>21</v>
       </c>
       <c r="C251" t="s">
+        <v>522</v>
+      </c>
+      <c r="D251" t="s">
         <v>523</v>
-      </c>
-      <c r="D251" t="s">
-        <v>524</v>
       </c>
       <c r="E251" t="s">
         <v>23</v>
@@ -7533,16 +7530,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B252" t="s">
         <v>21</v>
       </c>
       <c r="C252" t="s">
+        <v>524</v>
+      </c>
+      <c r="D252" t="s">
         <v>525</v>
-      </c>
-      <c r="D252" t="s">
-        <v>526</v>
       </c>
       <c r="E252" t="s">
         <v>28</v>
@@ -7553,16 +7550,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B253" t="s">
         <v>21</v>
       </c>
       <c r="C253" t="s">
+        <v>526</v>
+      </c>
+      <c r="D253" t="s">
         <v>527</v>
-      </c>
-      <c r="D253" t="s">
-        <v>528</v>
       </c>
       <c r="E253" t="s">
         <v>27</v>
@@ -7573,19 +7570,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>599</v>
+      </c>
+      <c r="B254" t="s">
         <v>600</v>
       </c>
-      <c r="B254" t="s">
-        <v>601</v>
-      </c>
       <c r="C254" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D254" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E254" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F254">
         <v>29715584</v>
@@ -7593,19 +7590,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>599</v>
+      </c>
+      <c r="B255" t="s">
         <v>600</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
+        <v>607</v>
+      </c>
+      <c r="D255" t="s">
         <v>601</v>
       </c>
-      <c r="C255" t="s">
-        <v>608</v>
-      </c>
-      <c r="D255" t="s">
-        <v>602</v>
-      </c>
       <c r="E255" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F255" s="1">
         <v>29715585</v>
@@ -7613,19 +7610,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>599</v>
+      </c>
+      <c r="B256" t="s">
         <v>600</v>
       </c>
-      <c r="B256" t="s">
-        <v>601</v>
-      </c>
       <c r="C256" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D256" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E256" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F256" s="1">
         <v>29715586</v>
@@ -7633,19 +7630,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B257" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C257" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D257" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E257" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F257">
         <v>29715587</v>
@@ -7653,19 +7650,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B258" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C258" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D258" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E258" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F258">
         <v>29715588</v>
@@ -7673,19 +7670,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B259" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C259" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D259" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E259" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F259">
         <v>29715589</v>
@@ -7693,19 +7690,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>613</v>
+      </c>
+      <c r="B260" t="s">
         <v>614</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
+        <v>616</v>
+      </c>
+      <c r="D260" t="s">
         <v>615</v>
       </c>
-      <c r="C260" t="s">
+      <c r="E260" t="s">
         <v>617</v>
-      </c>
-      <c r="D260" t="s">
-        <v>616</v>
-      </c>
-      <c r="E260" t="s">
-        <v>618</v>
       </c>
       <c r="F260">
         <v>29710956</v>
@@ -7713,19 +7710,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>620</v>
+      </c>
+      <c r="B261" t="s">
+        <v>619</v>
+      </c>
+      <c r="C261" t="s">
+        <v>623</v>
+      </c>
+      <c r="D261" t="s">
         <v>621</v>
       </c>
-      <c r="B261" t="s">
-        <v>620</v>
-      </c>
-      <c r="C261" t="s">
-        <v>624</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>622</v>
-      </c>
-      <c r="E261" t="s">
-        <v>623</v>
       </c>
       <c r="F261">
         <v>468513480</v>
@@ -7733,19 +7730,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B262" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C262" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D262" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E262" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F262">
         <v>29710940</v>
@@ -7753,19 +7750,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B263" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C263" t="s">
+        <v>626</v>
+      </c>
+      <c r="D263" t="s">
         <v>627</v>
       </c>
-      <c r="D263" t="s">
-        <v>628</v>
-      </c>
       <c r="E263" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F263">
         <v>29710941</v>
@@ -7773,19 +7770,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B264" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C264" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D264" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E264" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F264">
         <v>29710942</v>
@@ -7793,19 +7790,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>637</v>
+      </c>
+      <c r="B265" t="s">
         <v>638</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
+        <v>641</v>
+      </c>
+      <c r="D265" t="s">
         <v>639</v>
       </c>
-      <c r="C265" t="s">
+      <c r="E265" t="s">
         <v>642</v>
-      </c>
-      <c r="D265" t="s">
-        <v>640</v>
-      </c>
-      <c r="E265" t="s">
-        <v>643</v>
       </c>
       <c r="F265">
         <v>29710959</v>
@@ -7813,19 +7810,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>643</v>
+      </c>
+      <c r="B266" t="s">
+        <v>646</v>
+      </c>
+      <c r="C266" t="s">
         <v>644</v>
       </c>
-      <c r="B266" t="s">
+      <c r="D266" t="s">
+        <v>645</v>
+      </c>
+      <c r="E266" t="s">
         <v>647</v>
-      </c>
-      <c r="C266" t="s">
-        <v>645</v>
-      </c>
-      <c r="D266" t="s">
-        <v>646</v>
-      </c>
-      <c r="E266" t="s">
-        <v>648</v>
       </c>
       <c r="F266">
         <v>22765949</v>
@@ -7833,19 +7830,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B267" t="s">
+        <v>648</v>
+      </c>
+      <c r="C267" t="s">
         <v>649</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>650</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>651</v>
-      </c>
-      <c r="E267" t="s">
-        <v>652</v>
       </c>
       <c r="F267">
         <v>22766029</v>
@@ -7853,19 +7850,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>655</v>
+      </c>
+      <c r="B268" t="s">
         <v>656</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>657</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>658</v>
       </c>
-      <c r="D268" t="s">
-        <v>659</v>
-      </c>
       <c r="E268" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F268" s="1">
         <v>28941725</v>
@@ -7873,19 +7870,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>655</v>
+      </c>
+      <c r="B269" t="s">
         <v>656</v>
       </c>
-      <c r="B269" t="s">
-        <v>657</v>
-      </c>
       <c r="C269" t="s">
+        <v>659</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="E269" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F269" s="1">
         <v>28941726</v>
@@ -7893,19 +7890,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>655</v>
+      </c>
+      <c r="B270" t="s">
         <v>656</v>
       </c>
-      <c r="B270" t="s">
-        <v>657</v>
-      </c>
       <c r="C270" t="s">
+        <v>661</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="E270" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F270" s="1">
         <v>28941727</v>
@@ -7913,19 +7910,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>655</v>
+      </c>
+      <c r="B271" t="s">
         <v>656</v>
       </c>
-      <c r="B271" t="s">
-        <v>657</v>
-      </c>
       <c r="C271" t="s">
+        <v>663</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>665</v>
-      </c>
       <c r="E271" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F271" s="1">
         <v>28941728</v>
@@ -7933,19 +7930,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>655</v>
+      </c>
+      <c r="B272" t="s">
         <v>656</v>
       </c>
-      <c r="B272" t="s">
-        <v>657</v>
-      </c>
       <c r="C272" t="s">
+        <v>665</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" t="s">
         <v>667</v>
-      </c>
-      <c r="E272" t="s">
-        <v>668</v>
       </c>
       <c r="F272" s="1">
         <v>28941729</v>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3146F8-A763-4C6A-835B-29472C5F53BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9E1746-DB58-4F63-930C-E24293F6C8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$236</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="665">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,894 +290,883 @@
     <t>永遠の春夢</t>
   </si>
   <si>
+    <t>幻想乡的二岩</t>
+  </si>
+  <si>
+    <t>幻想郷の二ッ岩</t>
+  </si>
+  <si>
+    <t>二岩猯藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰聪耳神子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈德曼的妖怪少女</t>
+  </si>
+  <si>
+    <t>ハルトマンの妖怪少女</t>
+  </si>
+  <si>
+    <t>古明地恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河城荷取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡失的情感</t>
+  </si>
+  <si>
+    <t>亡失のエモーション</t>
+  </si>
+  <si>
+    <t>秦心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少名针妙丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣白莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月まで届け、不死の煙</t>
+  </si>
+  <si>
+    <t>藤原妹红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神神话传</t>
+  </si>
+  <si>
+    <t>大神神話伝</t>
+  </si>
+  <si>
+    <t>物部布都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋色Master spark</t>
+  </si>
+  <si>
+    <t>恋色マスタースパーク</t>
+  </si>
+  <si>
+    <t>雾雨魔理沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依神女苑&amp;依神紫苑</t>
+  </si>
+  <si>
+    <t>守旧老爹与前卫少女</t>
+  </si>
+  <si>
+    <t>時代親父とハイカラ少女</t>
+  </si>
+  <si>
+    <t>云居一轮&amp;云山</t>
+  </si>
+  <si>
+    <t>TH15</t>
+  </si>
+  <si>
+    <t>东方绀珠传</t>
+  </si>
+  <si>
+    <t>纯狐</t>
+  </si>
+  <si>
     <t>哆来咪·苏伊特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻想乡的二岩</t>
-  </si>
-  <si>
-    <t>幻想郷の二ッ岩</t>
+  </si>
+  <si>
+    <t>Pandemonic Planet</t>
+  </si>
+  <si>
+    <t>パンデモニックプラネット</t>
+  </si>
+  <si>
+    <t>赫卡提亚·拉碧斯拉祖利</t>
+  </si>
+  <si>
+    <t>星条旗的小丑</t>
+  </si>
+  <si>
+    <t>星条旗のピエロ</t>
+  </si>
+  <si>
+    <t>克劳恩皮丝</t>
+  </si>
+  <si>
+    <t>九月的南瓜</t>
+  </si>
+  <si>
+    <t>九月のパンプキン</t>
+  </si>
+  <si>
+    <t>铃瑚</t>
+  </si>
+  <si>
+    <t>兔已着陆</t>
+  </si>
+  <si>
+    <t>兎は舞い降りた</t>
+  </si>
+  <si>
+    <t>清兰</t>
+  </si>
+  <si>
+    <t>逆转的命运之轮</t>
+  </si>
+  <si>
+    <t>逆転するホイールオブフォーチュン</t>
+  </si>
+  <si>
+    <t>稀神探女</t>
+  </si>
+  <si>
+    <t>TH14.5</t>
+  </si>
+  <si>
+    <t>东方深秘录</t>
+  </si>
+  <si>
+    <t>TH14</t>
+  </si>
+  <si>
+    <t>东方辉针城</t>
+  </si>
+  <si>
+    <t>柳树下的杜拉罕</t>
+  </si>
+  <si>
+    <t>柳の下のデュラハン</t>
+  </si>
+  <si>
+    <t>赤蛮奇</t>
+  </si>
+  <si>
+    <t>Reverse Ideology</t>
+  </si>
+  <si>
+    <t>リバースイデオロギー</t>
+  </si>
+  <si>
+    <t>鬼人正邪</t>
+  </si>
+  <si>
+    <t>孤独的狼人</t>
+  </si>
+  <si>
+    <t>孤独なウェアウルフ</t>
+  </si>
+  <si>
+    <t>今泉影狼</t>
+  </si>
+  <si>
+    <t>幻想净琉璃</t>
+  </si>
+  <si>
+    <t>幻想浄瑠璃</t>
+  </si>
+  <si>
+    <t>九十九弁弁＆九十九八桥</t>
+  </si>
+  <si>
+    <t>堀川雷鼓</t>
+  </si>
+  <si>
+    <t>秘境的人鱼</t>
+  </si>
+  <si>
+    <t>秘境のマーメイド</t>
+  </si>
+  <si>
+    <t>若鹭姬</t>
+  </si>
+  <si>
+    <t>少名针妙丸</t>
+  </si>
+  <si>
+    <t>TH13.5</t>
+  </si>
+  <si>
+    <t>东方心绮楼</t>
+  </si>
+  <si>
+    <t>佐渡的二岩</t>
+  </si>
+  <si>
+    <t>佐渡の二ッ岩</t>
+  </si>
+  <si>
+    <t>Magus Night</t>
+  </si>
+  <si>
+    <t>メイガスナイト</t>
+  </si>
+  <si>
+    <t>TH13</t>
+  </si>
+  <si>
+    <t>东方神灵庙</t>
   </si>
   <si>
     <t>二岩猯藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣德传说 ～ True Administrator</t>
+  </si>
+  <si>
+    <t>聖徳伝説 ～ True Administrator</t>
   </si>
   <si>
     <t>丰聪耳神子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈德曼的妖怪少女</t>
-  </si>
-  <si>
-    <t>ハルトマンの妖怪少女</t>
+  </si>
+  <si>
+    <t>Rigid Paradise</t>
+  </si>
+  <si>
+    <t>リジッドパラダイス</t>
+  </si>
+  <si>
+    <t>宫古芳香</t>
+  </si>
+  <si>
+    <t>古老的元神</t>
+  </si>
+  <si>
+    <t>古きユアンシェン</t>
+  </si>
+  <si>
+    <t>霍青娥</t>
+  </si>
+  <si>
+    <t>梦殿大祀庙</t>
+  </si>
+  <si>
+    <t>夢殿大祀廟</t>
+  </si>
+  <si>
+    <t>苏我屠自古</t>
+  </si>
+  <si>
+    <t>物部布都</t>
+  </si>
+  <si>
+    <t>Ghost Lead</t>
+  </si>
+  <si>
+    <t>ゴーストリード</t>
+  </si>
+  <si>
+    <t>西行寺幽幽子</t>
+  </si>
+  <si>
+    <t>门前的妖怪小姑娘</t>
+  </si>
+  <si>
+    <t>門前の妖怪小娘</t>
+  </si>
+  <si>
+    <t>幽谷响子</t>
+  </si>
+  <si>
+    <t>TH12.8</t>
+  </si>
+  <si>
+    <t>妖精大战争</t>
+  </si>
+  <si>
+    <t>光之三妖精</t>
+  </si>
+  <si>
+    <t>TH12.3</t>
+  </si>
+  <si>
+    <t>东方非想天则</t>
+  </si>
+  <si>
+    <t>the Grimoire of Alice</t>
+  </si>
+  <si>
+    <t>爱丽丝·玛格特洛依德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰是为了虚幻之人</t>
+  </si>
+  <si>
+    <t>信仰は儚き人間の為に</t>
+  </si>
+  <si>
+    <t>东风谷早苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红美铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵乌路空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴瓦鲁魔法图书馆</t>
+  </si>
+  <si>
+    <t>ヴワル魔法図書館</t>
+  </si>
+  <si>
+    <t>活泼的纯情小姑娘</t>
+  </si>
+  <si>
+    <t>おてんば恋娘</t>
+  </si>
+  <si>
+    <t>琪露诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋色Magic</t>
+  </si>
+  <si>
+    <t>恋色マジック</t>
+  </si>
+  <si>
+    <t>明日ハレの日、ケの昨日</t>
+  </si>
+  <si>
+    <t>洩矢诹访子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH12</t>
+  </si>
+  <si>
+    <t>东方星莲船</t>
+  </si>
+  <si>
+    <t>Captain Murasa</t>
+  </si>
+  <si>
+    <t>キャプテン・ムラサ</t>
+  </si>
+  <si>
+    <t>村纱水蜜</t>
+  </si>
+  <si>
+    <t>请注意万年备用伞</t>
+  </si>
+  <si>
+    <t>万年置き傘にご注意を</t>
+  </si>
+  <si>
+    <t>多多良小伞</t>
+  </si>
+  <si>
+    <t>平安时代的外星人</t>
+  </si>
+  <si>
+    <t>平安のエイリアン</t>
+  </si>
+  <si>
+    <t>封兽鵺</t>
+  </si>
+  <si>
+    <t>小小的贤将</t>
+  </si>
+  <si>
+    <t>小さな小さな賢将</t>
+  </si>
+  <si>
+    <t>圣白莲</t>
+  </si>
+  <si>
+    <t>虎纹的毘沙门天</t>
+  </si>
+  <si>
+    <t>虎柄の毘沙門天</t>
+  </si>
+  <si>
+    <t>寅丸星</t>
+  </si>
+  <si>
+    <t>云居一轮&amp;云山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH11</t>
+  </si>
+  <si>
+    <t>东方地灵殿</t>
+  </si>
+  <si>
+    <t>少女觉 ～ 3rd eye</t>
+  </si>
+  <si>
+    <t>少女さとり ～ 3rd eye</t>
+  </si>
+  <si>
+    <t>古明地觉</t>
   </si>
   <si>
     <t>古明地恋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被封印的妖怪 ～ Lost Place</t>
+  </si>
+  <si>
+    <t>封じられた妖怪 ～ Lost Place</t>
+  </si>
+  <si>
+    <t>黑谷山女</t>
+  </si>
+  <si>
+    <t>灵乌路空</t>
+  </si>
+  <si>
+    <t>昏暗的风穴</t>
+  </si>
+  <si>
+    <t>暗闇の風穴</t>
+  </si>
+  <si>
+    <t>琪斯美</t>
+  </si>
+  <si>
+    <t>绿眼的嫉妒</t>
+  </si>
+  <si>
+    <t>緑眼のジェラシー</t>
+  </si>
+  <si>
+    <t>水桥帕露西</t>
+  </si>
+  <si>
+    <t>大江山的花之酒宴</t>
+  </si>
+  <si>
+    <t>華のさかづき大江山</t>
+  </si>
+  <si>
+    <t>星熊勇仪</t>
+  </si>
+  <si>
+    <t>TH10.5</t>
+  </si>
+  <si>
+    <t>东方绯想天</t>
+  </si>
+  <si>
+    <t>布加勒斯特的人偶师</t>
+  </si>
+  <si>
+    <t>ブクレシュティの人形師</t>
+  </si>
+  <si>
+    <t>爱丽丝·玛格特洛依德</t>
+  </si>
+  <si>
+    <t>东方妖恋谈</t>
+  </si>
+  <si>
+    <t>東方妖恋談</t>
+  </si>
+  <si>
+    <t>博丽灵梦</t>
+  </si>
+  <si>
+    <t>魂魄妖梦</t>
+  </si>
+  <si>
+    <t>献给已逝公主的七重奏</t>
+  </si>
+  <si>
+    <t>亡き王女の為のセプテット</t>
+  </si>
+  <si>
+    <t>蕾米莉亚</t>
+  </si>
+  <si>
+    <t>铃仙·优昙华院·因幡</t>
+  </si>
+  <si>
+    <t>帕秋莉</t>
+  </si>
+  <si>
+    <t>风神少女</t>
+  </si>
+  <si>
+    <t>風神少女</t>
+  </si>
+  <si>
+    <t>射命丸文</t>
+  </si>
+  <si>
+    <t>Flowering Night</t>
+  </si>
+  <si>
+    <t>フラワリングナイト</t>
+  </si>
+  <si>
+    <t>十六夜咲夜</t>
+  </si>
+  <si>
+    <t>小野冢小町</t>
+  </si>
+  <si>
+    <t>永江衣玖</t>
+  </si>
+  <si>
+    <t>TH10</t>
+  </si>
+  <si>
+    <t>东方风神录</t>
+  </si>
+  <si>
+    <t>八坂神奈子</t>
+  </si>
+  <si>
+    <t>东风谷早苗</t>
   </si>
   <si>
     <t>河城荷取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃仙·优昙华院·因幡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亡失的情感</t>
-  </si>
-  <si>
-    <t>亡失のエモーション</t>
-  </si>
-  <si>
-    <t>秦心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少名针妙丸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣白莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月まで届け、不死の煙</t>
+  </si>
+  <si>
+    <t>命运的阴暗面</t>
+  </si>
+  <si>
+    <t>運命のダークサイド</t>
+  </si>
+  <si>
+    <t>键山雏</t>
+  </si>
+  <si>
+    <t>秋静叶</t>
+  </si>
+  <si>
+    <t>会受稻田姬的斥责啦</t>
+  </si>
+  <si>
+    <t>稲田姫様に叱られるから</t>
+  </si>
+  <si>
+    <t>秋穣子</t>
+  </si>
+  <si>
+    <t>犬走椛</t>
+  </si>
+  <si>
+    <t>Native Faith</t>
+  </si>
+  <si>
+    <t>ネイティブフェイス</t>
+  </si>
+  <si>
+    <t>洩矢诹访子</t>
+  </si>
+  <si>
+    <t>TH09.5</t>
+  </si>
+  <si>
+    <t>东方文花帖</t>
+  </si>
+  <si>
+    <t>东之国的不眠夜</t>
+  </si>
+  <si>
+    <t>東の国の眠らない夜</t>
+  </si>
+  <si>
+    <t>回忆京都</t>
+  </si>
+  <si>
+    <t>レトロスペクティブ京都</t>
+  </si>
+  <si>
+    <t>TH09</t>
+  </si>
+  <si>
+    <t>东方花映塚</t>
+  </si>
+  <si>
+    <t>风见幽香</t>
+  </si>
+  <si>
+    <t>梅蒂欣·梅兰可莉</t>
+  </si>
+  <si>
+    <t>普莉兹姆利巴三姐妹</t>
+  </si>
+  <si>
+    <t>活泼纯情小姑娘的冒险</t>
+  </si>
+  <si>
+    <t>おてんば恋娘の冒険</t>
+  </si>
+  <si>
+    <t>琪露诺</t>
+  </si>
+  <si>
+    <t>风神少女(Short Version)</t>
+  </si>
+  <si>
+    <t>Oriental Dark Flight</t>
+  </si>
+  <si>
+    <t>オリエンタルダークフライト</t>
+  </si>
+  <si>
+    <t>小野塚小町</t>
+  </si>
+  <si>
+    <t>宇佐大人的白旗</t>
+  </si>
+  <si>
+    <t>お宇佐さまの素い幡</t>
+  </si>
+  <si>
+    <t>因幡帝</t>
+  </si>
+  <si>
+    <t>TH08</t>
+  </si>
+  <si>
+    <t>东方永夜抄</t>
+  </si>
+  <si>
+    <t>八意永琳</t>
+  </si>
+  <si>
+    <t>莉格露·奈特巴格</t>
+  </si>
+  <si>
+    <t>已经只能听见歌声了</t>
+  </si>
+  <si>
+    <t>もう歌しか聞こえない</t>
+  </si>
+  <si>
+    <t>米斯蒂娅·萝蕾拉</t>
+  </si>
+  <si>
+    <t>蓬莱山辉夜</t>
+  </si>
+  <si>
+    <t>Voyage1970</t>
+  </si>
+  <si>
+    <t>ヴォヤージュ1970</t>
+  </si>
+  <si>
+    <t>蓬莱山辉夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain Asia</t>
+  </si>
+  <si>
+    <t>プレインエイジア</t>
+  </si>
+  <si>
+    <t>上白泽慧音</t>
   </si>
   <si>
     <t>藤原妹红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大神神话传</t>
-  </si>
-  <si>
-    <t>大神神話伝</t>
-  </si>
-  <si>
-    <t>物部布都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋色Master spark</t>
-  </si>
-  <si>
-    <t>恋色マスタースパーク</t>
+  </si>
+  <si>
+    <t>TH07.5</t>
+  </si>
+  <si>
+    <t>东方萃梦想</t>
+  </si>
+  <si>
+    <t>人偶裁判</t>
+  </si>
+  <si>
+    <t>人形裁判</t>
+  </si>
+  <si>
+    <t>蕾米莉亚·斯卡蕾特</t>
+  </si>
+  <si>
+    <t>帕秋莉·诺蕾姬</t>
+  </si>
+  <si>
+    <t>女仆与血之怀表</t>
+  </si>
+  <si>
+    <t>魔女们的舞会</t>
+  </si>
+  <si>
+    <t>魔女達の舞踏会</t>
+  </si>
+  <si>
+    <t>伊吹萃香</t>
+  </si>
+  <si>
+    <t>TH07</t>
+  </si>
+  <si>
+    <t>东方妖妖梦</t>
+  </si>
+  <si>
+    <t>八云蓝</t>
+  </si>
+  <si>
+    <t>Necro-Fantasia</t>
+  </si>
+  <si>
+    <t>ネクロファンタジア</t>
+  </si>
+  <si>
+    <t>凋叶棕（withered leaf）</t>
+  </si>
+  <si>
+    <t>ティアオイエツォン(withered leaf)</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>Crystallize Silver</t>
+  </si>
+  <si>
+    <t>クリスタライズシルバー</t>
+  </si>
+  <si>
+    <t>蕾蒂·霍瓦特洛克</t>
+  </si>
+  <si>
+    <t>天空的花都</t>
+  </si>
+  <si>
+    <t>天空の花の都</t>
+  </si>
+  <si>
+    <t>莉莉白</t>
+  </si>
+  <si>
+    <t>Border of Life</t>
+  </si>
+  <si>
+    <t>ボーダーオブライフ</t>
+  </si>
+  <si>
+    <t>TH06</t>
+  </si>
+  <si>
+    <t>东方红魔乡</t>
+  </si>
+  <si>
+    <t>Lunate Elf</t>
+  </si>
+  <si>
+    <t>ルーネイトエルフ</t>
+  </si>
+  <si>
+    <t>大妖精</t>
+  </si>
+  <si>
+    <t>U.N.OWEN就是她吗？</t>
+  </si>
+  <si>
+    <t>U.N.オーエンは彼女なのか？</t>
+  </si>
+  <si>
+    <t>芙兰朵露·斯卡蕾特</t>
+  </si>
+  <si>
+    <t>明治十七年的上海爱丽丝</t>
+  </si>
+  <si>
+    <t>明治十七年の上海アリス</t>
+  </si>
+  <si>
+    <t>红美铃</t>
+  </si>
+  <si>
+    <t>妖魔夜行</t>
+  </si>
+  <si>
+    <t>露米娅</t>
+  </si>
+  <si>
+    <t>小恶魔</t>
+  </si>
+  <si>
+    <t>TH05</t>
+  </si>
+  <si>
+    <t>东方怪绮谈</t>
+  </si>
+  <si>
+    <t>Plastic Mind</t>
+  </si>
+  <si>
+    <t>プラスチックマインド</t>
+  </si>
+  <si>
+    <t>不可思议之国的爱丽丝</t>
+  </si>
+  <si>
+    <t>不思議の国のアリス</t>
+  </si>
+  <si>
+    <t>露易兹</t>
+  </si>
+  <si>
+    <t>梦子</t>
+  </si>
+  <si>
+    <t>萨拉</t>
+  </si>
+  <si>
+    <t>神绮</t>
+  </si>
+  <si>
+    <t>舞</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>雪&amp;舞</t>
+  </si>
+  <si>
+    <t>TH04</t>
+  </si>
+  <si>
+    <t>东方幻想乡</t>
+  </si>
+  <si>
+    <t>艾丽</t>
+  </si>
+  <si>
+    <t>奥莲姬</t>
+  </si>
+  <si>
+    <t>胡桃</t>
+  </si>
+  <si>
+    <t>幻月</t>
+  </si>
+  <si>
+    <t>梦月</t>
   </si>
   <si>
     <t>雾雨魔理沙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依神女苑&amp;依神紫苑</t>
-  </si>
-  <si>
-    <t>Last Occultism ~现世的秘术师</t>
-  </si>
-  <si>
-    <t>守旧老爹与前卫少女</t>
-  </si>
-  <si>
-    <t>時代親父とハイカラ少女</t>
-  </si>
-  <si>
-    <t>云居一轮&amp;云山</t>
-  </si>
-  <si>
-    <t>TH15</t>
-  </si>
-  <si>
-    <t>东方绀珠传</t>
-  </si>
-  <si>
-    <t>纯狐</t>
-  </si>
-  <si>
-    <t>哆来咪·苏伊特</t>
-  </si>
-  <si>
-    <t>Pandemonic Planet</t>
-  </si>
-  <si>
-    <t>パンデモニックプラネット</t>
-  </si>
-  <si>
-    <t>赫卡提亚·拉碧斯拉祖利</t>
-  </si>
-  <si>
-    <t>星条旗的小丑</t>
-  </si>
-  <si>
-    <t>星条旗のピエロ</t>
-  </si>
-  <si>
-    <t>克劳恩皮丝</t>
-  </si>
-  <si>
-    <t>九月的南瓜</t>
-  </si>
-  <si>
-    <t>九月のパンプキン</t>
-  </si>
-  <si>
-    <t>铃瑚</t>
-  </si>
-  <si>
-    <t>兔已着陆</t>
-  </si>
-  <si>
-    <t>兎は舞い降りた</t>
-  </si>
-  <si>
-    <t>清兰</t>
-  </si>
-  <si>
-    <t>逆转的命运之轮</t>
-  </si>
-  <si>
-    <t>逆転するホイールオブフォーチュン</t>
-  </si>
-  <si>
-    <t>稀神探女</t>
-  </si>
-  <si>
-    <t>TH14.5</t>
-  </si>
-  <si>
-    <t>东方深秘录</t>
-  </si>
-  <si>
-    <t>TH14</t>
-  </si>
-  <si>
-    <t>东方辉针城</t>
-  </si>
-  <si>
-    <t>柳树下的杜拉罕</t>
-  </si>
-  <si>
-    <t>柳の下のデュラハン</t>
-  </si>
-  <si>
-    <t>赤蛮奇</t>
-  </si>
-  <si>
-    <t>Reverse Ideology</t>
-  </si>
-  <si>
-    <t>リバースイデオロギー</t>
-  </si>
-  <si>
-    <t>鬼人正邪</t>
-  </si>
-  <si>
-    <t>孤独的狼人</t>
-  </si>
-  <si>
-    <t>孤独なウェアウルフ</t>
-  </si>
-  <si>
-    <t>今泉影狼</t>
-  </si>
-  <si>
-    <t>幻想净琉璃</t>
-  </si>
-  <si>
-    <t>幻想浄瑠璃</t>
-  </si>
-  <si>
-    <t>九十九弁弁＆九十九八桥</t>
-  </si>
-  <si>
-    <t>堀川雷鼓</t>
-  </si>
-  <si>
-    <t>秘境的人鱼</t>
-  </si>
-  <si>
-    <t>秘境のマーメイド</t>
-  </si>
-  <si>
-    <t>若鹭姬</t>
-  </si>
-  <si>
-    <t>少名针妙丸</t>
-  </si>
-  <si>
-    <t>TH13.5</t>
-  </si>
-  <si>
-    <t>东方心绮楼</t>
-  </si>
-  <si>
-    <t>佐渡的二岩</t>
-  </si>
-  <si>
-    <t>佐渡の二ッ岩</t>
-  </si>
-  <si>
-    <t>Magus Night</t>
-  </si>
-  <si>
-    <t>メイガスナイト</t>
-  </si>
-  <si>
-    <t>TH13</t>
-  </si>
-  <si>
-    <t>东方神灵庙</t>
-  </si>
-  <si>
-    <t>二岩猯藏</t>
-  </si>
-  <si>
-    <t>圣德传说 ～ True Administrator</t>
-  </si>
-  <si>
-    <t>聖徳伝説 ～ True Administrator</t>
-  </si>
-  <si>
-    <t>丰聪耳神子</t>
-  </si>
-  <si>
-    <t>Rigid Paradise</t>
-  </si>
-  <si>
-    <t>リジッドパラダイス</t>
-  </si>
-  <si>
-    <t>宫古芳香</t>
-  </si>
-  <si>
-    <t>古老的元神</t>
-  </si>
-  <si>
-    <t>古きユアンシェン</t>
-  </si>
-  <si>
-    <t>霍青娥</t>
-  </si>
-  <si>
-    <t>梦殿大祀庙</t>
-  </si>
-  <si>
-    <t>夢殿大祀廟</t>
-  </si>
-  <si>
-    <t>苏我屠自古</t>
-  </si>
-  <si>
-    <t>物部布都</t>
-  </si>
-  <si>
-    <t>Ghost Lead</t>
-  </si>
-  <si>
-    <t>ゴーストリード</t>
-  </si>
-  <si>
-    <t>西行寺幽幽子</t>
-  </si>
-  <si>
-    <t>门前的妖怪小姑娘</t>
-  </si>
-  <si>
-    <t>門前の妖怪小娘</t>
-  </si>
-  <si>
-    <t>幽谷响子</t>
-  </si>
-  <si>
-    <t>TH12.8</t>
-  </si>
-  <si>
-    <t>妖精大战争</t>
-  </si>
-  <si>
-    <t>光之三妖精</t>
-  </si>
-  <si>
-    <t>TH12.3</t>
-  </si>
-  <si>
-    <t>东方非想天则</t>
-  </si>
-  <si>
-    <t>the Grimoire of Alice</t>
-  </si>
-  <si>
-    <t>爱丽丝·玛格特洛依德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信仰是为了虚幻之人</t>
-  </si>
-  <si>
-    <t>信仰は儚き人間の為に</t>
-  </si>
-  <si>
-    <t>东风谷早苗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红美铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵乌路空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴瓦鲁魔法图书馆</t>
-  </si>
-  <si>
-    <t>ヴワル魔法図書館</t>
-  </si>
-  <si>
-    <t>活泼的纯情小姑娘</t>
-  </si>
-  <si>
-    <t>おてんば恋娘</t>
-  </si>
-  <si>
-    <t>琪露诺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋色Magic</t>
-  </si>
-  <si>
-    <t>恋色マジック</t>
-  </si>
-  <si>
-    <t>明日ハレの日、ケの昨日</t>
-  </si>
-  <si>
-    <t>洩矢诹访子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH12</t>
-  </si>
-  <si>
-    <t>东方星莲船</t>
-  </si>
-  <si>
-    <t>Captain Murasa</t>
-  </si>
-  <si>
-    <t>キャプテン・ムラサ</t>
-  </si>
-  <si>
-    <t>村纱水蜜</t>
-  </si>
-  <si>
-    <t>请注意万年备用伞</t>
-  </si>
-  <si>
-    <t>万年置き傘にご注意を</t>
-  </si>
-  <si>
-    <t>多多良小伞</t>
-  </si>
-  <si>
-    <t>平安时代的外星人</t>
-  </si>
-  <si>
-    <t>平安のエイリアン</t>
-  </si>
-  <si>
-    <t>封兽鵺</t>
-  </si>
-  <si>
-    <t>小小的贤将</t>
-  </si>
-  <si>
-    <t>小さな小さな賢将</t>
-  </si>
-  <si>
-    <t>圣白莲</t>
-  </si>
-  <si>
-    <t>虎纹的毘沙门天</t>
-  </si>
-  <si>
-    <t>虎柄の毘沙門天</t>
-  </si>
-  <si>
-    <t>寅丸星</t>
-  </si>
-  <si>
-    <t>云居一轮&amp;云山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH11</t>
-  </si>
-  <si>
-    <t>东方地灵殿</t>
-  </si>
-  <si>
-    <t>少女觉 ～ 3rd eye</t>
-  </si>
-  <si>
-    <t>少女さとり ～ 3rd eye</t>
-  </si>
-  <si>
-    <t>古明地觉</t>
-  </si>
-  <si>
-    <t>古明地恋</t>
-  </si>
-  <si>
-    <t>被封印的妖怪 ～ Lost Place</t>
-  </si>
-  <si>
-    <t>封じられた妖怪 ～ Lost Place</t>
-  </si>
-  <si>
-    <t>黑谷山女</t>
-  </si>
-  <si>
-    <t>灵乌路空</t>
-  </si>
-  <si>
-    <t>昏暗的风穴</t>
-  </si>
-  <si>
-    <t>暗闇の風穴</t>
-  </si>
-  <si>
-    <t>琪斯美</t>
-  </si>
-  <si>
-    <t>绿眼的嫉妒</t>
-  </si>
-  <si>
-    <t>緑眼のジェラシー</t>
-  </si>
-  <si>
-    <t>水桥帕露西</t>
-  </si>
-  <si>
-    <t>大江山的花之酒宴</t>
-  </si>
-  <si>
-    <t>華のさかづき大江山</t>
-  </si>
-  <si>
-    <t>星熊勇仪</t>
-  </si>
-  <si>
-    <t>TH10.5</t>
-  </si>
-  <si>
-    <t>东方绯想天</t>
-  </si>
-  <si>
-    <t>布加勒斯特的人偶师</t>
-  </si>
-  <si>
-    <t>ブクレシュティの人形師</t>
-  </si>
-  <si>
-    <t>爱丽丝·玛格特洛依德</t>
-  </si>
-  <si>
-    <t>东方妖恋谈</t>
-  </si>
-  <si>
-    <t>東方妖恋談</t>
-  </si>
-  <si>
-    <t>博丽灵梦</t>
-  </si>
-  <si>
-    <t>魂魄妖梦</t>
-  </si>
-  <si>
-    <t>献给已逝公主的七重奏</t>
-  </si>
-  <si>
-    <t>亡き王女の為のセプテット</t>
-  </si>
-  <si>
-    <t>蕾米莉亚</t>
-  </si>
-  <si>
-    <t>铃仙·优昙华院·因幡</t>
-  </si>
-  <si>
-    <t>帕秋莉</t>
-  </si>
-  <si>
-    <t>风神少女</t>
-  </si>
-  <si>
-    <t>風神少女</t>
-  </si>
-  <si>
-    <t>射命丸文</t>
-  </si>
-  <si>
-    <t>Flowering Night</t>
-  </si>
-  <si>
-    <t>フラワリングナイト</t>
-  </si>
-  <si>
-    <t>十六夜咲夜</t>
-  </si>
-  <si>
-    <t>小野冢小町</t>
-  </si>
-  <si>
-    <t>永江衣玖</t>
-  </si>
-  <si>
-    <t>TH10</t>
-  </si>
-  <si>
-    <t>东方风神录</t>
-  </si>
-  <si>
-    <t>八坂神奈子</t>
-  </si>
-  <si>
-    <t>东风谷早苗</t>
-  </si>
-  <si>
-    <t>河城荷取</t>
-  </si>
-  <si>
-    <t>命运的阴暗面</t>
-  </si>
-  <si>
-    <t>運命のダークサイド</t>
-  </si>
-  <si>
-    <t>键山雏</t>
-  </si>
-  <si>
-    <t>秋静叶</t>
-  </si>
-  <si>
-    <t>会受稻田姬的斥责啦</t>
-  </si>
-  <si>
-    <t>稲田姫様に叱られるから</t>
-  </si>
-  <si>
-    <t>秋穣子</t>
-  </si>
-  <si>
-    <t>犬走椛</t>
-  </si>
-  <si>
-    <t>Native Faith</t>
-  </si>
-  <si>
-    <t>ネイティブフェイス</t>
-  </si>
-  <si>
-    <t>洩矢诹访子</t>
-  </si>
-  <si>
-    <t>TH09.5</t>
-  </si>
-  <si>
-    <t>东方文花帖</t>
-  </si>
-  <si>
-    <t>东之国的不眠夜</t>
-  </si>
-  <si>
-    <t>東の国の眠らない夜</t>
-  </si>
-  <si>
-    <t>回忆京都</t>
-  </si>
-  <si>
-    <t>レトロスペクティブ京都</t>
-  </si>
-  <si>
-    <t>TH09</t>
-  </si>
-  <si>
-    <t>东方花映塚</t>
-  </si>
-  <si>
-    <t>风见幽香</t>
-  </si>
-  <si>
-    <t>梅蒂欣·梅兰可莉</t>
-  </si>
-  <si>
-    <t>普莉兹姆利巴三姐妹</t>
-  </si>
-  <si>
-    <t>活泼纯情小姑娘的冒险</t>
-  </si>
-  <si>
-    <t>おてんば恋娘の冒険</t>
-  </si>
-  <si>
-    <t>琪露诺</t>
-  </si>
-  <si>
-    <t>风神少女(Short Version)</t>
-  </si>
-  <si>
-    <t>Oriental Dark Flight</t>
-  </si>
-  <si>
-    <t>オリエンタルダークフライト</t>
-  </si>
-  <si>
-    <t>小野塚小町</t>
-  </si>
-  <si>
-    <t>宇佐大人的白旗</t>
-  </si>
-  <si>
-    <t>お宇佐さまの素い幡</t>
-  </si>
-  <si>
-    <t>因幡帝</t>
-  </si>
-  <si>
-    <t>TH08</t>
-  </si>
-  <si>
-    <t>东方永夜抄</t>
-  </si>
-  <si>
-    <t>八意永琳</t>
-  </si>
-  <si>
-    <t>莉格露·奈特巴格</t>
-  </si>
-  <si>
-    <t>已经只能听见歌声了</t>
-  </si>
-  <si>
-    <t>もう歌しか聞こえない</t>
-  </si>
-  <si>
-    <t>米斯蒂娅·萝蕾拉</t>
-  </si>
-  <si>
-    <t>蓬莱山辉夜</t>
-  </si>
-  <si>
-    <t>Voyage1970</t>
-  </si>
-  <si>
-    <t>ヴォヤージュ1970</t>
-  </si>
-  <si>
-    <t>蓬莱山辉夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plain Asia</t>
-  </si>
-  <si>
-    <t>プレインエイジア</t>
-  </si>
-  <si>
-    <t>上白泽慧音</t>
-  </si>
-  <si>
-    <t>藤原妹红</t>
-  </si>
-  <si>
-    <t>TH07.5</t>
-  </si>
-  <si>
-    <t>东方萃梦想</t>
-  </si>
-  <si>
-    <t>人偶裁判</t>
-  </si>
-  <si>
-    <t>人形裁判</t>
-  </si>
-  <si>
-    <t>蕾米莉亚·斯卡蕾特</t>
-  </si>
-  <si>
-    <t>帕秋莉·诺蕾姬</t>
-  </si>
-  <si>
-    <t>女仆与血之怀表</t>
-  </si>
-  <si>
-    <t>魔女们的舞会</t>
-  </si>
-  <si>
-    <t>魔女達の舞踏会</t>
-  </si>
-  <si>
-    <t>伊吹萃香</t>
-  </si>
-  <si>
-    <t>TH07</t>
-  </si>
-  <si>
-    <t>东方妖妖梦</t>
-  </si>
-  <si>
-    <t>八云蓝</t>
-  </si>
-  <si>
-    <t>Necro-Fantasia</t>
-  </si>
-  <si>
-    <t>ネクロファンタジア</t>
-  </si>
-  <si>
-    <t>凋叶棕（withered leaf）</t>
-  </si>
-  <si>
-    <t>ティアオイエツォン(withered leaf)</t>
-  </si>
-  <si>
-    <t>橙</t>
-  </si>
-  <si>
-    <t>Crystallize Silver</t>
-  </si>
-  <si>
-    <t>クリスタライズシルバー</t>
-  </si>
-  <si>
-    <t>蕾蒂·霍瓦特洛克</t>
-  </si>
-  <si>
-    <t>天空的花都</t>
-  </si>
-  <si>
-    <t>天空の花の都</t>
-  </si>
-  <si>
-    <t>莉莉白</t>
-  </si>
-  <si>
-    <t>Border of Life</t>
-  </si>
-  <si>
-    <t>ボーダーオブライフ</t>
-  </si>
-  <si>
-    <t>TH06</t>
-  </si>
-  <si>
-    <t>东方红魔乡</t>
-  </si>
-  <si>
-    <t>Lunate Elf</t>
-  </si>
-  <si>
-    <t>ルーネイトエルフ</t>
-  </si>
-  <si>
-    <t>大妖精</t>
-  </si>
-  <si>
-    <t>U.N.OWEN就是她吗？</t>
-  </si>
-  <si>
-    <t>U.N.オーエンは彼女なのか？</t>
-  </si>
-  <si>
-    <t>芙兰朵露·斯卡蕾特</t>
-  </si>
-  <si>
-    <t>明治十七年的上海爱丽丝</t>
-  </si>
-  <si>
-    <t>明治十七年の上海アリス</t>
-  </si>
-  <si>
-    <t>红美铃</t>
-  </si>
-  <si>
-    <t>妖魔夜行</t>
-  </si>
-  <si>
-    <t>露米娅</t>
-  </si>
-  <si>
-    <t>小恶魔</t>
-  </si>
-  <si>
-    <t>TH05</t>
-  </si>
-  <si>
-    <t>东方怪绮谈</t>
-  </si>
-  <si>
-    <t>Plastic Mind</t>
-  </si>
-  <si>
-    <t>プラスチックマインド</t>
-  </si>
-  <si>
-    <t>不可思议之国的爱丽丝</t>
-  </si>
-  <si>
-    <t>不思議の国のアリス</t>
-  </si>
-  <si>
-    <t>露易兹</t>
-  </si>
-  <si>
-    <t>梦子</t>
-  </si>
-  <si>
-    <t>萨拉</t>
-  </si>
-  <si>
-    <t>神绮</t>
-  </si>
-  <si>
-    <t>舞</t>
-  </si>
-  <si>
-    <t>雪</t>
-  </si>
-  <si>
-    <t>雪&amp;舞</t>
-  </si>
-  <si>
-    <t>TH04</t>
-  </si>
-  <si>
-    <t>东方幻想乡</t>
-  </si>
-  <si>
-    <t>艾丽</t>
-  </si>
-  <si>
-    <t>奥莲姬</t>
-  </si>
-  <si>
-    <t>胡桃</t>
-  </si>
-  <si>
-    <t>幻月</t>
-  </si>
-  <si>
-    <t>梦月</t>
-  </si>
-  <si>
-    <t>雾雨魔理沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TH03</t>
   </si>
   <si>
@@ -1391,9 +1380,6 @@
   </si>
   <si>
     <t>今宵是飘逸的自我主义者(Live ver) ～ Egoistic Flowers.</t>
-  </si>
-  <si>
-    <t>狂気の瞳 ~ Invisible Full Moon</t>
   </si>
   <si>
     <t>陰陽 ~ The Positive and Negative</t>
@@ -1799,9 +1785,6 @@
   </si>
   <si>
     <t>ラストオカルティズム ~ 現し世の秘術師</t>
-  </si>
-  <si>
-    <t>有頂天変 ~ Wonderful Heaven</t>
   </si>
   <si>
     <t>憑坐は夢と現の間に ~ Necro-Fantasia</t>
@@ -2493,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2525,24 +2508,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" t="s">
         <v>397</v>
       </c>
-      <c r="B2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" t="s">
-        <v>400</v>
-      </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F2">
         <v>22636836</v>
@@ -2550,19 +2533,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F3">
         <v>22636829</v>
@@ -2570,19 +2553,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F4">
         <v>22636835</v>
@@ -2590,19 +2573,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F5">
         <v>22636837</v>
@@ -2610,19 +2593,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" t="s">
         <v>398</v>
       </c>
-      <c r="C6" t="s">
-        <v>401</v>
-      </c>
       <c r="D6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F6">
         <v>500684336</v>
@@ -2630,19 +2613,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" t="s">
         <v>387</v>
-      </c>
-      <c r="B7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D7" t="s">
-        <v>389</v>
-      </c>
-      <c r="E7" t="s">
-        <v>390</v>
       </c>
       <c r="F7">
         <v>34999157</v>
@@ -2650,19 +2633,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F8">
         <v>34999158</v>
@@ -2670,19 +2653,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <v>34999160</v>
@@ -2690,19 +2673,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F10">
         <v>34999161</v>
@@ -2710,19 +2693,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E11" t="s">
         <v>387</v>
-      </c>
-      <c r="B11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E11" t="s">
-        <v>390</v>
       </c>
       <c r="F11">
         <v>34999163</v>
@@ -2730,19 +2713,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12">
         <v>22636805</v>
@@ -2750,19 +2733,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F13">
         <v>22636807</v>
@@ -2770,16 +2753,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2790,19 +2773,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E15" t="s">
         <v>373</v>
-      </c>
-      <c r="B15" t="s">
-        <v>374</v>
-      </c>
-      <c r="C15" t="s">
-        <v>445</v>
-      </c>
-      <c r="D15" t="s">
-        <v>528</v>
-      </c>
-      <c r="E15" t="s">
-        <v>376</v>
       </c>
       <c r="F15">
         <v>22636816</v>
@@ -2810,19 +2793,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E16" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F16">
         <v>22636808</v>
@@ -2830,19 +2813,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E17" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -2850,19 +2833,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F18">
         <v>22636806</v>
@@ -2870,19 +2853,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D19" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E19" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F19">
         <v>22636820</v>
@@ -2890,19 +2873,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" t="s">
         <v>374</v>
       </c>
-      <c r="C20" t="s">
-        <v>377</v>
-      </c>
       <c r="D20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F20">
         <v>22636811</v>
@@ -2910,19 +2893,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D21" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F21">
         <v>22636814</v>
@@ -2930,19 +2913,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" t="s">
+        <v>527</v>
+      </c>
+      <c r="D22" t="s">
+        <v>540</v>
+      </c>
+      <c r="E22" t="s">
         <v>365</v>
-      </c>
-      <c r="B22" t="s">
-        <v>366</v>
-      </c>
-      <c r="C22" t="s">
-        <v>531</v>
-      </c>
-      <c r="D22" t="s">
-        <v>544</v>
-      </c>
-      <c r="E22" t="s">
-        <v>368</v>
       </c>
       <c r="F22">
         <v>22636738</v>
@@ -2950,19 +2933,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>528</v>
+      </c>
+      <c r="D23" t="s">
+        <v>541</v>
+      </c>
+      <c r="E23" t="s">
         <v>366</v>
-      </c>
-      <c r="C23" t="s">
-        <v>532</v>
-      </c>
-      <c r="D23" t="s">
-        <v>545</v>
-      </c>
-      <c r="E23" t="s">
-        <v>369</v>
       </c>
       <c r="F23">
         <v>22636747</v>
@@ -2970,19 +2953,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C24" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F24">
         <v>22636741</v>
@@ -2990,16 +2973,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C25" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D25" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -3010,19 +2993,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C26" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D26" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F26">
         <v>22636742</v>
@@ -3030,16 +3013,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C27" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D27" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -3050,16 +3033,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C28" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D28" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -3070,19 +3053,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D29" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F29">
         <v>22636744</v>
@@ -3090,19 +3073,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B30" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C30" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D30" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E30" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F30">
         <v>22636758</v>
@@ -3110,19 +3093,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D31" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F31">
         <v>22636764</v>
@@ -3130,19 +3113,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D32" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E32" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F32">
         <v>22636763</v>
@@ -3150,19 +3133,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D33" t="s">
         <v>352</v>
       </c>
-      <c r="B33" t="s">
-        <v>353</v>
-      </c>
-      <c r="C33" t="s">
-        <v>354</v>
-      </c>
-      <c r="D33" t="s">
-        <v>355</v>
-      </c>
       <c r="E33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F33">
         <v>22636767</v>
@@ -3170,19 +3153,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D34" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F34">
         <v>22636765</v>
@@ -3190,19 +3173,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C35" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D35" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E35" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F35">
         <v>22636779</v>
@@ -3210,19 +3193,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C36" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D36" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E36" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F36">
         <v>22636770</v>
@@ -3230,19 +3213,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C37" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D37" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F37">
         <v>22636768</v>
@@ -3250,19 +3233,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D38" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F38">
         <v>22636774</v>
@@ -3270,19 +3253,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" t="s">
         <v>353</v>
       </c>
-      <c r="C39" t="s">
-        <v>356</v>
-      </c>
       <c r="D39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F39">
         <v>22636777</v>
@@ -3290,19 +3273,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F40">
         <v>22636772</v>
@@ -3310,19 +3293,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E41" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F41">
         <v>22636719</v>
@@ -3330,19 +3313,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" t="s">
+        <v>337</v>
+      </c>
+      <c r="D42" t="s">
         <v>338</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>339</v>
-      </c>
-      <c r="C42" t="s">
-        <v>340</v>
-      </c>
-      <c r="D42" t="s">
-        <v>341</v>
-      </c>
-      <c r="E42" t="s">
-        <v>342</v>
       </c>
       <c r="F42">
         <v>22636721</v>
@@ -3350,19 +3333,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F43">
         <v>22636718</v>
@@ -3370,19 +3353,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D44" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E44" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F44">
         <v>22636722</v>
@@ -3390,19 +3373,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F45">
         <v>22636724</v>
@@ -3410,19 +3393,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C46" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D46" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E46" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F46">
         <v>22636720</v>
@@ -3430,19 +3413,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C47" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D47" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E47" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F47">
         <v>22636725</v>
@@ -3450,19 +3433,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C48" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F48">
         <v>22636723</v>
@@ -3470,19 +3453,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C49" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D49" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E49" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F49">
         <v>22636729</v>
@@ -3490,19 +3473,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E50" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F50">
         <v>22636707</v>
@@ -3510,19 +3493,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C51" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D51" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E51" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F51">
         <v>22636702</v>
@@ -3530,19 +3513,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B52" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D52" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E52" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F52">
         <v>22636711</v>
@@ -3550,19 +3533,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C53" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D53" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F53">
         <v>22636703</v>
@@ -3570,19 +3553,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C54" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D54" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F54">
         <v>22636705</v>
@@ -3590,19 +3573,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D55" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F55">
         <v>22636714</v>
@@ -3610,19 +3593,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C56" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D56" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E56" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F56">
         <v>22636709</v>
@@ -3630,19 +3613,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B57" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C57" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F57">
         <v>22636704</v>
@@ -3650,19 +3633,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B58" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C58" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D58" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E58" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F58">
         <v>22636710</v>
@@ -3670,16 +3653,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" t="s">
+        <v>320</v>
+      </c>
+      <c r="C59" t="s">
         <v>322</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>323</v>
-      </c>
-      <c r="C59" t="s">
-        <v>325</v>
-      </c>
-      <c r="D59" t="s">
-        <v>326</v>
       </c>
       <c r="E59" t="s">
         <v>77</v>
@@ -3690,19 +3673,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F60">
         <v>22765972</v>
@@ -3710,19 +3693,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C61" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D61" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F61">
         <v>22765996</v>
@@ -3730,16 +3713,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s">
         <v>20</v>
@@ -3750,16 +3733,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E63" t="s">
         <v>20</v>
@@ -3770,19 +3753,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B64" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D64" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E64" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F64">
         <v>22765976</v>
@@ -3790,19 +3773,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B65" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C65" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D65" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F65">
         <v>22766000</v>
@@ -3810,19 +3793,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B66" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E66" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F66">
         <v>22765967</v>
@@ -3830,19 +3813,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>309</v>
+      </c>
+      <c r="B67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" t="s">
         <v>312</v>
       </c>
-      <c r="B67" t="s">
-        <v>313</v>
-      </c>
-      <c r="C67" t="s">
-        <v>314</v>
-      </c>
-      <c r="D67" t="s">
-        <v>315</v>
-      </c>
       <c r="E67" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F67">
         <v>22765990</v>
@@ -3850,19 +3833,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C68" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F68">
         <v>22765980</v>
@@ -3870,19 +3853,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B69" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E69" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F69">
         <v>22766003</v>
@@ -3890,19 +3873,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B70" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C70" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D70" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F70">
         <v>22765970</v>
@@ -3910,19 +3893,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C71" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D71" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F71">
         <v>22765994</v>
@@ -3930,19 +3913,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B72" t="s">
+        <v>310</v>
+      </c>
+      <c r="C72" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" t="s">
+        <v>557</v>
+      </c>
+      <c r="E72" t="s">
         <v>313</v>
-      </c>
-      <c r="C72" t="s">
-        <v>247</v>
-      </c>
-      <c r="D72" t="s">
-        <v>561</v>
-      </c>
-      <c r="E72" t="s">
-        <v>316</v>
       </c>
       <c r="F72">
         <v>22765966</v>
@@ -3950,19 +3933,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C73" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D73" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F73">
         <v>22765984</v>
@@ -3970,16 +3953,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C74" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D74" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E74" t="s">
         <v>77</v>
@@ -3990,19 +3973,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C75" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D75" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E75" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F75">
         <v>22766006</v>
@@ -4010,19 +3993,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>294</v>
+      </c>
+      <c r="B76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C76" t="s">
+        <v>462</v>
+      </c>
+      <c r="D76" t="s">
+        <v>463</v>
+      </c>
+      <c r="E76" t="s">
         <v>297</v>
-      </c>
-      <c r="B76" t="s">
-        <v>298</v>
-      </c>
-      <c r="C76" t="s">
-        <v>466</v>
-      </c>
-      <c r="D76" t="s">
-        <v>467</v>
-      </c>
-      <c r="E76" t="s">
-        <v>300</v>
       </c>
       <c r="F76">
         <v>22636686</v>
@@ -4030,19 +4013,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B77" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" t="s">
         <v>298</v>
       </c>
-      <c r="C77" t="s">
-        <v>301</v>
-      </c>
       <c r="D77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F77">
         <v>22636681</v>
@@ -4050,19 +4033,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B78" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C78" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D78" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E78" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F78">
         <v>22636690</v>
@@ -4070,19 +4053,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D79" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E79" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F79">
         <v>22636684</v>
@@ -4090,16 +4073,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E80" t="s">
         <v>20</v>
@@ -4110,19 +4093,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D81" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E81" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F81">
         <v>22636693</v>
@@ -4130,19 +4113,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D82" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E82" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F82">
         <v>22636685</v>
@@ -4150,19 +4133,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C83" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D83" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E83" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F83">
         <v>22636683</v>
@@ -4170,19 +4153,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B84" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C84" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D84" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F84">
         <v>22636695</v>
@@ -4190,19 +4173,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E85" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F85">
         <v>22636689</v>
@@ -4210,19 +4193,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F86">
         <v>22636687</v>
@@ -4230,19 +4213,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C87" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D87" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E87" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F87">
         <v>510172</v>
@@ -4250,16 +4233,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D88" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E88" t="s">
         <v>20</v>
@@ -4270,19 +4253,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B89" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C89" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E89" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F89">
         <v>510177</v>
@@ -4290,19 +4273,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B90" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C90" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D90" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F90">
         <v>510179</v>
@@ -4310,19 +4293,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B91" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C91" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D91" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E91" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F91">
         <v>510182</v>
@@ -4330,19 +4313,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B92" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D92" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E92" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F92">
         <v>510185</v>
@@ -4350,19 +4333,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" t="s">
+        <v>460</v>
+      </c>
+      <c r="E93" t="s">
         <v>283</v>
-      </c>
-      <c r="C93" t="s">
-        <v>463</v>
-      </c>
-      <c r="D93" t="s">
-        <v>464</v>
-      </c>
-      <c r="E93" t="s">
-        <v>286</v>
       </c>
       <c r="F93">
         <v>510188</v>
@@ -4370,19 +4353,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B94" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C94" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D94" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E94" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F94">
         <v>510192</v>
@@ -4390,19 +4373,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C95" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D95" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E95" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F95">
         <v>510196</v>
@@ -4410,19 +4393,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C96" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D96" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E96" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F96">
         <v>510200</v>
@@ -4430,19 +4413,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B97" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" t="s">
+        <v>476</v>
+      </c>
+      <c r="D97" t="s">
+        <v>477</v>
+      </c>
+      <c r="E97" t="s">
         <v>282</v>
-      </c>
-      <c r="B97" t="s">
-        <v>283</v>
-      </c>
-      <c r="C97" t="s">
-        <v>480</v>
-      </c>
-      <c r="D97" t="s">
-        <v>481</v>
-      </c>
-      <c r="E97" t="s">
-        <v>285</v>
       </c>
       <c r="F97">
         <v>510204</v>
@@ -4450,19 +4433,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C98" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D98" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E98" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F98">
         <v>510208</v>
@@ -4470,19 +4453,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B99" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C99" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D99" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E99" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F99">
         <v>510216</v>
@@ -4490,19 +4473,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C100" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D100" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F100">
         <v>510212</v>
@@ -4510,19 +4493,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B101" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C101" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D101" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E101" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F101">
         <v>29710947</v>
@@ -4530,19 +4513,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C102" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E102" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F102">
         <v>29710948</v>
@@ -4550,19 +4533,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" t="s">
+        <v>275</v>
+      </c>
+      <c r="D103" t="s">
         <v>276</v>
       </c>
-      <c r="B103" t="s">
-        <v>277</v>
-      </c>
-      <c r="C103" t="s">
-        <v>278</v>
-      </c>
-      <c r="D103" t="s">
-        <v>279</v>
-      </c>
       <c r="E103" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F103">
         <v>29710949</v>
@@ -4570,19 +4553,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B104" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" t="s">
         <v>277</v>
       </c>
-      <c r="C104" t="s">
-        <v>280</v>
-      </c>
       <c r="D104" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E104" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F104">
         <v>29710950</v>
@@ -4590,19 +4573,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D105" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E105" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F105">
         <v>29710952</v>
@@ -4610,19 +4593,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D106" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E106" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F106">
         <v>22636639</v>
@@ -4630,19 +4613,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D107" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E107" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F107">
         <v>22636649</v>
@@ -4650,19 +4633,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D108" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F108">
         <v>22636644</v>
@@ -4670,19 +4653,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B109" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" t="s">
+        <v>429</v>
+      </c>
+      <c r="D109" t="s">
+        <v>430</v>
+      </c>
+      <c r="E109" t="s">
         <v>261</v>
-      </c>
-      <c r="C109" t="s">
-        <v>432</v>
-      </c>
-      <c r="D109" t="s">
-        <v>433</v>
-      </c>
-      <c r="E109" t="s">
-        <v>264</v>
       </c>
       <c r="F109">
         <v>22636653</v>
@@ -4690,19 +4673,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C110" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D110" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E110" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F110">
         <v>22636645</v>
@@ -4710,19 +4693,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C111" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D111" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E111" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F111">
         <v>22636647</v>
@@ -4730,19 +4713,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" t="s">
+        <v>184</v>
+      </c>
+      <c r="D112" t="s">
+        <v>185</v>
+      </c>
+      <c r="E112" t="s">
         <v>260</v>
-      </c>
-      <c r="B112" t="s">
-        <v>261</v>
-      </c>
-      <c r="C112" t="s">
-        <v>187</v>
-      </c>
-      <c r="D112" t="s">
-        <v>188</v>
-      </c>
-      <c r="E112" t="s">
-        <v>263</v>
       </c>
       <c r="F112">
         <v>22636655</v>
@@ -4750,19 +4733,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B113" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C113" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D113" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E113" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F113">
         <v>22636651</v>
@@ -4770,19 +4753,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C114" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D114" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E114" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F114">
         <v>22636656</v>
@@ -4790,19 +4773,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B115" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C115" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D115" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E115" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F115">
         <v>22765926</v>
@@ -4810,16 +4793,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B116" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C116" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D116" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E116" t="s">
         <v>78</v>
@@ -4830,19 +4813,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D117" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E117" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F117">
         <v>22765905</v>
@@ -4850,16 +4833,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D118" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E118" t="s">
         <v>20</v>
@@ -4870,19 +4853,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D119" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E119" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F119">
         <v>22765910</v>
@@ -4890,19 +4873,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" t="s">
         <v>238</v>
       </c>
-      <c r="B120" t="s">
+      <c r="E120" t="s">
         <v>239</v>
-      </c>
-      <c r="C120" t="s">
-        <v>240</v>
-      </c>
-      <c r="D120" t="s">
-        <v>241</v>
-      </c>
-      <c r="E120" t="s">
-        <v>242</v>
       </c>
       <c r="F120">
         <v>22765909</v>
@@ -4910,19 +4893,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D121" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E121" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F121">
         <v>22765906</v>
@@ -4930,19 +4913,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C122" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D122" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E122" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F122">
         <v>22765921</v>
@@ -4950,19 +4933,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C123" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D123" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E123" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F123">
         <v>22765913</v>
@@ -4970,19 +4953,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B124" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C124" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D124" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E124" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F124">
         <v>22765912</v>
@@ -4990,19 +4973,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D125" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E125" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F125">
         <v>22765916</v>
@@ -5010,19 +4993,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D126" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E126" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F126">
         <v>22765915</v>
@@ -5030,19 +5013,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C127" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D127" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E127" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F127">
         <v>22765911</v>
@@ -5050,19 +5033,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C128" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D128" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F128">
         <v>22636622</v>
@@ -5070,19 +5053,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B129" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C129" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E129" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F129">
         <v>22636624</v>
@@ -5090,19 +5073,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C130" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D130" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E130" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F130">
         <v>22636633</v>
@@ -5110,19 +5093,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B131" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F131">
         <v>22636627</v>
@@ -5130,19 +5113,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" t="s">
+        <v>217</v>
+      </c>
+      <c r="C132" t="s">
+        <v>218</v>
+      </c>
+      <c r="D132" t="s">
         <v>219</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>220</v>
-      </c>
-      <c r="C132" t="s">
-        <v>221</v>
-      </c>
-      <c r="D132" t="s">
-        <v>222</v>
-      </c>
-      <c r="E132" t="s">
-        <v>223</v>
       </c>
       <c r="F132">
         <v>22636636</v>
@@ -5150,19 +5133,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B133" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C133" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D133" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E133" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F133">
         <v>22636631</v>
@@ -5170,19 +5153,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C134" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D134" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E134" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F134">
         <v>22636637</v>
@@ -5190,19 +5173,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C135" t="s">
+        <v>88</v>
+      </c>
+      <c r="D135" t="s">
         <v>89</v>
       </c>
-      <c r="D135" t="s">
-        <v>90</v>
-      </c>
       <c r="E135" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F135">
         <v>22636634</v>
@@ -5210,19 +5193,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C136" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D136" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E136" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F136">
         <v>22636613</v>
@@ -5230,19 +5213,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C137" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D137" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E137" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F137">
         <v>22636608</v>
@@ -5250,19 +5233,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B138" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C138" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D138" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E138" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F138">
         <v>22636617</v>
@@ -5270,19 +5253,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>198</v>
+      </c>
+      <c r="B139" t="s">
+        <v>199</v>
+      </c>
+      <c r="C139" t="s">
+        <v>200</v>
+      </c>
+      <c r="D139" t="s">
         <v>201</v>
       </c>
-      <c r="B139" t="s">
+      <c r="E139" t="s">
         <v>202</v>
-      </c>
-      <c r="C139" t="s">
-        <v>203</v>
-      </c>
-      <c r="D139" t="s">
-        <v>204</v>
-      </c>
-      <c r="E139" t="s">
-        <v>205</v>
       </c>
       <c r="F139">
         <v>22636611</v>
@@ -5290,19 +5273,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B140" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D140" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F140">
         <v>22636619</v>
@@ -5310,19 +5293,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C141" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D141" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E141" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F141">
         <v>22636615</v>
@@ -5330,19 +5313,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B142" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C142" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D142" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E142" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F142">
         <v>22636620</v>
@@ -5350,19 +5333,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B143" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" t="s">
         <v>184</v>
       </c>
-      <c r="C143" t="s">
-        <v>187</v>
-      </c>
       <c r="D143" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E143" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F143">
         <v>851008</v>
@@ -5370,19 +5353,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C144" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D144" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E144" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F144">
         <v>851012</v>
@@ -5390,19 +5373,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C145" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D145" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E145" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F145">
         <v>851016</v>
@@ -5410,19 +5393,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B146" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C146" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D146" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E146" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F146">
         <v>851019</v>
@@ -5430,19 +5413,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C147" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D147" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E147" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F147">
         <v>851022</v>
@@ -5450,16 +5433,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B148" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D148" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
@@ -5470,19 +5453,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B149" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C149" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D149" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E149" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F149">
         <v>851037</v>
@@ -5490,19 +5473,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" t="s">
+        <v>181</v>
+      </c>
+      <c r="C150" t="s">
+        <v>182</v>
+      </c>
+      <c r="D150" t="s">
+        <v>182</v>
+      </c>
+      <c r="E150" t="s">
         <v>183</v>
-      </c>
-      <c r="B150" t="s">
-        <v>184</v>
-      </c>
-      <c r="C150" t="s">
-        <v>185</v>
-      </c>
-      <c r="D150" t="s">
-        <v>185</v>
-      </c>
-      <c r="E150" t="s">
-        <v>186</v>
       </c>
       <c r="F150">
         <v>851041</v>
@@ -5510,19 +5493,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D151" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E151" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F151">
         <v>851044</v>
@@ -5530,19 +5513,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C152" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D152" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E152" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F152">
         <v>29715513</v>
@@ -5550,16 +5533,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B153" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C153" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D153" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E153" t="s">
         <v>20</v>
@@ -5570,19 +5553,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D154" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E154" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F154">
         <v>509005</v>
@@ -5590,19 +5573,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D155" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E155" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F155">
         <v>509011</v>
@@ -5610,19 +5593,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D156" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E156" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F156">
         <v>509019</v>
@@ -5630,19 +5613,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D157" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E157" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F157">
         <v>509030</v>
@@ -5650,19 +5633,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D158" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E158" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F158">
         <v>509034</v>
@@ -5670,19 +5653,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D159" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E159" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F159">
         <v>509040</v>
@@ -5690,19 +5673,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>155</v>
+      </c>
+      <c r="B160" t="s">
+        <v>156</v>
+      </c>
+      <c r="C160" t="s">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>159</v>
       </c>
-      <c r="C160" t="s">
-        <v>161</v>
-      </c>
-      <c r="D160" t="s">
-        <v>162</v>
-      </c>
       <c r="E160" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F160">
         <v>509047</v>
@@ -5710,19 +5693,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C161" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D161" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E161" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F161">
         <v>509053</v>
@@ -5730,16 +5713,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B162" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C162" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D162" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
@@ -5750,19 +5733,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B163" t="s">
+        <v>150</v>
+      </c>
+      <c r="C163" t="s">
         <v>153</v>
       </c>
-      <c r="C163" t="s">
-        <v>156</v>
-      </c>
       <c r="D163" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E163" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F163">
         <v>27582772</v>
@@ -5770,19 +5753,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B164" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C164" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D164" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E164" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F164">
         <v>27582774</v>
@@ -5790,19 +5773,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B165" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C165" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D165" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E165" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F165">
         <v>27582776</v>
@@ -5810,19 +5793,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B166" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C166" t="s">
+        <v>99</v>
+      </c>
+      <c r="D166" t="s">
+        <v>100</v>
+      </c>
+      <c r="E166" t="s">
         <v>101</v>
-      </c>
-      <c r="D166" t="s">
-        <v>102</v>
-      </c>
-      <c r="E166" t="s">
-        <v>103</v>
       </c>
       <c r="F166">
         <v>27582778</v>
@@ -5830,19 +5813,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D167" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F167">
         <v>27582780</v>
@@ -5850,19 +5833,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B168" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D168" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E168" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F168">
         <v>27582782</v>
@@ -5870,19 +5853,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B169" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C169" t="s">
+        <v>88</v>
+      </c>
+      <c r="D169" t="s">
         <v>89</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>90</v>
-      </c>
-      <c r="E169" t="s">
-        <v>91</v>
       </c>
       <c r="F169">
         <v>27582784</v>
@@ -5890,19 +5873,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B170" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C170" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D170" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F170">
         <v>27582788</v>
@@ -5910,19 +5893,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B171" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C171" t="s">
+        <v>84</v>
+      </c>
+      <c r="D171" t="s">
         <v>85</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>86</v>
-      </c>
-      <c r="E171" t="s">
-        <v>87</v>
       </c>
       <c r="F171">
         <v>27582792</v>
@@ -5930,19 +5913,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
+        <v>92</v>
+      </c>
+      <c r="D172" t="s">
+        <v>93</v>
+      </c>
+      <c r="E172" t="s">
         <v>94</v>
-      </c>
-      <c r="D172" t="s">
-        <v>95</v>
-      </c>
-      <c r="E172" t="s">
-        <v>96</v>
       </c>
       <c r="F172">
         <v>27582796</v>
@@ -5950,19 +5933,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B173" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C173" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D173" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E173" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F173">
         <v>28219110</v>
@@ -5970,19 +5953,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>130</v>
+      </c>
+      <c r="B174" t="s">
+        <v>131</v>
+      </c>
+      <c r="C174" t="s">
+        <v>132</v>
+      </c>
+      <c r="D174" t="s">
         <v>133</v>
       </c>
-      <c r="B174" t="s">
+      <c r="E174" t="s">
         <v>134</v>
-      </c>
-      <c r="C174" t="s">
-        <v>135</v>
-      </c>
-      <c r="D174" t="s">
-        <v>136</v>
-      </c>
-      <c r="E174" t="s">
-        <v>137</v>
       </c>
       <c r="F174">
         <v>28219112</v>
@@ -5990,19 +5973,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B175" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C175" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D175" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E175" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F175">
         <v>28219114</v>
@@ -6010,19 +5993,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B176" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C176" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D176" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E176" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F176">
         <v>28219116</v>
@@ -6030,19 +6013,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B177" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C177" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D177" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E177" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F177">
         <v>28219118</v>
@@ -6050,19 +6033,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B178" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C178" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D178" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E178" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F178">
         <v>28219120</v>
@@ -6070,19 +6053,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B179" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C179" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D179" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E179" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F179">
         <v>28219122</v>
@@ -6090,16 +6073,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B180" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C180" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D180" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
@@ -6110,19 +6093,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B181" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C181" t="s">
+        <v>102</v>
+      </c>
+      <c r="D181" t="s">
+        <v>103</v>
+      </c>
+      <c r="E181" t="s">
         <v>104</v>
-      </c>
-      <c r="D181" t="s">
-        <v>105</v>
-      </c>
-      <c r="E181" t="s">
-        <v>106</v>
       </c>
       <c r="F181">
         <v>34002877</v>
@@ -6130,19 +6113,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B182" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C182" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D182" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E182" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F182">
         <v>34002878</v>
@@ -6150,19 +6133,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B183" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D183" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E183" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F183">
         <v>34002879</v>
@@ -6170,19 +6153,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B184" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C184" t="s">
+        <v>99</v>
+      </c>
+      <c r="D184" t="s">
+        <v>100</v>
+      </c>
+      <c r="E184" t="s">
         <v>101</v>
-      </c>
-      <c r="D184" t="s">
-        <v>102</v>
-      </c>
-      <c r="E184" t="s">
-        <v>103</v>
       </c>
       <c r="F184">
         <v>34002880</v>
@@ -6190,19 +6173,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B185" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C185" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D185" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E185" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F185">
         <v>34002881</v>
@@ -6210,19 +6193,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B186" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C186" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D186" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E186" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F186">
         <v>34002882</v>
@@ -6230,19 +6213,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B187" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C187" t="s">
+        <v>88</v>
+      </c>
+      <c r="D187" t="s">
         <v>89</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>90</v>
-      </c>
-      <c r="E187" t="s">
-        <v>91</v>
       </c>
       <c r="F187">
         <v>34002883</v>
@@ -6250,19 +6233,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B188" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C188" t="s">
+        <v>84</v>
+      </c>
+      <c r="D188" t="s">
         <v>85</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>86</v>
-      </c>
-      <c r="E188" t="s">
-        <v>87</v>
       </c>
       <c r="F188">
         <v>34002884</v>
@@ -6270,19 +6253,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B189" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C189" t="s">
+        <v>92</v>
+      </c>
+      <c r="D189" t="s">
+        <v>93</v>
+      </c>
+      <c r="E189" t="s">
         <v>94</v>
-      </c>
-      <c r="D189" t="s">
-        <v>95</v>
-      </c>
-      <c r="E189" t="s">
-        <v>96</v>
       </c>
       <c r="F189">
         <v>34002885</v>
@@ -6290,19 +6273,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B190" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C190" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D190" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E190" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F190">
         <v>34002886</v>
@@ -6310,19 +6293,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B191" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C191" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D191" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E191" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F191">
         <v>34002887</v>
@@ -6330,10 +6313,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B192" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C192" t="s">
         <v>79</v>
@@ -6350,16 +6333,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B193" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C193" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D193" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E193" t="s">
         <v>50</v>
@@ -6370,19 +6353,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B194" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C194" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D194" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E194" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F194">
         <v>33991784</v>
@@ -6390,19 +6373,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B195" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C195" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D195" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E195" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F195">
         <v>33991807</v>
@@ -6410,10 +6393,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B196" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C196" t="s">
         <v>82</v>
@@ -6422,7 +6405,7 @@
         <v>83</v>
       </c>
       <c r="E196" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F196">
         <v>33991810</v>
@@ -6430,19 +6413,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B197" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C197" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D197" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E197" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F197">
         <v>33991812</v>
@@ -6450,19 +6433,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B198" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C198" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D198" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E198" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F198">
         <v>34003789</v>
@@ -6470,19 +6453,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B199" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C199" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D199" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E199" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F199">
         <v>34003791</v>
@@ -6490,19 +6473,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B200" t="s">
+        <v>110</v>
+      </c>
+      <c r="C200" t="s">
         <v>113</v>
       </c>
-      <c r="C200" t="s">
-        <v>116</v>
-      </c>
       <c r="D200" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E200" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F200">
         <v>34003794</v>
@@ -6516,16 +6499,16 @@
         <v>76</v>
       </c>
       <c r="C201" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D201" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="E201" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="F201">
-        <v>529391906</v>
+        <v>561307021</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6536,1415 +6519,1075 @@
         <v>76</v>
       </c>
       <c r="C202" t="s">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="D202" t="s">
+        <v>567</v>
+      </c>
+      <c r="E202" t="s">
         <v>105</v>
       </c>
-      <c r="E202" t="s">
-        <v>106</v>
-      </c>
       <c r="F202">
-        <v>529391907</v>
+        <v>561307037</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B203" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C203" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="D203" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="E203" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F203">
-        <v>529391908</v>
+        <v>477215246</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B204" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C204" t="s">
-        <v>436</v>
+        <v>60</v>
       </c>
       <c r="D204" t="s">
-        <v>566</v>
+        <v>61</v>
       </c>
       <c r="E204" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F204">
-        <v>529391909</v>
+        <v>477215248</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B205" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C205" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D205" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E205" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F205">
-        <v>529391910</v>
+        <v>477215250</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B206" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C206" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D206" t="s">
-        <v>504</v>
+        <v>73</v>
       </c>
       <c r="E206" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F206">
-        <v>529391911</v>
+        <v>497463990</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B207" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C207" t="s">
-        <v>432</v>
+        <v>63</v>
       </c>
       <c r="D207" t="s">
-        <v>505</v>
+        <v>64</v>
       </c>
       <c r="E207" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F207">
-        <v>529391912</v>
+        <v>497463992</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B208" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C208" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D208" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E208" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F208">
-        <v>529391913</v>
+        <v>497463994</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B209" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C209" t="s">
-        <v>94</v>
+        <v>502</v>
       </c>
       <c r="D209" t="s">
-        <v>95</v>
+        <v>561</v>
       </c>
       <c r="E209" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F209">
-        <v>529391915</v>
+        <v>497463996</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B210" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C210" t="s">
-        <v>590</v>
-      </c>
-      <c r="D210" t="s">
-        <v>99</v>
+        <v>663</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="E210" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F210">
-        <v>529391916</v>
+        <v>1300452648</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B211" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>434</v>
+        <v>48</v>
       </c>
       <c r="D211" t="s">
-        <v>568</v>
+        <v>49</v>
       </c>
       <c r="E211" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F211">
-        <v>529391917</v>
+        <v>1300423634</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C212" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D212" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E212" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F212">
-        <v>529391918</v>
+        <v>1300452649</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B213" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C213" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="D213" t="s">
-        <v>569</v>
+        <v>54</v>
       </c>
       <c r="E213" t="s">
         <v>50</v>
       </c>
       <c r="F213">
-        <v>529391919</v>
+        <v>1300595620</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C214" t="s">
-        <v>441</v>
+        <v>36</v>
       </c>
       <c r="D214" t="s">
-        <v>443</v>
+        <v>37</v>
       </c>
       <c r="E214" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="F214">
-        <v>529391920</v>
+        <v>1381562764</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D215" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E215" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F215">
-        <v>561307043</v>
+        <v>1381564337</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B216" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C216" t="s">
-        <v>440</v>
+        <v>39</v>
       </c>
       <c r="D216" t="s">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="E216" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F216">
-        <v>561307045</v>
+        <v>1381562765</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B217" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>410</v>
+        <v>503</v>
       </c>
       <c r="D217" t="s">
-        <v>564</v>
+        <v>504</v>
       </c>
       <c r="E217" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F217">
-        <v>529391923</v>
+        <v>1384324154</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B218" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>439</v>
+        <v>42</v>
       </c>
       <c r="D218" t="s">
-        <v>571</v>
+        <v>43</v>
       </c>
       <c r="E218" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F218">
-        <v>561307021</v>
+        <v>1384324156</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="D219" t="s">
-        <v>572</v>
+        <v>506</v>
       </c>
       <c r="E219" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F219">
-        <v>561307037</v>
+        <v>1384318412</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C220" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
       <c r="D220" t="s">
-        <v>58</v>
+        <v>508</v>
       </c>
       <c r="E220" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F220">
-        <v>477215246</v>
+        <v>1384324244</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>55</v>
+        <v>525</v>
       </c>
       <c r="B221" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D221" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E221" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F221">
-        <v>477215248</v>
+        <v>30854133</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>55</v>
+        <v>525</v>
       </c>
       <c r="B222" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E222" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F222">
-        <v>477215250</v>
+        <v>30854134</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>55</v>
+        <v>525</v>
       </c>
       <c r="B223" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="F223">
-        <v>497463990</v>
+        <v>30854137</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>55</v>
+        <v>525</v>
       </c>
       <c r="B224" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>63</v>
+        <v>509</v>
       </c>
       <c r="D224" t="s">
-        <v>64</v>
+        <v>510</v>
       </c>
       <c r="E224" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F224">
-        <v>497463992</v>
+        <v>30854138</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>55</v>
+        <v>525</v>
       </c>
       <c r="B225" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F225">
-        <v>497463994</v>
+        <v>30854142</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>55</v>
+        <v>525</v>
       </c>
       <c r="B226" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D226" t="s">
-        <v>565</v>
+        <v>512</v>
       </c>
       <c r="E226" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F226">
-        <v>497463996</v>
+        <v>30854146</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>46</v>
+        <v>525</v>
       </c>
       <c r="B227" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>668</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>669</v>
+        <v>423</v>
+      </c>
+      <c r="D227" t="s">
+        <v>424</v>
       </c>
       <c r="E227" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F227">
-        <v>1300452648</v>
+        <v>30854151</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>46</v>
+        <v>525</v>
       </c>
       <c r="B228" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>48</v>
+        <v>513</v>
       </c>
       <c r="D228" t="s">
-        <v>49</v>
+        <v>514</v>
       </c>
       <c r="E228" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F228">
-        <v>1300423634</v>
+        <v>30854182</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>46</v>
+        <v>525</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C229" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E229" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F229">
-        <v>1300452649</v>
+        <v>30854183</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>46</v>
+        <v>525</v>
       </c>
       <c r="B230" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>53</v>
+        <v>515</v>
       </c>
       <c r="D230" t="s">
-        <v>54</v>
+        <v>516</v>
       </c>
       <c r="E230" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F230">
-        <v>1300595620</v>
+        <v>30854184</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>29</v>
+        <v>525</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>36</v>
+        <v>517</v>
       </c>
       <c r="D231" t="s">
-        <v>37</v>
+        <v>517</v>
       </c>
       <c r="E231" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F231">
-        <v>1381562764</v>
+        <v>30854185</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>29</v>
+        <v>525</v>
       </c>
       <c r="B232" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D232" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E232" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F232">
-        <v>1381564337</v>
+        <v>30854188</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>29</v>
+        <v>525</v>
       </c>
       <c r="B233" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>39</v>
+        <v>587</v>
       </c>
       <c r="D233" t="s">
-        <v>40</v>
+        <v>587</v>
       </c>
       <c r="E233" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F233">
-        <v>1381562765</v>
+        <v>30854186</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>29</v>
+        <v>525</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="D234" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E234" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F234">
-        <v>1384324154</v>
+        <v>30854187</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>29</v>
+        <v>525</v>
       </c>
       <c r="B235" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D235" t="s">
-        <v>43</v>
+        <v>521</v>
       </c>
       <c r="E235" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F235">
-        <v>1384324156</v>
+        <v>30854189</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>29</v>
+        <v>525</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C236" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D236" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E236" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F236">
-        <v>1384318412</v>
+        <v>30854190</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="B237" t="s">
-        <v>30</v>
+        <v>595</v>
       </c>
       <c r="C237" t="s">
-        <v>511</v>
+        <v>649</v>
       </c>
       <c r="D237" t="s">
-        <v>512</v>
+        <v>648</v>
       </c>
       <c r="E237" t="s">
-        <v>32</v>
+        <v>601</v>
       </c>
       <c r="F237">
-        <v>1384324244</v>
+        <v>29715584</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>595</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>602</v>
       </c>
       <c r="D238" t="s">
-        <v>15</v>
+        <v>596</v>
       </c>
       <c r="E238" t="s">
-        <v>16</v>
-      </c>
-      <c r="F238">
-        <v>30854133</v>
+        <v>601</v>
+      </c>
+      <c r="F238" s="1">
+        <v>29715585</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>595</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>603</v>
       </c>
       <c r="D239" t="s">
-        <v>18</v>
+        <v>597</v>
       </c>
       <c r="E239" t="s">
-        <v>19</v>
-      </c>
-      <c r="F239">
-        <v>30854134</v>
+        <v>601</v>
+      </c>
+      <c r="F239" s="1">
+        <v>29715586</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>529</v>
+        <v>647</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>595</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>604</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>598</v>
       </c>
       <c r="E240" t="s">
-        <v>12</v>
+        <v>601</v>
       </c>
       <c r="F240">
-        <v>30854137</v>
+        <v>29715587</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>529</v>
+        <v>647</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>595</v>
       </c>
       <c r="C241" t="s">
-        <v>513</v>
+        <v>605</v>
       </c>
       <c r="D241" t="s">
-        <v>514</v>
+        <v>599</v>
       </c>
       <c r="E241" t="s">
-        <v>13</v>
+        <v>601</v>
       </c>
       <c r="F241">
-        <v>30854138</v>
+        <v>29715588</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>529</v>
+        <v>647</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>595</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>635</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="E242" t="s">
-        <v>8</v>
+        <v>606</v>
       </c>
       <c r="F242">
-        <v>30854142</v>
+        <v>29715589</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>529</v>
+        <v>608</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>609</v>
       </c>
       <c r="C243" t="s">
-        <v>515</v>
+        <v>611</v>
       </c>
       <c r="D243" t="s">
-        <v>516</v>
+        <v>610</v>
       </c>
       <c r="E243" t="s">
-        <v>20</v>
+        <v>612</v>
       </c>
       <c r="F243">
-        <v>30854146</v>
+        <v>29710956</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>614</v>
       </c>
       <c r="C244" t="s">
-        <v>426</v>
+        <v>618</v>
       </c>
       <c r="D244" t="s">
-        <v>427</v>
+        <v>616</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>617</v>
       </c>
       <c r="F244">
-        <v>30854151</v>
+        <v>468513480</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="B245" t="s">
-        <v>21</v>
+        <v>631</v>
       </c>
       <c r="C245" t="s">
-        <v>517</v>
+        <v>620</v>
       </c>
       <c r="D245" t="s">
-        <v>518</v>
+        <v>619</v>
       </c>
       <c r="E245" t="s">
-        <v>22</v>
+        <v>628</v>
       </c>
       <c r="F245">
-        <v>30854182</v>
+        <v>29710940</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="B246" t="s">
-        <v>21</v>
+        <v>631</v>
       </c>
       <c r="C246" t="s">
-        <v>24</v>
+        <v>621</v>
       </c>
       <c r="D246" t="s">
-        <v>24</v>
+        <v>622</v>
       </c>
       <c r="E246" t="s">
-        <v>12</v>
+        <v>629</v>
       </c>
       <c r="F246">
-        <v>30854183</v>
+        <v>29710941</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="B247" t="s">
-        <v>21</v>
+        <v>631</v>
       </c>
       <c r="C247" t="s">
-        <v>519</v>
+        <v>624</v>
       </c>
       <c r="D247" t="s">
-        <v>520</v>
+        <v>623</v>
       </c>
       <c r="E247" t="s">
-        <v>19</v>
+        <v>630</v>
       </c>
       <c r="F247">
-        <v>30854184</v>
+        <v>29710942</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>529</v>
+        <v>632</v>
       </c>
       <c r="B248" t="s">
-        <v>21</v>
+        <v>633</v>
       </c>
       <c r="C248" t="s">
-        <v>521</v>
+        <v>636</v>
       </c>
       <c r="D248" t="s">
-        <v>521</v>
+        <v>634</v>
       </c>
       <c r="E248" t="s">
-        <v>16</v>
+        <v>637</v>
       </c>
       <c r="F248">
-        <v>30854185</v>
+        <v>29710959</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>529</v>
+        <v>638</v>
       </c>
       <c r="B249" t="s">
-        <v>21</v>
+        <v>641</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>639</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>640</v>
       </c>
       <c r="E249" t="s">
-        <v>13</v>
+        <v>642</v>
       </c>
       <c r="F249">
-        <v>30854188</v>
+        <v>22765949</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>529</v>
+        <v>638</v>
       </c>
       <c r="B250" t="s">
-        <v>21</v>
+        <v>643</v>
       </c>
       <c r="C250" t="s">
-        <v>592</v>
+        <v>644</v>
       </c>
       <c r="D250" t="s">
-        <v>592</v>
+        <v>645</v>
       </c>
       <c r="E250" t="s">
-        <v>8</v>
+        <v>646</v>
       </c>
       <c r="F250">
-        <v>30854186</v>
+        <v>22766029</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>529</v>
+        <v>650</v>
       </c>
       <c r="B251" t="s">
-        <v>21</v>
+        <v>651</v>
       </c>
       <c r="C251" t="s">
-        <v>522</v>
+        <v>652</v>
       </c>
       <c r="D251" t="s">
-        <v>523</v>
+        <v>653</v>
       </c>
       <c r="E251" t="s">
-        <v>23</v>
-      </c>
-      <c r="F251">
-        <v>30854187</v>
+        <v>662</v>
+      </c>
+      <c r="F251" s="1">
+        <v>28941725</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>529</v>
+        <v>650</v>
       </c>
       <c r="B252" t="s">
-        <v>21</v>
+        <v>651</v>
       </c>
       <c r="C252" t="s">
-        <v>524</v>
-      </c>
-      <c r="D252" t="s">
-        <v>525</v>
+        <v>654</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="E252" t="s">
-        <v>28</v>
-      </c>
-      <c r="F252">
-        <v>30854189</v>
+        <v>662</v>
+      </c>
+      <c r="F252" s="1">
+        <v>28941726</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>529</v>
+        <v>650</v>
       </c>
       <c r="B253" t="s">
-        <v>21</v>
+        <v>651</v>
       </c>
       <c r="C253" t="s">
-        <v>526</v>
-      </c>
-      <c r="D253" t="s">
-        <v>527</v>
+        <v>656</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="E253" t="s">
-        <v>27</v>
-      </c>
-      <c r="F253">
-        <v>30854190</v>
+        <v>662</v>
+      </c>
+      <c r="F253" s="1">
+        <v>28941727</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>599</v>
+        <v>650</v>
       </c>
       <c r="B254" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="C254" t="s">
-        <v>654</v>
-      </c>
-      <c r="D254" t="s">
-        <v>653</v>
+        <v>658</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="E254" t="s">
-        <v>606</v>
-      </c>
-      <c r="F254">
-        <v>29715584</v>
+        <v>662</v>
+      </c>
+      <c r="F254" s="1">
+        <v>28941728</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>599</v>
+        <v>650</v>
       </c>
       <c r="B255" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="C255" t="s">
-        <v>607</v>
-      </c>
-      <c r="D255" t="s">
-        <v>601</v>
+        <v>660</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="E255" t="s">
-        <v>606</v>
+        <v>662</v>
       </c>
       <c r="F255" s="1">
-        <v>29715585</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>599</v>
-      </c>
-      <c r="B256" t="s">
-        <v>600</v>
-      </c>
-      <c r="C256" t="s">
-        <v>608</v>
-      </c>
-      <c r="D256" t="s">
-        <v>602</v>
-      </c>
-      <c r="E256" t="s">
-        <v>606</v>
-      </c>
-      <c r="F256" s="1">
-        <v>29715586</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>652</v>
-      </c>
-      <c r="B257" t="s">
-        <v>600</v>
-      </c>
-      <c r="C257" t="s">
-        <v>609</v>
-      </c>
-      <c r="D257" t="s">
-        <v>603</v>
-      </c>
-      <c r="E257" t="s">
-        <v>606</v>
-      </c>
-      <c r="F257">
-        <v>29715587</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>652</v>
-      </c>
-      <c r="B258" t="s">
-        <v>600</v>
-      </c>
-      <c r="C258" t="s">
-        <v>610</v>
-      </c>
-      <c r="D258" t="s">
-        <v>604</v>
-      </c>
-      <c r="E258" t="s">
-        <v>606</v>
-      </c>
-      <c r="F258">
-        <v>29715588</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>652</v>
-      </c>
-      <c r="B259" t="s">
-        <v>600</v>
-      </c>
-      <c r="C259" t="s">
-        <v>640</v>
-      </c>
-      <c r="D259" t="s">
-        <v>605</v>
-      </c>
-      <c r="E259" t="s">
-        <v>611</v>
-      </c>
-      <c r="F259">
-        <v>29715589</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>613</v>
-      </c>
-      <c r="B260" t="s">
-        <v>614</v>
-      </c>
-      <c r="C260" t="s">
-        <v>616</v>
-      </c>
-      <c r="D260" t="s">
-        <v>615</v>
-      </c>
-      <c r="E260" t="s">
-        <v>617</v>
-      </c>
-      <c r="F260">
-        <v>29710956</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>620</v>
-      </c>
-      <c r="B261" t="s">
-        <v>619</v>
-      </c>
-      <c r="C261" t="s">
-        <v>623</v>
-      </c>
-      <c r="D261" t="s">
-        <v>621</v>
-      </c>
-      <c r="E261" t="s">
-        <v>622</v>
-      </c>
-      <c r="F261">
-        <v>468513480</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>620</v>
-      </c>
-      <c r="B262" t="s">
-        <v>636</v>
-      </c>
-      <c r="C262" t="s">
-        <v>625</v>
-      </c>
-      <c r="D262" t="s">
-        <v>624</v>
-      </c>
-      <c r="E262" t="s">
-        <v>633</v>
-      </c>
-      <c r="F262">
-        <v>29710940</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>620</v>
-      </c>
-      <c r="B263" t="s">
-        <v>636</v>
-      </c>
-      <c r="C263" t="s">
-        <v>626</v>
-      </c>
-      <c r="D263" t="s">
-        <v>627</v>
-      </c>
-      <c r="E263" t="s">
-        <v>634</v>
-      </c>
-      <c r="F263">
-        <v>29710941</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>620</v>
-      </c>
-      <c r="B264" t="s">
-        <v>636</v>
-      </c>
-      <c r="C264" t="s">
-        <v>629</v>
-      </c>
-      <c r="D264" t="s">
-        <v>628</v>
-      </c>
-      <c r="E264" t="s">
-        <v>635</v>
-      </c>
-      <c r="F264">
-        <v>29710942</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>637</v>
-      </c>
-      <c r="B265" t="s">
-        <v>638</v>
-      </c>
-      <c r="C265" t="s">
-        <v>641</v>
-      </c>
-      <c r="D265" t="s">
-        <v>639</v>
-      </c>
-      <c r="E265" t="s">
-        <v>642</v>
-      </c>
-      <c r="F265">
-        <v>29710959</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>643</v>
-      </c>
-      <c r="B266" t="s">
-        <v>646</v>
-      </c>
-      <c r="C266" t="s">
-        <v>644</v>
-      </c>
-      <c r="D266" t="s">
-        <v>645</v>
-      </c>
-      <c r="E266" t="s">
-        <v>647</v>
-      </c>
-      <c r="F266">
-        <v>22765949</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>643</v>
-      </c>
-      <c r="B267" t="s">
-        <v>648</v>
-      </c>
-      <c r="C267" t="s">
-        <v>649</v>
-      </c>
-      <c r="D267" t="s">
-        <v>650</v>
-      </c>
-      <c r="E267" t="s">
-        <v>651</v>
-      </c>
-      <c r="F267">
-        <v>22766029</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>655</v>
-      </c>
-      <c r="B268" t="s">
-        <v>656</v>
-      </c>
-      <c r="C268" t="s">
-        <v>657</v>
-      </c>
-      <c r="D268" t="s">
-        <v>658</v>
-      </c>
-      <c r="E268" t="s">
-        <v>667</v>
-      </c>
-      <c r="F268" s="1">
-        <v>28941725</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>655</v>
-      </c>
-      <c r="B269" t="s">
-        <v>656</v>
-      </c>
-      <c r="C269" t="s">
-        <v>659</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="E269" t="s">
-        <v>667</v>
-      </c>
-      <c r="F269" s="1">
-        <v>28941726</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>655</v>
-      </c>
-      <c r="B270" t="s">
-        <v>656</v>
-      </c>
-      <c r="C270" t="s">
-        <v>661</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E270" t="s">
-        <v>667</v>
-      </c>
-      <c r="F270" s="1">
-        <v>28941727</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>655</v>
-      </c>
-      <c r="B271" t="s">
-        <v>656</v>
-      </c>
-      <c r="C271" t="s">
-        <v>663</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E271" t="s">
-        <v>667</v>
-      </c>
-      <c r="F271" s="1">
-        <v>28941728</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>655</v>
-      </c>
-      <c r="B272" t="s">
-        <v>656</v>
-      </c>
-      <c r="C272" t="s">
-        <v>665</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="E272" t="s">
-        <v>667</v>
-      </c>
-      <c r="F272" s="1">
         <v>28941729</v>
       </c>
     </row>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9E1746-DB58-4F63-930C-E24293F6C8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705F8F1D-73E6-4771-94D9-778FF315DB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$239</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="664">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,13 +793,7 @@
     <t>亡き王女の為のセプテット</t>
   </si>
   <si>
-    <t>蕾米莉亚</t>
-  </si>
-  <si>
     <t>铃仙·优昙华院·因幡</t>
-  </si>
-  <si>
-    <t>帕秋莉</t>
   </si>
   <si>
     <t>风神少女</t>
@@ -2143,6 +2137,10 @@
   </si>
   <si>
     <t>噩梦日记</t>
+  </si>
+  <si>
+    <t>布加勒斯特的人偶师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2476,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2508,21 +2506,21 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
         <v>394</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>395</v>
-      </c>
-      <c r="C2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D2" t="s">
-        <v>397</v>
       </c>
       <c r="E2" t="s">
         <v>242</v>
@@ -2533,19 +2531,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F3">
         <v>22636829</v>
@@ -2553,19 +2551,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F4">
         <v>22636835</v>
@@ -2573,19 +2571,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
         <v>402</v>
       </c>
-      <c r="D5" t="s">
-        <v>404</v>
-      </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F5">
         <v>22636837</v>
@@ -2593,19 +2591,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F6">
         <v>500684336</v>
@@ -2613,19 +2611,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" t="s">
         <v>384</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" t="s">
         <v>385</v>
-      </c>
-      <c r="C7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E7" t="s">
-        <v>387</v>
       </c>
       <c r="F7">
         <v>34999157</v>
@@ -2633,19 +2631,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" t="s">
         <v>391</v>
-      </c>
-      <c r="D8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E8" t="s">
-        <v>393</v>
       </c>
       <c r="F8">
         <v>34999158</v>
@@ -2653,10 +2651,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C9" t="s">
         <v>194</v>
@@ -2673,19 +2671,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F10">
         <v>34999161</v>
@@ -2693,19 +2691,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" t="s">
         <v>385</v>
-      </c>
-      <c r="C11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E11" t="s">
-        <v>387</v>
       </c>
       <c r="F11">
         <v>34999163</v>
@@ -2713,10 +2711,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
         <v>240</v>
@@ -2733,19 +2731,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F13">
         <v>22636807</v>
@@ -2753,16 +2751,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2773,19 +2771,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" t="s">
         <v>371</v>
-      </c>
-      <c r="C15" t="s">
-        <v>441</v>
-      </c>
-      <c r="D15" t="s">
-        <v>524</v>
-      </c>
-      <c r="E15" t="s">
-        <v>373</v>
       </c>
       <c r="F15">
         <v>22636816</v>
@@ -2793,19 +2791,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F16">
         <v>22636808</v>
@@ -2813,19 +2811,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -2833,19 +2831,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F18">
         <v>22636806</v>
@@ -2853,19 +2851,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" t="s">
+        <v>524</v>
+      </c>
+      <c r="E19" t="s">
         <v>370</v>
-      </c>
-      <c r="B19" t="s">
-        <v>371</v>
-      </c>
-      <c r="C19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D19" t="s">
-        <v>526</v>
-      </c>
-      <c r="E19" t="s">
-        <v>372</v>
       </c>
       <c r="F19">
         <v>22636820</v>
@@ -2873,19 +2871,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F20">
         <v>22636811</v>
@@ -2893,19 +2891,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F21">
         <v>22636814</v>
@@ -2913,19 +2911,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" t="s">
+        <v>525</v>
+      </c>
+      <c r="D22" t="s">
+        <v>538</v>
+      </c>
+      <c r="E22" t="s">
         <v>363</v>
-      </c>
-      <c r="C22" t="s">
-        <v>527</v>
-      </c>
-      <c r="D22" t="s">
-        <v>540</v>
-      </c>
-      <c r="E22" t="s">
-        <v>365</v>
       </c>
       <c r="F22">
         <v>22636738</v>
@@ -2933,19 +2931,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F23">
         <v>22636747</v>
@@ -2953,19 +2951,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" t="s">
+        <v>527</v>
+      </c>
+      <c r="D24" t="s">
+        <v>528</v>
+      </c>
+      <c r="E24" t="s">
         <v>362</v>
-      </c>
-      <c r="B24" t="s">
-        <v>363</v>
-      </c>
-      <c r="C24" t="s">
-        <v>529</v>
-      </c>
-      <c r="D24" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" t="s">
-        <v>364</v>
       </c>
       <c r="F24">
         <v>22636741</v>
@@ -2973,16 +2971,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C25" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2993,19 +2991,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D26" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F26">
         <v>22636742</v>
@@ -3013,16 +3011,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C27" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -3033,16 +3031,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D28" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -3053,19 +3051,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D29" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F29">
         <v>22636744</v>
@@ -3073,19 +3071,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F30">
         <v>22636758</v>
@@ -3093,19 +3091,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D31" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F31">
         <v>22636764</v>
@@ -3113,19 +3111,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F32">
         <v>22636763</v>
@@ -3133,16 +3131,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" t="s">
         <v>349</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>350</v>
-      </c>
-      <c r="C33" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" t="s">
-        <v>352</v>
       </c>
       <c r="E33" t="s">
         <v>239</v>
@@ -3153,19 +3151,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D34" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F34">
         <v>22636765</v>
@@ -3173,19 +3171,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B35" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D35" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F35">
         <v>22636779</v>
@@ -3193,19 +3191,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E36" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F36">
         <v>22636770</v>
@@ -3213,19 +3211,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D37" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F37">
         <v>22636768</v>
@@ -3233,19 +3231,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D38" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F38">
         <v>22636774</v>
@@ -3253,16 +3251,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C39" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E39" t="s">
         <v>239</v>
@@ -3273,10 +3271,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C40" t="s">
         <v>182</v>
@@ -3293,19 +3291,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F41">
         <v>22636719</v>
@@ -3313,19 +3311,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C42" t="s">
         <v>335</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>336</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>337</v>
-      </c>
-      <c r="D42" t="s">
-        <v>338</v>
-      </c>
-      <c r="E42" t="s">
-        <v>339</v>
       </c>
       <c r="F42">
         <v>22636721</v>
@@ -3333,10 +3331,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C43" t="s">
         <v>191</v>
@@ -3345,7 +3343,7 @@
         <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F43">
         <v>22636718</v>
@@ -3353,1482 +3351,1482 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C44" t="s">
+        <v>423</v>
+      </c>
+      <c r="D44" t="s">
+        <v>570</v>
+      </c>
+      <c r="E44" t="s">
         <v>343</v>
       </c>
-      <c r="D44" t="s">
-        <v>344</v>
-      </c>
-      <c r="E44" t="s">
-        <v>345</v>
-      </c>
       <c r="F44">
-        <v>22636722</v>
+        <v>22636730</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>342</v>
       </c>
       <c r="E45" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F45">
-        <v>22636724</v>
+        <v>22636722</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C46" t="s">
-        <v>412</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>413</v>
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="F46">
-        <v>22636720</v>
+        <v>22636724</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C47" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="F47">
-        <v>22636725</v>
+        <v>22636720</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>412</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>413</v>
       </c>
       <c r="E48" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="F48">
-        <v>22636723</v>
+        <v>22636725</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C49" t="s">
-        <v>340</v>
+        <v>244</v>
       </c>
       <c r="D49" t="s">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="E49" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="F49">
-        <v>22636729</v>
+        <v>22636723</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C50" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="D50" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E50" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="F50">
-        <v>22636707</v>
+        <v>22636729</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F51">
-        <v>22636702</v>
+        <v>22636707</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
-        <v>457</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s">
-        <v>458</v>
+        <v>323</v>
       </c>
       <c r="E52" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="F52">
-        <v>22636711</v>
+        <v>22636702</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C53" t="s">
-        <v>330</v>
+        <v>663</v>
       </c>
       <c r="D53" t="s">
-        <v>331</v>
+        <v>551</v>
       </c>
       <c r="E53" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="F53">
-        <v>22636703</v>
+        <v>22636698</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C54" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D54" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E54" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="F54">
-        <v>22636705</v>
+        <v>22636711</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C55" t="s">
-        <v>409</v>
+        <v>328</v>
       </c>
       <c r="D55" t="s">
-        <v>550</v>
+        <v>329</v>
       </c>
       <c r="E55" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="F55">
-        <v>22636714</v>
+        <v>22636703</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C56" t="s">
-        <v>584</v>
+        <v>457</v>
       </c>
       <c r="D56" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="F56">
-        <v>22636709</v>
+        <v>22636705</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="D57" t="s">
-        <v>334</v>
+        <v>554</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="F57">
-        <v>22636704</v>
+        <v>22636701</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C58" t="s">
-        <v>461</v>
+        <v>407</v>
       </c>
       <c r="D58" t="s">
-        <v>461</v>
+        <v>548</v>
       </c>
       <c r="E58" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="F58">
-        <v>22636710</v>
+        <v>22636714</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C59" t="s">
-        <v>322</v>
+        <v>582</v>
       </c>
       <c r="D59" t="s">
-        <v>323</v>
+        <v>414</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="F59">
-        <v>22636708</v>
+        <v>22636709</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="D60" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="E60" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="F60">
-        <v>22765972</v>
+        <v>22636704</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C61" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="D61" t="s">
-        <v>551</v>
+        <v>459</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="F61">
-        <v>22765996</v>
+        <v>22636710</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B62" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F62">
-        <v>22765964</v>
+        <v>22636708</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B63" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C63" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="F63">
-        <v>22765986</v>
+        <v>22765972</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D64" t="s">
-        <v>419</v>
+        <v>549</v>
       </c>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F64">
-        <v>22765976</v>
+        <v>22765996</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B65" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
-        <v>414</v>
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>552</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="F65">
-        <v>22766000</v>
+        <v>22765964</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B66" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="D66" t="s">
-        <v>553</v>
+        <v>315</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>22765967</v>
+        <v>22765986</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D67" t="s">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="E67" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F67">
-        <v>22765990</v>
+        <v>22765976</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B68" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C68" t="s">
         <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="F68">
-        <v>22765980</v>
+        <v>22766000</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E69" t="s">
-        <v>625</v>
+        <v>239</v>
       </c>
       <c r="F69">
-        <v>22766003</v>
+        <v>22765967</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" t="s">
         <v>309</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>310</v>
       </c>
-      <c r="C70" t="s">
-        <v>409</v>
-      </c>
-      <c r="D70" t="s">
-        <v>558</v>
-      </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F70">
-        <v>22765970</v>
+        <v>22765990</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B71" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C71" t="s">
         <v>410</v>
       </c>
       <c r="D71" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E71" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="F71">
-        <v>22765994</v>
+        <v>22765980</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C72" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>623</v>
       </c>
       <c r="F72">
-        <v>22765966</v>
+        <v>22766003</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C73" t="s">
-        <v>584</v>
+        <v>407</v>
       </c>
       <c r="D73" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E73" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="F73">
-        <v>22765984</v>
+        <v>22765970</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B74" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C74" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="F74">
-        <v>22765997</v>
+        <v>22765994</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B75" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C75" t="s">
-        <v>417</v>
+        <v>244</v>
       </c>
       <c r="D75" t="s">
-        <v>418</v>
+        <v>555</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F75">
-        <v>22766006</v>
+        <v>22765966</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>462</v>
+        <v>582</v>
       </c>
       <c r="D76" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="E76" t="s">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="F76">
-        <v>22636686</v>
+        <v>22765984</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C77" t="s">
-        <v>298</v>
+        <v>405</v>
       </c>
       <c r="D77" t="s">
-        <v>299</v>
+        <v>558</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="F77">
-        <v>22636681</v>
+        <v>22765997</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B78" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C78" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="D78" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="E78" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F78">
-        <v>22636690</v>
+        <v>22766006</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" t="s">
+        <v>460</v>
+      </c>
+      <c r="D79" t="s">
+        <v>461</v>
+      </c>
+      <c r="E79" t="s">
         <v>295</v>
       </c>
-      <c r="C79" t="s">
-        <v>464</v>
-      </c>
-      <c r="D79" t="s">
-        <v>465</v>
-      </c>
-      <c r="E79" t="s">
-        <v>242</v>
-      </c>
       <c r="F79">
-        <v>22636684</v>
+        <v>22636686</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="D80" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="F80">
-        <v>22636680</v>
+        <v>22636681</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C81" t="s">
-        <v>466</v>
+        <v>303</v>
       </c>
       <c r="D81" t="s">
-        <v>467</v>
+        <v>304</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F81">
-        <v>22636693</v>
+        <v>22636690</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C82" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="D82" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E82" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F82">
-        <v>22636685</v>
+        <v>22636684</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C83" t="s">
-        <v>469</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>470</v>
+        <v>103</v>
       </c>
       <c r="E83" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="F83">
-        <v>22636683</v>
+        <v>22636680</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B84" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D84" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E84" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F84">
-        <v>22636695</v>
+        <v>22636693</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="D85" t="s">
-        <v>303</v>
+        <v>466</v>
       </c>
       <c r="E85" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="F85">
-        <v>22636689</v>
+        <v>22636685</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>292</v>
+      </c>
+      <c r="B86" t="s">
+        <v>293</v>
+      </c>
+      <c r="C86" t="s">
+        <v>467</v>
+      </c>
+      <c r="D86" t="s">
+        <v>468</v>
+      </c>
+      <c r="E86" t="s">
         <v>294</v>
       </c>
-      <c r="B86" t="s">
-        <v>295</v>
-      </c>
-      <c r="C86" t="s">
-        <v>585</v>
-      </c>
-      <c r="D86" t="s">
-        <v>97</v>
-      </c>
-      <c r="E86" t="s">
-        <v>308</v>
-      </c>
       <c r="F86">
-        <v>22636687</v>
+        <v>22636683</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C87" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D87" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E87" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="F87">
-        <v>510172</v>
+        <v>22636695</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B88" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D88" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="F88">
-        <v>510174</v>
+        <v>22636689</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B89" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C89" t="s">
-        <v>252</v>
+        <v>583</v>
       </c>
       <c r="D89" t="s">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="F89">
-        <v>510177</v>
+        <v>22636687</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C90" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="D90" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="E90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F90">
-        <v>510179</v>
+        <v>510172</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C91" t="s">
-        <v>438</v>
+        <v>286</v>
       </c>
       <c r="D91" t="s">
-        <v>468</v>
+        <v>287</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="F91">
-        <v>510182</v>
+        <v>510174</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C92" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="D92" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="E92" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="F92">
-        <v>510185</v>
+        <v>510177</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B93" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="D93" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="E93" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="F93">
-        <v>510188</v>
+        <v>510179</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C94" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="D94" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E94" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="F94">
-        <v>510192</v>
+        <v>510182</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D95" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E95" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F95">
-        <v>510196</v>
+        <v>510185</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>457</v>
       </c>
       <c r="D96" t="s">
-        <v>582</v>
+        <v>458</v>
       </c>
       <c r="E96" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="F96">
-        <v>510200</v>
+        <v>510188</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C97" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D97" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E97" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F97">
-        <v>510204</v>
+        <v>510192</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C98" t="s">
-        <v>478</v>
+        <v>289</v>
       </c>
       <c r="D98" t="s">
-        <v>479</v>
+        <v>290</v>
       </c>
       <c r="E98" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F98">
-        <v>510208</v>
+        <v>510196</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>591</v>
+        <v>285</v>
       </c>
       <c r="D99" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E99" t="s">
-        <v>592</v>
+        <v>249</v>
       </c>
       <c r="F99">
-        <v>510216</v>
+        <v>510200</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B100" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" t="s">
+        <v>474</v>
+      </c>
+      <c r="D100" t="s">
+        <v>475</v>
+      </c>
+      <c r="E100" t="s">
         <v>280</v>
       </c>
-      <c r="C100" t="s">
-        <v>480</v>
-      </c>
-      <c r="D100" t="s">
-        <v>481</v>
-      </c>
-      <c r="E100" t="s">
-        <v>290</v>
-      </c>
       <c r="F100">
-        <v>510212</v>
+        <v>510204</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C101" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D101" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="E101" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="F101">
-        <v>29710947</v>
+        <v>510208</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B102" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>589</v>
       </c>
       <c r="D102" t="s">
-        <v>422</v>
+        <v>591</v>
       </c>
       <c r="E102" t="s">
-        <v>251</v>
+        <v>590</v>
       </c>
       <c r="F102">
-        <v>29710948</v>
+        <v>510216</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B103" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C103" t="s">
-        <v>275</v>
+        <v>478</v>
       </c>
       <c r="D103" t="s">
-        <v>276</v>
+        <v>479</v>
       </c>
       <c r="E103" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="F103">
-        <v>29710949</v>
+        <v>510212</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C104" t="s">
-        <v>277</v>
+        <v>480</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="E104" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F104">
-        <v>29710950</v>
+        <v>29710947</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s">
+        <v>419</v>
+      </c>
+      <c r="D105" t="s">
+        <v>420</v>
+      </c>
+      <c r="E105" t="s">
         <v>249</v>
       </c>
-      <c r="D105" t="s">
-        <v>250</v>
-      </c>
-      <c r="E105" t="s">
-        <v>251</v>
-      </c>
       <c r="F105">
-        <v>29710952</v>
+        <v>29710948</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s">
-        <v>483</v>
+        <v>273</v>
       </c>
       <c r="D106" t="s">
-        <v>484</v>
+        <v>274</v>
       </c>
       <c r="E106" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F106">
-        <v>22636639</v>
+        <v>29710949</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D107" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F107">
-        <v>22636649</v>
+        <v>29710950</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C108" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D108" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E108" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F108">
-        <v>22636644</v>
+        <v>29710952</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="D109" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="E109" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F109">
-        <v>22636653</v>
+        <v>22636639</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C110" t="s">
-        <v>485</v>
+        <v>264</v>
       </c>
       <c r="D110" t="s">
-        <v>486</v>
+        <v>265</v>
       </c>
       <c r="E110" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F110">
-        <v>22636645</v>
+        <v>22636649</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C111" t="s">
-        <v>487</v>
+        <v>260</v>
       </c>
       <c r="D111" t="s">
-        <v>488</v>
+        <v>261</v>
       </c>
       <c r="E111" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F111">
-        <v>22636647</v>
+        <v>22636644</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B112" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
-        <v>184</v>
+        <v>427</v>
       </c>
       <c r="D112" t="s">
-        <v>185</v>
+        <v>428</v>
       </c>
       <c r="E112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F112">
-        <v>22636655</v>
+        <v>22636653</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C113" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D113" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E113" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F113">
-        <v>22636651</v>
+        <v>22636645</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B114" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>270</v>
+        <v>485</v>
       </c>
       <c r="D114" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="E114" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="F114">
-        <v>22636656</v>
+        <v>22636647</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C115" t="s">
-        <v>491</v>
+        <v>184</v>
       </c>
       <c r="D115" t="s">
-        <v>576</v>
+        <v>185</v>
       </c>
       <c r="E115" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F115">
-        <v>22765926</v>
+        <v>22636655</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C116" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="D116" t="s">
-        <v>577</v>
+        <v>488</v>
       </c>
       <c r="E116" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="F116">
-        <v>22765920</v>
+        <v>22636651</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D117" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="E117" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="F117">
-        <v>22765905</v>
+        <v>22636656</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4839,16 +4837,16 @@
         <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="D118" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="F118">
-        <v>22765917</v>
+        <v>22765926</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4859,16 +4857,16 @@
         <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
+        <v>435</v>
       </c>
       <c r="D119" t="s">
-        <v>253</v>
+        <v>575</v>
       </c>
       <c r="E119" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="F119">
-        <v>22765910</v>
+        <v>22765920</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,16 +4877,16 @@
         <v>236</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D120" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F120">
-        <v>22765909</v>
+        <v>22765905</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4899,16 +4897,16 @@
         <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="D121" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="E121" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="F121">
-        <v>22765906</v>
+        <v>22765917</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4919,16 +4917,16 @@
         <v>236</v>
       </c>
       <c r="C122" t="s">
-        <v>412</v>
+        <v>250</v>
       </c>
       <c r="D122" t="s">
-        <v>578</v>
+        <v>251</v>
       </c>
       <c r="E122" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F122">
-        <v>22765921</v>
+        <v>22765910</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4939,16 +4937,16 @@
         <v>236</v>
       </c>
       <c r="C123" t="s">
-        <v>584</v>
+        <v>237</v>
       </c>
       <c r="D123" t="s">
-        <v>579</v>
+        <v>238</v>
       </c>
       <c r="E123" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="F123">
-        <v>22765913</v>
+        <v>22765909</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4959,16 +4957,16 @@
         <v>236</v>
       </c>
       <c r="C124" t="s">
-        <v>244</v>
+        <v>407</v>
       </c>
       <c r="D124" t="s">
-        <v>245</v>
+        <v>548</v>
       </c>
       <c r="E124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F124">
-        <v>22765912</v>
+        <v>22765906</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4979,16 +4977,16 @@
         <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="D125" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="F125">
-        <v>22765916</v>
+        <v>22765921</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4999,16 +4997,16 @@
         <v>236</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>582</v>
       </c>
       <c r="D126" t="s">
-        <v>250</v>
+        <v>577</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="F126">
-        <v>22765915</v>
+        <v>22765913</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5019,76 +5017,76 @@
         <v>236</v>
       </c>
       <c r="C127" t="s">
-        <v>480</v>
+        <v>244</v>
       </c>
       <c r="D127" t="s">
-        <v>581</v>
+        <v>245</v>
       </c>
       <c r="E127" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="F127">
-        <v>22765911</v>
+        <v>22765912</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="D128" t="s">
-        <v>227</v>
+        <v>578</v>
       </c>
       <c r="E128" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F128">
-        <v>22636622</v>
+        <v>22765916</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C129" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="D129" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="E129" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="F129">
-        <v>22636624</v>
+        <v>22765915</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C130" t="s">
-        <v>229</v>
+        <v>478</v>
       </c>
       <c r="D130" t="s">
-        <v>230</v>
+        <v>579</v>
       </c>
       <c r="E130" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F130">
-        <v>22636633</v>
+        <v>22765911</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -5099,16 +5097,16 @@
         <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D131" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E131" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F131">
-        <v>22636627</v>
+        <v>22636622</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5119,16 +5117,16 @@
         <v>217</v>
       </c>
       <c r="C132" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D132" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E132" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F132">
-        <v>22636636</v>
+        <v>22636624</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5139,16 +5137,16 @@
         <v>217</v>
       </c>
       <c r="C133" t="s">
-        <v>492</v>
+        <v>229</v>
       </c>
       <c r="D133" t="s">
-        <v>575</v>
+        <v>230</v>
       </c>
       <c r="E133" t="s">
-        <v>607</v>
+        <v>231</v>
       </c>
       <c r="F133">
-        <v>22636631</v>
+        <v>22636633</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -5159,16 +5157,16 @@
         <v>217</v>
       </c>
       <c r="C134" t="s">
-        <v>426</v>
+        <v>232</v>
       </c>
       <c r="D134" t="s">
-        <v>427</v>
+        <v>233</v>
       </c>
       <c r="E134" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F134">
-        <v>22636637</v>
+        <v>22636627</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5179,76 +5177,76 @@
         <v>217</v>
       </c>
       <c r="C135" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="D135" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="E135" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F135">
-        <v>22636634</v>
+        <v>22636636</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B136" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>209</v>
+        <v>490</v>
       </c>
       <c r="D136" t="s">
-        <v>210</v>
+        <v>573</v>
       </c>
       <c r="E136" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F136">
-        <v>22636613</v>
+        <v>22636631</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B137" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>203</v>
+        <v>424</v>
       </c>
       <c r="D137" t="s">
-        <v>204</v>
+        <v>425</v>
       </c>
       <c r="E137" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="F137">
-        <v>22636608</v>
+        <v>22636637</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D138" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E138" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F138">
-        <v>22636617</v>
+        <v>22636634</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5259,16 +5257,16 @@
         <v>199</v>
       </c>
       <c r="C139" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D139" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E139" t="s">
-        <v>202</v>
+        <v>611</v>
       </c>
       <c r="F139">
-        <v>22636611</v>
+        <v>22636613</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5279,16 +5277,16 @@
         <v>199</v>
       </c>
       <c r="C140" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D140" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E140" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F140">
-        <v>22636619</v>
+        <v>22636608</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5299,16 +5297,16 @@
         <v>199</v>
       </c>
       <c r="C141" t="s">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="D141" t="s">
-        <v>434</v>
+        <v>107</v>
       </c>
       <c r="E141" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F141">
-        <v>22636615</v>
+        <v>22636617</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5319,76 +5317,76 @@
         <v>199</v>
       </c>
       <c r="C142" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D142" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E142" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F142">
-        <v>22636620</v>
+        <v>22636611</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B143" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="D143" t="s">
-        <v>571</v>
+        <v>213</v>
       </c>
       <c r="E143" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F143">
-        <v>851008</v>
+        <v>22636619</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s">
-        <v>191</v>
+        <v>431</v>
       </c>
       <c r="D144" t="s">
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="E144" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F144">
-        <v>851012</v>
+        <v>22636615</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B145" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
-        <v>425</v>
+        <v>206</v>
       </c>
       <c r="D145" t="s">
-        <v>572</v>
+        <v>207</v>
       </c>
       <c r="E145" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F145">
-        <v>851016</v>
+        <v>22636620</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5399,16 +5397,16 @@
         <v>181</v>
       </c>
       <c r="C146" t="s">
-        <v>426</v>
+        <v>184</v>
       </c>
       <c r="D146" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E146" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F146">
-        <v>851019</v>
+        <v>851008</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5419,16 +5417,16 @@
         <v>181</v>
       </c>
       <c r="C147" t="s">
-        <v>586</v>
+        <v>191</v>
       </c>
       <c r="D147" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E147" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F147">
-        <v>851022</v>
+        <v>851012</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5442,13 +5440,13 @@
         <v>423</v>
       </c>
       <c r="D148" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="F148">
-        <v>851034</v>
+        <v>851016</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5459,16 +5457,16 @@
         <v>181</v>
       </c>
       <c r="C149" t="s">
-        <v>194</v>
+        <v>424</v>
       </c>
       <c r="D149" t="s">
-        <v>195</v>
+        <v>571</v>
       </c>
       <c r="E149" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="F149">
-        <v>851037</v>
+        <v>851019</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5479,16 +5477,16 @@
         <v>181</v>
       </c>
       <c r="C150" t="s">
-        <v>182</v>
+        <v>584</v>
       </c>
       <c r="D150" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E150" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F150">
-        <v>851041</v>
+        <v>851022</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5499,116 +5497,116 @@
         <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="D151" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="E151" t="s">
-        <v>626</v>
+        <v>9</v>
       </c>
       <c r="F151">
-        <v>851044</v>
+        <v>851034</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>493</v>
+        <v>194</v>
       </c>
       <c r="D152" t="s">
-        <v>494</v>
+        <v>195</v>
       </c>
       <c r="E152" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="F152">
-        <v>29715513</v>
+        <v>851037</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C153" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="D153" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="F153">
-        <v>29715515</v>
+        <v>851041</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C154" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D154" t="s">
-        <v>172</v>
+        <v>553</v>
       </c>
       <c r="E154" t="s">
-        <v>173</v>
+        <v>624</v>
       </c>
       <c r="F154">
-        <v>509005</v>
+        <v>851044</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C155" t="s">
-        <v>174</v>
+        <v>491</v>
       </c>
       <c r="D155" t="s">
-        <v>175</v>
+        <v>492</v>
       </c>
       <c r="E155" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F155">
-        <v>509011</v>
+        <v>29715513</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C156" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D156" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E156" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="F156">
-        <v>509019</v>
+        <v>29715515</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5619,16 +5617,16 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D157" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E157" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F157">
-        <v>509030</v>
+        <v>509005</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5639,16 +5637,16 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D158" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E158" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F158">
-        <v>509034</v>
+        <v>509011</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5659,16 +5657,16 @@
         <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D159" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F159">
-        <v>509040</v>
+        <v>509019</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5679,16 +5677,16 @@
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D160" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E160" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F160">
-        <v>509047</v>
+        <v>509030</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5699,76 +5697,76 @@
         <v>156</v>
       </c>
       <c r="C161" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D161" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E161" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F161">
-        <v>509053</v>
+        <v>509034</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C162" t="s">
-        <v>473</v>
+        <v>99</v>
       </c>
       <c r="D162" t="s">
-        <v>568</v>
+        <v>100</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F162">
-        <v>27582770</v>
+        <v>509040</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B163" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D163" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E163" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="F163">
-        <v>27582772</v>
+        <v>509047</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C164" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="D164" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="E164" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="F164">
-        <v>27582774</v>
+        <v>509053</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,16 +5777,16 @@
         <v>150</v>
       </c>
       <c r="C165" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="D165" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E165" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="F165">
-        <v>27582776</v>
+        <v>27582770</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5799,16 +5797,16 @@
         <v>150</v>
       </c>
       <c r="C166" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="D166" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="E166" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F166">
-        <v>27582778</v>
+        <v>27582772</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,16 +5817,16 @@
         <v>150</v>
       </c>
       <c r="C167" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="D167" t="s">
-        <v>569</v>
+        <v>107</v>
       </c>
       <c r="E167" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F167">
-        <v>27582780</v>
+        <v>27582774</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5839,16 +5837,16 @@
         <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D168" t="s">
-        <v>430</v>
+        <v>561</v>
       </c>
       <c r="E168" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F168">
-        <v>27582782</v>
+        <v>27582776</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5859,16 +5857,16 @@
         <v>150</v>
       </c>
       <c r="C169" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D169" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E169" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F169">
-        <v>27582784</v>
+        <v>27582778</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5879,16 +5877,16 @@
         <v>150</v>
       </c>
       <c r="C170" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D170" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E170" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F170">
-        <v>27582788</v>
+        <v>27582780</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5899,16 +5897,16 @@
         <v>150</v>
       </c>
       <c r="C171" t="s">
-        <v>84</v>
+        <v>427</v>
       </c>
       <c r="D171" t="s">
-        <v>85</v>
+        <v>428</v>
       </c>
       <c r="E171" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F171">
-        <v>27582792</v>
+        <v>27582782</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5919,76 +5917,76 @@
         <v>150</v>
       </c>
       <c r="C172" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D172" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E172" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F172">
-        <v>27582796</v>
+        <v>27582784</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B173" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C173" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D173" t="s">
-        <v>146</v>
+        <v>568</v>
       </c>
       <c r="E173" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="F173">
-        <v>28219110</v>
+        <v>27582788</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B174" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C174" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D174" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="F174">
-        <v>28219112</v>
+        <v>27582792</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B175" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C175" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="D175" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="E175" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F175">
-        <v>28219114</v>
+        <v>27582796</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5999,16 +5997,16 @@
         <v>131</v>
       </c>
       <c r="C176" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D176" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E176" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F176">
-        <v>28219116</v>
+        <v>28219110</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -6019,16 +6017,16 @@
         <v>131</v>
       </c>
       <c r="C177" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D177" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E177" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F177">
-        <v>28219118</v>
+        <v>28219112</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -6039,16 +6037,16 @@
         <v>131</v>
       </c>
       <c r="C178" t="s">
-        <v>431</v>
+        <v>138</v>
       </c>
       <c r="D178" t="s">
-        <v>432</v>
+        <v>139</v>
       </c>
       <c r="E178" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F178">
-        <v>28219120</v>
+        <v>28219114</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,76 +6057,76 @@
         <v>131</v>
       </c>
       <c r="C179" t="s">
-        <v>495</v>
+        <v>141</v>
       </c>
       <c r="D179" t="s">
-        <v>496</v>
+        <v>142</v>
       </c>
       <c r="E179" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F179">
-        <v>28219122</v>
+        <v>28219116</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B180" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C180" t="s">
-        <v>428</v>
+        <v>135</v>
       </c>
       <c r="D180" t="s">
-        <v>499</v>
+        <v>136</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="F180">
-        <v>34002876</v>
+        <v>28219118</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B181" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C181" t="s">
-        <v>102</v>
+        <v>429</v>
       </c>
       <c r="D181" t="s">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="E181" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="F181">
-        <v>34002877</v>
+        <v>28219120</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B182" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C182" t="s">
-        <v>106</v>
+        <v>493</v>
       </c>
       <c r="D182" t="s">
-        <v>107</v>
+        <v>494</v>
       </c>
       <c r="E182" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F182">
-        <v>34002878</v>
+        <v>28219122</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6139,16 +6137,16 @@
         <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D183" t="s">
-        <v>562</v>
+        <v>497</v>
       </c>
       <c r="E183" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="F183">
-        <v>34002879</v>
+        <v>34002876</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6159,16 +6157,16 @@
         <v>129</v>
       </c>
       <c r="C184" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D184" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F184">
-        <v>34002880</v>
+        <v>34002877</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,16 +6177,16 @@
         <v>129</v>
       </c>
       <c r="C185" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="D185" t="s">
-        <v>500</v>
+        <v>107</v>
       </c>
       <c r="E185" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F185">
-        <v>34002881</v>
+        <v>34002878</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6199,16 +6197,16 @@
         <v>129</v>
       </c>
       <c r="C186" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D186" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="E186" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F186">
-        <v>34002882</v>
+        <v>34002879</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6219,16 +6217,16 @@
         <v>129</v>
       </c>
       <c r="C187" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D187" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E187" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F187">
-        <v>34002883</v>
+        <v>34002880</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6239,16 +6237,16 @@
         <v>129</v>
       </c>
       <c r="C188" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="D188" t="s">
-        <v>85</v>
+        <v>498</v>
       </c>
       <c r="E188" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F188">
-        <v>34002884</v>
+        <v>34002881</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6259,16 +6257,16 @@
         <v>129</v>
       </c>
       <c r="C189" t="s">
-        <v>92</v>
+        <v>427</v>
       </c>
       <c r="D189" t="s">
-        <v>93</v>
+        <v>499</v>
       </c>
       <c r="E189" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F189">
-        <v>34002885</v>
+        <v>34002882</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6279,16 +6277,16 @@
         <v>129</v>
       </c>
       <c r="C190" t="s">
-        <v>585</v>
+        <v>88</v>
       </c>
       <c r="D190" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E190" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F190">
-        <v>34002886</v>
+        <v>34002883</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,16 +6297,16 @@
         <v>129</v>
       </c>
       <c r="C191" t="s">
-        <v>431</v>
+        <v>84</v>
       </c>
       <c r="D191" t="s">
-        <v>564</v>
+        <v>85</v>
       </c>
       <c r="E191" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F191">
-        <v>34002887</v>
+        <v>34002884</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6319,16 +6317,16 @@
         <v>129</v>
       </c>
       <c r="C192" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D192" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E192" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F192">
-        <v>34002871</v>
+        <v>34002885</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6339,76 +6337,76 @@
         <v>129</v>
       </c>
       <c r="C193" t="s">
-        <v>435</v>
+        <v>583</v>
       </c>
       <c r="D193" t="s">
-        <v>565</v>
+        <v>97</v>
       </c>
       <c r="E193" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F193">
-        <v>34002873</v>
+        <v>34002886</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B194" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C194" t="s">
-        <v>122</v>
+        <v>429</v>
       </c>
       <c r="D194" t="s">
-        <v>123</v>
+        <v>562</v>
       </c>
       <c r="E194" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="F194">
-        <v>33991784</v>
+        <v>34002887</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B195" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C195" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D195" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E195" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F195">
-        <v>33991807</v>
+        <v>34002871</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B196" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C196" t="s">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="D196" t="s">
-        <v>83</v>
+        <v>563</v>
       </c>
       <c r="E196" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F196">
-        <v>33991810</v>
+        <v>34002873</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6419,16 +6417,16 @@
         <v>110</v>
       </c>
       <c r="C197" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D197" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E197" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F197">
-        <v>33991812</v>
+        <v>33991784</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6439,16 +6437,16 @@
         <v>110</v>
       </c>
       <c r="C198" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D198" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E198" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F198">
-        <v>34003789</v>
+        <v>33991807</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6459,16 +6457,16 @@
         <v>110</v>
       </c>
       <c r="C199" t="s">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="D199" t="s">
-        <v>498</v>
+        <v>83</v>
       </c>
       <c r="E199" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F199">
-        <v>34003791</v>
+        <v>33991810</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6479,116 +6477,116 @@
         <v>110</v>
       </c>
       <c r="C200" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D200" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E200" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F200">
-        <v>34003794</v>
+        <v>33991812</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B201" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C201" t="s">
-        <v>436</v>
+        <v>116</v>
       </c>
       <c r="D201" t="s">
-        <v>566</v>
+        <v>117</v>
       </c>
       <c r="E201" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="F201">
-        <v>561307021</v>
+        <v>34003789</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B202" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C202" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="D202" t="s">
-        <v>567</v>
+        <v>496</v>
       </c>
       <c r="E202" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F202">
-        <v>561307037</v>
+        <v>34003791</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B203" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C203" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D203" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E203" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F203">
-        <v>477215246</v>
+        <v>34003794</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B204" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C204" t="s">
-        <v>60</v>
+        <v>434</v>
       </c>
       <c r="D204" t="s">
-        <v>61</v>
+        <v>564</v>
       </c>
       <c r="E204" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F204">
-        <v>477215248</v>
+        <v>561307021</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B205" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C205" t="s">
-        <v>66</v>
+        <v>437</v>
       </c>
       <c r="D205" t="s">
-        <v>67</v>
+        <v>565</v>
       </c>
       <c r="E205" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F205">
-        <v>477215250</v>
+        <v>561307037</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6599,16 +6597,16 @@
         <v>56</v>
       </c>
       <c r="C206" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D206" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E206" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F206">
-        <v>497463990</v>
+        <v>477215246</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6619,16 +6617,16 @@
         <v>56</v>
       </c>
       <c r="C207" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D207" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E207" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F207">
-        <v>497463992</v>
+        <v>477215248</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6639,16 +6637,16 @@
         <v>56</v>
       </c>
       <c r="C208" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D208" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E208" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F208">
-        <v>497463994</v>
+        <v>477215250</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6659,76 +6657,76 @@
         <v>56</v>
       </c>
       <c r="C209" t="s">
-        <v>502</v>
+        <v>72</v>
       </c>
       <c r="D209" t="s">
-        <v>561</v>
+        <v>73</v>
       </c>
       <c r="E209" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F209">
-        <v>497463996</v>
+        <v>497463990</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B210" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C210" t="s">
-        <v>663</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>664</v>
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
       </c>
       <c r="E210" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F210">
-        <v>1300452648</v>
+        <v>497463992</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B211" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C211" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D211" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E211" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F211">
-        <v>1300423634</v>
+        <v>497463994</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B212" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="D212" t="s">
-        <v>52</v>
+        <v>559</v>
       </c>
       <c r="E212" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F212">
-        <v>1300452649</v>
+        <v>497463996</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6739,76 +6737,76 @@
         <v>47</v>
       </c>
       <c r="C213" t="s">
-        <v>53</v>
-      </c>
-      <c r="D213" t="s">
-        <v>54</v>
+        <v>661</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>662</v>
       </c>
       <c r="E213" t="s">
         <v>50</v>
       </c>
       <c r="F213">
-        <v>1300595620</v>
+        <v>1300452648</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D214" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E214" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F214">
-        <v>1381562764</v>
+        <v>1300423634</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D215" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E215" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F215">
-        <v>1381564337</v>
+        <v>1300452649</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C216" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D216" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E216" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F216">
-        <v>1381562765</v>
+        <v>1300595620</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6819,16 +6817,16 @@
         <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>503</v>
+        <v>36</v>
       </c>
       <c r="D217" t="s">
-        <v>504</v>
+        <v>37</v>
       </c>
       <c r="E217" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F217">
-        <v>1384324154</v>
+        <v>1381562764</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6839,16 +6837,16 @@
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E218" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F218">
-        <v>1384324156</v>
+        <v>1381564337</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6859,16 +6857,16 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>505</v>
+        <v>39</v>
       </c>
       <c r="D219" t="s">
-        <v>506</v>
+        <v>40</v>
       </c>
       <c r="E219" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F219">
-        <v>1384318412</v>
+        <v>1381562765</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,715 +6877,775 @@
         <v>30</v>
       </c>
       <c r="C220" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D220" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F220">
-        <v>1384324244</v>
+        <v>1384324154</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>525</v>
+        <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E221" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F221">
-        <v>30854133</v>
+        <v>1384324156</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>525</v>
+        <v>29</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C222" t="s">
-        <v>17</v>
+        <v>503</v>
       </c>
       <c r="D222" t="s">
-        <v>18</v>
+        <v>504</v>
       </c>
       <c r="E222" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F222">
-        <v>30854134</v>
+        <v>1384318412</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>525</v>
+        <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>505</v>
       </c>
       <c r="D223" t="s">
-        <v>11</v>
+        <v>506</v>
       </c>
       <c r="E223" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F223">
-        <v>30854137</v>
+        <v>1384324244</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>509</v>
+        <v>14</v>
       </c>
       <c r="D224" t="s">
-        <v>510</v>
+        <v>15</v>
       </c>
       <c r="E224" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F224">
-        <v>30854138</v>
+        <v>30854133</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F225">
-        <v>30854142</v>
+        <v>30854134</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>512</v>
+        <v>11</v>
       </c>
       <c r="E226" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F226">
-        <v>30854146</v>
+        <v>30854137</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
       <c r="D227" t="s">
-        <v>424</v>
+        <v>508</v>
       </c>
       <c r="E227" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F227">
-        <v>30854151</v>
+        <v>30854138</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B228" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>514</v>
+        <v>7</v>
       </c>
       <c r="E228" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F228">
-        <v>30854182</v>
+        <v>30854142</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B229" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>509</v>
       </c>
       <c r="D229" t="s">
-        <v>24</v>
+        <v>510</v>
       </c>
       <c r="E229" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F229">
-        <v>30854183</v>
+        <v>30854146</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B230" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>515</v>
+        <v>421</v>
       </c>
       <c r="D230" t="s">
-        <v>516</v>
+        <v>422</v>
       </c>
       <c r="E230" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F230">
-        <v>30854184</v>
+        <v>30854151</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B231" t="s">
         <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D231" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E231" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F231">
-        <v>30854185</v>
+        <v>30854182</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B232" t="s">
         <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F232">
-        <v>30854188</v>
+        <v>30854183</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B233" t="s">
         <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>587</v>
+        <v>513</v>
       </c>
       <c r="D233" t="s">
-        <v>587</v>
+        <v>514</v>
       </c>
       <c r="E233" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F233">
-        <v>30854186</v>
+        <v>30854184</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B234" t="s">
         <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D234" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E234" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F234">
-        <v>30854187</v>
+        <v>30854185</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B235" t="s">
         <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>520</v>
+        <v>25</v>
       </c>
       <c r="D235" t="s">
-        <v>521</v>
+        <v>26</v>
       </c>
       <c r="E235" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F235">
-        <v>30854189</v>
+        <v>30854188</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B236" t="s">
         <v>21</v>
       </c>
       <c r="C236" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="D236" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="E236" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F236">
-        <v>30854190</v>
+        <v>30854186</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B237" t="s">
-        <v>595</v>
+        <v>21</v>
       </c>
       <c r="C237" t="s">
-        <v>649</v>
+        <v>516</v>
       </c>
       <c r="D237" t="s">
-        <v>648</v>
+        <v>517</v>
       </c>
       <c r="E237" t="s">
-        <v>601</v>
+        <v>23</v>
       </c>
       <c r="F237">
-        <v>29715584</v>
+        <v>30854187</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B238" t="s">
-        <v>595</v>
+        <v>21</v>
       </c>
       <c r="C238" t="s">
-        <v>602</v>
+        <v>518</v>
       </c>
       <c r="D238" t="s">
-        <v>596</v>
+        <v>519</v>
       </c>
       <c r="E238" t="s">
-        <v>601</v>
-      </c>
-      <c r="F238" s="1">
-        <v>29715585</v>
+        <v>28</v>
+      </c>
+      <c r="F238">
+        <v>30854189</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B239" t="s">
-        <v>595</v>
+        <v>21</v>
       </c>
       <c r="C239" t="s">
-        <v>603</v>
+        <v>520</v>
       </c>
       <c r="D239" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="E239" t="s">
-        <v>601</v>
-      </c>
-      <c r="F239" s="1">
-        <v>29715586</v>
+        <v>27</v>
+      </c>
+      <c r="F239">
+        <v>30854190</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>592</v>
+      </c>
+      <c r="B240" t="s">
+        <v>593</v>
+      </c>
+      <c r="C240" t="s">
         <v>647</v>
       </c>
-      <c r="B240" t="s">
-        <v>595</v>
-      </c>
-      <c r="C240" t="s">
-        <v>604</v>
-      </c>
       <c r="D240" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="E240" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F240">
-        <v>29715587</v>
+        <v>29715584</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>647</v>
+        <v>592</v>
       </c>
       <c r="B241" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C241" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D241" t="s">
+        <v>594</v>
+      </c>
+      <c r="E241" t="s">
         <v>599</v>
       </c>
-      <c r="E241" t="s">
-        <v>601</v>
-      </c>
-      <c r="F241">
-        <v>29715588</v>
+      <c r="F241" s="1">
+        <v>29715585</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>647</v>
+        <v>592</v>
       </c>
       <c r="B242" t="s">
+        <v>593</v>
+      </c>
+      <c r="C242" t="s">
+        <v>601</v>
+      </c>
+      <c r="D242" t="s">
         <v>595</v>
       </c>
-      <c r="C242" t="s">
-        <v>635</v>
-      </c>
-      <c r="D242" t="s">
-        <v>600</v>
-      </c>
       <c r="E242" t="s">
-        <v>606</v>
-      </c>
-      <c r="F242">
-        <v>29715589</v>
+        <v>599</v>
+      </c>
+      <c r="F242" s="1">
+        <v>29715586</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="B243" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="C243" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D243" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="E243" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="F243">
-        <v>29710956</v>
+        <v>29715587</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="B244" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="C244" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="D244" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="E244" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="F244">
-        <v>468513480</v>
+        <v>29715588</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="B245" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="C245" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="D245" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="E245" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="F245">
-        <v>29710940</v>
+        <v>29715589</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B246" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="C246" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="D246" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="E246" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="F246">
-        <v>29710941</v>
+        <v>29710956</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>613</v>
+      </c>
+      <c r="B247" t="s">
+        <v>612</v>
+      </c>
+      <c r="C247" t="s">
+        <v>616</v>
+      </c>
+      <c r="D247" t="s">
+        <v>614</v>
+      </c>
+      <c r="E247" t="s">
         <v>615</v>
       </c>
-      <c r="B247" t="s">
-        <v>631</v>
-      </c>
-      <c r="C247" t="s">
-        <v>624</v>
-      </c>
-      <c r="D247" t="s">
-        <v>623</v>
-      </c>
-      <c r="E247" t="s">
-        <v>630</v>
-      </c>
       <c r="F247">
-        <v>29710942</v>
+        <v>468513480</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="B248" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C248" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="D248" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="E248" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="F248">
-        <v>29710959</v>
+        <v>29710940</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="B249" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C249" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="D249" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="E249" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="F249">
-        <v>22765949</v>
+        <v>29710941</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="B250" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="C250" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="D250" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="E250" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="F250">
-        <v>22766029</v>
+        <v>29710942</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="B251" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="C251" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="D251" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="E251" t="s">
-        <v>662</v>
-      </c>
-      <c r="F251" s="1">
-        <v>28941725</v>
+        <v>635</v>
+      </c>
+      <c r="F251">
+        <v>29710959</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B252" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="C252" t="s">
-        <v>654</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>655</v>
+        <v>637</v>
+      </c>
+      <c r="D252" t="s">
+        <v>638</v>
       </c>
       <c r="E252" t="s">
-        <v>662</v>
-      </c>
-      <c r="F252" s="1">
-        <v>28941726</v>
+        <v>640</v>
+      </c>
+      <c r="F252">
+        <v>22765949</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B253" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C253" t="s">
-        <v>656</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>657</v>
+        <v>642</v>
+      </c>
+      <c r="D253" t="s">
+        <v>643</v>
       </c>
       <c r="E253" t="s">
-        <v>662</v>
-      </c>
-      <c r="F253" s="1">
-        <v>28941727</v>
+        <v>644</v>
+      </c>
+      <c r="F253">
+        <v>22766029</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>648</v>
+      </c>
+      <c r="B254" t="s">
+        <v>649</v>
+      </c>
+      <c r="C254" t="s">
         <v>650</v>
       </c>
-      <c r="B254" t="s">
+      <c r="D254" t="s">
         <v>651</v>
       </c>
-      <c r="C254" t="s">
-        <v>658</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="E254" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F254" s="1">
-        <v>28941728</v>
+        <v>28941725</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B255" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C255" t="s">
+        <v>652</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E255" t="s">
         <v>660</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="E255" t="s">
-        <v>662</v>
-      </c>
       <c r="F255" s="1">
+        <v>28941726</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>648</v>
+      </c>
+      <c r="B256" t="s">
+        <v>649</v>
+      </c>
+      <c r="C256" t="s">
+        <v>654</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E256" t="s">
+        <v>660</v>
+      </c>
+      <c r="F256" s="1">
+        <v>28941727</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>648</v>
+      </c>
+      <c r="B257" t="s">
+        <v>649</v>
+      </c>
+      <c r="C257" t="s">
+        <v>656</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E257" t="s">
+        <v>660</v>
+      </c>
+      <c r="F257" s="1">
+        <v>28941728</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>648</v>
+      </c>
+      <c r="B258" t="s">
+        <v>649</v>
+      </c>
+      <c r="C258" t="s">
+        <v>658</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E258" t="s">
+        <v>660</v>
+      </c>
+      <c r="F258" s="1">
         <v>28941729</v>
       </c>
     </row>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705F8F1D-73E6-4771-94D9-778FF315DB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8B393F-ECB9-4655-91AD-02302900BABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="669">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2140,6 +2140,26 @@
   </si>
   <si>
     <t>布加勒斯特的人偶师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女秘封俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女秘封倶楽部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇佐见莲子&amp;玛艾露贝莉·赫恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月の妖鳥、化猫の幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之妖鸟、化猫之幻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2474,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7537,10 +7557,10 @@
         <v>641</v>
       </c>
       <c r="C253" t="s">
+        <v>643</v>
+      </c>
+      <c r="D253" t="s">
         <v>642</v>
-      </c>
-      <c r="D253" t="s">
-        <v>643</v>
       </c>
       <c r="E253" t="s">
         <v>644</v>
@@ -7551,42 +7571,42 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B254" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C254" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="D254" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="E254" t="s">
-        <v>660</v>
-      </c>
-      <c r="F254" s="1">
-        <v>28941725</v>
+        <v>666</v>
+      </c>
+      <c r="F254">
+        <v>22766028</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B255" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C255" t="s">
-        <v>652</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>653</v>
+        <v>668</v>
+      </c>
+      <c r="D255" t="s">
+        <v>667</v>
       </c>
       <c r="E255" t="s">
-        <v>660</v>
-      </c>
-      <c r="F255" s="1">
-        <v>28941726</v>
+        <v>666</v>
+      </c>
+      <c r="F255">
+        <v>22766019</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7597,16 +7617,16 @@
         <v>649</v>
       </c>
       <c r="C256" t="s">
-        <v>654</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
+      </c>
+      <c r="D256" t="s">
+        <v>651</v>
       </c>
       <c r="E256" t="s">
         <v>660</v>
       </c>
       <c r="F256" s="1">
-        <v>28941727</v>
+        <v>28941725</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7617,16 +7637,16 @@
         <v>649</v>
       </c>
       <c r="C257" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E257" t="s">
         <v>660</v>
       </c>
       <c r="F257" s="1">
-        <v>28941728</v>
+        <v>28941726</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -7637,15 +7657,55 @@
         <v>649</v>
       </c>
       <c r="C258" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E258" t="s">
         <v>660</v>
       </c>
       <c r="F258" s="1">
+        <v>28941727</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>648</v>
+      </c>
+      <c r="B259" t="s">
+        <v>649</v>
+      </c>
+      <c r="C259" t="s">
+        <v>656</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E259" t="s">
+        <v>660</v>
+      </c>
+      <c r="F259" s="1">
+        <v>28941728</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>648</v>
+      </c>
+      <c r="B260" t="s">
+        <v>649</v>
+      </c>
+      <c r="C260" t="s">
+        <v>658</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E260" t="s">
+        <v>660</v>
+      </c>
+      <c r="F260" s="1">
         <v>28941729</v>
       </c>
     </row>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8B393F-ECB9-4655-91AD-02302900BABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EB9D2E-F457-4444-B72D-A3C596EAAFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2151,16 +2151,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宇佐见莲子&amp;玛艾露贝莉·赫恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月の妖鳥、化猫の幻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>月之妖鸟、化猫之幻</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘封组</t>
   </si>
 </sst>
 </file>
@@ -2496,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7583,7 +7582,7 @@
         <v>665</v>
       </c>
       <c r="E254" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F254">
         <v>22766028</v>
@@ -7597,13 +7596,13 @@
         <v>641</v>
       </c>
       <c r="C255" t="s">
+        <v>667</v>
+      </c>
+      <c r="D255" t="s">
+        <v>666</v>
+      </c>
+      <c r="E255" t="s">
         <v>668</v>
-      </c>
-      <c r="D255" t="s">
-        <v>667</v>
-      </c>
-      <c r="E255" t="s">
-        <v>666</v>
       </c>
       <c r="F255">
         <v>22766019</v>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EB9D2E-F457-4444-B72D-A3C596EAAFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF51FE91-DF52-47B2-BC46-001F4223BEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="669">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,9 +812,6 @@
   </si>
   <si>
     <t>十六夜咲夜</t>
-  </si>
-  <si>
-    <t>小野冢小町</t>
   </si>
   <si>
     <t>永江衣玖</t>
@@ -2160,6 +2157,10 @@
   </si>
   <si>
     <t>秘封组</t>
+  </si>
+  <si>
+    <t>小野塚小町</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2495,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="E255" sqref="E255"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2525,21 +2526,21 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" t="s">
         <v>392</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>393</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>394</v>
-      </c>
-      <c r="D2" t="s">
-        <v>395</v>
       </c>
       <c r="E2" t="s">
         <v>242</v>
@@ -2550,19 +2551,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" t="s">
         <v>392</v>
       </c>
-      <c r="B3" t="s">
-        <v>393</v>
-      </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F3">
         <v>22636829</v>
@@ -2570,19 +2571,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" t="s">
         <v>392</v>
       </c>
-      <c r="B4" t="s">
-        <v>393</v>
-      </c>
       <c r="C4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" t="s">
         <v>398</v>
-      </c>
-      <c r="E4" t="s">
-        <v>399</v>
       </c>
       <c r="F4">
         <v>22636835</v>
@@ -2590,19 +2591,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" t="s">
         <v>392</v>
       </c>
-      <c r="B5" t="s">
-        <v>393</v>
-      </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F5">
         <v>22636837</v>
@@ -2610,19 +2611,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" t="s">
         <v>392</v>
       </c>
-      <c r="B6" t="s">
-        <v>393</v>
-      </c>
       <c r="C6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" t="s">
         <v>396</v>
-      </c>
-      <c r="D6" t="s">
-        <v>403</v>
-      </c>
-      <c r="E6" t="s">
-        <v>397</v>
       </c>
       <c r="F6">
         <v>500684336</v>
@@ -2630,19 +2631,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" t="s">
         <v>382</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>383</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" t="s">
         <v>384</v>
-      </c>
-      <c r="D7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E7" t="s">
-        <v>385</v>
       </c>
       <c r="F7">
         <v>34999157</v>
@@ -2650,19 +2651,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" t="s">
         <v>382</v>
       </c>
-      <c r="B8" t="s">
-        <v>383</v>
-      </c>
       <c r="C8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" t="s">
         <v>389</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>390</v>
-      </c>
-      <c r="E8" t="s">
-        <v>391</v>
       </c>
       <c r="F8">
         <v>34999158</v>
@@ -2670,10 +2671,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="s">
         <v>382</v>
-      </c>
-      <c r="B9" t="s">
-        <v>383</v>
       </c>
       <c r="C9" t="s">
         <v>194</v>
@@ -2690,19 +2691,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s">
         <v>382</v>
       </c>
-      <c r="B10" t="s">
-        <v>383</v>
-      </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F10">
         <v>34999161</v>
@@ -2710,19 +2711,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" t="s">
         <v>382</v>
       </c>
-      <c r="B11" t="s">
-        <v>383</v>
-      </c>
       <c r="C11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" t="s">
         <v>386</v>
       </c>
-      <c r="D11" t="s">
-        <v>387</v>
-      </c>
       <c r="E11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F11">
         <v>34999163</v>
@@ -2730,10 +2731,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" t="s">
         <v>368</v>
-      </c>
-      <c r="B12" t="s">
-        <v>369</v>
       </c>
       <c r="C12" t="s">
         <v>240</v>
@@ -2750,19 +2751,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" t="s">
         <v>368</v>
       </c>
-      <c r="B13" t="s">
-        <v>369</v>
-      </c>
       <c r="C13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" t="s">
         <v>377</v>
-      </c>
-      <c r="D13" t="s">
-        <v>404</v>
-      </c>
-      <c r="E13" t="s">
-        <v>378</v>
       </c>
       <c r="F13">
         <v>22636807</v>
@@ -2770,16 +2771,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" t="s">
         <v>368</v>
       </c>
-      <c r="B14" t="s">
-        <v>369</v>
-      </c>
       <c r="C14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2790,19 +2791,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" t="s">
         <v>368</v>
       </c>
-      <c r="B15" t="s">
-        <v>369</v>
-      </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F15">
         <v>22636816</v>
@@ -2810,19 +2811,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" t="s">
         <v>368</v>
       </c>
-      <c r="B16" t="s">
-        <v>369</v>
-      </c>
       <c r="C16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" t="s">
         <v>380</v>
-      </c>
-      <c r="D16" t="s">
-        <v>380</v>
-      </c>
-      <c r="E16" t="s">
-        <v>381</v>
       </c>
       <c r="F16">
         <v>22636808</v>
@@ -2830,19 +2831,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" t="s">
         <v>368</v>
       </c>
-      <c r="B17" t="s">
-        <v>369</v>
-      </c>
       <c r="C17" t="s">
+        <v>439</v>
+      </c>
+      <c r="D17" t="s">
         <v>440</v>
       </c>
-      <c r="D17" t="s">
-        <v>441</v>
-      </c>
       <c r="E17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -2850,19 +2851,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" t="s">
         <v>368</v>
       </c>
-      <c r="B18" t="s">
-        <v>369</v>
-      </c>
       <c r="C18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" t="s">
         <v>442</v>
       </c>
-      <c r="D18" t="s">
-        <v>443</v>
-      </c>
       <c r="E18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F18">
         <v>22636806</v>
@@ -2870,19 +2871,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" t="s">
         <v>368</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D19" t="s">
+        <v>523</v>
+      </c>
+      <c r="E19" t="s">
         <v>369</v>
-      </c>
-      <c r="C19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D19" t="s">
-        <v>524</v>
-      </c>
-      <c r="E19" t="s">
-        <v>370</v>
       </c>
       <c r="F19">
         <v>22636820</v>
@@ -2890,19 +2891,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" t="s">
         <v>368</v>
       </c>
-      <c r="B20" t="s">
-        <v>369</v>
-      </c>
       <c r="C20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" t="s">
+        <v>371</v>
+      </c>
+      <c r="E20" t="s">
         <v>372</v>
-      </c>
-      <c r="D20" t="s">
-        <v>372</v>
-      </c>
-      <c r="E20" t="s">
-        <v>373</v>
       </c>
       <c r="F20">
         <v>22636811</v>
@@ -2910,19 +2911,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" t="s">
         <v>368</v>
       </c>
-      <c r="B21" t="s">
-        <v>369</v>
-      </c>
       <c r="C21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" t="s">
+        <v>444</v>
+      </c>
+      <c r="E21" t="s">
         <v>375</v>
-      </c>
-      <c r="D21" t="s">
-        <v>445</v>
-      </c>
-      <c r="E21" t="s">
-        <v>376</v>
       </c>
       <c r="F21">
         <v>22636814</v>
@@ -2930,19 +2931,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" t="s">
         <v>360</v>
       </c>
-      <c r="B22" t="s">
-        <v>361</v>
-      </c>
       <c r="C22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F22">
         <v>22636738</v>
@@ -2950,19 +2951,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" t="s">
         <v>360</v>
       </c>
-      <c r="B23" t="s">
-        <v>361</v>
-      </c>
       <c r="C23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F23">
         <v>22636747</v>
@@ -2970,19 +2971,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" t="s">
         <v>360</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>526</v>
+      </c>
+      <c r="D24" t="s">
+        <v>527</v>
+      </c>
+      <c r="E24" t="s">
         <v>361</v>
-      </c>
-      <c r="C24" t="s">
-        <v>527</v>
-      </c>
-      <c r="D24" t="s">
-        <v>528</v>
-      </c>
-      <c r="E24" t="s">
-        <v>362</v>
       </c>
       <c r="F24">
         <v>22636741</v>
@@ -2990,16 +2991,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B25" t="s">
         <v>360</v>
       </c>
-      <c r="B25" t="s">
-        <v>361</v>
-      </c>
       <c r="C25" t="s">
+        <v>528</v>
+      </c>
+      <c r="D25" t="s">
         <v>529</v>
-      </c>
-      <c r="D25" t="s">
-        <v>530</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -3010,19 +3011,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" t="s">
         <v>360</v>
       </c>
-      <c r="B26" t="s">
-        <v>361</v>
-      </c>
       <c r="C26" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" t="s">
         <v>531</v>
       </c>
-      <c r="D26" t="s">
-        <v>532</v>
-      </c>
       <c r="E26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F26">
         <v>22636742</v>
@@ -3030,16 +3031,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B27" t="s">
         <v>360</v>
       </c>
-      <c r="B27" t="s">
-        <v>361</v>
-      </c>
       <c r="C27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -3050,16 +3051,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" t="s">
         <v>360</v>
       </c>
-      <c r="B28" t="s">
-        <v>361</v>
-      </c>
       <c r="C28" t="s">
+        <v>532</v>
+      </c>
+      <c r="D28" t="s">
         <v>533</v>
-      </c>
-      <c r="D28" t="s">
-        <v>534</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -3070,19 +3071,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B29" t="s">
         <v>360</v>
       </c>
-      <c r="B29" t="s">
-        <v>361</v>
-      </c>
       <c r="C29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F29">
         <v>22636744</v>
@@ -3090,19 +3091,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" t="s">
         <v>360</v>
       </c>
-      <c r="B30" t="s">
-        <v>361</v>
-      </c>
       <c r="C30" t="s">
+        <v>535</v>
+      </c>
+      <c r="D30" t="s">
         <v>536</v>
       </c>
-      <c r="D30" t="s">
-        <v>537</v>
-      </c>
       <c r="E30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F30">
         <v>22636758</v>
@@ -3110,19 +3111,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" t="s">
         <v>347</v>
       </c>
-      <c r="B31" t="s">
-        <v>348</v>
-      </c>
       <c r="C31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F31">
         <v>22636764</v>
@@ -3130,19 +3131,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B32" t="s">
         <v>347</v>
       </c>
-      <c r="B32" t="s">
-        <v>348</v>
-      </c>
       <c r="C32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F32">
         <v>22636763</v>
@@ -3150,16 +3151,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" t="s">
         <v>347</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>348</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>349</v>
-      </c>
-      <c r="D33" t="s">
-        <v>350</v>
       </c>
       <c r="E33" t="s">
         <v>239</v>
@@ -3170,19 +3171,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" t="s">
         <v>347</v>
       </c>
-      <c r="B34" t="s">
-        <v>348</v>
-      </c>
       <c r="C34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F34">
         <v>22636765</v>
@@ -3190,19 +3191,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" t="s">
         <v>347</v>
       </c>
-      <c r="B35" t="s">
-        <v>348</v>
-      </c>
       <c r="C35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F35">
         <v>22636779</v>
@@ -3210,19 +3211,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" t="s">
         <v>347</v>
       </c>
-      <c r="B36" t="s">
-        <v>348</v>
-      </c>
       <c r="C36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F36">
         <v>22636770</v>
@@ -3230,19 +3231,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" t="s">
         <v>347</v>
       </c>
-      <c r="B37" t="s">
-        <v>348</v>
-      </c>
       <c r="C37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F37">
         <v>22636768</v>
@@ -3250,19 +3251,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" t="s">
         <v>347</v>
       </c>
-      <c r="B38" t="s">
-        <v>348</v>
-      </c>
       <c r="C38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F38">
         <v>22636774</v>
@@ -3270,16 +3271,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" t="s">
         <v>347</v>
       </c>
-      <c r="B39" t="s">
-        <v>348</v>
-      </c>
       <c r="C39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D39" t="s">
         <v>351</v>
-      </c>
-      <c r="D39" t="s">
-        <v>352</v>
       </c>
       <c r="E39" t="s">
         <v>239</v>
@@ -3290,10 +3291,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" t="s">
         <v>347</v>
-      </c>
-      <c r="B40" t="s">
-        <v>348</v>
       </c>
       <c r="C40" t="s">
         <v>182</v>
@@ -3310,19 +3311,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" t="s">
         <v>333</v>
       </c>
-      <c r="B41" t="s">
-        <v>334</v>
-      </c>
       <c r="C41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" t="s">
+        <v>343</v>
+      </c>
+      <c r="E41" t="s">
         <v>344</v>
-      </c>
-      <c r="D41" t="s">
-        <v>344</v>
-      </c>
-      <c r="E41" t="s">
-        <v>345</v>
       </c>
       <c r="F41">
         <v>22636719</v>
@@ -3330,19 +3331,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" t="s">
         <v>333</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>334</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>335</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>336</v>
-      </c>
-      <c r="E42" t="s">
-        <v>337</v>
       </c>
       <c r="F42">
         <v>22636721</v>
@@ -3350,10 +3351,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" t="s">
         <v>333</v>
-      </c>
-      <c r="B43" t="s">
-        <v>334</v>
       </c>
       <c r="C43" t="s">
         <v>191</v>
@@ -3362,7 +3363,7 @@
         <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F43">
         <v>22636718</v>
@@ -3370,19 +3371,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" t="s">
         <v>333</v>
       </c>
-      <c r="B44" t="s">
-        <v>334</v>
-      </c>
       <c r="C44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F44">
         <v>22636730</v>
@@ -3390,19 +3391,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" t="s">
         <v>333</v>
       </c>
-      <c r="B45" t="s">
-        <v>334</v>
-      </c>
       <c r="C45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D45" t="s">
         <v>341</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>342</v>
-      </c>
-      <c r="E45" t="s">
-        <v>343</v>
       </c>
       <c r="F45">
         <v>22636722</v>
@@ -3410,10 +3411,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" t="s">
         <v>333</v>
-      </c>
-      <c r="B46" t="s">
-        <v>334</v>
       </c>
       <c r="C46" t="s">
         <v>189</v>
@@ -3422,7 +3423,7 @@
         <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F46">
         <v>22636724</v>
@@ -3430,19 +3431,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47" t="s">
         <v>333</v>
       </c>
-      <c r="B47" t="s">
-        <v>334</v>
-      </c>
       <c r="C47" t="s">
+        <v>409</v>
+      </c>
+      <c r="D47" t="s">
         <v>410</v>
       </c>
-      <c r="D47" t="s">
-        <v>411</v>
-      </c>
       <c r="E47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F47">
         <v>22636720</v>
@@ -3450,16 +3451,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" t="s">
         <v>333</v>
       </c>
-      <c r="B48" t="s">
-        <v>334</v>
-      </c>
       <c r="C48" t="s">
+        <v>411</v>
+      </c>
+      <c r="D48" t="s">
         <v>412</v>
-      </c>
-      <c r="D48" t="s">
-        <v>413</v>
       </c>
       <c r="E48" t="s">
         <v>252</v>
@@ -3470,10 +3471,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" t="s">
         <v>333</v>
-      </c>
-      <c r="B49" t="s">
-        <v>334</v>
       </c>
       <c r="C49" t="s">
         <v>244</v>
@@ -3482,7 +3483,7 @@
         <v>245</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F49">
         <v>22636723</v>
@@ -3490,19 +3491,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" t="s">
         <v>333</v>
       </c>
-      <c r="B50" t="s">
-        <v>334</v>
-      </c>
       <c r="C50" t="s">
+        <v>337</v>
+      </c>
+      <c r="D50" t="s">
         <v>338</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>339</v>
-      </c>
-      <c r="E50" t="s">
-        <v>340</v>
       </c>
       <c r="F50">
         <v>22636729</v>
@@ -3510,19 +3511,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>316</v>
+      </c>
+      <c r="B51" t="s">
         <v>317</v>
       </c>
-      <c r="B51" t="s">
-        <v>318</v>
-      </c>
       <c r="C51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" t="s">
         <v>325</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>326</v>
-      </c>
-      <c r="E51" t="s">
-        <v>327</v>
       </c>
       <c r="F51">
         <v>22636707</v>
@@ -3530,19 +3531,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B52" t="s">
         <v>317</v>
       </c>
-      <c r="B52" t="s">
-        <v>318</v>
-      </c>
       <c r="C52" t="s">
+        <v>321</v>
+      </c>
+      <c r="D52" t="s">
         <v>322</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>323</v>
-      </c>
-      <c r="E52" t="s">
-        <v>324</v>
       </c>
       <c r="F52">
         <v>22636702</v>
@@ -3550,16 +3551,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53" t="s">
         <v>317</v>
       </c>
-      <c r="B53" t="s">
-        <v>318</v>
-      </c>
       <c r="C53" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D53" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E53" t="s">
         <v>239</v>
@@ -3570,16 +3571,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>316</v>
+      </c>
+      <c r="B54" t="s">
         <v>317</v>
       </c>
-      <c r="B54" t="s">
-        <v>318</v>
-      </c>
       <c r="C54" t="s">
+        <v>454</v>
+      </c>
+      <c r="D54" t="s">
         <v>455</v>
-      </c>
-      <c r="D54" t="s">
-        <v>456</v>
       </c>
       <c r="E54" t="s">
         <v>239</v>
@@ -3590,19 +3591,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>316</v>
+      </c>
+      <c r="B55" t="s">
         <v>317</v>
       </c>
-      <c r="B55" t="s">
-        <v>318</v>
-      </c>
       <c r="C55" t="s">
+        <v>327</v>
+      </c>
+      <c r="D55" t="s">
         <v>328</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>329</v>
-      </c>
-      <c r="E55" t="s">
-        <v>330</v>
       </c>
       <c r="F55">
         <v>22636703</v>
@@ -3610,19 +3611,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56" t="s">
         <v>317</v>
       </c>
-      <c r="B56" t="s">
-        <v>318</v>
-      </c>
       <c r="C56" t="s">
+        <v>456</v>
+      </c>
+      <c r="D56" t="s">
         <v>457</v>
       </c>
-      <c r="D56" t="s">
-        <v>458</v>
-      </c>
       <c r="E56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F56">
         <v>22636705</v>
@@ -3630,16 +3631,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>316</v>
+      </c>
+      <c r="B57" t="s">
         <v>317</v>
       </c>
-      <c r="B57" t="s">
-        <v>318</v>
-      </c>
       <c r="C57" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D57" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E57" t="s">
         <v>243</v>
@@ -3650,16 +3651,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>316</v>
+      </c>
+      <c r="B58" t="s">
         <v>317</v>
       </c>
-      <c r="B58" t="s">
-        <v>318</v>
-      </c>
       <c r="C58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E58" t="s">
         <v>243</v>
@@ -3670,16 +3671,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>316</v>
+      </c>
+      <c r="B59" t="s">
         <v>317</v>
       </c>
-      <c r="B59" t="s">
-        <v>318</v>
-      </c>
       <c r="C59" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E59" t="s">
         <v>173</v>
@@ -3690,16 +3691,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" t="s">
         <v>317</v>
       </c>
-      <c r="B60" t="s">
-        <v>318</v>
-      </c>
       <c r="C60" t="s">
+        <v>330</v>
+      </c>
+      <c r="D60" t="s">
         <v>331</v>
-      </c>
-      <c r="D60" t="s">
-        <v>332</v>
       </c>
       <c r="E60" t="s">
         <v>173</v>
@@ -3710,19 +3711,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>316</v>
+      </c>
+      <c r="B61" t="s">
         <v>317</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>458</v>
+      </c>
+      <c r="D61" t="s">
+        <v>458</v>
+      </c>
+      <c r="E61" t="s">
         <v>318</v>
-      </c>
-      <c r="C61" t="s">
-        <v>459</v>
-      </c>
-      <c r="D61" t="s">
-        <v>459</v>
-      </c>
-      <c r="E61" t="s">
-        <v>319</v>
       </c>
       <c r="F61">
         <v>22636710</v>
@@ -3730,16 +3731,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62" t="s">
         <v>317</v>
       </c>
-      <c r="B62" t="s">
-        <v>318</v>
-      </c>
       <c r="C62" t="s">
+        <v>319</v>
+      </c>
+      <c r="D62" t="s">
         <v>320</v>
-      </c>
-      <c r="D62" t="s">
-        <v>321</v>
       </c>
       <c r="E62" t="s">
         <v>77</v>
@@ -3750,10 +3751,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" t="s">
         <v>307</v>
-      </c>
-      <c r="B63" t="s">
-        <v>308</v>
       </c>
       <c r="C63" t="s">
         <v>240</v>
@@ -3770,16 +3771,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" t="s">
         <v>307</v>
       </c>
-      <c r="B64" t="s">
-        <v>308</v>
-      </c>
       <c r="C64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E64" t="s">
         <v>242</v>
@@ -3790,10 +3791,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" t="s">
         <v>307</v>
-      </c>
-      <c r="B65" t="s">
-        <v>308</v>
       </c>
       <c r="C65" t="s">
         <v>194</v>
@@ -3810,16 +3811,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>306</v>
+      </c>
+      <c r="B66" t="s">
         <v>307</v>
       </c>
-      <c r="B66" t="s">
-        <v>308</v>
-      </c>
       <c r="C66" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" t="s">
         <v>314</v>
-      </c>
-      <c r="D66" t="s">
-        <v>315</v>
       </c>
       <c r="E66" t="s">
         <v>20</v>
@@ -3830,16 +3831,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s">
         <v>307</v>
       </c>
-      <c r="B67" t="s">
-        <v>308</v>
-      </c>
       <c r="C67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E67" t="s">
         <v>252</v>
@@ -3850,16 +3851,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>306</v>
+      </c>
+      <c r="B68" t="s">
         <v>307</v>
       </c>
-      <c r="B68" t="s">
-        <v>308</v>
-      </c>
       <c r="C68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D68" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E68" t="s">
         <v>252</v>
@@ -3870,16 +3871,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" t="s">
         <v>307</v>
-      </c>
-      <c r="B69" t="s">
-        <v>308</v>
       </c>
       <c r="C69" t="s">
         <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E69" t="s">
         <v>239</v>
@@ -3890,16 +3891,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>306</v>
+      </c>
+      <c r="B70" t="s">
         <v>307</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>308</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>309</v>
-      </c>
-      <c r="D70" t="s">
-        <v>310</v>
       </c>
       <c r="E70" t="s">
         <v>239</v>
@@ -3910,19 +3911,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" t="s">
         <v>307</v>
       </c>
-      <c r="B71" t="s">
-        <v>308</v>
-      </c>
       <c r="C71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D71" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F71">
         <v>22765980</v>
@@ -3930,19 +3931,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>306</v>
+      </c>
+      <c r="B72" t="s">
         <v>307</v>
-      </c>
-      <c r="B72" t="s">
-        <v>308</v>
       </c>
       <c r="C72" t="s">
         <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E72" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F72">
         <v>22766003</v>
@@ -3950,16 +3951,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B73" t="s">
         <v>307</v>
       </c>
-      <c r="B73" t="s">
-        <v>308</v>
-      </c>
       <c r="C73" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D73" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E73" t="s">
         <v>243</v>
@@ -3970,16 +3971,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" t="s">
         <v>307</v>
       </c>
-      <c r="B74" t="s">
-        <v>308</v>
-      </c>
       <c r="C74" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D74" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E74" t="s">
         <v>243</v>
@@ -3990,19 +3991,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" t="s">
         <v>307</v>
-      </c>
-      <c r="B75" t="s">
-        <v>308</v>
       </c>
       <c r="C75" t="s">
         <v>244</v>
       </c>
       <c r="D75" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F75">
         <v>22765966</v>
@@ -4010,16 +4011,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" t="s">
         <v>307</v>
       </c>
-      <c r="B76" t="s">
-        <v>308</v>
-      </c>
       <c r="C76" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D76" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E76" t="s">
         <v>173</v>
@@ -4030,16 +4031,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" t="s">
         <v>307</v>
       </c>
-      <c r="B77" t="s">
-        <v>308</v>
-      </c>
       <c r="C77" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D77" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E77" t="s">
         <v>77</v>
@@ -4050,19 +4051,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>306</v>
+      </c>
+      <c r="B78" t="s">
         <v>307</v>
       </c>
-      <c r="B78" t="s">
-        <v>308</v>
-      </c>
       <c r="C78" t="s">
+        <v>414</v>
+      </c>
+      <c r="D78" t="s">
         <v>415</v>
       </c>
-      <c r="D78" t="s">
-        <v>416</v>
-      </c>
       <c r="E78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F78">
         <v>22766006</v>
@@ -4070,19 +4071,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>291</v>
+      </c>
+      <c r="B79" t="s">
         <v>292</v>
       </c>
-      <c r="B79" t="s">
-        <v>293</v>
-      </c>
       <c r="C79" t="s">
+        <v>459</v>
+      </c>
+      <c r="D79" t="s">
         <v>460</v>
       </c>
-      <c r="D79" t="s">
-        <v>461</v>
-      </c>
       <c r="E79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F79">
         <v>22636686</v>
@@ -4090,19 +4091,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" t="s">
         <v>292</v>
       </c>
-      <c r="B80" t="s">
-        <v>293</v>
-      </c>
       <c r="C80" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" t="s">
         <v>296</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>297</v>
-      </c>
-      <c r="E80" t="s">
-        <v>298</v>
       </c>
       <c r="F80">
         <v>22636681</v>
@@ -4110,19 +4111,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>291</v>
+      </c>
+      <c r="B81" t="s">
         <v>292</v>
       </c>
-      <c r="B81" t="s">
-        <v>293</v>
-      </c>
       <c r="C81" t="s">
+        <v>302</v>
+      </c>
+      <c r="D81" t="s">
         <v>303</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>304</v>
-      </c>
-      <c r="E81" t="s">
-        <v>305</v>
       </c>
       <c r="F81">
         <v>22636690</v>
@@ -4130,16 +4131,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>291</v>
+      </c>
+      <c r="B82" t="s">
         <v>292</v>
       </c>
-      <c r="B82" t="s">
-        <v>293</v>
-      </c>
       <c r="C82" t="s">
+        <v>461</v>
+      </c>
+      <c r="D82" t="s">
         <v>462</v>
-      </c>
-      <c r="D82" t="s">
-        <v>463</v>
       </c>
       <c r="E82" t="s">
         <v>242</v>
@@ -4150,10 +4151,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" t="s">
         <v>292</v>
-      </c>
-      <c r="B83" t="s">
-        <v>293</v>
       </c>
       <c r="C83" t="s">
         <v>102</v>
@@ -4170,19 +4171,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>291</v>
+      </c>
+      <c r="B84" t="s">
         <v>292</v>
       </c>
-      <c r="B84" t="s">
-        <v>293</v>
-      </c>
       <c r="C84" t="s">
+        <v>463</v>
+      </c>
+      <c r="D84" t="s">
         <v>464</v>
       </c>
-      <c r="D84" t="s">
-        <v>465</v>
-      </c>
       <c r="E84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F84">
         <v>22636693</v>
@@ -4190,16 +4191,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>291</v>
+      </c>
+      <c r="B85" t="s">
         <v>292</v>
       </c>
-      <c r="B85" t="s">
-        <v>293</v>
-      </c>
       <c r="C85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D85" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E85" t="s">
         <v>246</v>
@@ -4210,19 +4211,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>291</v>
+      </c>
+      <c r="B86" t="s">
         <v>292</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>466</v>
+      </c>
+      <c r="D86" t="s">
+        <v>467</v>
+      </c>
+      <c r="E86" t="s">
         <v>293</v>
-      </c>
-      <c r="C86" t="s">
-        <v>467</v>
-      </c>
-      <c r="D86" t="s">
-        <v>468</v>
-      </c>
-      <c r="E86" t="s">
-        <v>294</v>
       </c>
       <c r="F86">
         <v>22636683</v>
@@ -4230,19 +4231,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87" t="s">
         <v>292</v>
       </c>
-      <c r="B87" t="s">
-        <v>293</v>
-      </c>
       <c r="C87" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" t="s">
         <v>469</v>
       </c>
-      <c r="D87" t="s">
-        <v>470</v>
-      </c>
       <c r="E87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F87">
         <v>22636695</v>
@@ -4250,19 +4251,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88" t="s">
         <v>292</v>
       </c>
-      <c r="B88" t="s">
-        <v>293</v>
-      </c>
       <c r="C88" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" t="s">
         <v>300</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>301</v>
-      </c>
-      <c r="E88" t="s">
-        <v>302</v>
       </c>
       <c r="F88">
         <v>22636689</v>
@@ -4270,19 +4271,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>291</v>
+      </c>
+      <c r="B89" t="s">
         <v>292</v>
       </c>
-      <c r="B89" t="s">
-        <v>293</v>
-      </c>
       <c r="C89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D89" t="s">
         <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F89">
         <v>22636687</v>
@@ -4290,16 +4291,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" t="s">
         <v>277</v>
       </c>
-      <c r="B90" t="s">
-        <v>278</v>
-      </c>
       <c r="C90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E90" t="s">
         <v>242</v>
@@ -4310,16 +4311,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" t="s">
         <v>277</v>
       </c>
-      <c r="B91" t="s">
-        <v>278</v>
-      </c>
       <c r="C91" t="s">
+        <v>285</v>
+      </c>
+      <c r="D91" t="s">
         <v>286</v>
-      </c>
-      <c r="D91" t="s">
-        <v>287</v>
       </c>
       <c r="E91" t="s">
         <v>20</v>
@@ -4330,10 +4331,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" t="s">
         <v>277</v>
-      </c>
-      <c r="B92" t="s">
-        <v>278</v>
       </c>
       <c r="C92" t="s">
         <v>250</v>
@@ -4350,16 +4351,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" t="s">
         <v>277</v>
       </c>
-      <c r="B93" t="s">
-        <v>278</v>
-      </c>
       <c r="C93" t="s">
+        <v>407</v>
+      </c>
+      <c r="D93" t="s">
         <v>408</v>
-      </c>
-      <c r="D93" t="s">
-        <v>409</v>
       </c>
       <c r="E93" t="s">
         <v>243</v>
@@ -4370,16 +4371,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" t="s">
         <v>277</v>
       </c>
-      <c r="B94" t="s">
-        <v>278</v>
-      </c>
       <c r="C94" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D94" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E94" t="s">
         <v>246</v>
@@ -4390,19 +4391,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" t="s">
         <v>277</v>
       </c>
-      <c r="B95" t="s">
-        <v>278</v>
-      </c>
       <c r="C95" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" t="s">
         <v>282</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>283</v>
-      </c>
-      <c r="E95" t="s">
-        <v>284</v>
       </c>
       <c r="F95">
         <v>510185</v>
@@ -4410,19 +4411,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" t="s">
         <v>277</v>
       </c>
-      <c r="B96" t="s">
-        <v>278</v>
-      </c>
       <c r="C96" t="s">
+        <v>456</v>
+      </c>
+      <c r="D96" t="s">
         <v>457</v>
       </c>
-      <c r="D96" t="s">
-        <v>458</v>
-      </c>
       <c r="E96" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F96">
         <v>510188</v>
@@ -4430,19 +4431,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>276</v>
+      </c>
+      <c r="B97" t="s">
         <v>277</v>
       </c>
-      <c r="B97" t="s">
-        <v>278</v>
-      </c>
       <c r="C97" t="s">
+        <v>471</v>
+      </c>
+      <c r="D97" t="s">
         <v>472</v>
       </c>
-      <c r="D97" t="s">
-        <v>473</v>
-      </c>
       <c r="E97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F97">
         <v>510192</v>
@@ -4450,19 +4451,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B98" t="s">
         <v>277</v>
       </c>
-      <c r="B98" t="s">
-        <v>278</v>
-      </c>
       <c r="C98" t="s">
+        <v>288</v>
+      </c>
+      <c r="D98" t="s">
         <v>289</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>290</v>
-      </c>
-      <c r="E98" t="s">
-        <v>291</v>
       </c>
       <c r="F98">
         <v>510196</v>
@@ -4470,16 +4471,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" t="s">
         <v>277</v>
       </c>
-      <c r="B99" t="s">
-        <v>278</v>
-      </c>
       <c r="C99" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E99" t="s">
         <v>249</v>
@@ -4490,19 +4491,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>276</v>
+      </c>
+      <c r="B100" t="s">
         <v>277</v>
       </c>
-      <c r="B100" t="s">
-        <v>278</v>
-      </c>
       <c r="C100" t="s">
+        <v>473</v>
+      </c>
+      <c r="D100" t="s">
         <v>474</v>
       </c>
-      <c r="D100" t="s">
-        <v>475</v>
-      </c>
       <c r="E100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F100">
         <v>510204</v>
@@ -4510,19 +4511,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" t="s">
         <v>277</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>475</v>
+      </c>
+      <c r="D101" t="s">
+        <v>476</v>
+      </c>
+      <c r="E101" t="s">
         <v>278</v>
-      </c>
-      <c r="C101" t="s">
-        <v>476</v>
-      </c>
-      <c r="D101" t="s">
-        <v>477</v>
-      </c>
-      <c r="E101" t="s">
-        <v>279</v>
       </c>
       <c r="F101">
         <v>510208</v>
@@ -4530,19 +4531,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" t="s">
         <v>277</v>
       </c>
-      <c r="B102" t="s">
-        <v>278</v>
-      </c>
       <c r="C102" t="s">
+        <v>588</v>
+      </c>
+      <c r="D102" t="s">
+        <v>590</v>
+      </c>
+      <c r="E102" t="s">
         <v>589</v>
-      </c>
-      <c r="D102" t="s">
-        <v>591</v>
-      </c>
-      <c r="E102" t="s">
-        <v>590</v>
       </c>
       <c r="F102">
         <v>510216</v>
@@ -4550,19 +4551,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" t="s">
         <v>277</v>
       </c>
-      <c r="B103" t="s">
-        <v>278</v>
-      </c>
       <c r="C103" t="s">
+        <v>477</v>
+      </c>
+      <c r="D103" t="s">
         <v>478</v>
       </c>
-      <c r="D103" t="s">
-        <v>479</v>
-      </c>
       <c r="E103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F103">
         <v>510212</v>
@@ -4570,16 +4571,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s">
         <v>271</v>
       </c>
-      <c r="B104" t="s">
-        <v>272</v>
-      </c>
       <c r="C104" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D104" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E104" t="s">
         <v>249</v>
@@ -4590,16 +4591,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>270</v>
+      </c>
+      <c r="B105" t="s">
         <v>271</v>
       </c>
-      <c r="B105" t="s">
-        <v>272</v>
-      </c>
       <c r="C105" t="s">
+        <v>418</v>
+      </c>
+      <c r="D105" t="s">
         <v>419</v>
-      </c>
-      <c r="D105" t="s">
-        <v>420</v>
       </c>
       <c r="E105" t="s">
         <v>249</v>
@@ -4610,16 +4611,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>270</v>
+      </c>
+      <c r="B106" t="s">
         <v>271</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>272</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>273</v>
-      </c>
-      <c r="D106" t="s">
-        <v>274</v>
       </c>
       <c r="E106" t="s">
         <v>249</v>
@@ -4630,16 +4631,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" t="s">
         <v>271</v>
       </c>
-      <c r="B107" t="s">
-        <v>272</v>
-      </c>
       <c r="C107" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" t="s">
         <v>275</v>
-      </c>
-      <c r="D107" t="s">
-        <v>276</v>
       </c>
       <c r="E107" t="s">
         <v>249</v>
@@ -4650,10 +4651,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" t="s">
         <v>271</v>
-      </c>
-      <c r="B108" t="s">
-        <v>272</v>
       </c>
       <c r="C108" t="s">
         <v>247</v>
@@ -4670,19 +4671,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>254</v>
+      </c>
+      <c r="B109" t="s">
         <v>255</v>
       </c>
-      <c r="B109" t="s">
-        <v>256</v>
-      </c>
       <c r="C109" t="s">
+        <v>480</v>
+      </c>
+      <c r="D109" t="s">
         <v>481</v>
       </c>
-      <c r="D109" t="s">
-        <v>482</v>
-      </c>
       <c r="E109" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F109">
         <v>22636639</v>
@@ -4690,19 +4691,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>254</v>
+      </c>
+      <c r="B110" t="s">
         <v>255</v>
       </c>
-      <c r="B110" t="s">
-        <v>256</v>
-      </c>
       <c r="C110" t="s">
+        <v>263</v>
+      </c>
+      <c r="D110" t="s">
         <v>264</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>265</v>
-      </c>
-      <c r="E110" t="s">
-        <v>266</v>
       </c>
       <c r="F110">
         <v>22636649</v>
@@ -4710,19 +4711,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" t="s">
         <v>255</v>
       </c>
-      <c r="B111" t="s">
-        <v>256</v>
-      </c>
       <c r="C111" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" t="s">
         <v>260</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>261</v>
-      </c>
-      <c r="E111" t="s">
-        <v>262</v>
       </c>
       <c r="F111">
         <v>22636644</v>
@@ -4730,19 +4731,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" t="s">
         <v>255</v>
       </c>
-      <c r="B112" t="s">
-        <v>256</v>
-      </c>
       <c r="C112" t="s">
+        <v>426</v>
+      </c>
+      <c r="D112" t="s">
         <v>427</v>
       </c>
-      <c r="D112" t="s">
-        <v>428</v>
-      </c>
       <c r="E112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F112">
         <v>22636653</v>
@@ -4750,19 +4751,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" t="s">
         <v>255</v>
       </c>
-      <c r="B113" t="s">
-        <v>256</v>
-      </c>
       <c r="C113" t="s">
+        <v>482</v>
+      </c>
+      <c r="D113" t="s">
         <v>483</v>
       </c>
-      <c r="D113" t="s">
-        <v>484</v>
-      </c>
       <c r="E113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F113">
         <v>22636645</v>
@@ -4770,16 +4771,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114" t="s">
         <v>255</v>
       </c>
-      <c r="B114" t="s">
-        <v>256</v>
-      </c>
       <c r="C114" t="s">
+        <v>484</v>
+      </c>
+      <c r="D114" t="s">
         <v>485</v>
-      </c>
-      <c r="D114" t="s">
-        <v>486</v>
       </c>
       <c r="E114" t="s">
         <v>249</v>
@@ -4790,10 +4791,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" t="s">
         <v>255</v>
-      </c>
-      <c r="B115" t="s">
-        <v>256</v>
       </c>
       <c r="C115" t="s">
         <v>184</v>
@@ -4802,7 +4803,7 @@
         <v>185</v>
       </c>
       <c r="E115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F115">
         <v>22636655</v>
@@ -4810,19 +4811,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>254</v>
+      </c>
+      <c r="B116" t="s">
         <v>255</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>486</v>
+      </c>
+      <c r="D116" t="s">
+        <v>487</v>
+      </c>
+      <c r="E116" t="s">
         <v>256</v>
-      </c>
-      <c r="C116" t="s">
-        <v>487</v>
-      </c>
-      <c r="D116" t="s">
-        <v>488</v>
-      </c>
-      <c r="E116" t="s">
-        <v>257</v>
       </c>
       <c r="F116">
         <v>22636651</v>
@@ -4830,19 +4831,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" t="s">
         <v>255</v>
       </c>
-      <c r="B117" t="s">
-        <v>256</v>
-      </c>
       <c r="C117" t="s">
+        <v>267</v>
+      </c>
+      <c r="D117" t="s">
         <v>268</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>269</v>
-      </c>
-      <c r="E117" t="s">
-        <v>270</v>
       </c>
       <c r="F117">
         <v>22636656</v>
@@ -4856,13 +4857,13 @@
         <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D118" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F118">
         <v>22765926</v>
@@ -4876,10 +4877,10 @@
         <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D119" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E119" t="s">
         <v>78</v>
@@ -4916,10 +4917,10 @@
         <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D121" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E121" t="s">
         <v>20</v>
@@ -4976,10 +4977,10 @@
         <v>236</v>
       </c>
       <c r="C124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D124" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E124" t="s">
         <v>243</v>
@@ -4996,13 +4997,13 @@
         <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D125" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F125">
         <v>22765921</v>
@@ -5016,10 +5017,10 @@
         <v>236</v>
       </c>
       <c r="C126" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D126" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E126" t="s">
         <v>173</v>
@@ -5042,7 +5043,7 @@
         <v>245</v>
       </c>
       <c r="E127" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F127">
         <v>22765912</v>
@@ -5056,10 +5057,10 @@
         <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D128" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E128" t="s">
         <v>246</v>
@@ -5096,13 +5097,13 @@
         <v>236</v>
       </c>
       <c r="C130" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D130" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>668</v>
       </c>
       <c r="F130">
         <v>22765911</v>
@@ -5216,13 +5217,13 @@
         <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D136" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E136" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F136">
         <v>22636631</v>
@@ -5236,10 +5237,10 @@
         <v>217</v>
       </c>
       <c r="C137" t="s">
+        <v>423</v>
+      </c>
+      <c r="D137" t="s">
         <v>424</v>
-      </c>
-      <c r="D137" t="s">
-        <v>425</v>
       </c>
       <c r="E137" t="s">
         <v>225</v>
@@ -5282,7 +5283,7 @@
         <v>210</v>
       </c>
       <c r="E139" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F139">
         <v>22636613</v>
@@ -5376,10 +5377,10 @@
         <v>199</v>
       </c>
       <c r="C144" t="s">
+        <v>430</v>
+      </c>
+      <c r="D144" t="s">
         <v>431</v>
-      </c>
-      <c r="D144" t="s">
-        <v>432</v>
       </c>
       <c r="E144" t="s">
         <v>211</v>
@@ -5419,7 +5420,7 @@
         <v>184</v>
       </c>
       <c r="D146" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E146" t="s">
         <v>186</v>
@@ -5456,10 +5457,10 @@
         <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D148" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E148" t="s">
         <v>187</v>
@@ -5476,10 +5477,10 @@
         <v>181</v>
       </c>
       <c r="C149" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D149" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E149" t="s">
         <v>188</v>
@@ -5496,7 +5497,7 @@
         <v>181</v>
       </c>
       <c r="C150" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D150" t="s">
         <v>196</v>
@@ -5516,10 +5517,10 @@
         <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D151" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
@@ -5579,10 +5580,10 @@
         <v>189</v>
       </c>
       <c r="D154" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E154" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F154">
         <v>851044</v>
@@ -5596,10 +5597,10 @@
         <v>178</v>
       </c>
       <c r="C155" t="s">
+        <v>490</v>
+      </c>
+      <c r="D155" t="s">
         <v>491</v>
-      </c>
-      <c r="D155" t="s">
-        <v>492</v>
       </c>
       <c r="E155" t="s">
         <v>179</v>
@@ -5796,10 +5797,10 @@
         <v>150</v>
       </c>
       <c r="C165" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D165" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
@@ -5856,10 +5857,10 @@
         <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E168" t="s">
         <v>96</v>
@@ -5899,7 +5900,7 @@
         <v>158</v>
       </c>
       <c r="D170" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E170" t="s">
         <v>87</v>
@@ -5916,10 +5917,10 @@
         <v>150</v>
       </c>
       <c r="C171" t="s">
+        <v>426</v>
+      </c>
+      <c r="D171" t="s">
         <v>427</v>
-      </c>
-      <c r="D171" t="s">
-        <v>428</v>
       </c>
       <c r="E171" t="s">
         <v>91</v>
@@ -5959,7 +5960,7 @@
         <v>151</v>
       </c>
       <c r="D173" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E173" t="s">
         <v>86</v>
@@ -6116,10 +6117,10 @@
         <v>131</v>
       </c>
       <c r="C181" t="s">
+        <v>428</v>
+      </c>
+      <c r="D181" t="s">
         <v>429</v>
-      </c>
-      <c r="D181" t="s">
-        <v>430</v>
       </c>
       <c r="E181" t="s">
         <v>148</v>
@@ -6136,10 +6137,10 @@
         <v>131</v>
       </c>
       <c r="C182" t="s">
+        <v>492</v>
+      </c>
+      <c r="D182" t="s">
         <v>493</v>
-      </c>
-      <c r="D182" t="s">
-        <v>494</v>
       </c>
       <c r="E182" t="s">
         <v>144</v>
@@ -6156,10 +6157,10 @@
         <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D183" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E183" t="s">
         <v>9</v>
@@ -6216,10 +6217,10 @@
         <v>129</v>
       </c>
       <c r="C186" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D186" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E186" t="s">
         <v>96</v>
@@ -6259,7 +6260,7 @@
         <v>158</v>
       </c>
       <c r="D188" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E188" t="s">
         <v>87</v>
@@ -6276,10 +6277,10 @@
         <v>129</v>
       </c>
       <c r="C189" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D189" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E189" t="s">
         <v>91</v>
@@ -6356,7 +6357,7 @@
         <v>129</v>
       </c>
       <c r="C193" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D193" t="s">
         <v>97</v>
@@ -6376,10 +6377,10 @@
         <v>129</v>
       </c>
       <c r="C194" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D194" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E194" t="s">
         <v>95</v>
@@ -6416,10 +6417,10 @@
         <v>129</v>
       </c>
       <c r="C196" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D196" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E196" t="s">
         <v>50</v>
@@ -6536,10 +6537,10 @@
         <v>110</v>
       </c>
       <c r="C202" t="s">
+        <v>494</v>
+      </c>
+      <c r="D202" t="s">
         <v>495</v>
-      </c>
-      <c r="D202" t="s">
-        <v>496</v>
       </c>
       <c r="E202" t="s">
         <v>111</v>
@@ -6576,10 +6577,10 @@
         <v>76</v>
       </c>
       <c r="C204" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D204" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E204" t="s">
         <v>77</v>
@@ -6596,10 +6597,10 @@
         <v>76</v>
       </c>
       <c r="C205" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D205" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E205" t="s">
         <v>105</v>
@@ -6736,10 +6737,10 @@
         <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D212" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E212" t="s">
         <v>71</v>
@@ -6756,10 +6757,10 @@
         <v>47</v>
       </c>
       <c r="C213" t="s">
+        <v>660</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="E213" t="s">
         <v>50</v>
@@ -6896,10 +6897,10 @@
         <v>30</v>
       </c>
       <c r="C220" t="s">
+        <v>500</v>
+      </c>
+      <c r="D220" t="s">
         <v>501</v>
-      </c>
-      <c r="D220" t="s">
-        <v>502</v>
       </c>
       <c r="E220" t="s">
         <v>31</v>
@@ -6936,10 +6937,10 @@
         <v>30</v>
       </c>
       <c r="C222" t="s">
+        <v>502</v>
+      </c>
+      <c r="D222" t="s">
         <v>503</v>
-      </c>
-      <c r="D222" t="s">
-        <v>504</v>
       </c>
       <c r="E222" t="s">
         <v>45</v>
@@ -6956,10 +6957,10 @@
         <v>30</v>
       </c>
       <c r="C223" t="s">
+        <v>504</v>
+      </c>
+      <c r="D223" t="s">
         <v>505</v>
-      </c>
-      <c r="D223" t="s">
-        <v>506</v>
       </c>
       <c r="E223" t="s">
         <v>32</v>
@@ -6970,7 +6971,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -6990,7 +6991,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -7010,7 +7011,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -7030,16 +7031,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
+        <v>506</v>
+      </c>
+      <c r="D227" t="s">
         <v>507</v>
-      </c>
-      <c r="D227" t="s">
-        <v>508</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -7050,7 +7051,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -7070,16 +7071,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
       </c>
       <c r="C229" t="s">
+        <v>508</v>
+      </c>
+      <c r="D229" t="s">
         <v>509</v>
-      </c>
-      <c r="D229" t="s">
-        <v>510</v>
       </c>
       <c r="E229" t="s">
         <v>20</v>
@@ -7090,16 +7091,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
+        <v>420</v>
+      </c>
+      <c r="D230" t="s">
         <v>421</v>
-      </c>
-      <c r="D230" t="s">
-        <v>422</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
@@ -7110,16 +7111,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B231" t="s">
         <v>21</v>
       </c>
       <c r="C231" t="s">
+        <v>510</v>
+      </c>
+      <c r="D231" t="s">
         <v>511</v>
-      </c>
-      <c r="D231" t="s">
-        <v>512</v>
       </c>
       <c r="E231" t="s">
         <v>22</v>
@@ -7130,7 +7131,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B232" t="s">
         <v>21</v>
@@ -7150,16 +7151,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B233" t="s">
         <v>21</v>
       </c>
       <c r="C233" t="s">
+        <v>512</v>
+      </c>
+      <c r="D233" t="s">
         <v>513</v>
-      </c>
-      <c r="D233" t="s">
-        <v>514</v>
       </c>
       <c r="E233" t="s">
         <v>19</v>
@@ -7170,16 +7171,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B234" t="s">
         <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D234" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E234" t="s">
         <v>16</v>
@@ -7190,7 +7191,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B235" t="s">
         <v>21</v>
@@ -7210,16 +7211,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B236" t="s">
         <v>21</v>
       </c>
       <c r="C236" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D236" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E236" t="s">
         <v>8</v>
@@ -7230,16 +7231,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B237" t="s">
         <v>21</v>
       </c>
       <c r="C237" t="s">
+        <v>515</v>
+      </c>
+      <c r="D237" t="s">
         <v>516</v>
-      </c>
-      <c r="D237" t="s">
-        <v>517</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -7250,16 +7251,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B238" t="s">
         <v>21</v>
       </c>
       <c r="C238" t="s">
+        <v>517</v>
+      </c>
+      <c r="D238" t="s">
         <v>518</v>
-      </c>
-      <c r="D238" t="s">
-        <v>519</v>
       </c>
       <c r="E238" t="s">
         <v>28</v>
@@ -7270,16 +7271,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B239" t="s">
         <v>21</v>
       </c>
       <c r="C239" t="s">
+        <v>519</v>
+      </c>
+      <c r="D239" t="s">
         <v>520</v>
-      </c>
-      <c r="D239" t="s">
-        <v>521</v>
       </c>
       <c r="E239" t="s">
         <v>27</v>
@@ -7290,19 +7291,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>591</v>
+      </c>
+      <c r="B240" t="s">
         <v>592</v>
       </c>
-      <c r="B240" t="s">
-        <v>593</v>
-      </c>
       <c r="C240" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D240" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E240" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F240">
         <v>29715584</v>
@@ -7310,19 +7311,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>591</v>
+      </c>
+      <c r="B241" t="s">
         <v>592</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
+        <v>599</v>
+      </c>
+      <c r="D241" t="s">
         <v>593</v>
       </c>
-      <c r="C241" t="s">
-        <v>600</v>
-      </c>
-      <c r="D241" t="s">
-        <v>594</v>
-      </c>
       <c r="E241" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F241" s="1">
         <v>29715585</v>
@@ -7330,19 +7331,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>591</v>
+      </c>
+      <c r="B242" t="s">
         <v>592</v>
       </c>
-      <c r="B242" t="s">
-        <v>593</v>
-      </c>
       <c r="C242" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D242" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E242" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F242" s="1">
         <v>29715586</v>
@@ -7350,19 +7351,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B243" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C243" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D243" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E243" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F243">
         <v>29715587</v>
@@ -7370,19 +7371,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B244" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C244" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D244" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E244" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F244">
         <v>29715588</v>
@@ -7390,19 +7391,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B245" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C245" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D245" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E245" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F245">
         <v>29715589</v>
@@ -7410,19 +7411,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>605</v>
+      </c>
+      <c r="B246" t="s">
         <v>606</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
+        <v>608</v>
+      </c>
+      <c r="D246" t="s">
         <v>607</v>
       </c>
-      <c r="C246" t="s">
+      <c r="E246" t="s">
         <v>609</v>
-      </c>
-      <c r="D246" t="s">
-        <v>608</v>
-      </c>
-      <c r="E246" t="s">
-        <v>610</v>
       </c>
       <c r="F246">
         <v>29710956</v>
@@ -7430,19 +7431,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>612</v>
+      </c>
+      <c r="B247" t="s">
+        <v>611</v>
+      </c>
+      <c r="C247" t="s">
+        <v>615</v>
+      </c>
+      <c r="D247" t="s">
         <v>613</v>
       </c>
-      <c r="B247" t="s">
-        <v>612</v>
-      </c>
-      <c r="C247" t="s">
-        <v>616</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>614</v>
-      </c>
-      <c r="E247" t="s">
-        <v>615</v>
       </c>
       <c r="F247">
         <v>468513480</v>
@@ -7450,19 +7451,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B248" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C248" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D248" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E248" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F248">
         <v>29710940</v>
@@ -7470,19 +7471,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B249" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C249" t="s">
+        <v>618</v>
+      </c>
+      <c r="D249" t="s">
         <v>619</v>
       </c>
-      <c r="D249" t="s">
-        <v>620</v>
-      </c>
       <c r="E249" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F249">
         <v>29710941</v>
@@ -7490,19 +7491,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B250" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C250" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D250" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E250" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F250">
         <v>29710942</v>
@@ -7510,19 +7511,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>629</v>
+      </c>
+      <c r="B251" t="s">
         <v>630</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
+        <v>633</v>
+      </c>
+      <c r="D251" t="s">
         <v>631</v>
       </c>
-      <c r="C251" t="s">
+      <c r="E251" t="s">
         <v>634</v>
-      </c>
-      <c r="D251" t="s">
-        <v>632</v>
-      </c>
-      <c r="E251" t="s">
-        <v>635</v>
       </c>
       <c r="F251">
         <v>29710959</v>
@@ -7530,19 +7531,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>635</v>
+      </c>
+      <c r="B252" t="s">
+        <v>638</v>
+      </c>
+      <c r="C252" t="s">
         <v>636</v>
       </c>
-      <c r="B252" t="s">
+      <c r="D252" t="s">
+        <v>637</v>
+      </c>
+      <c r="E252" t="s">
         <v>639</v>
-      </c>
-      <c r="C252" t="s">
-        <v>637</v>
-      </c>
-      <c r="D252" t="s">
-        <v>638</v>
-      </c>
-      <c r="E252" t="s">
-        <v>640</v>
       </c>
       <c r="F252">
         <v>22765949</v>
@@ -7550,19 +7551,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B253" t="s">
+        <v>640</v>
+      </c>
+      <c r="C253" t="s">
+        <v>642</v>
+      </c>
+      <c r="D253" t="s">
         <v>641</v>
       </c>
-      <c r="C253" t="s">
+      <c r="E253" t="s">
         <v>643</v>
-      </c>
-      <c r="D253" t="s">
-        <v>642</v>
-      </c>
-      <c r="E253" t="s">
-        <v>644</v>
       </c>
       <c r="F253">
         <v>22766029</v>
@@ -7570,19 +7571,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B254" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C254" t="s">
+        <v>663</v>
+      </c>
+      <c r="D254" t="s">
         <v>664</v>
       </c>
-      <c r="D254" t="s">
-        <v>665</v>
-      </c>
       <c r="E254" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F254">
         <v>22766028</v>
@@ -7590,19 +7591,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B255" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C255" t="s">
+        <v>666</v>
+      </c>
+      <c r="D255" t="s">
+        <v>665</v>
+      </c>
+      <c r="E255" t="s">
         <v>667</v>
-      </c>
-      <c r="D255" t="s">
-        <v>666</v>
-      </c>
-      <c r="E255" t="s">
-        <v>668</v>
       </c>
       <c r="F255">
         <v>22766019</v>
@@ -7610,19 +7611,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>647</v>
+      </c>
+      <c r="B256" t="s">
         <v>648</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>649</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>650</v>
       </c>
-      <c r="D256" t="s">
-        <v>651</v>
-      </c>
       <c r="E256" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F256" s="1">
         <v>28941725</v>
@@ -7630,19 +7631,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>647</v>
+      </c>
+      <c r="B257" t="s">
         <v>648</v>
       </c>
-      <c r="B257" t="s">
-        <v>649</v>
-      </c>
       <c r="C257" t="s">
+        <v>651</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="E257" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F257" s="1">
         <v>28941726</v>
@@ -7650,19 +7651,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>647</v>
+      </c>
+      <c r="B258" t="s">
         <v>648</v>
       </c>
-      <c r="B258" t="s">
-        <v>649</v>
-      </c>
       <c r="C258" t="s">
+        <v>653</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>655</v>
-      </c>
       <c r="E258" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F258" s="1">
         <v>28941727</v>
@@ -7670,19 +7671,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>647</v>
+      </c>
+      <c r="B259" t="s">
         <v>648</v>
       </c>
-      <c r="B259" t="s">
-        <v>649</v>
-      </c>
       <c r="C259" t="s">
+        <v>655</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="E259" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F259" s="1">
         <v>28941728</v>
@@ -7690,19 +7691,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>647</v>
+      </c>
+      <c r="B260" t="s">
         <v>648</v>
       </c>
-      <c r="B260" t="s">
-        <v>649</v>
-      </c>
       <c r="C260" t="s">
+        <v>657</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" t="s">
         <v>659</v>
-      </c>
-      <c r="E260" t="s">
-        <v>660</v>
       </c>
       <c r="F260" s="1">
         <v>28941729</v>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF51FE91-DF52-47B2-BC46-001F4223BEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725FE87E-3777-49A3-911C-78504199C18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$233</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="665">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1337,9 +1337,6 @@
     <t>霊知の太陽信仰 ～ Nuclear Fusion</t>
   </si>
   <si>
-    <t>二色莲花蝶 ～ Red and White</t>
-  </si>
-  <si>
     <t>芥川龙之介的河童 ～ Candid Friend</t>
   </si>
   <si>
@@ -1548,12 +1545,6 @@
   </si>
   <si>
     <t>ピュアヒューリーズ ～ 心の在処</t>
-  </si>
-  <si>
-    <t>二色蓮花蝶 ~ Red and White</t>
-  </si>
-  <si>
-    <t>聖徳伝説 ~ True Administrator</t>
   </si>
   <si>
     <t>芥川龍之介の河童 ~ Candid Friend</t>
@@ -1764,9 +1755,6 @@
   </si>
   <si>
     <t>秘神マターラ ~ Hidden Star in All Seasons</t>
-  </si>
-  <si>
-    <t>感情の摩天楼 ~ Cosmic Mind</t>
   </si>
   <si>
     <t>感情の摩天楼　～ Cosmic Mind</t>
@@ -2494,10 +2482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2526,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2557,10 +2545,10 @@
         <v>392</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E3" t="s">
         <v>400</v>
@@ -2577,7 +2565,7 @@
         <v>392</v>
       </c>
       <c r="C4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D4" t="s">
         <v>397</v>
@@ -2797,10 +2785,10 @@
         <v>368</v>
       </c>
       <c r="C15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
         <v>370</v>
@@ -2837,13 +2825,13 @@
         <v>368</v>
       </c>
       <c r="C17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" t="s">
         <v>439</v>
       </c>
-      <c r="D17" t="s">
-        <v>440</v>
-      </c>
       <c r="E17" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -2857,10 +2845,10 @@
         <v>368</v>
       </c>
       <c r="C18" t="s">
+        <v>440</v>
+      </c>
+      <c r="D18" t="s">
         <v>441</v>
-      </c>
-      <c r="D18" t="s">
-        <v>442</v>
       </c>
       <c r="E18" t="s">
         <v>373</v>
@@ -2877,10 +2865,10 @@
         <v>368</v>
       </c>
       <c r="C19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E19" t="s">
         <v>369</v>
@@ -2920,7 +2908,7 @@
         <v>374</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E21" t="s">
         <v>375</v>
@@ -2937,10 +2925,10 @@
         <v>360</v>
       </c>
       <c r="C22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E22" t="s">
         <v>362</v>
@@ -2957,10 +2945,10 @@
         <v>360</v>
       </c>
       <c r="C23" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D23" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E23" t="s">
         <v>363</v>
@@ -2977,10 +2965,10 @@
         <v>360</v>
       </c>
       <c r="C24" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D24" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E24" t="s">
         <v>361</v>
@@ -2997,10 +2985,10 @@
         <v>360</v>
       </c>
       <c r="C25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D25" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -3017,10 +3005,10 @@
         <v>360</v>
       </c>
       <c r="C26" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D26" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E26" t="s">
         <v>366</v>
@@ -3037,10 +3025,10 @@
         <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D27" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -3057,10 +3045,10 @@
         <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D28" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -3077,10 +3065,10 @@
         <v>360</v>
       </c>
       <c r="C29" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D29" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E29" t="s">
         <v>365</v>
@@ -3097,10 +3085,10 @@
         <v>360</v>
       </c>
       <c r="C30" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E30" t="s">
         <v>364</v>
@@ -3117,10 +3105,10 @@
         <v>347</v>
       </c>
       <c r="C31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D31" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E31" t="s">
         <v>354</v>
@@ -3137,10 +3125,10 @@
         <v>347</v>
       </c>
       <c r="C32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D32" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E32" t="s">
         <v>352</v>
@@ -3177,10 +3165,10 @@
         <v>347</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D34" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E34" t="s">
         <v>358</v>
@@ -3197,10 +3185,10 @@
         <v>347</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D35" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E35" t="s">
         <v>357</v>
@@ -3217,10 +3205,10 @@
         <v>347</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D36" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E36" t="s">
         <v>356</v>
@@ -3237,10 +3225,10 @@
         <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D37" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E37" t="s">
         <v>353</v>
@@ -3257,10 +3245,10 @@
         <v>347</v>
       </c>
       <c r="C38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D38" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E38" t="s">
         <v>355</v>
@@ -3380,7 +3368,7 @@
         <v>422</v>
       </c>
       <c r="D44" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E44" t="s">
         <v>342</v>
@@ -3557,10 +3545,10 @@
         <v>317</v>
       </c>
       <c r="C53" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D53" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E53" t="s">
         <v>239</v>
@@ -3577,10 +3565,10 @@
         <v>317</v>
       </c>
       <c r="C54" t="s">
+        <v>453</v>
+      </c>
+      <c r="D54" t="s">
         <v>454</v>
-      </c>
-      <c r="D54" t="s">
-        <v>455</v>
       </c>
       <c r="E54" t="s">
         <v>239</v>
@@ -3617,10 +3605,10 @@
         <v>317</v>
       </c>
       <c r="C56" t="s">
+        <v>455</v>
+      </c>
+      <c r="D56" t="s">
         <v>456</v>
-      </c>
-      <c r="D56" t="s">
-        <v>457</v>
       </c>
       <c r="E56" t="s">
         <v>280</v>
@@ -3640,7 +3628,7 @@
         <v>407</v>
       </c>
       <c r="D57" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E57" t="s">
         <v>243</v>
@@ -3660,7 +3648,7 @@
         <v>406</v>
       </c>
       <c r="D58" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E58" t="s">
         <v>243</v>
@@ -3677,7 +3665,7 @@
         <v>317</v>
       </c>
       <c r="C59" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D59" t="s">
         <v>413</v>
@@ -3717,10 +3705,10 @@
         <v>317</v>
       </c>
       <c r="C61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E61" t="s">
         <v>318</v>
@@ -3780,7 +3768,7 @@
         <v>405</v>
       </c>
       <c r="D64" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E64" t="s">
         <v>242</v>
@@ -3860,7 +3848,7 @@
         <v>411</v>
       </c>
       <c r="D68" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E68" t="s">
         <v>252</v>
@@ -3880,7 +3868,7 @@
         <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E69" t="s">
         <v>239</v>
@@ -3920,7 +3908,7 @@
         <v>409</v>
       </c>
       <c r="D71" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E71" t="s">
         <v>311</v>
@@ -3940,10 +3928,10 @@
         <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E72" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F72">
         <v>22766003</v>
@@ -3960,7 +3948,7 @@
         <v>406</v>
       </c>
       <c r="D73" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E73" t="s">
         <v>243</v>
@@ -3980,7 +3968,7 @@
         <v>407</v>
       </c>
       <c r="D74" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E74" t="s">
         <v>243</v>
@@ -4000,7 +3988,7 @@
         <v>244</v>
       </c>
       <c r="D75" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E75" t="s">
         <v>310</v>
@@ -4017,10 +4005,10 @@
         <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D76" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E76" t="s">
         <v>173</v>
@@ -4040,7 +4028,7 @@
         <v>404</v>
       </c>
       <c r="D77" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E77" t="s">
         <v>77</v>
@@ -4077,10 +4065,10 @@
         <v>292</v>
       </c>
       <c r="C79" t="s">
+        <v>458</v>
+      </c>
+      <c r="D79" t="s">
         <v>459</v>
-      </c>
-      <c r="D79" t="s">
-        <v>460</v>
       </c>
       <c r="E79" t="s">
         <v>294</v>
@@ -4137,10 +4125,10 @@
         <v>292</v>
       </c>
       <c r="C82" t="s">
+        <v>460</v>
+      </c>
+      <c r="D82" t="s">
         <v>461</v>
-      </c>
-      <c r="D82" t="s">
-        <v>462</v>
       </c>
       <c r="E82" t="s">
         <v>242</v>
@@ -4177,10 +4165,10 @@
         <v>292</v>
       </c>
       <c r="C84" t="s">
+        <v>462</v>
+      </c>
+      <c r="D84" t="s">
         <v>463</v>
-      </c>
-      <c r="D84" t="s">
-        <v>464</v>
       </c>
       <c r="E84" t="s">
         <v>290</v>
@@ -4197,10 +4185,10 @@
         <v>292</v>
       </c>
       <c r="C85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E85" t="s">
         <v>246</v>
@@ -4217,10 +4205,10 @@
         <v>292</v>
       </c>
       <c r="C86" t="s">
+        <v>465</v>
+      </c>
+      <c r="D86" t="s">
         <v>466</v>
-      </c>
-      <c r="D86" t="s">
-        <v>467</v>
       </c>
       <c r="E86" t="s">
         <v>293</v>
@@ -4237,10 +4225,10 @@
         <v>292</v>
       </c>
       <c r="C87" t="s">
+        <v>467</v>
+      </c>
+      <c r="D87" t="s">
         <v>468</v>
-      </c>
-      <c r="D87" t="s">
-        <v>469</v>
       </c>
       <c r="E87" t="s">
         <v>298</v>
@@ -4277,7 +4265,7 @@
         <v>292</v>
       </c>
       <c r="C89" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D89" t="s">
         <v>97</v>
@@ -4297,10 +4285,10 @@
         <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E90" t="s">
         <v>242</v>
@@ -4377,10 +4365,10 @@
         <v>277</v>
       </c>
       <c r="C94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E94" t="s">
         <v>246</v>
@@ -4417,10 +4405,10 @@
         <v>277</v>
       </c>
       <c r="C96" t="s">
+        <v>455</v>
+      </c>
+      <c r="D96" t="s">
         <v>456</v>
-      </c>
-      <c r="D96" t="s">
-        <v>457</v>
       </c>
       <c r="E96" t="s">
         <v>280</v>
@@ -4437,10 +4425,10 @@
         <v>277</v>
       </c>
       <c r="C97" t="s">
+        <v>470</v>
+      </c>
+      <c r="D97" t="s">
         <v>471</v>
-      </c>
-      <c r="D97" t="s">
-        <v>472</v>
       </c>
       <c r="E97" t="s">
         <v>297</v>
@@ -4480,7 +4468,7 @@
         <v>284</v>
       </c>
       <c r="D99" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E99" t="s">
         <v>249</v>
@@ -4497,10 +4485,10 @@
         <v>277</v>
       </c>
       <c r="C100" t="s">
+        <v>472</v>
+      </c>
+      <c r="D100" t="s">
         <v>473</v>
-      </c>
-      <c r="D100" t="s">
-        <v>474</v>
       </c>
       <c r="E100" t="s">
         <v>279</v>
@@ -4517,10 +4505,10 @@
         <v>277</v>
       </c>
       <c r="C101" t="s">
+        <v>474</v>
+      </c>
+      <c r="D101" t="s">
         <v>475</v>
-      </c>
-      <c r="D101" t="s">
-        <v>476</v>
       </c>
       <c r="E101" t="s">
         <v>278</v>
@@ -4537,13 +4525,13 @@
         <v>277</v>
       </c>
       <c r="C102" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D102" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E102" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F102">
         <v>510216</v>
@@ -4557,10 +4545,10 @@
         <v>277</v>
       </c>
       <c r="C103" t="s">
+        <v>476</v>
+      </c>
+      <c r="D103" t="s">
         <v>477</v>
-      </c>
-      <c r="D103" t="s">
-        <v>478</v>
       </c>
       <c r="E103" t="s">
         <v>287</v>
@@ -4577,7 +4565,7 @@
         <v>271</v>
       </c>
       <c r="C104" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D104" t="s">
         <v>417</v>
@@ -4677,10 +4665,10 @@
         <v>255</v>
       </c>
       <c r="C109" t="s">
+        <v>479</v>
+      </c>
+      <c r="D109" t="s">
         <v>480</v>
-      </c>
-      <c r="D109" t="s">
-        <v>481</v>
       </c>
       <c r="E109" t="s">
         <v>262</v>
@@ -4737,10 +4725,10 @@
         <v>255</v>
       </c>
       <c r="C112" t="s">
+        <v>425</v>
+      </c>
+      <c r="D112" t="s">
         <v>426</v>
-      </c>
-      <c r="D112" t="s">
-        <v>427</v>
       </c>
       <c r="E112" t="s">
         <v>258</v>
@@ -4757,10 +4745,10 @@
         <v>255</v>
       </c>
       <c r="C113" t="s">
+        <v>481</v>
+      </c>
+      <c r="D113" t="s">
         <v>482</v>
-      </c>
-      <c r="D113" t="s">
-        <v>483</v>
       </c>
       <c r="E113" t="s">
         <v>266</v>
@@ -4777,10 +4765,10 @@
         <v>255</v>
       </c>
       <c r="C114" t="s">
+        <v>483</v>
+      </c>
+      <c r="D114" t="s">
         <v>484</v>
-      </c>
-      <c r="D114" t="s">
-        <v>485</v>
       </c>
       <c r="E114" t="s">
         <v>249</v>
@@ -4817,10 +4805,10 @@
         <v>255</v>
       </c>
       <c r="C116" t="s">
+        <v>485</v>
+      </c>
+      <c r="D116" t="s">
         <v>486</v>
-      </c>
-      <c r="D116" t="s">
-        <v>487</v>
       </c>
       <c r="E116" t="s">
         <v>256</v>
@@ -4857,10 +4845,10 @@
         <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D118" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E118" t="s">
         <v>253</v>
@@ -4877,10 +4865,10 @@
         <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D119" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E119" t="s">
         <v>78</v>
@@ -4917,10 +4905,10 @@
         <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D121" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E121" t="s">
         <v>20</v>
@@ -4980,7 +4968,7 @@
         <v>406</v>
       </c>
       <c r="D124" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E124" t="s">
         <v>243</v>
@@ -5000,7 +4988,7 @@
         <v>409</v>
       </c>
       <c r="D125" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E125" t="s">
         <v>311</v>
@@ -5017,10 +5005,10 @@
         <v>236</v>
       </c>
       <c r="C126" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D126" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E126" t="s">
         <v>173</v>
@@ -5057,10 +5045,10 @@
         <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D128" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E128" t="s">
         <v>246</v>
@@ -5097,13 +5085,13 @@
         <v>236</v>
       </c>
       <c r="C130" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D130" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E130" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F130">
         <v>22765911</v>
@@ -5217,13 +5205,13 @@
         <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D136" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E136" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F136">
         <v>22636631</v>
@@ -5283,7 +5271,7 @@
         <v>210</v>
       </c>
       <c r="E139" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F139">
         <v>22636613</v>
@@ -5377,10 +5365,10 @@
         <v>199</v>
       </c>
       <c r="C144" t="s">
+        <v>429</v>
+      </c>
+      <c r="D144" t="s">
         <v>430</v>
-      </c>
-      <c r="D144" t="s">
-        <v>431</v>
       </c>
       <c r="E144" t="s">
         <v>211</v>
@@ -5420,7 +5408,7 @@
         <v>184</v>
       </c>
       <c r="D146" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E146" t="s">
         <v>186</v>
@@ -5460,7 +5448,7 @@
         <v>422</v>
       </c>
       <c r="D148" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E148" t="s">
         <v>187</v>
@@ -5480,7 +5468,7 @@
         <v>423</v>
       </c>
       <c r="D149" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E149" t="s">
         <v>188</v>
@@ -5497,7 +5485,7 @@
         <v>181</v>
       </c>
       <c r="C150" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D150" t="s">
         <v>196</v>
@@ -5520,7 +5508,7 @@
         <v>420</v>
       </c>
       <c r="D151" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
@@ -5580,10 +5568,10 @@
         <v>189</v>
       </c>
       <c r="D154" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E154" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F154">
         <v>851044</v>
@@ -5597,10 +5585,10 @@
         <v>178</v>
       </c>
       <c r="C155" t="s">
+        <v>489</v>
+      </c>
+      <c r="D155" t="s">
         <v>490</v>
-      </c>
-      <c r="D155" t="s">
-        <v>491</v>
       </c>
       <c r="E155" t="s">
         <v>179</v>
@@ -5797,10 +5785,10 @@
         <v>150</v>
       </c>
       <c r="C165" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D165" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
@@ -5857,10 +5845,10 @@
         <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D168" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E168" t="s">
         <v>96</v>
@@ -5900,7 +5888,7 @@
         <v>158</v>
       </c>
       <c r="D170" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E170" t="s">
         <v>87</v>
@@ -5917,10 +5905,10 @@
         <v>150</v>
       </c>
       <c r="C171" t="s">
+        <v>425</v>
+      </c>
+      <c r="D171" t="s">
         <v>426</v>
-      </c>
-      <c r="D171" t="s">
-        <v>427</v>
       </c>
       <c r="E171" t="s">
         <v>91</v>
@@ -5960,7 +5948,7 @@
         <v>151</v>
       </c>
       <c r="D173" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E173" t="s">
         <v>86</v>
@@ -6117,10 +6105,10 @@
         <v>131</v>
       </c>
       <c r="C181" t="s">
+        <v>427</v>
+      </c>
+      <c r="D181" t="s">
         <v>428</v>
-      </c>
-      <c r="D181" t="s">
-        <v>429</v>
       </c>
       <c r="E181" t="s">
         <v>148</v>
@@ -6137,10 +6125,10 @@
         <v>131</v>
       </c>
       <c r="C182" t="s">
+        <v>491</v>
+      </c>
+      <c r="D182" t="s">
         <v>492</v>
-      </c>
-      <c r="D182" t="s">
-        <v>493</v>
       </c>
       <c r="E182" t="s">
         <v>144</v>
@@ -6157,16 +6145,16 @@
         <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>425</v>
+        <v>102</v>
       </c>
       <c r="D183" t="s">
-        <v>496</v>
+        <v>103</v>
       </c>
       <c r="E183" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F183">
-        <v>34002876</v>
+        <v>34002877</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6177,16 +6165,16 @@
         <v>129</v>
       </c>
       <c r="C184" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D184" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E184" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F184">
-        <v>34002877</v>
+        <v>34002880</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6197,16 +6185,16 @@
         <v>129</v>
       </c>
       <c r="C185" t="s">
-        <v>106</v>
+        <v>425</v>
       </c>
       <c r="D185" t="s">
-        <v>107</v>
+        <v>495</v>
       </c>
       <c r="E185" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F185">
-        <v>34002878</v>
+        <v>34002882</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6217,16 +6205,16 @@
         <v>129</v>
       </c>
       <c r="C186" t="s">
-        <v>430</v>
+        <v>92</v>
       </c>
       <c r="D186" t="s">
-        <v>559</v>
+        <v>93</v>
       </c>
       <c r="E186" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F186">
-        <v>34002879</v>
+        <v>34002885</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6237,16 +6225,16 @@
         <v>129</v>
       </c>
       <c r="C187" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="D187" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E187" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F187">
-        <v>34002880</v>
+        <v>34002886</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6257,16 +6245,16 @@
         <v>129</v>
       </c>
       <c r="C188" t="s">
-        <v>158</v>
+        <v>427</v>
       </c>
       <c r="D188" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="E188" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F188">
-        <v>34002881</v>
+        <v>34002887</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6277,16 +6265,16 @@
         <v>129</v>
       </c>
       <c r="C189" t="s">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="D189" t="s">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="E189" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F189">
-        <v>34002882</v>
+        <v>34002871</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6297,136 +6285,136 @@
         <v>129</v>
       </c>
       <c r="C190" t="s">
-        <v>88</v>
+        <v>431</v>
       </c>
       <c r="D190" t="s">
-        <v>89</v>
+        <v>558</v>
       </c>
       <c r="E190" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F190">
-        <v>34002883</v>
+        <v>34002873</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B191" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C191" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D191" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E191" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F191">
-        <v>34002884</v>
+        <v>33991784</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B192" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C192" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D192" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E192" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F192">
-        <v>34002885</v>
+        <v>33991807</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B193" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C193" t="s">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="D193" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E193" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F193">
-        <v>34002886</v>
+        <v>33991810</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B194" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C194" t="s">
-        <v>428</v>
+        <v>125</v>
       </c>
       <c r="D194" t="s">
-        <v>561</v>
+        <v>126</v>
       </c>
       <c r="E194" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F194">
-        <v>34002887</v>
+        <v>33991812</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B195" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C195" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D195" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E195" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F195">
-        <v>34002871</v>
+        <v>34003789</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B196" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C196" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="D196" t="s">
-        <v>562</v>
+        <v>494</v>
       </c>
       <c r="E196" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F196">
-        <v>34002873</v>
+        <v>34003791</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6437,176 +6425,176 @@
         <v>110</v>
       </c>
       <c r="C197" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D197" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E197" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F197">
-        <v>33991784</v>
+        <v>34003794</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B198" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C198" t="s">
-        <v>119</v>
+        <v>432</v>
       </c>
       <c r="D198" t="s">
-        <v>120</v>
+        <v>559</v>
       </c>
       <c r="E198" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="F198">
-        <v>33991807</v>
+        <v>561307021</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B199" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C199" t="s">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="D199" t="s">
-        <v>83</v>
+        <v>560</v>
       </c>
       <c r="E199" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F199">
-        <v>33991810</v>
+        <v>561307037</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B200" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C200" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="D200" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="E200" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="F200">
-        <v>33991812</v>
+        <v>477215246</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B201" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C201" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D201" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="E201" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="F201">
-        <v>34003789</v>
+        <v>477215248</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B202" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C202" t="s">
-        <v>494</v>
+        <v>66</v>
       </c>
       <c r="D202" t="s">
-        <v>495</v>
+        <v>67</v>
       </c>
       <c r="E202" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="F202">
-        <v>34003791</v>
+        <v>477215250</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B203" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C203" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D203" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E203" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F203">
-        <v>34003794</v>
+        <v>497463990</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B204" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C204" t="s">
-        <v>433</v>
+        <v>63</v>
       </c>
       <c r="D204" t="s">
-        <v>563</v>
+        <v>64</v>
       </c>
       <c r="E204" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F204">
-        <v>561307021</v>
+        <v>497463992</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B205" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C205" t="s">
-        <v>436</v>
+        <v>69</v>
       </c>
       <c r="D205" t="s">
-        <v>564</v>
+        <v>70</v>
       </c>
       <c r="E205" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F205">
-        <v>561307037</v>
+        <v>497463994</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6617,216 +6605,216 @@
         <v>56</v>
       </c>
       <c r="C206" t="s">
-        <v>57</v>
+        <v>496</v>
       </c>
       <c r="D206" t="s">
-        <v>58</v>
+        <v>555</v>
       </c>
       <c r="E206" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F206">
-        <v>477215246</v>
+        <v>497463996</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B207" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C207" t="s">
-        <v>60</v>
-      </c>
-      <c r="D207" t="s">
-        <v>61</v>
+        <v>656</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="E207" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F207">
-        <v>477215248</v>
+        <v>1300452648</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B208" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C208" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D208" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E208" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F208">
-        <v>477215250</v>
+        <v>1300423634</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B209" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C209" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D209" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E209" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F209">
-        <v>497463990</v>
+        <v>1300452649</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B210" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C210" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D210" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E210" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F210">
-        <v>497463992</v>
+        <v>1300595620</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B211" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C211" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D211" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E211" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F211">
-        <v>497463994</v>
+        <v>1381562764</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B212" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C212" t="s">
-        <v>499</v>
+        <v>33</v>
       </c>
       <c r="D212" t="s">
-        <v>558</v>
+        <v>34</v>
       </c>
       <c r="E212" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F212">
-        <v>497463996</v>
+        <v>1381564337</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B213" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C213" t="s">
-        <v>660</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>661</v>
+        <v>39</v>
+      </c>
+      <c r="D213" t="s">
+        <v>40</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F213">
-        <v>1300452648</v>
+        <v>1381562765</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C214" t="s">
-        <v>48</v>
+        <v>497</v>
       </c>
       <c r="D214" t="s">
-        <v>49</v>
+        <v>498</v>
       </c>
       <c r="E214" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F214">
-        <v>1300423634</v>
+        <v>1384324154</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D215" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E215" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F215">
-        <v>1300452649</v>
+        <v>1384324156</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B216" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C216" t="s">
-        <v>53</v>
+        <v>499</v>
       </c>
       <c r="D216" t="s">
-        <v>54</v>
+        <v>500</v>
       </c>
       <c r="E216" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F216">
-        <v>1300595620</v>
+        <v>1384318412</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6837,875 +6825,755 @@
         <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>501</v>
       </c>
       <c r="D217" t="s">
-        <v>37</v>
+        <v>502</v>
       </c>
       <c r="E217" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F217">
-        <v>1381562764</v>
+        <v>1384324244</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D218" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E218" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F218">
-        <v>1381564337</v>
+        <v>30854133</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D219" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F219">
-        <v>1381562765</v>
+        <v>30854134</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F220">
-        <v>1384324154</v>
+        <v>30854137</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>42</v>
+        <v>503</v>
       </c>
       <c r="D221" t="s">
-        <v>43</v>
+        <v>504</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F221">
-        <v>1384324156</v>
+        <v>30854138</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>503</v>
+        <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F222">
-        <v>1384318412</v>
+        <v>30854142</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D223" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F223">
-        <v>1384324244</v>
+        <v>30854146</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>420</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>421</v>
       </c>
       <c r="E224" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F224">
-        <v>30854133</v>
+        <v>30854151</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C225" t="s">
-        <v>17</v>
+        <v>507</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>508</v>
       </c>
       <c r="E225" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F225">
-        <v>30854134</v>
+        <v>30854182</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
       </c>
       <c r="F226">
-        <v>30854137</v>
+        <v>30854183</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D227" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E227" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F227">
-        <v>30854138</v>
+        <v>30854184</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>511</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>511</v>
       </c>
       <c r="E228" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F228">
-        <v>30854142</v>
+        <v>30854185</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C229" t="s">
-        <v>508</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
-        <v>509</v>
+        <v>26</v>
       </c>
       <c r="E229" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F229">
-        <v>30854146</v>
+        <v>30854188</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="D230" t="s">
-        <v>421</v>
+        <v>580</v>
       </c>
       <c r="E230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F230">
-        <v>30854151</v>
+        <v>30854186</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B231" t="s">
         <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D231" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E231" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F231">
-        <v>30854182</v>
+        <v>30854187</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B232" t="s">
         <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>24</v>
+        <v>514</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
+        <v>515</v>
       </c>
       <c r="E232" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F232">
-        <v>30854183</v>
+        <v>30854189</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B233" t="s">
         <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D233" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E233" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F233">
-        <v>30854184</v>
+        <v>30854190</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="B234" t="s">
-        <v>21</v>
+        <v>588</v>
       </c>
       <c r="C234" t="s">
-        <v>514</v>
+        <v>642</v>
       </c>
       <c r="D234" t="s">
-        <v>514</v>
+        <v>641</v>
       </c>
       <c r="E234" t="s">
-        <v>16</v>
+        <v>594</v>
       </c>
       <c r="F234">
-        <v>30854185</v>
+        <v>29715584</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="B235" t="s">
-        <v>21</v>
+        <v>588</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>595</v>
       </c>
       <c r="D235" t="s">
-        <v>26</v>
+        <v>589</v>
       </c>
       <c r="E235" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235">
-        <v>30854188</v>
+        <v>594</v>
+      </c>
+      <c r="F235" s="1">
+        <v>29715585</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="B236" t="s">
-        <v>21</v>
+        <v>588</v>
       </c>
       <c r="C236" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D236" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236">
-        <v>30854186</v>
+        <v>594</v>
+      </c>
+      <c r="F236" s="1">
+        <v>29715586</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>522</v>
+        <v>640</v>
       </c>
       <c r="B237" t="s">
-        <v>21</v>
+        <v>588</v>
       </c>
       <c r="C237" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="D237" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
       <c r="E237" t="s">
-        <v>23</v>
+        <v>594</v>
       </c>
       <c r="F237">
-        <v>30854187</v>
+        <v>29715587</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>522</v>
+        <v>640</v>
       </c>
       <c r="B238" t="s">
-        <v>21</v>
+        <v>588</v>
       </c>
       <c r="C238" t="s">
-        <v>517</v>
+        <v>598</v>
       </c>
       <c r="D238" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="E238" t="s">
-        <v>28</v>
+        <v>594</v>
       </c>
       <c r="F238">
-        <v>30854189</v>
+        <v>29715588</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>522</v>
+        <v>640</v>
       </c>
       <c r="B239" t="s">
-        <v>21</v>
+        <v>588</v>
       </c>
       <c r="C239" t="s">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="D239" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="E239" t="s">
-        <v>27</v>
+        <v>599</v>
       </c>
       <c r="F239">
-        <v>30854190</v>
+        <v>29715589</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B240" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="C240" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="D240" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="E240" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="F240">
-        <v>29715584</v>
+        <v>29710956</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="B241" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="C241" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="D241" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="E241" t="s">
-        <v>598</v>
-      </c>
-      <c r="F241" s="1">
-        <v>29715585</v>
+        <v>610</v>
+      </c>
+      <c r="F241">
+        <v>468513480</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="B242" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="C242" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="D242" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="E242" t="s">
-        <v>598</v>
-      </c>
-      <c r="F242" s="1">
-        <v>29715586</v>
+        <v>621</v>
+      </c>
+      <c r="F242">
+        <v>29710940</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="B243" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="C243" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="D243" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="E243" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="F243">
-        <v>29715587</v>
+        <v>29710941</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="B244" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="C244" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="D244" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="E244" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="F244">
-        <v>29715588</v>
+        <v>29710942</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="B245" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="C245" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D245" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="E245" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="F245">
-        <v>29715589</v>
+        <v>29710959</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="B246" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="C246" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="D246" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="E246" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="F246">
-        <v>29710956</v>
+        <v>22765949</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="B247" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="C247" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="D247" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="E247" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="F247">
-        <v>468513480</v>
+        <v>22766029</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="B248" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C248" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="D248" t="s">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="E248" t="s">
-        <v>625</v>
+        <v>663</v>
       </c>
       <c r="F248">
-        <v>29710940</v>
+        <v>22766028</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="B249" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C249" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="D249" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="E249" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="F249">
-        <v>29710941</v>
+        <v>22766019</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="B250" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="C250" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="D250" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="E250" t="s">
-        <v>627</v>
-      </c>
-      <c r="F250">
-        <v>29710942</v>
+        <v>655</v>
+      </c>
+      <c r="F250" s="1">
+        <v>28941725</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="B251" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="C251" t="s">
-        <v>633</v>
-      </c>
-      <c r="D251" t="s">
-        <v>631</v>
+        <v>647</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="E251" t="s">
-        <v>634</v>
-      </c>
-      <c r="F251">
-        <v>29710959</v>
+        <v>655</v>
+      </c>
+      <c r="F251" s="1">
+        <v>28941726</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B252" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C252" t="s">
-        <v>636</v>
-      </c>
-      <c r="D252" t="s">
-        <v>637</v>
+        <v>649</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="E252" t="s">
-        <v>639</v>
-      </c>
-      <c r="F252">
-        <v>22765949</v>
+        <v>655</v>
+      </c>
+      <c r="F252" s="1">
+        <v>28941727</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B253" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C253" t="s">
-        <v>642</v>
-      </c>
-      <c r="D253" t="s">
-        <v>641</v>
+        <v>651</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="E253" t="s">
-        <v>643</v>
-      </c>
-      <c r="F253">
-        <v>22766029</v>
+        <v>655</v>
+      </c>
+      <c r="F253" s="1">
+        <v>28941728</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B254" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C254" t="s">
-        <v>663</v>
-      </c>
-      <c r="D254" t="s">
-        <v>664</v>
+        <v>653</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="E254" t="s">
-        <v>667</v>
-      </c>
-      <c r="F254">
-        <v>22766028</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>635</v>
-      </c>
-      <c r="B255" t="s">
-        <v>640</v>
-      </c>
-      <c r="C255" t="s">
-        <v>666</v>
-      </c>
-      <c r="D255" t="s">
-        <v>665</v>
-      </c>
-      <c r="E255" t="s">
-        <v>667</v>
-      </c>
-      <c r="F255">
-        <v>22766019</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>647</v>
-      </c>
-      <c r="B256" t="s">
-        <v>648</v>
-      </c>
-      <c r="C256" t="s">
-        <v>649</v>
-      </c>
-      <c r="D256" t="s">
-        <v>650</v>
-      </c>
-      <c r="E256" t="s">
-        <v>659</v>
-      </c>
-      <c r="F256" s="1">
-        <v>28941725</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>647</v>
-      </c>
-      <c r="B257" t="s">
-        <v>648</v>
-      </c>
-      <c r="C257" t="s">
-        <v>651</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E257" t="s">
-        <v>659</v>
-      </c>
-      <c r="F257" s="1">
-        <v>28941726</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>647</v>
-      </c>
-      <c r="B258" t="s">
-        <v>648</v>
-      </c>
-      <c r="C258" t="s">
-        <v>653</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E258" t="s">
-        <v>659</v>
-      </c>
-      <c r="F258" s="1">
-        <v>28941727</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>647</v>
-      </c>
-      <c r="B259" t="s">
-        <v>648</v>
-      </c>
-      <c r="C259" t="s">
         <v>655</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E259" t="s">
-        <v>659</v>
-      </c>
-      <c r="F259" s="1">
-        <v>28941728</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>647</v>
-      </c>
-      <c r="B260" t="s">
-        <v>648</v>
-      </c>
-      <c r="C260" t="s">
-        <v>657</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="E260" t="s">
-        <v>659</v>
-      </c>
-      <c r="F260" s="1">
+      <c r="F254" s="1">
         <v>28941729</v>
       </c>
     </row>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725FE87E-3777-49A3-911C-78504199C18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440469D9-D182-4028-8D3B-38F3CBD3B7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$235</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="669">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2148,6 +2148,22 @@
   </si>
   <si>
     <t>小野塚小町</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メイドと血の懐中時計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆与血之怀表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日ハレの日、ケの昨日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日之盛，昨日之俗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2482,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F254"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3445,16 +3461,16 @@
         <v>333</v>
       </c>
       <c r="C48" t="s">
-        <v>411</v>
+        <v>666</v>
       </c>
       <c r="D48" t="s">
-        <v>412</v>
+        <v>665</v>
       </c>
       <c r="E48" t="s">
         <v>252</v>
       </c>
       <c r="F48">
-        <v>22636725</v>
+        <v>22636732</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,16 +3481,16 @@
         <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>411</v>
       </c>
       <c r="D49" t="s">
-        <v>245</v>
+        <v>412</v>
       </c>
       <c r="E49" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="F49">
-        <v>22636723</v>
+        <v>22636725</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,36 +3501,36 @@
         <v>333</v>
       </c>
       <c r="C50" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="D50" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="E50" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="F50">
-        <v>22636729</v>
+        <v>22636723</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D51" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="E51" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F51">
-        <v>22636707</v>
+        <v>22636729</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,16 +3541,16 @@
         <v>317</v>
       </c>
       <c r="C52" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E52" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F52">
-        <v>22636702</v>
+        <v>22636707</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,16 +3561,16 @@
         <v>317</v>
       </c>
       <c r="C53" t="s">
-        <v>658</v>
+        <v>321</v>
       </c>
       <c r="D53" t="s">
-        <v>547</v>
+        <v>322</v>
       </c>
       <c r="E53" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="F53">
-        <v>22636698</v>
+        <v>22636702</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3565,16 +3581,16 @@
         <v>317</v>
       </c>
       <c r="C54" t="s">
-        <v>453</v>
+        <v>658</v>
       </c>
       <c r="D54" t="s">
-        <v>454</v>
+        <v>547</v>
       </c>
       <c r="E54" t="s">
         <v>239</v>
       </c>
       <c r="F54">
-        <v>22636711</v>
+        <v>22636698</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3585,16 +3601,16 @@
         <v>317</v>
       </c>
       <c r="C55" t="s">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="D55" t="s">
-        <v>328</v>
+        <v>454</v>
       </c>
       <c r="E55" t="s">
-        <v>329</v>
+        <v>239</v>
       </c>
       <c r="F55">
-        <v>22636703</v>
+        <v>22636711</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3605,16 +3621,16 @@
         <v>317</v>
       </c>
       <c r="C56" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="D56" t="s">
-        <v>456</v>
+        <v>328</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="F56">
-        <v>22636705</v>
+        <v>22636703</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,16 +3641,16 @@
         <v>317</v>
       </c>
       <c r="C57" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="D57" t="s">
-        <v>550</v>
+        <v>456</v>
       </c>
       <c r="E57" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="F57">
-        <v>22636701</v>
+        <v>22636705</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,16 +3661,16 @@
         <v>317</v>
       </c>
       <c r="C58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D58" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E58" t="s">
         <v>243</v>
       </c>
       <c r="F58">
-        <v>22636714</v>
+        <v>22636701</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,16 +3681,16 @@
         <v>317</v>
       </c>
       <c r="C59" t="s">
-        <v>577</v>
+        <v>406</v>
       </c>
       <c r="D59" t="s">
-        <v>413</v>
+        <v>544</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="F59">
-        <v>22636709</v>
+        <v>22636714</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,16 +3701,16 @@
         <v>317</v>
       </c>
       <c r="C60" t="s">
-        <v>330</v>
+        <v>577</v>
       </c>
       <c r="D60" t="s">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="E60" t="s">
         <v>173</v>
       </c>
       <c r="F60">
-        <v>22636704</v>
+        <v>22636709</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,16 +3721,16 @@
         <v>317</v>
       </c>
       <c r="C61" t="s">
-        <v>457</v>
+        <v>330</v>
       </c>
       <c r="D61" t="s">
-        <v>457</v>
+        <v>331</v>
       </c>
       <c r="E61" t="s">
-        <v>318</v>
+        <v>173</v>
       </c>
       <c r="F61">
-        <v>22636710</v>
+        <v>22636704</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3725,36 +3741,36 @@
         <v>317</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>457</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="F62">
-        <v>22636708</v>
+        <v>22636710</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="F63">
-        <v>22765972</v>
+        <v>22636708</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,16 +3781,16 @@
         <v>307</v>
       </c>
       <c r="C64" t="s">
-        <v>405</v>
+        <v>240</v>
       </c>
       <c r="D64" t="s">
-        <v>545</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s">
         <v>242</v>
       </c>
       <c r="F64">
-        <v>22765996</v>
+        <v>22765972</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3785,16 +3801,16 @@
         <v>307</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>545</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="F65">
-        <v>22765964</v>
+        <v>22765996</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,16 +3821,16 @@
         <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
         <v>20</v>
       </c>
       <c r="F66">
-        <v>22765986</v>
+        <v>22765964</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,16 +3841,16 @@
         <v>307</v>
       </c>
       <c r="C67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D67" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="E67" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="F67">
-        <v>22765976</v>
+        <v>22765986</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,16 +3861,16 @@
         <v>307</v>
       </c>
       <c r="C68" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="D68" t="s">
-        <v>546</v>
+        <v>416</v>
       </c>
       <c r="E68" t="s">
         <v>252</v>
       </c>
       <c r="F68">
-        <v>22766000</v>
+        <v>22765976</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,16 +3881,16 @@
         <v>307</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="D69" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F69">
-        <v>22765967</v>
+        <v>22766000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,16 +3901,16 @@
         <v>307</v>
       </c>
       <c r="C70" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="D70" t="s">
-        <v>309</v>
+        <v>547</v>
       </c>
       <c r="E70" t="s">
         <v>239</v>
       </c>
       <c r="F70">
-        <v>22765990</v>
+        <v>22765967</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,16 +3921,16 @@
         <v>307</v>
       </c>
       <c r="C71" t="s">
-        <v>409</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>548</v>
+        <v>309</v>
       </c>
       <c r="E71" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="F71">
-        <v>22765980</v>
+        <v>22765990</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,16 +3941,16 @@
         <v>307</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>409</v>
       </c>
       <c r="D72" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E72" t="s">
-        <v>618</v>
+        <v>311</v>
       </c>
       <c r="F72">
-        <v>22766003</v>
+        <v>22765980</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,16 +3961,16 @@
         <v>307</v>
       </c>
       <c r="C73" t="s">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="D73" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>618</v>
       </c>
       <c r="F73">
-        <v>22765970</v>
+        <v>22766003</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3965,16 +3981,16 @@
         <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D74" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E74" t="s">
         <v>243</v>
       </c>
       <c r="F74">
-        <v>22765994</v>
+        <v>22765970</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,16 +4001,16 @@
         <v>307</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>407</v>
       </c>
       <c r="D75" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="F75">
-        <v>22765966</v>
+        <v>22765994</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,16 +4021,16 @@
         <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>577</v>
+        <v>244</v>
       </c>
       <c r="D76" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E76" t="s">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="F76">
-        <v>22765984</v>
+        <v>22765966</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,16 +4041,16 @@
         <v>307</v>
       </c>
       <c r="C77" t="s">
-        <v>404</v>
+        <v>577</v>
       </c>
       <c r="D77" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E77" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="F77">
-        <v>22765997</v>
+        <v>22765984</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,36 +4061,36 @@
         <v>307</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D78" t="s">
-        <v>415</v>
+        <v>554</v>
       </c>
       <c r="E78" t="s">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="F78">
-        <v>22766006</v>
+        <v>22765997</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C79" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="D79" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="E79" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="F79">
-        <v>22636686</v>
+        <v>22766006</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,16 +4101,16 @@
         <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>458</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>459</v>
       </c>
       <c r="E80" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F80">
-        <v>22636681</v>
+        <v>22636686</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,16 +4121,16 @@
         <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D81" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F81">
-        <v>22636690</v>
+        <v>22636681</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,16 +4141,16 @@
         <v>292</v>
       </c>
       <c r="C82" t="s">
-        <v>460</v>
+        <v>302</v>
       </c>
       <c r="D82" t="s">
-        <v>461</v>
+        <v>303</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="F82">
-        <v>22636684</v>
+        <v>22636690</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,16 +4161,16 @@
         <v>292</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>460</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>461</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="F83">
-        <v>22636680</v>
+        <v>22636684</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,16 +4181,16 @@
         <v>292</v>
       </c>
       <c r="C84" t="s">
-        <v>462</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="E84" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="F84">
-        <v>22636693</v>
+        <v>22636680</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,16 +4201,16 @@
         <v>292</v>
       </c>
       <c r="C85" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="D85" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E85" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="F85">
-        <v>22636685</v>
+        <v>22636693</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,16 +4221,16 @@
         <v>292</v>
       </c>
       <c r="C86" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="D86" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="F86">
-        <v>22636683</v>
+        <v>22636685</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,16 +4241,16 @@
         <v>292</v>
       </c>
       <c r="C87" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D87" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F87">
-        <v>22636695</v>
+        <v>22636683</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,16 +4261,16 @@
         <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
+        <v>468</v>
       </c>
       <c r="E88" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F88">
-        <v>22636689</v>
+        <v>22636695</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,36 +4281,36 @@
         <v>292</v>
       </c>
       <c r="C89" t="s">
-        <v>578</v>
+        <v>299</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="E89" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F89">
-        <v>22636687</v>
+        <v>22636689</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C90" t="s">
-        <v>469</v>
+        <v>578</v>
       </c>
       <c r="D90" t="s">
-        <v>469</v>
+        <v>97</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="F90">
-        <v>510172</v>
+        <v>22636687</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,16 +4321,16 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>285</v>
+        <v>469</v>
       </c>
       <c r="D91" t="s">
-        <v>286</v>
+        <v>469</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="F91">
-        <v>510174</v>
+        <v>510172</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,16 +4341,16 @@
         <v>277</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="E92" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="F92">
-        <v>510177</v>
+        <v>510174</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,16 +4361,16 @@
         <v>277</v>
       </c>
       <c r="C93" t="s">
-        <v>407</v>
+        <v>250</v>
       </c>
       <c r="D93" t="s">
-        <v>408</v>
+        <v>251</v>
       </c>
       <c r="E93" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F93">
-        <v>510179</v>
+        <v>510177</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,16 +4381,16 @@
         <v>277</v>
       </c>
       <c r="C94" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="D94" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F94">
-        <v>510182</v>
+        <v>510179</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,16 +4401,16 @@
         <v>277</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>434</v>
       </c>
       <c r="D95" t="s">
-        <v>282</v>
+        <v>464</v>
       </c>
       <c r="E95" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="F95">
-        <v>510185</v>
+        <v>510182</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4405,16 +4421,16 @@
         <v>277</v>
       </c>
       <c r="C96" t="s">
-        <v>455</v>
+        <v>281</v>
       </c>
       <c r="D96" t="s">
-        <v>456</v>
+        <v>282</v>
       </c>
       <c r="E96" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F96">
-        <v>510188</v>
+        <v>510185</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4425,16 +4441,16 @@
         <v>277</v>
       </c>
       <c r="C97" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D97" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="E97" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F97">
-        <v>510192</v>
+        <v>510188</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,16 +4461,16 @@
         <v>277</v>
       </c>
       <c r="C98" t="s">
-        <v>288</v>
+        <v>470</v>
       </c>
       <c r="D98" t="s">
-        <v>289</v>
+        <v>471</v>
       </c>
       <c r="E98" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F98">
-        <v>510196</v>
+        <v>510192</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4465,16 +4481,16 @@
         <v>277</v>
       </c>
       <c r="C99" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D99" t="s">
-        <v>575</v>
+        <v>289</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="F99">
-        <v>510200</v>
+        <v>510196</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4485,16 +4501,16 @@
         <v>277</v>
       </c>
       <c r="C100" t="s">
-        <v>472</v>
+        <v>284</v>
       </c>
       <c r="D100" t="s">
-        <v>473</v>
+        <v>575</v>
       </c>
       <c r="E100" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F100">
-        <v>510204</v>
+        <v>510200</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,16 +4521,16 @@
         <v>277</v>
       </c>
       <c r="C101" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D101" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F101">
-        <v>510208</v>
+        <v>510204</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4525,16 +4541,16 @@
         <v>277</v>
       </c>
       <c r="C102" t="s">
-        <v>584</v>
+        <v>474</v>
       </c>
       <c r="D102" t="s">
-        <v>586</v>
+        <v>475</v>
       </c>
       <c r="E102" t="s">
-        <v>585</v>
+        <v>278</v>
       </c>
       <c r="F102">
-        <v>510216</v>
+        <v>510208</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4545,36 +4561,36 @@
         <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>476</v>
+        <v>584</v>
       </c>
       <c r="D103" t="s">
-        <v>477</v>
+        <v>586</v>
       </c>
       <c r="E103" t="s">
-        <v>287</v>
+        <v>585</v>
       </c>
       <c r="F103">
-        <v>510212</v>
+        <v>510216</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C104" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="E104" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="F104">
-        <v>29710947</v>
+        <v>510212</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4585,16 +4601,16 @@
         <v>271</v>
       </c>
       <c r="C105" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="D105" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E105" t="s">
         <v>249</v>
       </c>
       <c r="F105">
-        <v>29710948</v>
+        <v>29710947</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4605,16 +4621,16 @@
         <v>271</v>
       </c>
       <c r="C106" t="s">
-        <v>272</v>
+        <v>418</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>419</v>
       </c>
       <c r="E106" t="s">
         <v>249</v>
       </c>
       <c r="F106">
-        <v>29710949</v>
+        <v>29710948</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4625,16 +4641,16 @@
         <v>271</v>
       </c>
       <c r="C107" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D107" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E107" t="s">
         <v>249</v>
       </c>
       <c r="F107">
-        <v>29710950</v>
+        <v>29710949</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,36 +4661,36 @@
         <v>271</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D108" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="E108" t="s">
         <v>249</v>
       </c>
       <c r="F108">
-        <v>29710952</v>
+        <v>29710950</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C109" t="s">
-        <v>479</v>
+        <v>247</v>
       </c>
       <c r="D109" t="s">
-        <v>480</v>
+        <v>248</v>
       </c>
       <c r="E109" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F109">
-        <v>22636639</v>
+        <v>29710952</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4685,16 +4701,16 @@
         <v>255</v>
       </c>
       <c r="C110" t="s">
-        <v>263</v>
+        <v>479</v>
       </c>
       <c r="D110" t="s">
-        <v>264</v>
+        <v>480</v>
       </c>
       <c r="E110" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F110">
-        <v>22636649</v>
+        <v>22636639</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,16 +4721,16 @@
         <v>255</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D111" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F111">
-        <v>22636644</v>
+        <v>22636649</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4725,16 +4741,16 @@
         <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>425</v>
+        <v>259</v>
       </c>
       <c r="D112" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="E112" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F112">
-        <v>22636653</v>
+        <v>22636644</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,16 +4761,16 @@
         <v>255</v>
       </c>
       <c r="C113" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="D113" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="E113" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F113">
-        <v>22636645</v>
+        <v>22636653</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4765,16 +4781,16 @@
         <v>255</v>
       </c>
       <c r="C114" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D114" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E114" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F114">
-        <v>22636647</v>
+        <v>22636645</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4785,16 +4801,16 @@
         <v>255</v>
       </c>
       <c r="C115" t="s">
-        <v>184</v>
+        <v>483</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>484</v>
       </c>
       <c r="E115" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F115">
-        <v>22636655</v>
+        <v>22636647</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,16 +4821,16 @@
         <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>485</v>
+        <v>184</v>
       </c>
       <c r="D116" t="s">
-        <v>486</v>
+        <v>185</v>
       </c>
       <c r="E116" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F116">
-        <v>22636651</v>
+        <v>22636655</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,56 +4841,56 @@
         <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>485</v>
       </c>
       <c r="D117" t="s">
-        <v>268</v>
+        <v>486</v>
       </c>
       <c r="E117" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F117">
-        <v>22636656</v>
+        <v>22636651</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C118" t="s">
-        <v>487</v>
+        <v>668</v>
       </c>
       <c r="D118" t="s">
-        <v>569</v>
+        <v>667</v>
       </c>
       <c r="E118" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F118">
-        <v>22765926</v>
+        <v>22636646</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C119" t="s">
-        <v>433</v>
+        <v>267</v>
       </c>
       <c r="D119" t="s">
-        <v>570</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="F119">
-        <v>22765920</v>
+        <v>22636656</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,16 +4901,16 @@
         <v>236</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>487</v>
       </c>
       <c r="D120" t="s">
-        <v>241</v>
+        <v>569</v>
       </c>
       <c r="E120" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F120">
-        <v>22765905</v>
+        <v>22765926</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4905,16 +4921,16 @@
         <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D121" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F121">
-        <v>22765917</v>
+        <v>22765920</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,16 +4941,16 @@
         <v>236</v>
       </c>
       <c r="C122" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D122" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E122" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F122">
-        <v>22765910</v>
+        <v>22765905</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4945,16 +4961,16 @@
         <v>236</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>444</v>
       </c>
       <c r="D123" t="s">
-        <v>238</v>
+        <v>528</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="F123">
-        <v>22765909</v>
+        <v>22765917</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4965,16 +4981,16 @@
         <v>236</v>
       </c>
       <c r="C124" t="s">
-        <v>406</v>
+        <v>250</v>
       </c>
       <c r="D124" t="s">
-        <v>544</v>
+        <v>251</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F124">
-        <v>22765906</v>
+        <v>22765910</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4985,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>409</v>
+        <v>237</v>
       </c>
       <c r="D125" t="s">
-        <v>571</v>
+        <v>238</v>
       </c>
       <c r="E125" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="F125">
-        <v>22765921</v>
+        <v>22765909</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,16 +5021,16 @@
         <v>236</v>
       </c>
       <c r="C126" t="s">
-        <v>577</v>
+        <v>406</v>
       </c>
       <c r="D126" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="E126" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="F126">
-        <v>22765913</v>
+        <v>22765906</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5025,16 +5041,16 @@
         <v>236</v>
       </c>
       <c r="C127" t="s">
-        <v>244</v>
+        <v>409</v>
       </c>
       <c r="D127" t="s">
-        <v>245</v>
+        <v>571</v>
       </c>
       <c r="E127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F127">
-        <v>22765912</v>
+        <v>22765921</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5045,16 +5061,16 @@
         <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>434</v>
+        <v>577</v>
       </c>
       <c r="D128" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E128" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="F128">
-        <v>22765916</v>
+        <v>22765913</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5065,16 +5081,16 @@
         <v>236</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="F129">
-        <v>22765915</v>
+        <v>22765912</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5085,56 +5101,56 @@
         <v>236</v>
       </c>
       <c r="C130" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="D130" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E130" t="s">
-        <v>664</v>
+        <v>246</v>
       </c>
       <c r="F130">
-        <v>22765911</v>
+        <v>22765916</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C131" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D131" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E131" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F131">
-        <v>22636622</v>
+        <v>22765915</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C132" t="s">
-        <v>222</v>
+        <v>476</v>
       </c>
       <c r="D132" t="s">
-        <v>223</v>
+        <v>574</v>
       </c>
       <c r="E132" t="s">
-        <v>224</v>
+        <v>664</v>
       </c>
       <c r="F132">
-        <v>22636624</v>
+        <v>22765911</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5145,16 +5161,16 @@
         <v>217</v>
       </c>
       <c r="C133" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D133" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E133" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F133">
-        <v>22636633</v>
+        <v>22636622</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -5165,16 +5181,16 @@
         <v>217</v>
       </c>
       <c r="C134" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E134" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F134">
-        <v>22636627</v>
+        <v>22636624</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,16 +5201,16 @@
         <v>217</v>
       </c>
       <c r="C135" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D135" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E135" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F135">
-        <v>22636636</v>
+        <v>22636633</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5205,16 +5221,16 @@
         <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>488</v>
+        <v>232</v>
       </c>
       <c r="D136" t="s">
-        <v>568</v>
+        <v>233</v>
       </c>
       <c r="E136" t="s">
-        <v>600</v>
+        <v>234</v>
       </c>
       <c r="F136">
-        <v>22636631</v>
+        <v>22636627</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5225,16 +5241,16 @@
         <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>423</v>
+        <v>218</v>
       </c>
       <c r="D137" t="s">
-        <v>424</v>
+        <v>219</v>
       </c>
       <c r="E137" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F137">
-        <v>22636637</v>
+        <v>22636636</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5245,56 +5261,56 @@
         <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>88</v>
+        <v>488</v>
       </c>
       <c r="D138" t="s">
-        <v>89</v>
+        <v>568</v>
       </c>
       <c r="E138" t="s">
-        <v>221</v>
+        <v>600</v>
       </c>
       <c r="F138">
-        <v>22636634</v>
+        <v>22636631</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>209</v>
+        <v>423</v>
       </c>
       <c r="D139" t="s">
-        <v>210</v>
+        <v>424</v>
       </c>
       <c r="E139" t="s">
-        <v>606</v>
+        <v>225</v>
       </c>
       <c r="F139">
-        <v>22636613</v>
+        <v>22636637</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B140" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C140" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="D140" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="E140" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F140">
-        <v>22636608</v>
+        <v>22636634</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,16 +5321,16 @@
         <v>199</v>
       </c>
       <c r="C141" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="D141" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="E141" t="s">
-        <v>215</v>
+        <v>606</v>
       </c>
       <c r="F141">
-        <v>22636617</v>
+        <v>22636613</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,16 +5341,16 @@
         <v>199</v>
       </c>
       <c r="C142" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D142" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E142" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F142">
-        <v>22636611</v>
+        <v>22636608</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,16 +5361,16 @@
         <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="D143" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="E143" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F143">
-        <v>22636619</v>
+        <v>22636617</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,16 +5381,16 @@
         <v>199</v>
       </c>
       <c r="C144" t="s">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="D144" t="s">
-        <v>430</v>
+        <v>201</v>
       </c>
       <c r="E144" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F144">
-        <v>22636615</v>
+        <v>22636611</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5385,56 +5401,56 @@
         <v>199</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D145" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E145" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F145">
-        <v>22636620</v>
+        <v>22636619</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B146" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C146" t="s">
-        <v>184</v>
+        <v>429</v>
       </c>
       <c r="D146" t="s">
-        <v>564</v>
+        <v>430</v>
       </c>
       <c r="E146" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F146">
-        <v>851008</v>
+        <v>22636615</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B147" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D147" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E147" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F147">
-        <v>851012</v>
+        <v>22636620</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,16 +5461,16 @@
         <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>422</v>
+        <v>184</v>
       </c>
       <c r="D148" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F148">
-        <v>851016</v>
+        <v>851008</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5465,16 +5481,16 @@
         <v>181</v>
       </c>
       <c r="C149" t="s">
-        <v>423</v>
+        <v>191</v>
       </c>
       <c r="D149" t="s">
-        <v>566</v>
+        <v>192</v>
       </c>
       <c r="E149" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F149">
-        <v>851019</v>
+        <v>851012</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5485,16 +5501,16 @@
         <v>181</v>
       </c>
       <c r="C150" t="s">
-        <v>579</v>
+        <v>422</v>
       </c>
       <c r="D150" t="s">
-        <v>196</v>
+        <v>565</v>
       </c>
       <c r="E150" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F150">
-        <v>851022</v>
+        <v>851016</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5505,16 +5521,16 @@
         <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D151" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="F151">
-        <v>851034</v>
+        <v>851019</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5525,16 +5541,16 @@
         <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>194</v>
+        <v>579</v>
       </c>
       <c r="D152" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E152" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="F152">
-        <v>851037</v>
+        <v>851022</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5545,16 +5561,16 @@
         <v>181</v>
       </c>
       <c r="C153" t="s">
-        <v>182</v>
+        <v>420</v>
       </c>
       <c r="D153" t="s">
-        <v>182</v>
+        <v>567</v>
       </c>
       <c r="E153" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="F153">
-        <v>851041</v>
+        <v>851034</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5565,96 +5581,96 @@
         <v>181</v>
       </c>
       <c r="C154" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D154" t="s">
-        <v>549</v>
+        <v>195</v>
       </c>
       <c r="E154" t="s">
-        <v>619</v>
+        <v>104</v>
       </c>
       <c r="F154">
-        <v>851044</v>
+        <v>851037</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B155" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C155" t="s">
-        <v>489</v>
+        <v>182</v>
       </c>
       <c r="D155" t="s">
-        <v>490</v>
+        <v>182</v>
       </c>
       <c r="E155" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F155">
-        <v>29715513</v>
+        <v>851041</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B156" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C156" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D156" t="s">
-        <v>154</v>
+        <v>549</v>
       </c>
       <c r="E156" t="s">
-        <v>20</v>
+        <v>619</v>
       </c>
       <c r="F156">
-        <v>29715515</v>
+        <v>851044</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C157" t="s">
-        <v>171</v>
+        <v>489</v>
       </c>
       <c r="D157" t="s">
-        <v>172</v>
+        <v>490</v>
       </c>
       <c r="E157" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F157">
-        <v>509005</v>
+        <v>29715513</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C158" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D158" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E158" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="F158">
-        <v>509011</v>
+        <v>29715515</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5665,16 +5681,16 @@
         <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E159" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F159">
-        <v>509019</v>
+        <v>509005</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5685,16 +5701,16 @@
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D160" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E160" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F160">
-        <v>509030</v>
+        <v>509011</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5705,16 +5721,16 @@
         <v>156</v>
       </c>
       <c r="C161" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D161" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F161">
-        <v>509034</v>
+        <v>509019</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5725,16 +5741,16 @@
         <v>156</v>
       </c>
       <c r="C162" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="D162" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F162">
-        <v>509040</v>
+        <v>509030</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5745,16 +5761,16 @@
         <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D163" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E163" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F163">
-        <v>509047</v>
+        <v>509034</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,56 +5781,56 @@
         <v>156</v>
       </c>
       <c r="C164" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="D164" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="E164" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F164">
-        <v>509053</v>
+        <v>509040</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B165" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C165" t="s">
-        <v>469</v>
+        <v>158</v>
       </c>
       <c r="D165" t="s">
-        <v>561</v>
+        <v>159</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="F165">
-        <v>27582770</v>
+        <v>509047</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C166" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D166" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E166" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="F166">
-        <v>27582772</v>
+        <v>509053</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,16 +5841,16 @@
         <v>150</v>
       </c>
       <c r="C167" t="s">
-        <v>106</v>
+        <v>469</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
+        <v>561</v>
       </c>
       <c r="E167" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="F167">
-        <v>27582774</v>
+        <v>27582770</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5845,16 +5861,16 @@
         <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>429</v>
+        <v>153</v>
       </c>
       <c r="D168" t="s">
-        <v>556</v>
+        <v>154</v>
       </c>
       <c r="E168" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F168">
-        <v>27582776</v>
+        <v>27582772</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5865,16 +5881,16 @@
         <v>150</v>
       </c>
       <c r="C169" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D169" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E169" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F169">
-        <v>27582778</v>
+        <v>27582774</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,16 +5901,16 @@
         <v>150</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
+        <v>429</v>
       </c>
       <c r="D170" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E170" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F170">
-        <v>27582780</v>
+        <v>27582776</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5905,16 +5921,16 @@
         <v>150</v>
       </c>
       <c r="C171" t="s">
-        <v>425</v>
+        <v>99</v>
       </c>
       <c r="D171" t="s">
-        <v>426</v>
+        <v>100</v>
       </c>
       <c r="E171" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F171">
-        <v>27582782</v>
+        <v>27582778</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5925,16 +5941,16 @@
         <v>150</v>
       </c>
       <c r="C172" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="D172" t="s">
-        <v>89</v>
+        <v>562</v>
       </c>
       <c r="E172" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F172">
-        <v>27582784</v>
+        <v>27582780</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,16 +5961,16 @@
         <v>150</v>
       </c>
       <c r="C173" t="s">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="D173" t="s">
-        <v>563</v>
+        <v>426</v>
       </c>
       <c r="E173" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F173">
-        <v>27582788</v>
+        <v>27582782</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,16 +5981,16 @@
         <v>150</v>
       </c>
       <c r="C174" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D174" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E174" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F174">
-        <v>27582792</v>
+        <v>27582784</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,56 +6001,56 @@
         <v>150</v>
       </c>
       <c r="C175" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D175" t="s">
-        <v>93</v>
+        <v>563</v>
       </c>
       <c r="E175" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F175">
-        <v>27582796</v>
+        <v>27582788</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B176" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C176" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="D176" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="E176" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="F176">
-        <v>28219110</v>
+        <v>27582792</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B177" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C177" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="D177" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E177" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="F177">
-        <v>28219112</v>
+        <v>27582796</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -6045,16 +6061,16 @@
         <v>131</v>
       </c>
       <c r="C178" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D178" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E178" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F178">
-        <v>28219114</v>
+        <v>28219110</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,16 +6081,16 @@
         <v>131</v>
       </c>
       <c r="C179" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D179" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E179" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F179">
-        <v>28219116</v>
+        <v>28219112</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6085,16 +6101,16 @@
         <v>131</v>
       </c>
       <c r="C180" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D180" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E180" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F180">
-        <v>28219118</v>
+        <v>28219114</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6105,16 +6121,16 @@
         <v>131</v>
       </c>
       <c r="C181" t="s">
-        <v>427</v>
+        <v>141</v>
       </c>
       <c r="D181" t="s">
-        <v>428</v>
+        <v>142</v>
       </c>
       <c r="E181" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F181">
-        <v>28219120</v>
+        <v>28219116</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6125,56 +6141,56 @@
         <v>131</v>
       </c>
       <c r="C182" t="s">
-        <v>491</v>
+        <v>135</v>
       </c>
       <c r="D182" t="s">
-        <v>492</v>
+        <v>136</v>
       </c>
       <c r="E182" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F182">
-        <v>28219122</v>
+        <v>28219118</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B183" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C183" t="s">
-        <v>102</v>
+        <v>427</v>
       </c>
       <c r="D183" t="s">
-        <v>103</v>
+        <v>428</v>
       </c>
       <c r="E183" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="F183">
-        <v>34002877</v>
+        <v>28219120</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B184" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C184" t="s">
-        <v>99</v>
+        <v>491</v>
       </c>
       <c r="D184" t="s">
-        <v>100</v>
+        <v>492</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="F184">
-        <v>34002880</v>
+        <v>28219122</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6185,16 +6201,16 @@
         <v>129</v>
       </c>
       <c r="C185" t="s">
-        <v>425</v>
+        <v>102</v>
       </c>
       <c r="D185" t="s">
-        <v>495</v>
+        <v>103</v>
       </c>
       <c r="E185" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F185">
-        <v>34002882</v>
+        <v>34002877</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6205,16 +6221,16 @@
         <v>129</v>
       </c>
       <c r="C186" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D186" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E186" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F186">
-        <v>34002885</v>
+        <v>34002880</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,16 +6241,16 @@
         <v>129</v>
       </c>
       <c r="C187" t="s">
-        <v>578</v>
+        <v>425</v>
       </c>
       <c r="D187" t="s">
-        <v>97</v>
+        <v>495</v>
       </c>
       <c r="E187" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F187">
-        <v>34002886</v>
+        <v>34002882</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6245,16 +6261,16 @@
         <v>129</v>
       </c>
       <c r="C188" t="s">
-        <v>427</v>
+        <v>92</v>
       </c>
       <c r="D188" t="s">
-        <v>557</v>
+        <v>93</v>
       </c>
       <c r="E188" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F188">
-        <v>34002887</v>
+        <v>34002885</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,16 +6281,16 @@
         <v>129</v>
       </c>
       <c r="C189" t="s">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="D189" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E189" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F189">
-        <v>34002871</v>
+        <v>34002886</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6285,56 +6301,56 @@
         <v>129</v>
       </c>
       <c r="C190" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D190" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E190" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F190">
-        <v>34002873</v>
+        <v>34002887</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B191" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C191" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="D191" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="E191" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="F191">
-        <v>33991784</v>
+        <v>34002871</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B192" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C192" t="s">
-        <v>119</v>
+        <v>431</v>
       </c>
       <c r="D192" t="s">
-        <v>120</v>
+        <v>558</v>
       </c>
       <c r="E192" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="F192">
-        <v>33991807</v>
+        <v>34002873</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6345,16 +6361,16 @@
         <v>110</v>
       </c>
       <c r="C193" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D193" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="E193" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F193">
-        <v>33991810</v>
+        <v>33991784</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6365,16 +6381,16 @@
         <v>110</v>
       </c>
       <c r="C194" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D194" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E194" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F194">
-        <v>33991812</v>
+        <v>33991807</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -6385,16 +6401,16 @@
         <v>110</v>
       </c>
       <c r="C195" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D195" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E195" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F195">
-        <v>34003789</v>
+        <v>33991810</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6405,16 +6421,16 @@
         <v>110</v>
       </c>
       <c r="C196" t="s">
-        <v>493</v>
+        <v>125</v>
       </c>
       <c r="D196" t="s">
-        <v>494</v>
+        <v>126</v>
       </c>
       <c r="E196" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F196">
-        <v>34003791</v>
+        <v>33991812</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6425,96 +6441,96 @@
         <v>110</v>
       </c>
       <c r="C197" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D197" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E197" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F197">
-        <v>34003794</v>
+        <v>34003789</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B198" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C198" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="D198" t="s">
-        <v>559</v>
+        <v>494</v>
       </c>
       <c r="E198" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F198">
-        <v>561307021</v>
+        <v>34003791</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B199" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C199" t="s">
-        <v>435</v>
+        <v>113</v>
       </c>
       <c r="D199" t="s">
-        <v>560</v>
+        <v>114</v>
       </c>
       <c r="E199" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F199">
-        <v>561307037</v>
+        <v>34003794</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B200" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C200" t="s">
-        <v>57</v>
+        <v>432</v>
       </c>
       <c r="D200" t="s">
-        <v>58</v>
+        <v>559</v>
       </c>
       <c r="E200" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F200">
-        <v>477215246</v>
+        <v>561307021</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B201" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C201" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="D201" t="s">
-        <v>61</v>
+        <v>560</v>
       </c>
       <c r="E201" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F201">
-        <v>477215248</v>
+        <v>561307037</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6525,16 +6541,16 @@
         <v>56</v>
       </c>
       <c r="C202" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D202" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E202" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F202">
-        <v>477215250</v>
+        <v>477215246</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6545,16 +6561,16 @@
         <v>56</v>
       </c>
       <c r="C203" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D203" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E203" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F203">
-        <v>497463990</v>
+        <v>477215248</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6565,16 +6581,16 @@
         <v>56</v>
       </c>
       <c r="C204" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D204" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E204" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F204">
-        <v>497463992</v>
+        <v>477215250</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6585,16 +6601,16 @@
         <v>56</v>
       </c>
       <c r="C205" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D205" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E205" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F205">
-        <v>497463994</v>
+        <v>497463990</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6605,56 +6621,56 @@
         <v>56</v>
       </c>
       <c r="C206" t="s">
-        <v>496</v>
+        <v>63</v>
       </c>
       <c r="D206" t="s">
-        <v>555</v>
+        <v>64</v>
       </c>
       <c r="E206" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F206">
-        <v>497463996</v>
+        <v>497463992</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B207" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C207" t="s">
-        <v>656</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>657</v>
+        <v>69</v>
+      </c>
+      <c r="D207" t="s">
+        <v>70</v>
       </c>
       <c r="E207" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F207">
-        <v>1300452648</v>
+        <v>497463994</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B208" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C208" t="s">
-        <v>48</v>
+        <v>496</v>
       </c>
       <c r="D208" t="s">
-        <v>49</v>
+        <v>555</v>
       </c>
       <c r="E208" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F208">
-        <v>1300423634</v>
+        <v>497463996</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6665,16 +6681,16 @@
         <v>47</v>
       </c>
       <c r="C209" t="s">
-        <v>51</v>
-      </c>
-      <c r="D209" t="s">
-        <v>52</v>
+        <v>656</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="E209" t="s">
         <v>50</v>
       </c>
       <c r="F209">
-        <v>1300452649</v>
+        <v>1300452648</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6685,56 +6701,56 @@
         <v>47</v>
       </c>
       <c r="C210" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D210" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E210" t="s">
         <v>50</v>
       </c>
       <c r="F210">
-        <v>1300595620</v>
+        <v>1300423634</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D211" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F211">
-        <v>1381562764</v>
+        <v>1300452649</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D212" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E212" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F212">
-        <v>1381564337</v>
+        <v>1300595620</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6745,16 +6761,16 @@
         <v>30</v>
       </c>
       <c r="C213" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D213" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F213">
-        <v>1381562765</v>
+        <v>1381562764</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6765,16 +6781,16 @@
         <v>30</v>
       </c>
       <c r="C214" t="s">
-        <v>497</v>
+        <v>33</v>
       </c>
       <c r="D214" t="s">
-        <v>498</v>
+        <v>34</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F214">
-        <v>1384324154</v>
+        <v>1381564337</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6785,16 +6801,16 @@
         <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D215" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E215" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F215">
-        <v>1384324156</v>
+        <v>1381562765</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6805,16 +6821,16 @@
         <v>30</v>
       </c>
       <c r="C216" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D216" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E216" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F216">
-        <v>1384318412</v>
+        <v>1384324154</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6825,56 +6841,56 @@
         <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>501</v>
+        <v>42</v>
       </c>
       <c r="D217" t="s">
-        <v>502</v>
+        <v>43</v>
       </c>
       <c r="E217" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F217">
-        <v>1384324244</v>
+        <v>1384324156</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>519</v>
+        <v>29</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>499</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E218" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F218">
-        <v>30854133</v>
+        <v>1384318412</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>519</v>
+        <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
+        <v>501</v>
       </c>
       <c r="D219" t="s">
-        <v>18</v>
+        <v>502</v>
       </c>
       <c r="E219" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F219">
-        <v>30854134</v>
+        <v>1384324244</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6885,16 +6901,16 @@
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E220" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F220">
-        <v>30854137</v>
+        <v>30854133</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6905,16 +6921,16 @@
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>503</v>
+        <v>17</v>
       </c>
       <c r="D221" t="s">
-        <v>504</v>
+        <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F221">
-        <v>30854138</v>
+        <v>30854134</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6925,16 +6941,16 @@
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F222">
-        <v>30854142</v>
+        <v>30854137</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6945,16 +6961,16 @@
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D223" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E223" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F223">
-        <v>30854146</v>
+        <v>30854138</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6965,16 +6981,16 @@
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>420</v>
+        <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>421</v>
+        <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F224">
-        <v>30854151</v>
+        <v>30854142</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6982,19 +6998,19 @@
         <v>519</v>
       </c>
       <c r="B225" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D225" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E225" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F225">
-        <v>30854182</v>
+        <v>30854146</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -7002,19 +7018,19 @@
         <v>519</v>
       </c>
       <c r="B226" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>24</v>
+        <v>420</v>
       </c>
       <c r="D226" t="s">
-        <v>24</v>
+        <v>421</v>
       </c>
       <c r="E226" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F226">
-        <v>30854183</v>
+        <v>30854151</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -7025,16 +7041,16 @@
         <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D227" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E227" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F227">
-        <v>30854184</v>
+        <v>30854182</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -7045,16 +7061,16 @@
         <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>511</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>511</v>
+        <v>24</v>
       </c>
       <c r="E228" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F228">
-        <v>30854185</v>
+        <v>30854183</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -7065,16 +7081,16 @@
         <v>21</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>509</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>510</v>
       </c>
       <c r="E229" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F229">
-        <v>30854188</v>
+        <v>30854184</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -7085,16 +7101,16 @@
         <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="D230" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="E230" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F230">
-        <v>30854186</v>
+        <v>30854185</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -7105,16 +7121,16 @@
         <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>512</v>
+        <v>25</v>
       </c>
       <c r="D231" t="s">
-        <v>513</v>
+        <v>26</v>
       </c>
       <c r="E231" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F231">
-        <v>30854187</v>
+        <v>30854188</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7125,16 +7141,16 @@
         <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="D232" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="E232" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F232">
-        <v>30854189</v>
+        <v>30854186</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7145,56 +7161,56 @@
         <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D233" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E233" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F233">
-        <v>30854190</v>
+        <v>30854187</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
       <c r="B234" t="s">
-        <v>588</v>
+        <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>642</v>
+        <v>514</v>
       </c>
       <c r="D234" t="s">
-        <v>641</v>
+        <v>515</v>
       </c>
       <c r="E234" t="s">
-        <v>594</v>
+        <v>28</v>
       </c>
       <c r="F234">
-        <v>29715584</v>
+        <v>30854189</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
       <c r="B235" t="s">
-        <v>588</v>
+        <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>595</v>
+        <v>516</v>
       </c>
       <c r="D235" t="s">
-        <v>589</v>
+        <v>517</v>
       </c>
       <c r="E235" t="s">
-        <v>594</v>
-      </c>
-      <c r="F235" s="1">
-        <v>29715585</v>
+        <v>27</v>
+      </c>
+      <c r="F235">
+        <v>30854190</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -7205,56 +7221,56 @@
         <v>588</v>
       </c>
       <c r="C236" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="D236" t="s">
-        <v>590</v>
+        <v>641</v>
       </c>
       <c r="E236" t="s">
         <v>594</v>
       </c>
-      <c r="F236" s="1">
-        <v>29715586</v>
+      <c r="F236">
+        <v>29715584</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
       <c r="B237" t="s">
         <v>588</v>
       </c>
       <c r="C237" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D237" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E237" t="s">
         <v>594</v>
       </c>
-      <c r="F237">
-        <v>29715587</v>
+      <c r="F237" s="1">
+        <v>29715585</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
       <c r="B238" t="s">
         <v>588</v>
       </c>
       <c r="C238" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D238" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E238" t="s">
         <v>594</v>
       </c>
-      <c r="F238">
-        <v>29715588</v>
+      <c r="F238" s="1">
+        <v>29715586</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -7265,76 +7281,76 @@
         <v>588</v>
       </c>
       <c r="C239" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="D239" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E239" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F239">
-        <v>29715589</v>
+        <v>29715587</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>601</v>
+        <v>640</v>
       </c>
       <c r="B240" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="C240" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D240" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="E240" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F240">
-        <v>29710956</v>
+        <v>29715588</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="B241" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="C241" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="D241" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="E241" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="F241">
-        <v>468513480</v>
+        <v>29715589</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B242" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="C242" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D242" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E242" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="F242">
-        <v>29710940</v>
+        <v>29710956</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -7342,19 +7358,19 @@
         <v>608</v>
       </c>
       <c r="B243" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="C243" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D243" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E243" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="F243">
-        <v>29710941</v>
+        <v>468513480</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7365,76 +7381,76 @@
         <v>624</v>
       </c>
       <c r="C244" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D244" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E244" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F244">
-        <v>29710942</v>
+        <v>29710940</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="B245" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C245" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="D245" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="E245" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F245">
-        <v>29710959</v>
+        <v>29710941</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="B246" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C246" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="D246" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="E246" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F246">
-        <v>22765949</v>
+        <v>29710942</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B247" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C247" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D247" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="E247" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F247">
-        <v>22766029</v>
+        <v>29710959</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -7442,19 +7458,19 @@
         <v>631</v>
       </c>
       <c r="B248" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C248" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="D248" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="E248" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="F248">
-        <v>22766028</v>
+        <v>22765949</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -7465,56 +7481,56 @@
         <v>636</v>
       </c>
       <c r="C249" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="D249" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E249" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="F249">
-        <v>22766019</v>
+        <v>22766029</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B250" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C250" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="D250" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="E250" t="s">
-        <v>655</v>
-      </c>
-      <c r="F250" s="1">
-        <v>28941725</v>
+        <v>663</v>
+      </c>
+      <c r="F250">
+        <v>22766028</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B251" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C251" t="s">
-        <v>647</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>648</v>
+        <v>662</v>
+      </c>
+      <c r="D251" t="s">
+        <v>661</v>
       </c>
       <c r="E251" t="s">
-        <v>655</v>
-      </c>
-      <c r="F251" s="1">
-        <v>28941726</v>
+        <v>663</v>
+      </c>
+      <c r="F251">
+        <v>22766019</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7525,16 +7541,16 @@
         <v>644</v>
       </c>
       <c r="C252" t="s">
-        <v>649</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
+      </c>
+      <c r="D252" t="s">
+        <v>646</v>
       </c>
       <c r="E252" t="s">
         <v>655</v>
       </c>
       <c r="F252" s="1">
-        <v>28941727</v>
+        <v>28941725</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -7545,16 +7561,16 @@
         <v>644</v>
       </c>
       <c r="C253" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E253" t="s">
         <v>655</v>
       </c>
       <c r="F253" s="1">
-        <v>28941728</v>
+        <v>28941726</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -7565,15 +7581,55 @@
         <v>644</v>
       </c>
       <c r="C254" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E254" t="s">
         <v>655</v>
       </c>
       <c r="F254" s="1">
+        <v>28941727</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>643</v>
+      </c>
+      <c r="B255" t="s">
+        <v>644</v>
+      </c>
+      <c r="C255" t="s">
+        <v>651</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E255" t="s">
+        <v>655</v>
+      </c>
+      <c r="F255" s="1">
+        <v>28941728</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>643</v>
+      </c>
+      <c r="B256" t="s">
+        <v>644</v>
+      </c>
+      <c r="C256" t="s">
+        <v>653</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E256" t="s">
+        <v>655</v>
+      </c>
+      <c r="F256" s="1">
         <v>28941729</v>
       </c>
     </row>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440469D9-D182-4028-8D3B-38F3CBD3B7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2EE3DA-0493-4922-B6E6-3D3BD2B23C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <t>クレイジーバックダンサーズ</t>
   </si>
   <si>
-    <t>丁礼田舞&amp;尔子田里乃</t>
-  </si>
-  <si>
     <t>一对的神兽</t>
   </si>
   <si>
@@ -372,9 +369,6 @@
     <t>時代親父とハイカラ少女</t>
   </si>
   <si>
-    <t>云居一轮&amp;云山</t>
-  </si>
-  <si>
     <t>TH15</t>
   </si>
   <si>
@@ -475,9 +469,6 @@
   </si>
   <si>
     <t>幻想浄瑠璃</t>
-  </si>
-  <si>
-    <t>九十九弁弁＆九十九八桥</t>
   </si>
   <si>
     <t>堀川雷鼓</t>
@@ -2164,6 +2155,18 @@
   </si>
   <si>
     <t>明日之盛，昨日之俗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云居一轮&amp;云山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九十九弁弁&amp;九十九八桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁礼田舞&amp;尔子田里乃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2500,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="E247" sqref="E247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2530,24 +2533,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" t="s">
         <v>391</v>
       </c>
-      <c r="B2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" t="s">
-        <v>394</v>
-      </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F2">
         <v>22636836</v>
@@ -2555,19 +2558,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F3">
         <v>22636829</v>
@@ -2575,19 +2578,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F4">
         <v>22636835</v>
@@ -2595,19 +2598,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F5">
         <v>22636837</v>
@@ -2615,19 +2618,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" t="s">
         <v>392</v>
       </c>
-      <c r="C6" t="s">
-        <v>395</v>
-      </c>
       <c r="D6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F6">
         <v>500684336</v>
@@ -2635,19 +2638,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" t="s">
         <v>381</v>
-      </c>
-      <c r="B7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E7" t="s">
-        <v>384</v>
       </c>
       <c r="F7">
         <v>34999157</v>
@@ -2655,19 +2658,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F8">
         <v>34999158</v>
@@ -2675,19 +2678,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <v>34999160</v>
@@ -2695,19 +2698,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F10">
         <v>34999161</v>
@@ -2715,19 +2718,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" t="s">
         <v>381</v>
-      </c>
-      <c r="B11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E11" t="s">
-        <v>384</v>
       </c>
       <c r="F11">
         <v>34999163</v>
@@ -2735,19 +2738,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F12">
         <v>22636805</v>
@@ -2755,19 +2758,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F13">
         <v>22636807</v>
@@ -2775,16 +2778,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2795,19 +2798,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" t="s">
         <v>367</v>
-      </c>
-      <c r="B15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" t="s">
-        <v>437</v>
-      </c>
-      <c r="D15" t="s">
-        <v>518</v>
-      </c>
-      <c r="E15" t="s">
-        <v>370</v>
       </c>
       <c r="F15">
         <v>22636816</v>
@@ -2815,19 +2818,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F16">
         <v>22636808</v>
@@ -2835,19 +2838,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -2855,19 +2858,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C18" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F18">
         <v>22636806</v>
@@ -2875,19 +2878,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D19" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F19">
         <v>22636820</v>
@@ -2895,19 +2898,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" t="s">
         <v>368</v>
       </c>
-      <c r="C20" t="s">
-        <v>371</v>
-      </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F20">
         <v>22636811</v>
@@ -2915,19 +2918,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D21" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F21">
         <v>22636814</v>
@@ -2935,19 +2938,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" t="s">
+        <v>518</v>
+      </c>
+      <c r="D22" t="s">
+        <v>531</v>
+      </c>
+      <c r="E22" t="s">
         <v>359</v>
-      </c>
-      <c r="B22" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" t="s">
-        <v>521</v>
-      </c>
-      <c r="D22" t="s">
-        <v>534</v>
-      </c>
-      <c r="E22" t="s">
-        <v>362</v>
       </c>
       <c r="F22">
         <v>22636738</v>
@@ -2955,19 +2958,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" t="s">
+        <v>532</v>
+      </c>
+      <c r="E23" t="s">
         <v>360</v>
-      </c>
-      <c r="C23" t="s">
-        <v>522</v>
-      </c>
-      <c r="D23" t="s">
-        <v>535</v>
-      </c>
-      <c r="E23" t="s">
-        <v>363</v>
       </c>
       <c r="F23">
         <v>22636747</v>
@@ -2975,19 +2978,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C24" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F24">
         <v>22636741</v>
@@ -2995,16 +2998,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D25" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -3015,19 +3018,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C26" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D26" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F26">
         <v>22636742</v>
@@ -3035,16 +3038,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D27" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -3055,16 +3058,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D28" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -3075,19 +3078,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C29" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D29" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F29">
         <v>22636744</v>
@@ -3095,19 +3098,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C30" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F30">
         <v>22636758</v>
@@ -3115,19 +3118,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F31">
         <v>22636764</v>
@@ -3135,19 +3138,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F32">
         <v>22636763</v>
@@ -3155,19 +3158,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" t="s">
         <v>346</v>
       </c>
-      <c r="B33" t="s">
-        <v>347</v>
-      </c>
-      <c r="C33" t="s">
-        <v>348</v>
-      </c>
-      <c r="D33" t="s">
-        <v>349</v>
-      </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F33">
         <v>22636767</v>
@@ -3175,19 +3178,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D34" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E34" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F34">
         <v>22636765</v>
@@ -3195,19 +3198,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C35" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D35" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E35" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F35">
         <v>22636779</v>
@@ -3215,19 +3218,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D36" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F36">
         <v>22636770</v>
@@ -3235,19 +3238,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C37" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D37" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F37">
         <v>22636768</v>
@@ -3255,19 +3258,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C38" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D38" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F38">
         <v>22636774</v>
@@ -3275,19 +3278,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" t="s">
         <v>347</v>
       </c>
-      <c r="C39" t="s">
-        <v>350</v>
-      </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F39">
         <v>22636777</v>
@@ -3295,19 +3298,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F40">
         <v>22636772</v>
@@ -3315,19 +3318,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E41" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F41">
         <v>22636719</v>
@@ -3335,19 +3338,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" t="s">
         <v>332</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>333</v>
-      </c>
-      <c r="C42" t="s">
-        <v>334</v>
-      </c>
-      <c r="D42" t="s">
-        <v>335</v>
-      </c>
-      <c r="E42" t="s">
-        <v>336</v>
       </c>
       <c r="F42">
         <v>22636721</v>
@@ -3355,19 +3358,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F43">
         <v>22636718</v>
@@ -3375,19 +3378,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F44">
         <v>22636730</v>
@@ -3395,19 +3398,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F45">
         <v>22636722</v>
@@ -3415,19 +3418,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F46">
         <v>22636724</v>
@@ -3435,19 +3438,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C47" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D47" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E47" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F47">
         <v>22636720</v>
@@ -3455,19 +3458,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C48" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D48" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F48">
         <v>22636732</v>
@@ -3475,19 +3478,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C49" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D49" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F49">
         <v>22636725</v>
@@ -3495,19 +3498,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F50">
         <v>22636723</v>
@@ -3515,19 +3518,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C51" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D51" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E51" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F51">
         <v>22636729</v>
@@ -3535,19 +3538,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C52" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E52" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F52">
         <v>22636707</v>
@@ -3555,19 +3558,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C53" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D53" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F53">
         <v>22636702</v>
@@ -3575,19 +3578,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D54" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F54">
         <v>22636698</v>
@@ -3595,19 +3598,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C55" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D55" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F55">
         <v>22636711</v>
@@ -3615,19 +3618,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C56" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D56" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E56" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F56">
         <v>22636703</v>
@@ -3635,19 +3638,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B57" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D57" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F57">
         <v>22636705</v>
@@ -3655,19 +3658,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C58" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D58" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E58" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F58">
         <v>22636701</v>
@@ -3675,19 +3678,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C59" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D59" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F59">
         <v>22636714</v>
@@ -3695,19 +3698,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B60" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C60" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D60" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F60">
         <v>22636709</v>
@@ -3715,19 +3718,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C61" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D61" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F61">
         <v>22636704</v>
@@ -3735,19 +3738,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C62" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D62" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E62" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F62">
         <v>22636710</v>
@@ -3755,19 +3758,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" t="s">
         <v>316</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>317</v>
       </c>
-      <c r="C63" t="s">
-        <v>319</v>
-      </c>
-      <c r="D63" t="s">
-        <v>320</v>
-      </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F63">
         <v>22636708</v>
@@ -3775,19 +3778,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B64" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F64">
         <v>22765972</v>
@@ -3795,19 +3798,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D65" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E65" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F65">
         <v>22765996</v>
@@ -3815,16 +3818,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E66" t="s">
         <v>20</v>
@@ -3835,16 +3838,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B67" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D67" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E67" t="s">
         <v>20</v>
@@ -3855,19 +3858,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C68" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D68" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F68">
         <v>22765976</v>
@@ -3875,19 +3878,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B69" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D69" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F69">
         <v>22766000</v>
@@ -3895,19 +3898,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D70" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E70" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F70">
         <v>22765967</v>
@@ -3915,19 +3918,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" t="s">
+        <v>305</v>
+      </c>
+      <c r="D71" t="s">
         <v>306</v>
       </c>
-      <c r="B71" t="s">
-        <v>307</v>
-      </c>
-      <c r="C71" t="s">
-        <v>308</v>
-      </c>
-      <c r="D71" t="s">
-        <v>309</v>
-      </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F71">
         <v>22765990</v>
@@ -3935,19 +3938,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B72" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C72" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D72" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E72" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F72">
         <v>22765980</v>
@@ -3955,19 +3958,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E73" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F73">
         <v>22766003</v>
@@ -3975,19 +3978,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C74" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D74" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F74">
         <v>22765970</v>
@@ -3995,19 +3998,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C75" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D75" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E75" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F75">
         <v>22765994</v>
@@ -4015,19 +4018,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B76" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" t="s">
+        <v>548</v>
+      </c>
+      <c r="E76" t="s">
         <v>307</v>
-      </c>
-      <c r="C76" t="s">
-        <v>244</v>
-      </c>
-      <c r="D76" t="s">
-        <v>551</v>
-      </c>
-      <c r="E76" t="s">
-        <v>310</v>
       </c>
       <c r="F76">
         <v>22765966</v>
@@ -4035,19 +4038,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C77" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D77" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F77">
         <v>22765984</v>
@@ -4055,19 +4058,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C78" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D78" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F78">
         <v>22765997</v>
@@ -4075,19 +4078,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B79" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C79" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D79" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E79" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F79">
         <v>22766006</v>
@@ -4095,19 +4098,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>455</v>
+      </c>
+      <c r="D80" t="s">
+        <v>456</v>
+      </c>
+      <c r="E80" t="s">
         <v>291</v>
-      </c>
-      <c r="B80" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" t="s">
-        <v>458</v>
-      </c>
-      <c r="D80" t="s">
-        <v>459</v>
-      </c>
-      <c r="E80" t="s">
-        <v>294</v>
       </c>
       <c r="F80">
         <v>22636686</v>
@@ -4115,19 +4118,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" t="s">
         <v>292</v>
       </c>
-      <c r="C81" t="s">
-        <v>295</v>
-      </c>
       <c r="D81" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F81">
         <v>22636681</v>
@@ -4135,19 +4138,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D82" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E82" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F82">
         <v>22636690</v>
@@ -4155,19 +4158,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C83" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D83" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F83">
         <v>22636684</v>
@@ -4175,16 +4178,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" t="s">
         <v>102</v>
-      </c>
-      <c r="D84" t="s">
-        <v>103</v>
       </c>
       <c r="E84" t="s">
         <v>20</v>
@@ -4195,19 +4198,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C85" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D85" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E85" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F85">
         <v>22636693</v>
@@ -4215,19 +4218,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C86" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D86" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F86">
         <v>22636685</v>
@@ -4235,19 +4238,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C87" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D87" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F87">
         <v>22636683</v>
@@ -4255,19 +4258,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C88" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D88" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E88" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F88">
         <v>22636695</v>
@@ -4275,19 +4278,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C89" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F89">
         <v>22636689</v>
@@ -4295,19 +4298,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C90" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E90" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F90">
         <v>22636687</v>
@@ -4315,19 +4318,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D91" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E91" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F91">
         <v>510172</v>
@@ -4335,16 +4338,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E92" t="s">
         <v>20</v>
@@ -4355,19 +4358,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F93">
         <v>510177</v>
@@ -4375,19 +4378,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C94" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D94" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E94" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F94">
         <v>510179</v>
@@ -4395,19 +4398,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D95" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E95" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F95">
         <v>510182</v>
@@ -4415,19 +4418,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C96" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F96">
         <v>510185</v>
@@ -4435,19 +4438,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B97" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" t="s">
+        <v>452</v>
+      </c>
+      <c r="D97" t="s">
+        <v>453</v>
+      </c>
+      <c r="E97" t="s">
         <v>277</v>
-      </c>
-      <c r="C97" t="s">
-        <v>455</v>
-      </c>
-      <c r="D97" t="s">
-        <v>456</v>
-      </c>
-      <c r="E97" t="s">
-        <v>280</v>
       </c>
       <c r="F97">
         <v>510188</v>
@@ -4455,19 +4458,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C98" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D98" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E98" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F98">
         <v>510192</v>
@@ -4475,19 +4478,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D99" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E99" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F99">
         <v>510196</v>
@@ -4495,19 +4498,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C100" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D100" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E100" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F100">
         <v>510200</v>
@@ -4515,19 +4518,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>273</v>
+      </c>
+      <c r="B101" t="s">
+        <v>274</v>
+      </c>
+      <c r="C101" t="s">
+        <v>469</v>
+      </c>
+      <c r="D101" t="s">
+        <v>470</v>
+      </c>
+      <c r="E101" t="s">
         <v>276</v>
-      </c>
-      <c r="B101" t="s">
-        <v>277</v>
-      </c>
-      <c r="C101" t="s">
-        <v>472</v>
-      </c>
-      <c r="D101" t="s">
-        <v>473</v>
-      </c>
-      <c r="E101" t="s">
-        <v>279</v>
       </c>
       <c r="F101">
         <v>510204</v>
@@ -4535,19 +4538,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C102" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D102" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F102">
         <v>510208</v>
@@ -4555,19 +4558,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B103" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C103" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D103" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E103" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F103">
         <v>510216</v>
@@ -4575,19 +4578,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B104" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C104" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D104" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E104" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F104">
         <v>510212</v>
@@ -4595,19 +4598,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D105" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E105" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F105">
         <v>29710947</v>
@@ -4615,19 +4618,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C106" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E106" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F106">
         <v>29710948</v>
@@ -4635,19 +4638,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" t="s">
         <v>270</v>
       </c>
-      <c r="B107" t="s">
-        <v>271</v>
-      </c>
-      <c r="C107" t="s">
-        <v>272</v>
-      </c>
-      <c r="D107" t="s">
-        <v>273</v>
-      </c>
       <c r="E107" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F107">
         <v>29710949</v>
@@ -4655,19 +4658,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B108" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" t="s">
         <v>271</v>
       </c>
-      <c r="C108" t="s">
-        <v>274</v>
-      </c>
       <c r="D108" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E108" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F108">
         <v>29710950</v>
@@ -4675,19 +4678,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B109" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C109" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E109" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F109">
         <v>29710952</v>
@@ -4695,19 +4698,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D110" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E110" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F110">
         <v>22636639</v>
@@ -4715,19 +4718,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D111" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E111" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F111">
         <v>22636649</v>
@@ -4735,19 +4738,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D112" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E112" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F112">
         <v>22636644</v>
@@ -4755,19 +4758,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B113" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" t="s">
+        <v>422</v>
+      </c>
+      <c r="D113" t="s">
+        <v>423</v>
+      </c>
+      <c r="E113" t="s">
         <v>255</v>
-      </c>
-      <c r="C113" t="s">
-        <v>425</v>
-      </c>
-      <c r="D113" t="s">
-        <v>426</v>
-      </c>
-      <c r="E113" t="s">
-        <v>258</v>
       </c>
       <c r="F113">
         <v>22636653</v>
@@ -4775,19 +4778,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D114" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E114" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F114">
         <v>22636645</v>
@@ -4795,19 +4798,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D115" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E115" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F115">
         <v>22636647</v>
@@ -4815,19 +4818,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116" t="s">
+        <v>182</v>
+      </c>
+      <c r="E116" t="s">
         <v>254</v>
-      </c>
-      <c r="B116" t="s">
-        <v>255</v>
-      </c>
-      <c r="C116" t="s">
-        <v>184</v>
-      </c>
-      <c r="D116" t="s">
-        <v>185</v>
-      </c>
-      <c r="E116" t="s">
-        <v>257</v>
       </c>
       <c r="F116">
         <v>22636655</v>
@@ -4835,19 +4838,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C117" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D117" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E117" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F117">
         <v>22636651</v>
@@ -4855,19 +4858,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D118" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E118" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F118">
         <v>22636646</v>
@@ -4875,19 +4878,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C119" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D119" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F119">
         <v>22636656</v>
@@ -4895,19 +4898,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C120" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D120" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E120" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F120">
         <v>22765926</v>
@@ -4915,19 +4918,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C121" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D121" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F121">
         <v>22765920</v>
@@ -4935,19 +4938,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F122">
         <v>22765905</v>
@@ -4955,16 +4958,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C123" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D123" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E123" t="s">
         <v>20</v>
@@ -4975,19 +4978,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D124" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E124" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F124">
         <v>22765910</v>
@@ -4995,19 +4998,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" t="s">
         <v>235</v>
       </c>
-      <c r="B125" t="s">
+      <c r="E125" t="s">
         <v>236</v>
-      </c>
-      <c r="C125" t="s">
-        <v>237</v>
-      </c>
-      <c r="D125" t="s">
-        <v>238</v>
-      </c>
-      <c r="E125" t="s">
-        <v>239</v>
       </c>
       <c r="F125">
         <v>22765909</v>
@@ -5015,19 +5018,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C126" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D126" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F126">
         <v>22765906</v>
@@ -5035,19 +5038,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C127" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D127" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E127" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F127">
         <v>22765921</v>
@@ -5055,19 +5058,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C128" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D128" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E128" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F128">
         <v>22765913</v>
@@ -5075,19 +5078,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C129" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E129" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F129">
         <v>22765912</v>
@@ -5095,19 +5098,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C130" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D130" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E130" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F130">
         <v>22765916</v>
@@ -5115,19 +5118,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C131" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D131" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131">
         <v>22765915</v>
@@ -5135,19 +5138,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D132" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E132" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F132">
         <v>22765911</v>
@@ -5155,19 +5158,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D133" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E133" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F133">
         <v>22636622</v>
@@ -5175,19 +5178,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D134" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E134" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F134">
         <v>22636624</v>
@@ -5195,19 +5198,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D135" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E135" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F135">
         <v>22636633</v>
@@ -5215,19 +5218,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D136" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E136" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F136">
         <v>22636627</v>
@@ -5235,19 +5238,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>213</v>
+      </c>
+      <c r="B137" t="s">
+        <v>214</v>
+      </c>
+      <c r="C137" t="s">
+        <v>215</v>
+      </c>
+      <c r="D137" t="s">
         <v>216</v>
       </c>
-      <c r="B137" t="s">
+      <c r="E137" t="s">
         <v>217</v>
-      </c>
-      <c r="C137" t="s">
-        <v>218</v>
-      </c>
-      <c r="D137" t="s">
-        <v>219</v>
-      </c>
-      <c r="E137" t="s">
-        <v>220</v>
       </c>
       <c r="F137">
         <v>22636636</v>
@@ -5255,19 +5258,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D138" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E138" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F138">
         <v>22636631</v>
@@ -5275,19 +5278,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D139" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E139" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F139">
         <v>22636637</v>
@@ -5295,19 +5298,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s">
+        <v>87</v>
+      </c>
+      <c r="D140" t="s">
         <v>88</v>
       </c>
-      <c r="D140" t="s">
-        <v>89</v>
-      </c>
       <c r="E140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F140">
         <v>22636634</v>
@@ -5315,19 +5318,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D141" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E141" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F141">
         <v>22636613</v>
@@ -5335,19 +5338,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B142" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C142" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D142" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E142" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F142">
         <v>22636608</v>
@@ -5355,19 +5358,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C143" t="s">
+        <v>105</v>
+      </c>
+      <c r="D143" t="s">
         <v>106</v>
       </c>
-      <c r="D143" t="s">
-        <v>107</v>
-      </c>
       <c r="E143" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F143">
         <v>22636617</v>
@@ -5375,19 +5378,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>195</v>
+      </c>
+      <c r="B144" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" t="s">
+        <v>197</v>
+      </c>
+      <c r="D144" t="s">
         <v>198</v>
       </c>
-      <c r="B144" t="s">
+      <c r="E144" t="s">
         <v>199</v>
-      </c>
-      <c r="C144" t="s">
-        <v>200</v>
-      </c>
-      <c r="D144" t="s">
-        <v>201</v>
-      </c>
-      <c r="E144" t="s">
-        <v>202</v>
       </c>
       <c r="F144">
         <v>22636611</v>
@@ -5395,19 +5398,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C145" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D145" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E145" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F145">
         <v>22636619</v>
@@ -5415,19 +5418,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C146" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D146" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E146" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F146">
         <v>22636615</v>
@@ -5435,19 +5438,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B147" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C147" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D147" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E147" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F147">
         <v>22636620</v>
@@ -5455,19 +5458,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B148" t="s">
+        <v>178</v>
+      </c>
+      <c r="C148" t="s">
         <v>181</v>
       </c>
-      <c r="C148" t="s">
-        <v>184</v>
-      </c>
       <c r="D148" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E148" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F148">
         <v>851008</v>
@@ -5475,19 +5478,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C149" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D149" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E149" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F149">
         <v>851012</v>
@@ -5495,19 +5498,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C150" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D150" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E150" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F150">
         <v>851016</v>
@@ -5515,19 +5518,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B151" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C151" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D151" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E151" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F151">
         <v>851019</v>
@@ -5535,19 +5538,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C152" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D152" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E152" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F152">
         <v>851022</v>
@@ -5555,16 +5558,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B153" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C153" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D153" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
@@ -5575,19 +5578,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D154" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E154" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F154">
         <v>851037</v>
@@ -5595,19 +5598,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155" t="s">
+        <v>179</v>
+      </c>
+      <c r="D155" t="s">
+        <v>179</v>
+      </c>
+      <c r="E155" t="s">
         <v>180</v>
-      </c>
-      <c r="B155" t="s">
-        <v>181</v>
-      </c>
-      <c r="C155" t="s">
-        <v>182</v>
-      </c>
-      <c r="D155" t="s">
-        <v>182</v>
-      </c>
-      <c r="E155" t="s">
-        <v>183</v>
       </c>
       <c r="F155">
         <v>851041</v>
@@ -5615,19 +5618,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B156" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D156" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E156" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F156">
         <v>851044</v>
@@ -5635,19 +5638,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C157" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D157" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E157" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F157">
         <v>29715513</v>
@@ -5655,16 +5658,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B158" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C158" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D158" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E158" t="s">
         <v>20</v>
@@ -5675,19 +5678,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B159" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C159" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D159" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E159" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F159">
         <v>509005</v>
@@ -5695,19 +5698,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B160" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D160" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E160" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F160">
         <v>509011</v>
@@ -5715,19 +5718,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C161" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D161" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E161" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F161">
         <v>509019</v>
@@ -5735,19 +5738,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B162" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D162" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E162" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F162">
         <v>509030</v>
@@ -5755,19 +5758,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C163" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D163" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E163" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F163">
         <v>509034</v>
@@ -5775,19 +5778,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B164" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C164" t="s">
+        <v>98</v>
+      </c>
+      <c r="D164" t="s">
         <v>99</v>
       </c>
-      <c r="D164" t="s">
-        <v>100</v>
-      </c>
       <c r="E164" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F164">
         <v>509040</v>
@@ -5795,19 +5798,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" t="s">
+        <v>153</v>
+      </c>
+      <c r="C165" t="s">
         <v>155</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>156</v>
       </c>
-      <c r="C165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D165" t="s">
-        <v>159</v>
-      </c>
       <c r="E165" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F165">
         <v>509047</v>
@@ -5815,19 +5818,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C166" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D166" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E166" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F166">
         <v>509053</v>
@@ -5835,16 +5838,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B167" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D167" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
@@ -5855,19 +5858,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B168" t="s">
+        <v>147</v>
+      </c>
+      <c r="C168" t="s">
         <v>150</v>
       </c>
-      <c r="C168" t="s">
-        <v>153</v>
-      </c>
       <c r="D168" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E168" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F168">
         <v>27582772</v>
@@ -5875,19 +5878,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C169" t="s">
+        <v>105</v>
+      </c>
+      <c r="D169" t="s">
         <v>106</v>
       </c>
-      <c r="D169" t="s">
-        <v>107</v>
-      </c>
       <c r="E169" t="s">
-        <v>108</v>
+        <v>666</v>
       </c>
       <c r="F169">
         <v>27582774</v>
@@ -5895,19 +5898,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B170" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D170" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E170" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F170">
         <v>27582776</v>
@@ -5915,19 +5918,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B171" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C171" t="s">
+        <v>98</v>
+      </c>
+      <c r="D171" t="s">
         <v>99</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>100</v>
-      </c>
-      <c r="E171" t="s">
-        <v>101</v>
       </c>
       <c r="F171">
         <v>27582778</v>
@@ -5935,19 +5938,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B172" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D172" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E172" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F172">
         <v>27582780</v>
@@ -5955,19 +5958,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B173" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D173" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E173" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F173">
         <v>27582782</v>
@@ -5975,19 +5978,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B174" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C174" t="s">
+        <v>87</v>
+      </c>
+      <c r="D174" t="s">
         <v>88</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>89</v>
-      </c>
-      <c r="E174" t="s">
-        <v>90</v>
       </c>
       <c r="F174">
         <v>27582784</v>
@@ -5995,19 +5998,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B175" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C175" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D175" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E175" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F175">
         <v>27582788</v>
@@ -6015,19 +6018,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B176" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
+        <v>83</v>
+      </c>
+      <c r="D176" t="s">
         <v>84</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>85</v>
-      </c>
-      <c r="E176" t="s">
-        <v>86</v>
       </c>
       <c r="F176">
         <v>27582792</v>
@@ -6035,19 +6038,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B177" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C177" t="s">
+        <v>91</v>
+      </c>
+      <c r="D177" t="s">
         <v>92</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>93</v>
-      </c>
-      <c r="E177" t="s">
-        <v>94</v>
       </c>
       <c r="F177">
         <v>27582796</v>
@@ -6055,19 +6058,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B178" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C178" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D178" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E178" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F178">
         <v>28219110</v>
@@ -6075,19 +6078,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>128</v>
+      </c>
+      <c r="B179" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179" t="s">
         <v>130</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>131</v>
       </c>
-      <c r="C179" t="s">
+      <c r="E179" t="s">
         <v>132</v>
-      </c>
-      <c r="D179" t="s">
-        <v>133</v>
-      </c>
-      <c r="E179" t="s">
-        <v>134</v>
       </c>
       <c r="F179">
         <v>28219112</v>
@@ -6095,19 +6098,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B180" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C180" t="s">
+        <v>136</v>
+      </c>
+      <c r="D180" t="s">
+        <v>137</v>
+      </c>
+      <c r="E180" t="s">
         <v>138</v>
-      </c>
-      <c r="D180" t="s">
-        <v>139</v>
-      </c>
-      <c r="E180" t="s">
-        <v>140</v>
       </c>
       <c r="F180">
         <v>28219114</v>
@@ -6115,19 +6118,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B181" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C181" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D181" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E181" t="s">
-        <v>143</v>
+        <v>667</v>
       </c>
       <c r="F181">
         <v>28219116</v>
@@ -6135,19 +6138,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B182" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C182" t="s">
+        <v>133</v>
+      </c>
+      <c r="D182" t="s">
+        <v>134</v>
+      </c>
+      <c r="E182" t="s">
         <v>135</v>
-      </c>
-      <c r="D182" t="s">
-        <v>136</v>
-      </c>
-      <c r="E182" t="s">
-        <v>137</v>
       </c>
       <c r="F182">
         <v>28219118</v>
@@ -6155,19 +6158,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B183" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D183" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E183" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F183">
         <v>28219120</v>
@@ -6175,19 +6178,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B184" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C184" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D184" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E184" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F184">
         <v>28219122</v>
@@ -6195,19 +6198,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B185" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C185" t="s">
+        <v>101</v>
+      </c>
+      <c r="D185" t="s">
         <v>102</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>103</v>
-      </c>
-      <c r="E185" t="s">
-        <v>104</v>
       </c>
       <c r="F185">
         <v>34002877</v>
@@ -6215,19 +6218,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B186" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C186" t="s">
+        <v>98</v>
+      </c>
+      <c r="D186" t="s">
         <v>99</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>100</v>
-      </c>
-      <c r="E186" t="s">
-        <v>101</v>
       </c>
       <c r="F186">
         <v>34002880</v>
@@ -6235,19 +6238,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B187" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C187" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D187" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E187" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F187">
         <v>34002882</v>
@@ -6255,19 +6258,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B188" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C188" t="s">
+        <v>91</v>
+      </c>
+      <c r="D188" t="s">
         <v>92</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>93</v>
-      </c>
-      <c r="E188" t="s">
-        <v>94</v>
       </c>
       <c r="F188">
         <v>34002885</v>
@@ -6275,19 +6278,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B189" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C189" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D189" t="s">
+        <v>96</v>
+      </c>
+      <c r="E189" t="s">
         <v>97</v>
-      </c>
-      <c r="E189" t="s">
-        <v>98</v>
       </c>
       <c r="F189">
         <v>34002886</v>
@@ -6295,19 +6298,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B190" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C190" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D190" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E190" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F190">
         <v>34002887</v>
@@ -6315,19 +6318,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B191" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C191" t="s">
+        <v>78</v>
+      </c>
+      <c r="D191" t="s">
         <v>79</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>80</v>
-      </c>
-      <c r="E191" t="s">
-        <v>81</v>
       </c>
       <c r="F191">
         <v>34002871</v>
@@ -6335,16 +6338,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B192" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C192" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D192" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E192" t="s">
         <v>50</v>
@@ -6355,19 +6358,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B193" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C193" t="s">
+        <v>120</v>
+      </c>
+      <c r="D193" t="s">
+        <v>121</v>
+      </c>
+      <c r="E193" t="s">
         <v>122</v>
-      </c>
-      <c r="D193" t="s">
-        <v>123</v>
-      </c>
-      <c r="E193" t="s">
-        <v>124</v>
       </c>
       <c r="F193">
         <v>33991784</v>
@@ -6375,19 +6378,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B194" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C194" t="s">
+        <v>117</v>
+      </c>
+      <c r="D194" t="s">
+        <v>118</v>
+      </c>
+      <c r="E194" t="s">
         <v>119</v>
-      </c>
-      <c r="D194" t="s">
-        <v>120</v>
-      </c>
-      <c r="E194" t="s">
-        <v>121</v>
       </c>
       <c r="F194">
         <v>33991807</v>
@@ -6395,19 +6398,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B195" t="s">
+        <v>108</v>
+      </c>
+      <c r="C195" t="s">
+        <v>81</v>
+      </c>
+      <c r="D195" t="s">
+        <v>82</v>
+      </c>
+      <c r="E195" t="s">
         <v>110</v>
-      </c>
-      <c r="C195" t="s">
-        <v>82</v>
-      </c>
-      <c r="D195" t="s">
-        <v>83</v>
-      </c>
-      <c r="E195" t="s">
-        <v>112</v>
       </c>
       <c r="F195">
         <v>33991810</v>
@@ -6415,19 +6418,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B196" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C196" t="s">
+        <v>123</v>
+      </c>
+      <c r="D196" t="s">
+        <v>124</v>
+      </c>
+      <c r="E196" t="s">
         <v>125</v>
-      </c>
-      <c r="D196" t="s">
-        <v>126</v>
-      </c>
-      <c r="E196" t="s">
-        <v>127</v>
       </c>
       <c r="F196">
         <v>33991812</v>
@@ -6435,19 +6438,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B197" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C197" t="s">
+        <v>114</v>
+      </c>
+      <c r="D197" t="s">
+        <v>115</v>
+      </c>
+      <c r="E197" t="s">
         <v>116</v>
-      </c>
-      <c r="D197" t="s">
-        <v>117</v>
-      </c>
-      <c r="E197" t="s">
-        <v>118</v>
       </c>
       <c r="F197">
         <v>34003789</v>
@@ -6455,19 +6458,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>107</v>
+      </c>
+      <c r="B198" t="s">
+        <v>108</v>
+      </c>
+      <c r="C198" t="s">
+        <v>490</v>
+      </c>
+      <c r="D198" t="s">
+        <v>491</v>
+      </c>
+      <c r="E198" t="s">
         <v>109</v>
-      </c>
-      <c r="B198" t="s">
-        <v>110</v>
-      </c>
-      <c r="C198" t="s">
-        <v>493</v>
-      </c>
-      <c r="D198" t="s">
-        <v>494</v>
-      </c>
-      <c r="E198" t="s">
-        <v>111</v>
       </c>
       <c r="F198">
         <v>34003791</v>
@@ -6475,19 +6478,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B199" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C199" t="s">
+        <v>111</v>
+      </c>
+      <c r="D199" t="s">
+        <v>112</v>
+      </c>
+      <c r="E199" t="s">
         <v>113</v>
-      </c>
-      <c r="D199" t="s">
-        <v>114</v>
-      </c>
-      <c r="E199" t="s">
-        <v>115</v>
       </c>
       <c r="F199">
         <v>34003794</v>
@@ -6495,19 +6498,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>74</v>
+      </c>
+      <c r="B200" t="s">
         <v>75</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
+        <v>429</v>
+      </c>
+      <c r="D200" t="s">
+        <v>556</v>
+      </c>
+      <c r="E200" t="s">
         <v>76</v>
-      </c>
-      <c r="C200" t="s">
-        <v>432</v>
-      </c>
-      <c r="D200" t="s">
-        <v>559</v>
-      </c>
-      <c r="E200" t="s">
-        <v>77</v>
       </c>
       <c r="F200">
         <v>561307021</v>
@@ -6515,19 +6518,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>74</v>
+      </c>
+      <c r="B201" t="s">
         <v>75</v>
       </c>
-      <c r="B201" t="s">
-        <v>76</v>
-      </c>
       <c r="C201" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D201" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F201">
         <v>561307037</v>
@@ -6581,13 +6584,13 @@
         <v>56</v>
       </c>
       <c r="C204" t="s">
+        <v>65</v>
+      </c>
+      <c r="D204" t="s">
         <v>66</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>67</v>
-      </c>
-      <c r="E204" t="s">
-        <v>68</v>
       </c>
       <c r="F204">
         <v>477215250</v>
@@ -6601,13 +6604,13 @@
         <v>56</v>
       </c>
       <c r="C205" t="s">
+        <v>71</v>
+      </c>
+      <c r="D205" t="s">
         <v>72</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>73</v>
-      </c>
-      <c r="E205" t="s">
-        <v>74</v>
       </c>
       <c r="F205">
         <v>497463990</v>
@@ -6627,7 +6630,7 @@
         <v>64</v>
       </c>
       <c r="E206" t="s">
-        <v>65</v>
+        <v>668</v>
       </c>
       <c r="F206">
         <v>497463992</v>
@@ -6641,13 +6644,13 @@
         <v>56</v>
       </c>
       <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
         <v>69</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>70</v>
-      </c>
-      <c r="E207" t="s">
-        <v>71</v>
       </c>
       <c r="F207">
         <v>497463994</v>
@@ -6661,13 +6664,13 @@
         <v>56</v>
       </c>
       <c r="C208" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D208" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E208" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F208">
         <v>497463996</v>
@@ -6681,10 +6684,10 @@
         <v>47</v>
       </c>
       <c r="C209" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E209" t="s">
         <v>50</v>
@@ -6821,10 +6824,10 @@
         <v>30</v>
       </c>
       <c r="C216" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D216" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E216" t="s">
         <v>31</v>
@@ -6861,10 +6864,10 @@
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D218" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E218" t="s">
         <v>45</v>
@@ -6881,10 +6884,10 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D219" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E219" t="s">
         <v>32</v>
@@ -6895,7 +6898,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -6915,7 +6918,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -6935,7 +6938,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -6955,16 +6958,16 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D223" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E223" t="s">
         <v>13</v>
@@ -6975,7 +6978,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -6995,16 +6998,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D225" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E225" t="s">
         <v>20</v>
@@ -7015,16 +7018,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D226" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
@@ -7035,16 +7038,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B227" t="s">
         <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D227" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E227" t="s">
         <v>22</v>
@@ -7055,7 +7058,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B228" t="s">
         <v>21</v>
@@ -7075,16 +7078,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B229" t="s">
         <v>21</v>
       </c>
       <c r="C229" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D229" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E229" t="s">
         <v>19</v>
@@ -7095,16 +7098,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B230" t="s">
         <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D230" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E230" t="s">
         <v>16</v>
@@ -7115,7 +7118,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B231" t="s">
         <v>21</v>
@@ -7135,16 +7138,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B232" t="s">
         <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D232" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E232" t="s">
         <v>8</v>
@@ -7155,16 +7158,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B233" t="s">
         <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D233" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -7175,16 +7178,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B234" t="s">
         <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D234" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E234" t="s">
         <v>28</v>
@@ -7195,16 +7198,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B235" t="s">
         <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D235" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E235" t="s">
         <v>27</v>
@@ -7215,19 +7218,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B236" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C236" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D236" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E236" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F236">
         <v>29715584</v>
@@ -7235,19 +7238,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B237" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C237" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D237" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E237" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F237" s="1">
         <v>29715585</v>
@@ -7255,19 +7258,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>584</v>
+      </c>
+      <c r="B238" t="s">
+        <v>585</v>
+      </c>
+      <c r="C238" t="s">
+        <v>593</v>
+      </c>
+      <c r="D238" t="s">
         <v>587</v>
       </c>
-      <c r="B238" t="s">
-        <v>588</v>
-      </c>
-      <c r="C238" t="s">
-        <v>596</v>
-      </c>
-      <c r="D238" t="s">
-        <v>590</v>
-      </c>
       <c r="E238" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F238" s="1">
         <v>29715586</v>
@@ -7275,19 +7278,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B239" t="s">
+        <v>585</v>
+      </c>
+      <c r="C239" t="s">
+        <v>594</v>
+      </c>
+      <c r="D239" t="s">
         <v>588</v>
       </c>
-      <c r="C239" t="s">
-        <v>597</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
         <v>591</v>
-      </c>
-      <c r="E239" t="s">
-        <v>594</v>
       </c>
       <c r="F239">
         <v>29715587</v>
@@ -7295,19 +7298,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B240" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C240" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D240" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E240" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F240">
         <v>29715588</v>
@@ -7315,19 +7318,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B241" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C241" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D241" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E241" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F241">
         <v>29715589</v>
@@ -7335,19 +7338,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>598</v>
+      </c>
+      <c r="B242" t="s">
+        <v>599</v>
+      </c>
+      <c r="C242" t="s">
         <v>601</v>
       </c>
-      <c r="B242" t="s">
+      <c r="D242" t="s">
+        <v>600</v>
+      </c>
+      <c r="E242" t="s">
         <v>602</v>
-      </c>
-      <c r="C242" t="s">
-        <v>604</v>
-      </c>
-      <c r="D242" t="s">
-        <v>603</v>
-      </c>
-      <c r="E242" t="s">
-        <v>605</v>
       </c>
       <c r="F242">
         <v>29710956</v>
@@ -7355,19 +7358,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>605</v>
+      </c>
+      <c r="B243" t="s">
+        <v>604</v>
+      </c>
+      <c r="C243" t="s">
         <v>608</v>
       </c>
-      <c r="B243" t="s">
+      <c r="D243" t="s">
+        <v>606</v>
+      </c>
+      <c r="E243" t="s">
         <v>607</v>
-      </c>
-      <c r="C243" t="s">
-        <v>611</v>
-      </c>
-      <c r="D243" t="s">
-        <v>609</v>
-      </c>
-      <c r="E243" t="s">
-        <v>610</v>
       </c>
       <c r="F243">
         <v>468513480</v>
@@ -7375,19 +7378,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B244" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C244" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D244" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E244" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F244">
         <v>29710940</v>
@@ -7395,19 +7398,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B245" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C245" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D245" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E245" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F245">
         <v>29710941</v>
@@ -7415,19 +7418,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B246" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C246" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D246" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E246" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F246">
         <v>29710942</v>
@@ -7435,19 +7438,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B247" t="s">
+        <v>623</v>
+      </c>
+      <c r="C247" t="s">
         <v>626</v>
       </c>
-      <c r="C247" t="s">
-        <v>629</v>
-      </c>
       <c r="D247" t="s">
+        <v>624</v>
+      </c>
+      <c r="E247" t="s">
         <v>627</v>
-      </c>
-      <c r="E247" t="s">
-        <v>630</v>
       </c>
       <c r="F247">
         <v>29710959</v>
@@ -7455,19 +7458,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>628</v>
+      </c>
+      <c r="B248" t="s">
         <v>631</v>
       </c>
-      <c r="B248" t="s">
-        <v>634</v>
-      </c>
       <c r="C248" t="s">
+        <v>629</v>
+      </c>
+      <c r="D248" t="s">
+        <v>630</v>
+      </c>
+      <c r="E248" t="s">
         <v>632</v>
-      </c>
-      <c r="D248" t="s">
-        <v>633</v>
-      </c>
-      <c r="E248" t="s">
-        <v>635</v>
       </c>
       <c r="F248">
         <v>22765949</v>
@@ -7475,19 +7478,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B249" t="s">
+        <v>633</v>
+      </c>
+      <c r="C249" t="s">
+        <v>635</v>
+      </c>
+      <c r="D249" t="s">
+        <v>634</v>
+      </c>
+      <c r="E249" t="s">
         <v>636</v>
-      </c>
-      <c r="C249" t="s">
-        <v>638</v>
-      </c>
-      <c r="D249" t="s">
-        <v>637</v>
-      </c>
-      <c r="E249" t="s">
-        <v>639</v>
       </c>
       <c r="F249">
         <v>22766029</v>
@@ -7495,19 +7498,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B250" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C250" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D250" t="s">
+        <v>657</v>
+      </c>
+      <c r="E250" t="s">
         <v>660</v>
-      </c>
-      <c r="E250" t="s">
-        <v>663</v>
       </c>
       <c r="F250">
         <v>22766028</v>
@@ -7515,19 +7518,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B251" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C251" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D251" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E251" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F251">
         <v>22766019</v>
@@ -7535,19 +7538,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>640</v>
+      </c>
+      <c r="B252" t="s">
+        <v>641</v>
+      </c>
+      <c r="C252" t="s">
+        <v>642</v>
+      </c>
+      <c r="D252" t="s">
         <v>643</v>
       </c>
-      <c r="B252" t="s">
-        <v>644</v>
-      </c>
-      <c r="C252" t="s">
-        <v>645</v>
-      </c>
-      <c r="D252" t="s">
-        <v>646</v>
-      </c>
       <c r="E252" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F252" s="1">
         <v>28941725</v>
@@ -7555,19 +7558,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B253" t="s">
+        <v>641</v>
+      </c>
+      <c r="C253" t="s">
         <v>644</v>
       </c>
-      <c r="C253" t="s">
-        <v>647</v>
-      </c>
       <c r="D253" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E253" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F253" s="1">
         <v>28941726</v>
@@ -7575,19 +7578,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B254" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C254" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E254" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F254" s="1">
         <v>28941727</v>
@@ -7595,19 +7598,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B255" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C255" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D255" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E255" t="s">
         <v>652</v>
-      </c>
-      <c r="E255" t="s">
-        <v>655</v>
       </c>
       <c r="F255" s="1">
         <v>28941728</v>
@@ -7615,19 +7618,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B256" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C256" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E256" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F256" s="1">
         <v>28941729</v>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2EE3DA-0493-4922-B6E6-3D3BD2B23C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF618E8-D532-46CD-9625-D1530F334461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="674">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2167,6 +2167,26 @@
   </si>
   <si>
     <t>丁礼田舞&amp;尔子田里乃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Grimoire of Marisa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法使いの憂鬱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾雨魔理沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法使的忧郁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2501,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F256"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="E247" sqref="E247"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7544,10 +7564,10 @@
         <v>641</v>
       </c>
       <c r="C252" t="s">
+        <v>643</v>
+      </c>
+      <c r="D252" t="s">
         <v>642</v>
-      </c>
-      <c r="D252" t="s">
-        <v>643</v>
       </c>
       <c r="E252" t="s">
         <v>652</v>
@@ -7563,11 +7583,11 @@
       <c r="B253" t="s">
         <v>641</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D253" t="s">
         <v>644</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="E253" t="s">
         <v>652</v>
@@ -7583,11 +7603,11 @@
       <c r="B254" t="s">
         <v>641</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D254" t="s">
         <v>646</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="E254" t="s">
         <v>652</v>
@@ -7603,11 +7623,11 @@
       <c r="B255" t="s">
         <v>641</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D255" t="s">
         <v>648</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="E255" t="s">
         <v>652</v>
@@ -7623,17 +7643,37 @@
       <c r="B256" t="s">
         <v>641</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D256" t="s">
         <v>650</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="E256" t="s">
         <v>652</v>
       </c>
       <c r="F256" s="1">
         <v>28941729</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>669</v>
+      </c>
+      <c r="B257" t="s">
+        <v>670</v>
+      </c>
+      <c r="C257" t="s">
+        <v>673</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F257" s="1">
+        <v>29710961</v>
       </c>
     </row>
   </sheetData>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF618E8-D532-46CD-9625-D1530F334461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9536772-C3D0-4949-B41A-E77C9FC401F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$247</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="708">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2187,6 +2187,140 @@
   </si>
   <si>
     <t>魔法使的忧郁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH18</t>
+  </si>
+  <si>
+    <t>TH18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方虹龙洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吉キトゥン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吉猫咪</t>
+  </si>
+  <si>
+    <t>豪德寺三花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バンデットリィテクノロジー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banditry Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山城高岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スモーキングドラゴン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoking Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驹草山如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神代鉱石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神代矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉造魅须丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星降る天魔の山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天魔之山漫天星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭纲丸龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの賑やかな市場は今どこに　～ Immemorial Marketeers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熙攘市场今何在　～ Immemorial Marketeers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弓千亦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍王殺しのプリンセス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭杀龙王的公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬虫百百世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廃れゆく産業遺構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日渐荒废的工业遗址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待ちわびた逢魔が時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴盼已久的逢魔之刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菅牧典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ルナレインボー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunar Rainbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想の地下大線路網</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想地下大轨道网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2521,22 +2655,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="D259" sqref="D259"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2556,7 +2690,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -2576,7 +2710,7 @@
         <v>22636836</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>388</v>
       </c>
@@ -2596,7 +2730,7 @@
         <v>22636829</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>388</v>
       </c>
@@ -2616,7 +2750,7 @@
         <v>22636835</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>388</v>
       </c>
@@ -2636,7 +2770,7 @@
         <v>22636837</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>388</v>
       </c>
@@ -2656,7 +2790,7 @@
         <v>500684336</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -2676,7 +2810,7 @@
         <v>34999157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>378</v>
       </c>
@@ -2696,7 +2830,7 @@
         <v>34999158</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>378</v>
       </c>
@@ -2716,7 +2850,7 @@
         <v>34999160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>378</v>
       </c>
@@ -2736,7 +2870,7 @@
         <v>34999161</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>378</v>
       </c>
@@ -2756,7 +2890,7 @@
         <v>34999163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>364</v>
       </c>
@@ -2776,7 +2910,7 @@
         <v>22636805</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>364</v>
       </c>
@@ -2796,7 +2930,7 @@
         <v>22636807</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>364</v>
       </c>
@@ -2816,7 +2950,7 @@
         <v>22636804</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>364</v>
       </c>
@@ -2836,7 +2970,7 @@
         <v>22636816</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -2856,7 +2990,7 @@
         <v>22636808</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>364</v>
       </c>
@@ -2876,7 +3010,7 @@
         <v>22636810</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>364</v>
       </c>
@@ -2896,7 +3030,7 @@
         <v>22636806</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>364</v>
       </c>
@@ -2916,7 +3050,7 @@
         <v>22636820</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>364</v>
       </c>
@@ -2936,7 +3070,7 @@
         <v>22636811</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -2956,7 +3090,7 @@
         <v>22636814</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>356</v>
       </c>
@@ -2976,7 +3110,7 @@
         <v>22636738</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>356</v>
       </c>
@@ -2996,7 +3130,7 @@
         <v>22636747</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>356</v>
       </c>
@@ -3016,7 +3150,7 @@
         <v>22636741</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>356</v>
       </c>
@@ -3036,7 +3170,7 @@
         <v>22636751</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -3056,7 +3190,7 @@
         <v>22636742</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>356</v>
       </c>
@@ -3076,7 +3210,7 @@
         <v>22636740</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>356</v>
       </c>
@@ -3096,7 +3230,7 @@
         <v>22636746</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>356</v>
       </c>
@@ -3116,7 +3250,7 @@
         <v>22636744</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>356</v>
       </c>
@@ -3136,7 +3270,7 @@
         <v>22636758</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>343</v>
       </c>
@@ -3156,7 +3290,7 @@
         <v>22636764</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>343</v>
       </c>
@@ -3176,7 +3310,7 @@
         <v>22636763</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>343</v>
       </c>
@@ -3196,7 +3330,7 @@
         <v>22636767</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>343</v>
       </c>
@@ -3216,7 +3350,7 @@
         <v>22636765</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>343</v>
       </c>
@@ -3236,7 +3370,7 @@
         <v>22636779</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>343</v>
       </c>
@@ -3256,7 +3390,7 @@
         <v>22636770</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>343</v>
       </c>
@@ -3276,7 +3410,7 @@
         <v>22636768</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>343</v>
       </c>
@@ -3296,7 +3430,7 @@
         <v>22636774</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>343</v>
       </c>
@@ -3316,7 +3450,7 @@
         <v>22636777</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>343</v>
       </c>
@@ -3336,7 +3470,7 @@
         <v>22636772</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>329</v>
       </c>
@@ -3356,7 +3490,7 @@
         <v>22636719</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -3376,7 +3510,7 @@
         <v>22636721</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -3396,7 +3530,7 @@
         <v>22636718</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -3416,7 +3550,7 @@
         <v>22636730</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -3436,7 +3570,7 @@
         <v>22636722</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -3456,7 +3590,7 @@
         <v>22636724</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -3476,7 +3610,7 @@
         <v>22636720</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -3496,7 +3630,7 @@
         <v>22636732</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -3516,7 +3650,7 @@
         <v>22636725</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>329</v>
       </c>
@@ -3536,7 +3670,7 @@
         <v>22636723</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>329</v>
       </c>
@@ -3556,7 +3690,7 @@
         <v>22636729</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>313</v>
       </c>
@@ -3576,7 +3710,7 @@
         <v>22636707</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -3596,7 +3730,7 @@
         <v>22636702</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>313</v>
       </c>
@@ -3616,7 +3750,7 @@
         <v>22636698</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>313</v>
       </c>
@@ -3636,7 +3770,7 @@
         <v>22636711</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>313</v>
       </c>
@@ -3656,7 +3790,7 @@
         <v>22636703</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>313</v>
       </c>
@@ -3676,7 +3810,7 @@
         <v>22636705</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>313</v>
       </c>
@@ -3696,7 +3830,7 @@
         <v>22636701</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>313</v>
       </c>
@@ -3716,7 +3850,7 @@
         <v>22636714</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>313</v>
       </c>
@@ -3736,7 +3870,7 @@
         <v>22636709</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>313</v>
       </c>
@@ -3756,7 +3890,7 @@
         <v>22636704</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -3776,7 +3910,7 @@
         <v>22636710</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>313</v>
       </c>
@@ -3796,7 +3930,7 @@
         <v>22636708</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>303</v>
       </c>
@@ -3816,7 +3950,7 @@
         <v>22765972</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>303</v>
       </c>
@@ -3836,7 +3970,7 @@
         <v>22765996</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>303</v>
       </c>
@@ -3856,7 +3990,7 @@
         <v>22765964</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>303</v>
       </c>
@@ -3876,7 +4010,7 @@
         <v>22765986</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -3896,7 +4030,7 @@
         <v>22765976</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>303</v>
       </c>
@@ -3916,7 +4050,7 @@
         <v>22766000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -3936,7 +4070,7 @@
         <v>22765967</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>303</v>
       </c>
@@ -3956,7 +4090,7 @@
         <v>22765990</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>303</v>
       </c>
@@ -3976,7 +4110,7 @@
         <v>22765980</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>303</v>
       </c>
@@ -3996,7 +4130,7 @@
         <v>22766003</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>303</v>
       </c>
@@ -4016,7 +4150,7 @@
         <v>22765970</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>303</v>
       </c>
@@ -4036,7 +4170,7 @@
         <v>22765994</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>303</v>
       </c>
@@ -4056,7 +4190,7 @@
         <v>22765966</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>303</v>
       </c>
@@ -4076,7 +4210,7 @@
         <v>22765984</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>303</v>
       </c>
@@ -4096,7 +4230,7 @@
         <v>22765997</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>303</v>
       </c>
@@ -4116,7 +4250,7 @@
         <v>22766006</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>288</v>
       </c>
@@ -4136,7 +4270,7 @@
         <v>22636686</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -4156,7 +4290,7 @@
         <v>22636681</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>288</v>
       </c>
@@ -4176,7 +4310,7 @@
         <v>22636690</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>288</v>
       </c>
@@ -4196,7 +4330,7 @@
         <v>22636684</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>288</v>
       </c>
@@ -4216,7 +4350,7 @@
         <v>22636680</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>288</v>
       </c>
@@ -4236,7 +4370,7 @@
         <v>22636693</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>288</v>
       </c>
@@ -4256,7 +4390,7 @@
         <v>22636685</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>288</v>
       </c>
@@ -4276,7 +4410,7 @@
         <v>22636683</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>288</v>
       </c>
@@ -4296,7 +4430,7 @@
         <v>22636695</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>288</v>
       </c>
@@ -4316,7 +4450,7 @@
         <v>22636689</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>288</v>
       </c>
@@ -4336,7 +4470,7 @@
         <v>22636687</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>273</v>
       </c>
@@ -4356,7 +4490,7 @@
         <v>510172</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>273</v>
       </c>
@@ -4376,7 +4510,7 @@
         <v>510174</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>273</v>
       </c>
@@ -4396,7 +4530,7 @@
         <v>510177</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -4416,7 +4550,7 @@
         <v>510179</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>273</v>
       </c>
@@ -4436,7 +4570,7 @@
         <v>510182</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>273</v>
       </c>
@@ -4456,7 +4590,7 @@
         <v>510185</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>273</v>
       </c>
@@ -4476,7 +4610,7 @@
         <v>510188</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>273</v>
       </c>
@@ -4496,7 +4630,7 @@
         <v>510192</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>273</v>
       </c>
@@ -4516,7 +4650,7 @@
         <v>510196</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>273</v>
       </c>
@@ -4536,7 +4670,7 @@
         <v>510200</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>273</v>
       </c>
@@ -4556,7 +4690,7 @@
         <v>510204</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>273</v>
       </c>
@@ -4576,7 +4710,7 @@
         <v>510208</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>273</v>
       </c>
@@ -4596,7 +4730,7 @@
         <v>510216</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>273</v>
       </c>
@@ -4616,7 +4750,7 @@
         <v>510212</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>267</v>
       </c>
@@ -4636,7 +4770,7 @@
         <v>29710947</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>267</v>
       </c>
@@ -4656,7 +4790,7 @@
         <v>29710948</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>267</v>
       </c>
@@ -4676,7 +4810,7 @@
         <v>29710949</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>267</v>
       </c>
@@ -4696,7 +4830,7 @@
         <v>29710950</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>267</v>
       </c>
@@ -4716,7 +4850,7 @@
         <v>29710952</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -4736,7 +4870,7 @@
         <v>22636639</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -4756,7 +4890,7 @@
         <v>22636649</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>251</v>
       </c>
@@ -4776,7 +4910,7 @@
         <v>22636644</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>251</v>
       </c>
@@ -4796,7 +4930,7 @@
         <v>22636653</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>251</v>
       </c>
@@ -4816,7 +4950,7 @@
         <v>22636645</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>251</v>
       </c>
@@ -4836,7 +4970,7 @@
         <v>22636647</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>251</v>
       </c>
@@ -4856,7 +4990,7 @@
         <v>22636655</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>251</v>
       </c>
@@ -4876,7 +5010,7 @@
         <v>22636651</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>251</v>
       </c>
@@ -4896,7 +5030,7 @@
         <v>22636646</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>251</v>
       </c>
@@ -4916,7 +5050,7 @@
         <v>22636656</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>232</v>
       </c>
@@ -4936,7 +5070,7 @@
         <v>22765926</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>232</v>
       </c>
@@ -4956,7 +5090,7 @@
         <v>22765920</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>232</v>
       </c>
@@ -4976,7 +5110,7 @@
         <v>22765905</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>232</v>
       </c>
@@ -4996,7 +5130,7 @@
         <v>22765917</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>232</v>
       </c>
@@ -5016,7 +5150,7 @@
         <v>22765910</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>232</v>
       </c>
@@ -5036,7 +5170,7 @@
         <v>22765909</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>232</v>
       </c>
@@ -5056,7 +5190,7 @@
         <v>22765906</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>232</v>
       </c>
@@ -5076,7 +5210,7 @@
         <v>22765921</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>232</v>
       </c>
@@ -5096,7 +5230,7 @@
         <v>22765913</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -5116,7 +5250,7 @@
         <v>22765912</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>232</v>
       </c>
@@ -5124,19 +5258,19 @@
         <v>233</v>
       </c>
       <c r="C130" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="F130">
-        <v>22765916</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22765908</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>232</v>
       </c>
@@ -5144,19 +5278,19 @@
         <v>233</v>
       </c>
       <c r="C131" t="s">
-        <v>244</v>
+        <v>431</v>
       </c>
       <c r="D131" t="s">
-        <v>245</v>
+        <v>570</v>
       </c>
       <c r="E131" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F131">
-        <v>22765915</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22765916</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>232</v>
       </c>
@@ -5164,39 +5298,39 @@
         <v>233</v>
       </c>
       <c r="C132" t="s">
+        <v>244</v>
+      </c>
+      <c r="D132" t="s">
+        <v>245</v>
+      </c>
+      <c r="E132" t="s">
+        <v>246</v>
+      </c>
+      <c r="F132">
+        <v>22765915</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133" t="s">
         <v>473</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>571</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>661</v>
       </c>
-      <c r="F132">
+      <c r="F133">
         <v>22765911</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>213</v>
-      </c>
-      <c r="B133" t="s">
-        <v>214</v>
-      </c>
-      <c r="C133" t="s">
-        <v>223</v>
-      </c>
-      <c r="D133" t="s">
-        <v>224</v>
-      </c>
-      <c r="E133" t="s">
-        <v>225</v>
-      </c>
-      <c r="F133">
-        <v>22636622</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>213</v>
       </c>
@@ -5204,19 +5338,19 @@
         <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D134" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E134" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F134">
-        <v>22636624</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636622</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>213</v>
       </c>
@@ -5224,19 +5358,19 @@
         <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D135" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E135" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F135">
-        <v>22636633</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636624</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>213</v>
       </c>
@@ -5244,19 +5378,19 @@
         <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D136" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E136" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F136">
-        <v>22636627</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636633</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>213</v>
       </c>
@@ -5264,19 +5398,19 @@
         <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D137" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E137" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F137">
-        <v>22636636</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636627</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>213</v>
       </c>
@@ -5284,19 +5418,19 @@
         <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="D138" t="s">
-        <v>565</v>
+        <v>216</v>
       </c>
       <c r="E138" t="s">
-        <v>597</v>
+        <v>217</v>
       </c>
       <c r="F138">
-        <v>22636631</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636636</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>213</v>
       </c>
@@ -5304,19 +5438,19 @@
         <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="D139" t="s">
-        <v>421</v>
+        <v>565</v>
       </c>
       <c r="E139" t="s">
-        <v>222</v>
+        <v>597</v>
       </c>
       <c r="F139">
-        <v>22636637</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636631</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>213</v>
       </c>
@@ -5324,39 +5458,39 @@
         <v>214</v>
       </c>
       <c r="C140" t="s">
+        <v>420</v>
+      </c>
+      <c r="D140" t="s">
+        <v>421</v>
+      </c>
+      <c r="E140" t="s">
+        <v>222</v>
+      </c>
+      <c r="F140">
+        <v>22636637</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>213</v>
+      </c>
+      <c r="B141" t="s">
+        <v>214</v>
+      </c>
+      <c r="C141" t="s">
         <v>87</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>88</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E141" t="s">
         <v>218</v>
       </c>
-      <c r="F140">
+      <c r="F141">
         <v>22636634</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>195</v>
-      </c>
-      <c r="B141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" t="s">
-        <v>206</v>
-      </c>
-      <c r="D141" t="s">
-        <v>207</v>
-      </c>
-      <c r="E141" t="s">
-        <v>603</v>
-      </c>
-      <c r="F141">
-        <v>22636613</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>195</v>
       </c>
@@ -5364,19 +5498,19 @@
         <v>196</v>
       </c>
       <c r="C142" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D142" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E142" t="s">
-        <v>202</v>
+        <v>603</v>
       </c>
       <c r="F142">
-        <v>22636608</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636613</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>195</v>
       </c>
@@ -5384,19 +5518,19 @@
         <v>196</v>
       </c>
       <c r="C143" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="D143" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="E143" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F143">
-        <v>22636617</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636608</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>195</v>
       </c>
@@ -5404,19 +5538,19 @@
         <v>196</v>
       </c>
       <c r="C144" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="D144" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="E144" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F144">
-        <v>22636611</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636617</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>195</v>
       </c>
@@ -5424,19 +5558,19 @@
         <v>196</v>
       </c>
       <c r="C145" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D145" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E145" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F145">
-        <v>22636619</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636611</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>195</v>
       </c>
@@ -5444,19 +5578,19 @@
         <v>196</v>
       </c>
       <c r="C146" t="s">
-        <v>426</v>
+        <v>209</v>
       </c>
       <c r="D146" t="s">
-        <v>427</v>
+        <v>210</v>
       </c>
       <c r="E146" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F146">
-        <v>22636615</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22636619</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>195</v>
       </c>
@@ -5464,39 +5598,39 @@
         <v>196</v>
       </c>
       <c r="C147" t="s">
+        <v>426</v>
+      </c>
+      <c r="D147" t="s">
+        <v>427</v>
+      </c>
+      <c r="E147" t="s">
+        <v>208</v>
+      </c>
+      <c r="F147">
+        <v>22636615</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>195</v>
+      </c>
+      <c r="B148" t="s">
+        <v>196</v>
+      </c>
+      <c r="C148" t="s">
         <v>203</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
         <v>204</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E148" t="s">
         <v>205</v>
       </c>
-      <c r="F147">
+      <c r="F148">
         <v>22636620</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>177</v>
-      </c>
-      <c r="B148" t="s">
-        <v>178</v>
-      </c>
-      <c r="C148" t="s">
-        <v>181</v>
-      </c>
-      <c r="D148" t="s">
-        <v>561</v>
-      </c>
-      <c r="E148" t="s">
-        <v>183</v>
-      </c>
-      <c r="F148">
-        <v>851008</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>177</v>
       </c>
@@ -5504,19 +5638,19 @@
         <v>178</v>
       </c>
       <c r="C149" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D149" t="s">
-        <v>189</v>
+        <v>561</v>
       </c>
       <c r="E149" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F149">
-        <v>851012</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>851008</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -5524,19 +5658,19 @@
         <v>178</v>
       </c>
       <c r="C150" t="s">
-        <v>419</v>
+        <v>188</v>
       </c>
       <c r="D150" t="s">
-        <v>562</v>
+        <v>189</v>
       </c>
       <c r="E150" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F150">
-        <v>851016</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>851012</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -5544,19 +5678,19 @@
         <v>178</v>
       </c>
       <c r="C151" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D151" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F151">
-        <v>851019</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>851016</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>177</v>
       </c>
@@ -5564,19 +5698,19 @@
         <v>178</v>
       </c>
       <c r="C152" t="s">
-        <v>576</v>
+        <v>420</v>
       </c>
       <c r="D152" t="s">
-        <v>193</v>
+        <v>563</v>
       </c>
       <c r="E152" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F152">
-        <v>851022</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>851019</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>177</v>
       </c>
@@ -5584,19 +5718,19 @@
         <v>178</v>
       </c>
       <c r="C153" t="s">
-        <v>417</v>
+        <v>576</v>
       </c>
       <c r="D153" t="s">
-        <v>564</v>
+        <v>193</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="F153">
-        <v>851034</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>851022</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>177</v>
       </c>
@@ -5604,19 +5738,19 @@
         <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>191</v>
+        <v>417</v>
       </c>
       <c r="D154" t="s">
-        <v>192</v>
+        <v>564</v>
       </c>
       <c r="E154" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="F154">
-        <v>851037</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>851034</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>177</v>
       </c>
@@ -5624,19 +5758,19 @@
         <v>178</v>
       </c>
       <c r="C155" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D155" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E155" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="F155">
-        <v>851041</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>851037</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -5644,39 +5778,39 @@
         <v>178</v>
       </c>
       <c r="C156" t="s">
+        <v>179</v>
+      </c>
+      <c r="D156" t="s">
+        <v>179</v>
+      </c>
+      <c r="E156" t="s">
+        <v>180</v>
+      </c>
+      <c r="F156">
+        <v>851041</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>177</v>
+      </c>
+      <c r="B157" t="s">
+        <v>178</v>
+      </c>
+      <c r="C157" t="s">
         <v>186</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>546</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E157" t="s">
         <v>616</v>
       </c>
-      <c r="F156">
+      <c r="F157">
         <v>851044</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>174</v>
-      </c>
-      <c r="B157" t="s">
-        <v>175</v>
-      </c>
-      <c r="C157" t="s">
-        <v>486</v>
-      </c>
-      <c r="D157" t="s">
-        <v>487</v>
-      </c>
-      <c r="E157" t="s">
-        <v>176</v>
-      </c>
-      <c r="F157">
-        <v>29715513</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -5684,39 +5818,39 @@
         <v>175</v>
       </c>
       <c r="C158" t="s">
+        <v>486</v>
+      </c>
+      <c r="D158" t="s">
+        <v>487</v>
+      </c>
+      <c r="E158" t="s">
+        <v>176</v>
+      </c>
+      <c r="F158">
+        <v>29715513</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>174</v>
+      </c>
+      <c r="B159" t="s">
+        <v>175</v>
+      </c>
+      <c r="C159" t="s">
         <v>150</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>151</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E159" t="s">
         <v>20</v>
       </c>
-      <c r="F158">
+      <c r="F159">
         <v>29715515</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>152</v>
-      </c>
-      <c r="B159" t="s">
-        <v>153</v>
-      </c>
-      <c r="C159" t="s">
-        <v>168</v>
-      </c>
-      <c r="D159" t="s">
-        <v>169</v>
-      </c>
-      <c r="E159" t="s">
-        <v>170</v>
-      </c>
-      <c r="F159">
-        <v>509005</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -5724,19 +5858,19 @@
         <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D160" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E160" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F160">
-        <v>509011</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>509005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -5744,19 +5878,19 @@
         <v>153</v>
       </c>
       <c r="C161" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D161" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E161" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F161">
-        <v>509019</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>509011</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -5764,19 +5898,19 @@
         <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D162" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E162" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F162">
-        <v>509030</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>509019</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -5784,19 +5918,19 @@
         <v>153</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D163" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F163">
-        <v>509034</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>509030</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -5804,19 +5938,19 @@
         <v>153</v>
       </c>
       <c r="C164" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D164" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F164">
-        <v>509040</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>509034</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -5824,19 +5958,19 @@
         <v>153</v>
       </c>
       <c r="C165" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="D165" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="E165" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F165">
-        <v>509047</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>509040</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -5844,39 +5978,39 @@
         <v>153</v>
       </c>
       <c r="C166" t="s">
+        <v>155</v>
+      </c>
+      <c r="D166" t="s">
+        <v>156</v>
+      </c>
+      <c r="E166" t="s">
+        <v>157</v>
+      </c>
+      <c r="F166">
+        <v>509047</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" t="s">
+        <v>153</v>
+      </c>
+      <c r="C167" t="s">
         <v>148</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>149</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E167" t="s">
         <v>154</v>
       </c>
-      <c r="F166">
+      <c r="F167">
         <v>509053</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>146</v>
-      </c>
-      <c r="B167" t="s">
-        <v>147</v>
-      </c>
-      <c r="C167" t="s">
-        <v>466</v>
-      </c>
-      <c r="D167" t="s">
-        <v>558</v>
-      </c>
-      <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167">
-        <v>27582770</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -5884,19 +6018,19 @@
         <v>147</v>
       </c>
       <c r="C168" t="s">
-        <v>150</v>
+        <v>466</v>
       </c>
       <c r="D168" t="s">
-        <v>151</v>
+        <v>558</v>
       </c>
       <c r="E168" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="F168">
-        <v>27582772</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27582770</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>146</v>
       </c>
@@ -5904,19 +6038,19 @@
         <v>147</v>
       </c>
       <c r="C169" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D169" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="E169" t="s">
-        <v>666</v>
+        <v>103</v>
       </c>
       <c r="F169">
-        <v>27582774</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27582772</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>146</v>
       </c>
@@ -5924,19 +6058,19 @@
         <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>426</v>
+        <v>105</v>
       </c>
       <c r="D170" t="s">
-        <v>553</v>
+        <v>106</v>
       </c>
       <c r="E170" t="s">
-        <v>95</v>
+        <v>666</v>
       </c>
       <c r="F170">
-        <v>27582776</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27582774</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>146</v>
       </c>
@@ -5944,19 +6078,19 @@
         <v>147</v>
       </c>
       <c r="C171" t="s">
-        <v>98</v>
+        <v>426</v>
       </c>
       <c r="D171" t="s">
-        <v>99</v>
+        <v>553</v>
       </c>
       <c r="E171" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F171">
-        <v>27582778</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27582776</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>146</v>
       </c>
@@ -5964,19 +6098,19 @@
         <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="D172" t="s">
-        <v>559</v>
+        <v>99</v>
       </c>
       <c r="E172" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F172">
-        <v>27582780</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27582778</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>146</v>
       </c>
@@ -5984,19 +6118,19 @@
         <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>422</v>
+        <v>155</v>
       </c>
       <c r="D173" t="s">
-        <v>423</v>
+        <v>559</v>
       </c>
       <c r="E173" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F173">
-        <v>27582782</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27582780</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>146</v>
       </c>
@@ -6004,19 +6138,19 @@
         <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>87</v>
+        <v>422</v>
       </c>
       <c r="D174" t="s">
-        <v>88</v>
+        <v>423</v>
       </c>
       <c r="E174" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F174">
-        <v>27582784</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27582782</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>146</v>
       </c>
@@ -6024,19 +6158,19 @@
         <v>147</v>
       </c>
       <c r="C175" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D175" t="s">
-        <v>560</v>
+        <v>88</v>
       </c>
       <c r="E175" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F175">
-        <v>27582788</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27582784</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>146</v>
       </c>
@@ -6044,19 +6178,19 @@
         <v>147</v>
       </c>
       <c r="C176" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D176" t="s">
-        <v>84</v>
+        <v>560</v>
       </c>
       <c r="E176" t="s">
         <v>85</v>
       </c>
       <c r="F176">
-        <v>27582792</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27582788</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>146</v>
       </c>
@@ -6064,39 +6198,39 @@
         <v>147</v>
       </c>
       <c r="C177" t="s">
+        <v>83</v>
+      </c>
+      <c r="D177" t="s">
+        <v>84</v>
+      </c>
+      <c r="E177" t="s">
+        <v>85</v>
+      </c>
+      <c r="F177">
+        <v>27582792</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>146</v>
+      </c>
+      <c r="B178" t="s">
+        <v>147</v>
+      </c>
+      <c r="C178" t="s">
         <v>91</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>92</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E178" t="s">
         <v>93</v>
       </c>
-      <c r="F177">
+      <c r="F178">
         <v>27582796</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>128</v>
-      </c>
-      <c r="B178" t="s">
-        <v>129</v>
-      </c>
-      <c r="C178" t="s">
-        <v>142</v>
-      </c>
-      <c r="D178" t="s">
-        <v>143</v>
-      </c>
-      <c r="E178" t="s">
-        <v>144</v>
-      </c>
-      <c r="F178">
-        <v>28219110</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>128</v>
       </c>
@@ -6104,19 +6238,19 @@
         <v>129</v>
       </c>
       <c r="C179" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D179" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E179" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F179">
-        <v>28219112</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28219110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>128</v>
       </c>
@@ -6124,19 +6258,19 @@
         <v>129</v>
       </c>
       <c r="C180" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D180" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E180" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F180">
-        <v>28219114</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28219112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>128</v>
       </c>
@@ -6144,19 +6278,19 @@
         <v>129</v>
       </c>
       <c r="C181" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D181" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E181" t="s">
-        <v>667</v>
+        <v>138</v>
       </c>
       <c r="F181">
-        <v>28219116</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28219114</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>128</v>
       </c>
@@ -6164,19 +6298,19 @@
         <v>129</v>
       </c>
       <c r="C182" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D182" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E182" t="s">
-        <v>135</v>
+        <v>667</v>
       </c>
       <c r="F182">
-        <v>28219118</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28219116</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -6184,19 +6318,19 @@
         <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>424</v>
+        <v>133</v>
       </c>
       <c r="D183" t="s">
-        <v>425</v>
+        <v>134</v>
       </c>
       <c r="E183" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F183">
-        <v>28219120</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28219118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -6204,39 +6338,39 @@
         <v>129</v>
       </c>
       <c r="C184" t="s">
+        <v>424</v>
+      </c>
+      <c r="D184" t="s">
+        <v>425</v>
+      </c>
+      <c r="E184" t="s">
+        <v>145</v>
+      </c>
+      <c r="F184">
+        <v>28219120</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>128</v>
+      </c>
+      <c r="B185" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" t="s">
         <v>488</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>489</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E185" t="s">
         <v>141</v>
       </c>
-      <c r="F184">
+      <c r="F185">
         <v>28219122</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>126</v>
-      </c>
-      <c r="B185" t="s">
-        <v>127</v>
-      </c>
-      <c r="C185" t="s">
-        <v>101</v>
-      </c>
-      <c r="D185" t="s">
-        <v>102</v>
-      </c>
-      <c r="E185" t="s">
-        <v>103</v>
-      </c>
-      <c r="F185">
-        <v>34002877</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>126</v>
       </c>
@@ -6244,19 +6378,19 @@
         <v>127</v>
       </c>
       <c r="C186" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D186" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E186" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F186">
-        <v>34002880</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34002877</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>126</v>
       </c>
@@ -6264,19 +6398,19 @@
         <v>127</v>
       </c>
       <c r="C187" t="s">
-        <v>422</v>
+        <v>98</v>
       </c>
       <c r="D187" t="s">
-        <v>492</v>
+        <v>99</v>
       </c>
       <c r="E187" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F187">
-        <v>34002882</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34002880</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -6284,19 +6418,19 @@
         <v>127</v>
       </c>
       <c r="C188" t="s">
-        <v>91</v>
+        <v>422</v>
       </c>
       <c r="D188" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="E188" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F188">
-        <v>34002885</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34002882</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -6304,19 +6438,19 @@
         <v>127</v>
       </c>
       <c r="C189" t="s">
-        <v>575</v>
+        <v>91</v>
       </c>
       <c r="D189" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E189" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F189">
-        <v>34002886</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34002885</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>126</v>
       </c>
@@ -6324,19 +6458,19 @@
         <v>127</v>
       </c>
       <c r="C190" t="s">
-        <v>424</v>
+        <v>575</v>
       </c>
       <c r="D190" t="s">
-        <v>554</v>
+        <v>96</v>
       </c>
       <c r="E190" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F190">
-        <v>34002887</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34002886</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>126</v>
       </c>
@@ -6344,19 +6478,19 @@
         <v>127</v>
       </c>
       <c r="C191" t="s">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="D191" t="s">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="E191" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F191">
-        <v>34002871</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34002887</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>126</v>
       </c>
@@ -6364,39 +6498,39 @@
         <v>127</v>
       </c>
       <c r="C192" t="s">
+        <v>78</v>
+      </c>
+      <c r="D192" t="s">
+        <v>79</v>
+      </c>
+      <c r="E192" t="s">
+        <v>80</v>
+      </c>
+      <c r="F192">
+        <v>34002871</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193" t="s">
+        <v>127</v>
+      </c>
+      <c r="C193" t="s">
         <v>428</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>555</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E193" t="s">
         <v>50</v>
       </c>
-      <c r="F192">
+      <c r="F193">
         <v>34002873</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>107</v>
-      </c>
-      <c r="B193" t="s">
-        <v>108</v>
-      </c>
-      <c r="C193" t="s">
-        <v>120</v>
-      </c>
-      <c r="D193" t="s">
-        <v>121</v>
-      </c>
-      <c r="E193" t="s">
-        <v>122</v>
-      </c>
-      <c r="F193">
-        <v>33991784</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>107</v>
       </c>
@@ -6404,19 +6538,19 @@
         <v>108</v>
       </c>
       <c r="C194" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D194" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E194" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F194">
-        <v>33991807</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33991784</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>107</v>
       </c>
@@ -6424,19 +6558,19 @@
         <v>108</v>
       </c>
       <c r="C195" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D195" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E195" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F195">
-        <v>33991810</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33991807</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>107</v>
       </c>
@@ -6444,19 +6578,19 @@
         <v>108</v>
       </c>
       <c r="C196" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D196" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="E196" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F196">
-        <v>33991812</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33991810</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>107</v>
       </c>
@@ -6464,19 +6598,19 @@
         <v>108</v>
       </c>
       <c r="C197" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D197" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E197" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F197">
-        <v>34003789</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33991812</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>107</v>
       </c>
@@ -6484,19 +6618,19 @@
         <v>108</v>
       </c>
       <c r="C198" t="s">
-        <v>490</v>
+        <v>114</v>
       </c>
       <c r="D198" t="s">
-        <v>491</v>
+        <v>115</v>
       </c>
       <c r="E198" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F198">
-        <v>34003791</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34003789</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>107</v>
       </c>
@@ -6504,39 +6638,39 @@
         <v>108</v>
       </c>
       <c r="C199" t="s">
+        <v>490</v>
+      </c>
+      <c r="D199" t="s">
+        <v>491</v>
+      </c>
+      <c r="E199" t="s">
+        <v>109</v>
+      </c>
+      <c r="F199">
+        <v>34003791</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>107</v>
+      </c>
+      <c r="B200" t="s">
+        <v>108</v>
+      </c>
+      <c r="C200" t="s">
         <v>111</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D200" t="s">
         <v>112</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E200" t="s">
         <v>113</v>
       </c>
-      <c r="F199">
+      <c r="F200">
         <v>34003794</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>74</v>
-      </c>
-      <c r="B200" t="s">
-        <v>75</v>
-      </c>
-      <c r="C200" t="s">
-        <v>429</v>
-      </c>
-      <c r="D200" t="s">
-        <v>556</v>
-      </c>
-      <c r="E200" t="s">
-        <v>76</v>
-      </c>
-      <c r="F200">
-        <v>561307021</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>74</v>
       </c>
@@ -6544,39 +6678,39 @@
         <v>75</v>
       </c>
       <c r="C201" t="s">
+        <v>429</v>
+      </c>
+      <c r="D201" t="s">
+        <v>556</v>
+      </c>
+      <c r="E201" t="s">
+        <v>76</v>
+      </c>
+      <c r="F201">
+        <v>561307021</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>74</v>
+      </c>
+      <c r="B202" t="s">
+        <v>75</v>
+      </c>
+      <c r="C202" t="s">
         <v>432</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D202" t="s">
         <v>557</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E202" t="s">
         <v>104</v>
       </c>
-      <c r="F201">
+      <c r="F202">
         <v>561307037</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>55</v>
-      </c>
-      <c r="B202" t="s">
-        <v>56</v>
-      </c>
-      <c r="C202" t="s">
-        <v>57</v>
-      </c>
-      <c r="D202" t="s">
-        <v>58</v>
-      </c>
-      <c r="E202" t="s">
-        <v>59</v>
-      </c>
-      <c r="F202">
-        <v>477215246</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>55</v>
       </c>
@@ -6584,19 +6718,19 @@
         <v>56</v>
       </c>
       <c r="C203" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D203" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E203" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F203">
-        <v>477215248</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>477215246</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>55</v>
       </c>
@@ -6604,19 +6738,19 @@
         <v>56</v>
       </c>
       <c r="C204" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D204" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E204" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F204">
-        <v>477215250</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>477215248</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>55</v>
       </c>
@@ -6624,19 +6758,19 @@
         <v>56</v>
       </c>
       <c r="C205" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D205" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E205" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F205">
-        <v>497463990</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>477215250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>55</v>
       </c>
@@ -6644,19 +6778,19 @@
         <v>56</v>
       </c>
       <c r="C206" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D206" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E206" t="s">
-        <v>668</v>
+        <v>73</v>
       </c>
       <c r="F206">
-        <v>497463992</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>497463990</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>55</v>
       </c>
@@ -6664,19 +6798,19 @@
         <v>56</v>
       </c>
       <c r="C207" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D207" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E207" t="s">
-        <v>70</v>
+        <v>668</v>
       </c>
       <c r="F207">
-        <v>497463994</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>497463992</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>55</v>
       </c>
@@ -6684,39 +6818,39 @@
         <v>56</v>
       </c>
       <c r="C208" t="s">
-        <v>493</v>
+        <v>68</v>
       </c>
       <c r="D208" t="s">
-        <v>552</v>
+        <v>69</v>
       </c>
       <c r="E208" t="s">
         <v>70</v>
       </c>
       <c r="F208">
+        <v>497463994</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>55</v>
+      </c>
+      <c r="B209" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" t="s">
+        <v>493</v>
+      </c>
+      <c r="D209" t="s">
+        <v>552</v>
+      </c>
+      <c r="E209" t="s">
+        <v>70</v>
+      </c>
+      <c r="F209">
         <v>497463996</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>46</v>
-      </c>
-      <c r="B209" t="s">
-        <v>47</v>
-      </c>
-      <c r="C209" t="s">
-        <v>653</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E209" t="s">
-        <v>50</v>
-      </c>
-      <c r="F209">
-        <v>1300452648</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>46</v>
       </c>
@@ -6724,19 +6858,19 @@
         <v>47</v>
       </c>
       <c r="C210" t="s">
-        <v>48</v>
-      </c>
-      <c r="D210" t="s">
-        <v>49</v>
+        <v>653</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="E210" t="s">
         <v>50</v>
       </c>
       <c r="F210">
-        <v>1300423634</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1300452648</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>46</v>
       </c>
@@ -6744,19 +6878,19 @@
         <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D211" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E211" t="s">
         <v>50</v>
       </c>
       <c r="F211">
-        <v>1300452649</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1300423634</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>46</v>
       </c>
@@ -6764,39 +6898,39 @@
         <v>47</v>
       </c>
       <c r="C212" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D212" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E212" t="s">
         <v>50</v>
       </c>
       <c r="F212">
+        <v>1300452649</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>46</v>
+      </c>
+      <c r="B213" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" t="s">
+        <v>53</v>
+      </c>
+      <c r="D213" t="s">
+        <v>54</v>
+      </c>
+      <c r="E213" t="s">
+        <v>50</v>
+      </c>
+      <c r="F213">
         <v>1300595620</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>29</v>
-      </c>
-      <c r="B213" t="s">
-        <v>30</v>
-      </c>
-      <c r="C213" t="s">
-        <v>36</v>
-      </c>
-      <c r="D213" t="s">
-        <v>37</v>
-      </c>
-      <c r="E213" t="s">
-        <v>38</v>
-      </c>
-      <c r="F213">
-        <v>1381562764</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>29</v>
       </c>
@@ -6804,19 +6938,19 @@
         <v>30</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D214" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E214" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F214">
-        <v>1381564337</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1381562764</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>29</v>
       </c>
@@ -6824,19 +6958,19 @@
         <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D215" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E215" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F215">
-        <v>1381562765</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1381564337</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>29</v>
       </c>
@@ -6844,19 +6978,19 @@
         <v>30</v>
       </c>
       <c r="C216" t="s">
-        <v>494</v>
+        <v>39</v>
       </c>
       <c r="D216" t="s">
-        <v>495</v>
+        <v>40</v>
       </c>
       <c r="E216" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F216">
-        <v>1384324154</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1381562765</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>29</v>
       </c>
@@ -6864,19 +6998,19 @@
         <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
       <c r="D217" t="s">
-        <v>43</v>
+        <v>495</v>
       </c>
       <c r="E217" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F217">
-        <v>1384324156</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1384324154</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -6884,19 +7018,19 @@
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>496</v>
+        <v>42</v>
       </c>
       <c r="D218" t="s">
-        <v>497</v>
+        <v>43</v>
       </c>
       <c r="E218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F218">
-        <v>1384318412</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1384324156</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>29</v>
       </c>
@@ -6904,775 +7038,1015 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
+        <v>496</v>
+      </c>
+      <c r="D219" t="s">
+        <v>497</v>
+      </c>
+      <c r="E219" t="s">
+        <v>45</v>
+      </c>
+      <c r="F219">
+        <v>1384318412</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>29</v>
+      </c>
+      <c r="B220" t="s">
+        <v>30</v>
+      </c>
+      <c r="C220" t="s">
         <v>498</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D220" t="s">
         <v>499</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E220" t="s">
         <v>32</v>
       </c>
-      <c r="F219">
+      <c r="F220">
         <v>1384324244</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>516</v>
-      </c>
-      <c r="B220" t="s">
-        <v>5</v>
-      </c>
-      <c r="C220" t="s">
-        <v>14</v>
-      </c>
-      <c r="D220" t="s">
-        <v>15</v>
-      </c>
-      <c r="E220" t="s">
-        <v>16</v>
-      </c>
-      <c r="F220">
-        <v>30854133</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>516</v>
+        <v>675</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>676</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
-      </c>
-      <c r="D221" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" t="s">
-        <v>19</v>
-      </c>
-      <c r="F221">
-        <v>30854134</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1834325747</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>516</v>
+        <v>675</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>676</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" t="s">
-        <v>12</v>
-      </c>
-      <c r="F222">
-        <v>30854137</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F222" s="1">
+        <v>1834325745</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>676</v>
       </c>
       <c r="C223" t="s">
-        <v>500</v>
-      </c>
-      <c r="D223" t="s">
-        <v>501</v>
-      </c>
-      <c r="E223" t="s">
-        <v>13</v>
-      </c>
-      <c r="F223">
-        <v>30854138</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F223" s="1">
+        <v>1834325746</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>676</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
-      </c>
-      <c r="D224" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224">
-        <v>30854142</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F224" s="1">
+        <v>1843965684</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>676</v>
       </c>
       <c r="C225" t="s">
-        <v>502</v>
-      </c>
-      <c r="D225" t="s">
-        <v>503</v>
-      </c>
-      <c r="E225" t="s">
-        <v>20</v>
-      </c>
-      <c r="F225">
-        <v>30854146</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F225" s="1">
+        <v>1843965686</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>676</v>
       </c>
       <c r="C226" t="s">
-        <v>417</v>
-      </c>
-      <c r="D226" t="s">
-        <v>418</v>
-      </c>
-      <c r="E226" t="s">
-        <v>9</v>
-      </c>
-      <c r="F226">
-        <v>30854151</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F226" s="1">
+        <v>1843965688</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B227" t="s">
-        <v>21</v>
+        <v>676</v>
       </c>
       <c r="C227" t="s">
-        <v>504</v>
-      </c>
-      <c r="D227" t="s">
-        <v>505</v>
-      </c>
-      <c r="E227" t="s">
-        <v>22</v>
-      </c>
-      <c r="F227">
-        <v>30854182</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F227" s="1">
+        <v>1843965690</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B228" t="s">
-        <v>21</v>
+        <v>676</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
-      </c>
-      <c r="D228" t="s">
-        <v>24</v>
-      </c>
-      <c r="E228" t="s">
-        <v>12</v>
-      </c>
-      <c r="F228">
-        <v>30854183</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1843961276</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B229" t="s">
-        <v>21</v>
+        <v>676</v>
       </c>
       <c r="C229" t="s">
-        <v>506</v>
-      </c>
-      <c r="D229" t="s">
-        <v>507</v>
-      </c>
-      <c r="E229" t="s">
-        <v>19</v>
-      </c>
-      <c r="F229">
-        <v>30854184</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F229" s="1">
+        <v>1843965685</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B230" t="s">
-        <v>21</v>
+        <v>676</v>
       </c>
       <c r="C230" t="s">
-        <v>508</v>
-      </c>
-      <c r="D230" t="s">
-        <v>508</v>
-      </c>
-      <c r="E230" t="s">
-        <v>16</v>
+        <v>705</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="F230">
-        <v>30854185</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1843965687</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B231" t="s">
-        <v>21</v>
+        <v>676</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" t="s">
-        <v>26</v>
-      </c>
-      <c r="E231" t="s">
-        <v>13</v>
+        <v>707</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="F231">
-        <v>30854188</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1843965689</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>516</v>
       </c>
       <c r="B232" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>577</v>
+        <v>14</v>
       </c>
       <c r="D232" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F232">
-        <v>30854186</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30854133</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>516</v>
       </c>
       <c r="B233" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>509</v>
+        <v>17</v>
       </c>
       <c r="D233" t="s">
-        <v>510</v>
+        <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F233">
-        <v>30854187</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30854134</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>516</v>
       </c>
       <c r="B234" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="D234" t="s">
-        <v>512</v>
+        <v>11</v>
       </c>
       <c r="E234" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F234">
-        <v>30854189</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30854137</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>516</v>
       </c>
       <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>500</v>
+      </c>
+      <c r="D235" t="s">
+        <v>501</v>
+      </c>
+      <c r="E235" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235">
+        <v>30854138</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>516</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236">
+        <v>30854142</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>516</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>502</v>
+      </c>
+      <c r="D237" t="s">
+        <v>503</v>
+      </c>
+      <c r="E237" t="s">
+        <v>20</v>
+      </c>
+      <c r="F237">
+        <v>30854146</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>516</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>417</v>
+      </c>
+      <c r="D238" t="s">
+        <v>418</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238">
+        <v>30854151</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>516</v>
+      </c>
+      <c r="B239" t="s">
         <v>21</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C239" t="s">
+        <v>504</v>
+      </c>
+      <c r="D239" t="s">
+        <v>505</v>
+      </c>
+      <c r="E239" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239">
+        <v>30854182</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>516</v>
+      </c>
+      <c r="B240" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240" t="s">
+        <v>24</v>
+      </c>
+      <c r="D240" t="s">
+        <v>24</v>
+      </c>
+      <c r="E240" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240">
+        <v>30854183</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>516</v>
+      </c>
+      <c r="B241" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241" t="s">
+        <v>506</v>
+      </c>
+      <c r="D241" t="s">
+        <v>507</v>
+      </c>
+      <c r="E241" t="s">
+        <v>19</v>
+      </c>
+      <c r="F241">
+        <v>30854184</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>516</v>
+      </c>
+      <c r="B242" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242" t="s">
+        <v>508</v>
+      </c>
+      <c r="D242" t="s">
+        <v>508</v>
+      </c>
+      <c r="E242" t="s">
+        <v>16</v>
+      </c>
+      <c r="F242">
+        <v>30854185</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>516</v>
+      </c>
+      <c r="B243" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" t="s">
+        <v>26</v>
+      </c>
+      <c r="E243" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243">
+        <v>30854188</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>516</v>
+      </c>
+      <c r="B244" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244" t="s">
+        <v>577</v>
+      </c>
+      <c r="D244" t="s">
+        <v>577</v>
+      </c>
+      <c r="E244" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244">
+        <v>30854186</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>516</v>
+      </c>
+      <c r="B245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" t="s">
+        <v>509</v>
+      </c>
+      <c r="D245" t="s">
+        <v>510</v>
+      </c>
+      <c r="E245" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245">
+        <v>30854187</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>516</v>
+      </c>
+      <c r="B246" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246" t="s">
+        <v>511</v>
+      </c>
+      <c r="D246" t="s">
+        <v>512</v>
+      </c>
+      <c r="E246" t="s">
+        <v>28</v>
+      </c>
+      <c r="F246">
+        <v>30854189</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>516</v>
+      </c>
+      <c r="B247" t="s">
+        <v>21</v>
+      </c>
+      <c r="C247" t="s">
         <v>513</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D247" t="s">
         <v>514</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E247" t="s">
         <v>27</v>
       </c>
-      <c r="F235">
+      <c r="F247">
         <v>30854190</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>584</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B248" t="s">
         <v>585</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C248" t="s">
         <v>639</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D248" t="s">
         <v>638</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E248" t="s">
         <v>591</v>
       </c>
-      <c r="F236">
+      <c r="F248">
         <v>29715584</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>584</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B249" t="s">
         <v>585</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C249" t="s">
         <v>592</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D249" t="s">
         <v>586</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E249" t="s">
         <v>591</v>
       </c>
-      <c r="F237" s="1">
+      <c r="F249" s="1">
         <v>29715585</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>584</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B250" t="s">
         <v>585</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C250" t="s">
         <v>593</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D250" t="s">
         <v>587</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E250" t="s">
         <v>591</v>
       </c>
-      <c r="F238" s="1">
+      <c r="F250" s="1">
         <v>29715586</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>637</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B251" t="s">
         <v>585</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C251" t="s">
         <v>594</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D251" t="s">
         <v>588</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E251" t="s">
         <v>591</v>
       </c>
-      <c r="F239">
+      <c r="F251">
         <v>29715587</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>637</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B252" t="s">
         <v>585</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C252" t="s">
         <v>595</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D252" t="s">
         <v>589</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E252" t="s">
         <v>591</v>
       </c>
-      <c r="F240">
+      <c r="F252">
         <v>29715588</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>637</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B253" t="s">
         <v>585</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C253" t="s">
         <v>625</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D253" t="s">
         <v>590</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E253" t="s">
         <v>596</v>
       </c>
-      <c r="F241">
+      <c r="F253">
         <v>29715589</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>598</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B254" t="s">
         <v>599</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C254" t="s">
         <v>601</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D254" t="s">
         <v>600</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E254" t="s">
         <v>602</v>
       </c>
-      <c r="F242">
+      <c r="F254">
         <v>29710956</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>605</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B255" t="s">
         <v>604</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C255" t="s">
         <v>608</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D255" t="s">
         <v>606</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E255" t="s">
         <v>607</v>
       </c>
-      <c r="F243">
+      <c r="F255">
         <v>468513480</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>605</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B256" t="s">
         <v>621</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C256" t="s">
         <v>610</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D256" t="s">
         <v>609</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E256" t="s">
         <v>618</v>
       </c>
-      <c r="F244">
+      <c r="F256">
         <v>29710940</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>605</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B257" t="s">
         <v>621</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C257" t="s">
         <v>611</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D257" t="s">
         <v>612</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E257" t="s">
         <v>619</v>
       </c>
-      <c r="F245">
+      <c r="F257">
         <v>29710941</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>605</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B258" t="s">
         <v>621</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C258" t="s">
         <v>614</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D258" t="s">
         <v>613</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E258" t="s">
         <v>620</v>
       </c>
-      <c r="F246">
+      <c r="F258">
         <v>29710942</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>622</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B259" t="s">
         <v>623</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C259" t="s">
         <v>626</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D259" t="s">
         <v>624</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E259" t="s">
         <v>627</v>
       </c>
-      <c r="F247">
+      <c r="F259">
         <v>29710959</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>628</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B260" t="s">
         <v>631</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C260" t="s">
         <v>629</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D260" t="s">
         <v>630</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E260" t="s">
         <v>632</v>
       </c>
-      <c r="F248">
+      <c r="F260">
         <v>22765949</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>628</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B261" t="s">
         <v>633</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C261" t="s">
         <v>635</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D261" t="s">
         <v>634</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E261" t="s">
         <v>636</v>
       </c>
-      <c r="F249">
+      <c r="F261">
         <v>22766029</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>628</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B262" t="s">
         <v>633</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C262" t="s">
         <v>656</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D262" t="s">
         <v>657</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E262" t="s">
         <v>660</v>
       </c>
-      <c r="F250">
+      <c r="F262">
         <v>22766028</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>628</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B263" t="s">
         <v>633</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C263" t="s">
         <v>659</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D263" t="s">
         <v>658</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E263" t="s">
         <v>660</v>
       </c>
-      <c r="F251">
+      <c r="F263">
         <v>22766019</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>640</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B264" t="s">
         <v>641</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C264" t="s">
         <v>643</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D264" t="s">
         <v>642</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E264" t="s">
         <v>652</v>
       </c>
-      <c r="F252" s="1">
+      <c r="F264" s="1">
         <v>28941725</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>640</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B265" t="s">
         <v>641</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D265" t="s">
         <v>644</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E265" t="s">
         <v>652</v>
       </c>
-      <c r="F253" s="1">
+      <c r="F265" s="1">
         <v>28941726</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>640</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B266" t="s">
         <v>641</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D266" t="s">
         <v>646</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E266" t="s">
         <v>652</v>
       </c>
-      <c r="F254" s="1">
+      <c r="F266" s="1">
         <v>28941727</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>640</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B267" t="s">
         <v>641</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D267" t="s">
         <v>648</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E267" t="s">
         <v>652</v>
       </c>
-      <c r="F255" s="1">
+      <c r="F267" s="1">
         <v>28941728</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>640</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B268" t="s">
         <v>641</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D268" t="s">
         <v>650</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E268" t="s">
         <v>652</v>
       </c>
-      <c r="F256" s="1">
+      <c r="F268" s="1">
         <v>28941729</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>669</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B269" t="s">
         <v>670</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C269" t="s">
         <v>673</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F257" s="1">
+      <c r="F269" s="1">
         <v>29710961</v>
       </c>
     </row>
